--- a/04_XV-seq/XV-seq_overview.xlsx
+++ b/04_XV-seq/XV-seq_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/Github/4_XV-seq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/scBPDCN-analysis/04_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648CEA0-8A0A-0C4A-8FE1-6C0BEE33FF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742AC00B-A150-F748-AE50-EA090551ED77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="740" windowWidth="28660" windowHeight="24100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XV-seq_overview" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="242">
   <si>
     <t>Sample</t>
   </si>
@@ -746,6 +746,18 @@
   </si>
   <si>
     <t>Pt1Rem/SETX.10691/Patient1Rem_SETX.10691_summTable.txt</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>UV-associated (C&gt;T)</t>
+  </si>
+  <si>
+    <t>UV-associated (TC&gt;TT or CC&gt;TT)</t>
   </si>
 </sst>
 </file>
@@ -914,7 +926,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,6 +1112,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1279,7 +1297,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1350,6 +1368,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1746,11 +1768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7:L11"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1758,19 +1780,19 @@
     <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18" style="5" customWidth="1"/>
-    <col min="10" max="10" width="85.83203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16" style="32" customWidth="1"/>
-    <col min="12" max="12" width="61.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="5"/>
+    <col min="4" max="6" width="14.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="69.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18" style="5" customWidth="1"/>
+    <col min="12" max="12" width="85.83203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="16" style="32" customWidth="1"/>
+    <col min="14" max="14" width="61.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1784,31 +1806,37 @@
         <v>227</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1821,30 +1849,32 @@
       <c r="D2" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="4">
         <v>1.01091791346542</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="25">
+      <c r="M2" s="25">
         <v>6415</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1857,30 +1887,32 @@
       <c r="D3" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="4">
         <v>0.242620299231702</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="L3" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="25">
+      <c r="M3" s="25">
         <v>2555</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1893,32 +1925,36 @@
       <c r="D4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="4">
         <v>2.9518803073190401</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="L4" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="K4" s="25">
+      <c r="M4" s="25">
         <v>225</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1931,32 +1967,36 @@
       <c r="D5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="4">
         <v>6.0250707642539396</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="L5" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="K5" s="26">
+      <c r="M5" s="26">
         <v>324</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
@@ -1969,32 +2009,36 @@
       <c r="D6" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="9">
         <v>4.5693489688637197</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="L6" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="K6" s="27">
+      <c r="M6" s="27">
         <v>120</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>232</v>
       </c>
@@ -2007,30 +2051,32 @@
       <c r="D7" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="4">
         <v>1.0861132660977499</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>232</v>
       </c>
@@ -2043,30 +2089,32 @@
       <c r="D8" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="4">
         <v>0.28122575640031</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="29" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>232</v>
       </c>
@@ -2079,32 +2127,36 @@
       <c r="D9" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="4">
         <v>2.4825446082234199</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K9" s="29" t="s">
+      <c r="J9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>232</v>
       </c>
@@ -2117,32 +2169,36 @@
       <c r="D10" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="4">
         <v>6.5554693560899899</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" s="29" t="s">
+      <c r="J10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>232</v>
       </c>
@@ -2155,32 +2211,36 @@
       <c r="D11" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="9">
         <v>4.4511249030256002</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K11" s="30" t="s">
+      <c r="J11" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>139</v>
       </c>
       <c r="L11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -2193,30 +2253,32 @@
       <c r="D12" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="4">
         <v>4.2702050663449898</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="20" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="L12" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="K12" s="25">
+      <c r="M12" s="25">
         <v>8449</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -2229,30 +2291,32 @@
       <c r="D13" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="4">
         <v>5.4764776839565696</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="20" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="L13" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="K13" s="25">
+      <c r="M13" s="25">
         <v>5109</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
@@ -2265,30 +2329,32 @@
       <c r="D14" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="9">
         <v>5.9831121833534304</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="8"/>
+      <c r="K14" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="L14" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="K14" s="27">
+      <c r="M14" s="27">
         <v>942</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -2301,32 +2367,34 @@
       <c r="D15" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="4">
         <v>9.8609904430929607</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="K15" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="L15" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="K15" s="31">
+      <c r="M15" s="31">
         <v>5002</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2339,32 +2407,34 @@
       <c r="D16" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="4">
         <v>3.8444830582102498</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="K16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="L16" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="K16" s="26">
+      <c r="M16" s="26">
         <v>4701</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
@@ -2377,32 +2447,34 @@
       <c r="D17" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="9">
         <v>1.62901824500434</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="I17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="K17" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="L17" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="K17" s="27">
+      <c r="M17" s="27">
         <v>11002</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2415,32 +2487,36 @@
       <c r="D18" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="11">
         <v>1.22699386503067</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K18" s="29">
+      <c r="M18" s="29">
         <v>6953</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2453,32 +2529,36 @@
       <c r="D19" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="11">
         <v>1.0686720759944499</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K19" s="29">
+      <c r="M19" s="29">
         <v>6215</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2491,32 +2571,34 @@
       <c r="D20" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="11">
         <v>1.1379378586978</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="29">
+      <c r="M20" s="29">
         <v>5667</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="N20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2529,32 +2611,34 @@
       <c r="D21" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="11">
         <v>1.88007124480506</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K21" s="29">
+      <c r="M21" s="29">
         <v>5189</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="N21" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -2567,32 +2651,36 @@
       <c r="D22" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="11">
         <v>27.646942410449199</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="K22" s="32">
+      <c r="M22" s="32">
         <v>6681</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="N22" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -2605,29 +2693,31 @@
       <c r="D23" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="11">
         <v>0.41559469622006701</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="L23" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K23" s="32">
+      <c r="M23" s="32">
         <v>2760</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="N23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -2640,32 +2730,34 @@
       <c r="D24" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="11">
         <v>9.8357411438749196</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="32">
+      <c r="M24" s="32">
         <v>2622</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="N24" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -2678,32 +2770,34 @@
       <c r="D25" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="11">
         <v>0.24737779536908699</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="I25" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="L25" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="32">
+      <c r="M25" s="32">
         <v>1515</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="N25" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -2716,32 +2810,36 @@
       <c r="D26" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="11">
         <v>6.1844448842271902</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="I26" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K26" s="32">
+      <c r="M26" s="32">
         <v>1454</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="N26" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -2754,32 +2852,36 @@
       <c r="D27" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="11">
         <v>1.20720364140114</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="K27" s="32">
+      <c r="M27" s="32">
         <v>2090</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="N27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -2792,32 +2894,36 @@
       <c r="D28" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="11">
         <v>13.2000791608945</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="K28" s="32">
+      <c r="M28" s="32">
         <v>1816</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="N28" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>37</v>
       </c>
@@ -2829,15 +2935,17 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="16" t="s">
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
@@ -2849,15 +2957,17 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="16" t="s">
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>37</v>
       </c>
@@ -2869,15 +2979,17 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="18" t="s">
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
@@ -2889,15 +3001,17 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="18" t="s">
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -2910,32 +3024,34 @@
       <c r="D33" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="4">
         <v>35.751038986740497</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="I33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K33" s="29">
+      <c r="M33" s="29">
         <v>350</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -2948,32 +3064,34 @@
       <c r="D34" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="4">
         <v>98.990698594894099</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="I34" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K34" s="7">
+      <c r="M34" s="7">
         <v>421</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -2986,32 +3104,34 @@
       <c r="D35" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="4">
         <v>4.8288145656045902</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="I35" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="J35" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K35" s="7">
+      <c r="M35" s="7">
         <v>3296</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
@@ -3024,32 +3144,34 @@
       <c r="D36" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="9">
         <v>0.77181872155155296</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="J36" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="K36" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="L36" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="K36" s="10">
+      <c r="M36" s="10">
         <v>1824</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="N36" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -3062,32 +3184,36 @@
       <c r="D37" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="36"/>
+      <c r="G37" s="4">
         <v>2.6940517471325598</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="J37" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K37" s="29" t="s">
+      <c r="K37" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N37" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
@@ -3100,32 +3226,36 @@
       <c r="D38" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="4">
         <v>3.3208855694851902</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="J38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K38" s="29" t="s">
+      <c r="K38" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>23</v>
       </c>
@@ -3138,32 +3268,34 @@
       <c r="D39" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="4">
         <v>3.0808215524139699</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="J39" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K39" s="29" t="s">
+      <c r="K39" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N39" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -3176,32 +3308,34 @@
       <c r="D40" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="4">
         <v>5.1347025873566201</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="J40" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K40" s="29" t="s">
+      <c r="K40" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
@@ -3214,32 +3348,36 @@
       <c r="D41" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="4">
         <v>29.6345692184582</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K41" s="29" t="s">
+      <c r="K41" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N41" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
@@ -3252,30 +3390,32 @@
       <c r="D42" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="4">
         <v>0.89357161909842597</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K42" s="29" t="s">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>23</v>
       </c>
@@ -3288,32 +3428,34 @@
       <c r="D43" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="4">
         <v>10.282742064550501</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="I43" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K43" s="29" t="s">
+      <c r="K43" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -3326,32 +3468,34 @@
       <c r="D44" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="4">
         <v>0.25340090690850797</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="I44" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K44" s="29" t="s">
+      <c r="K44" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>23</v>
       </c>
@@ -3364,32 +3508,36 @@
       <c r="D45" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="4">
         <v>20.085356094958598</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="I45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K45" s="29" t="s">
+      <c r="K45" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
@@ -3402,32 +3550,36 @@
       <c r="D46" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="4">
         <v>2.8007468658308801</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="I46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K46" s="29" t="s">
+      <c r="K46" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
@@ -3440,32 +3592,36 @@
       <c r="D47" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="4">
         <v>28.540944251800401</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="I47" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K47" s="29" t="s">
+      <c r="K47" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>23</v>
       </c>
@@ -3473,19 +3629,21 @@
       <c r="C48" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="19"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="18" t="s">
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>23</v>
       </c>
@@ -3493,19 +3651,21 @@
       <c r="C49" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="19"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="18" t="s">
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>23</v>
       </c>
@@ -3517,15 +3677,17 @@
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
       <c r="J50" s="18"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="18" t="s">
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>23</v>
       </c>
@@ -3537,15 +3699,17 @@
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
       <c r="J51" s="18"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="18" t="s">
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
         <v>23</v>
       </c>
@@ -3558,32 +3722,34 @@
       <c r="D52" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="9">
         <v>37.623366230994897</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="H52" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="I52" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H52" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="J52" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="K52" s="30" t="s">
+      <c r="K52" s="8" t="s">
         <v>139</v>
       </c>
       <c r="L52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M52" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="N52" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -3596,30 +3762,32 @@
       <c r="D53" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="4">
         <v>0.39347129116875501</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6" t="s">
+      <c r="J53" s="6"/>
+      <c r="K53" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="L53" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K53" s="6">
+      <c r="M53" s="6">
         <v>4684</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -3632,32 +3800,34 @@
       <c r="D54" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="4">
         <v>8.7438064704167803E-2</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="J54" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="K54" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="L54" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="M54" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -3670,32 +3840,34 @@
       <c r="D55" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="4">
         <v>1.50102011075488</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="J55" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="K55" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="L55" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="K55" s="6">
+      <c r="M55" s="6">
         <v>527</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>57</v>
       </c>
@@ -3708,32 +3880,34 @@
       <c r="D56" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="9">
         <v>2.7980180705333701</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="H56" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="I56" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="L56" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="K56" s="10">
+      <c r="M56" s="10">
         <v>2572</v>
       </c>
-      <c r="L56" s="8" t="s">
+      <c r="N56" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -3746,30 +3920,32 @@
       <c r="D57" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="4">
         <v>22.822201317027201</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="K57" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L57" s="3" t="s">
+      <c r="J57" s="3"/>
+      <c r="K57" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M57" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="N57" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -3782,32 +3958,34 @@
       <c r="D58" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="4">
         <v>11.0253998118532</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K58" s="29" t="s">
+      <c r="K58" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -3820,32 +3998,34 @@
       <c r="D59" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="4">
         <v>8.5042333019755407</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K59" s="29" t="s">
+      <c r="K59" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M59" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N59" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
@@ -3858,32 +4038,34 @@
       <c r="D60" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="9">
         <v>8.4101599247412899</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="H60" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="I60" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H60" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="J60" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="K60" s="30" t="s">
+      <c r="K60" s="8" t="s">
         <v>139</v>
       </c>
       <c r="L60" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M60" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="N60" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>94</v>
       </c>
@@ -3896,30 +4078,32 @@
       <c r="D61" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="11">
         <v>5.9118644067796602</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="I61" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="5" t="s">
+      <c r="J61" s="3"/>
+      <c r="K61" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="J61" s="32" t="s">
+      <c r="L61" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="K61" s="5">
+      <c r="M61" s="5">
         <v>870</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>94</v>
       </c>
@@ -3932,30 +4116,32 @@
       <c r="D62" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="4">
         <v>9.6406779661016895</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="5" t="s">
+      <c r="J62" s="3"/>
+      <c r="K62" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J62" s="32" t="s">
+      <c r="L62" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="K62" s="5">
+      <c r="M62" s="5">
         <v>2158</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
         <v>94</v>
       </c>
@@ -3968,30 +4154,32 @@
       <c r="D63" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="9">
         <v>40.786440677966098</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="H63" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="I63" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="J63" s="8"/>
+      <c r="K63" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="J63" s="30" t="s">
+      <c r="L63" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="K63" s="8">
+      <c r="M63" s="8">
         <v>1234</v>
       </c>
-      <c r="L63" s="8" t="s">
+      <c r="N63" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>95</v>
       </c>
@@ -4004,30 +4192,32 @@
       <c r="D64" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="11">
         <v>1.44092219020172</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="I64" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="32" t="s">
+      <c r="J64" s="3"/>
+      <c r="K64" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="J64" s="32" t="s">
+      <c r="L64" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="K64" s="5">
+      <c r="M64" s="5">
         <v>2249</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>95</v>
       </c>
@@ -4040,30 +4230,32 @@
       <c r="D65" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="11">
         <v>4.5533141210374604</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="I65" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="32" t="s">
+      <c r="J65" s="3"/>
+      <c r="K65" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="J65" s="32" t="s">
+      <c r="L65" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="K65" s="5">
+      <c r="M65" s="5">
         <v>4785</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="N65" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
         <v>95</v>
       </c>
@@ -4076,30 +4268,32 @@
       <c r="D66" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="9">
         <v>83.775216138328503</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="H66" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="I66" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="30" t="s">
+      <c r="J66" s="8"/>
+      <c r="K66" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="J66" s="30" t="s">
+      <c r="L66" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="K66" s="8">
+      <c r="M66" s="8">
         <v>805</v>
       </c>
-      <c r="L66" s="8" t="s">
+      <c r="N66" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>96</v>
       </c>
@@ -4112,30 +4306,32 @@
       <c r="D67" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="11">
         <v>1.57232704402515</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="I67" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="5" t="s">
+      <c r="J67" s="3"/>
+      <c r="K67" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="J67" s="32" t="s">
+      <c r="L67" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="K67" s="5">
+      <c r="M67" s="5">
         <v>2601</v>
       </c>
-      <c r="L67" s="5" t="s">
+      <c r="N67" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -4148,30 +4344,32 @@
       <c r="D68" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="4">
         <v>5.3009883198562404</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="5" t="s">
+      <c r="J68" s="3"/>
+      <c r="K68" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="J68" s="32" t="s">
+      <c r="L68" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="K68" s="5">
+      <c r="M68" s="5">
         <v>6953</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="N68" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
@@ -4184,30 +4382,32 @@
       <c r="D69" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="4">
         <v>4.8966756513926297</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3" t="s">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J69" s="29" t="s">
+      <c r="L69" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="K69" s="3">
+      <c r="M69" s="3">
         <v>6699</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="N69" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
         <v>96</v>
       </c>
@@ -4220,41 +4420,43 @@
       <c r="D70" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="9">
         <v>0.494159928122192</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="H70" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="I70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8" t="s">
+      <c r="J70" s="8"/>
+      <c r="K70" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J70" s="30" t="s">
+      <c r="L70" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="K70" s="8">
+      <c r="M70" s="8">
         <v>1137</v>
       </c>
-      <c r="L70" s="8" t="s">
+      <c r="N70" s="8" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="L58">
+  <conditionalFormatting sqref="N58">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
+  <conditionalFormatting sqref="N54">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
     <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L72:L1048576 C14 C12 C7 L1:L52 L57 L59:L65">
+  <conditionalFormatting sqref="N72:N1048576 C14 C12 C7 N1:N52 N57 N59:N65">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/04_XV-seq/XV-seq_overview.xlsx
+++ b/04_XV-seq/XV-seq_overview.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/scBPDCN-analysis/04_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742AC00B-A150-F748-AE50-EA090551ED77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E20708-9821-CC42-8C18-D8C973293D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="740" windowWidth="28660" windowHeight="24100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="5520" windowWidth="25840" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XV-seq_overview" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XV-seq_overview'!$A$1:$N$70</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="281">
   <si>
     <t>Sample</t>
   </si>
@@ -754,10 +757,127 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>UV-associated (C&gt;T)</t>
-  </si>
-  <si>
-    <t>UV-associated (TC&gt;TT or CC&gt;TT)</t>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>AAGCAAG&gt;AAGTAAG</t>
+  </si>
+  <si>
+    <t>ACTGCCG&gt;ACTCCG</t>
+  </si>
+  <si>
+    <t>AAGGGAC&gt;AAGAGAC</t>
+  </si>
+  <si>
+    <t>GCCCTGT&gt;GCCTTGT</t>
+  </si>
+  <si>
+    <t>TC&gt;TT (UV-associated)</t>
+  </si>
+  <si>
+    <t>CAGCCCC&gt;CAGCCC</t>
+  </si>
+  <si>
+    <t>CAGCAGC&gt;CAGTAGC</t>
+  </si>
+  <si>
+    <t>GAGCGAG&gt;GAGTGAG</t>
+  </si>
+  <si>
+    <t>GGAGGG&gt;GGAGGGG</t>
+  </si>
+  <si>
+    <t>CAGGAAC&gt;CAGCAAC</t>
+  </si>
+  <si>
+    <t>ATGGGCA&gt;ATGAGCA</t>
+  </si>
+  <si>
+    <t>TAACTCTG&gt;TAACTG</t>
+  </si>
+  <si>
+    <t>GGTATG&gt;GGTATATG</t>
+  </si>
+  <si>
+    <t>CTACAGT&gt;CTAGAGT</t>
+  </si>
+  <si>
+    <t>ATTCAAA&gt;ATTGAAA</t>
+  </si>
+  <si>
+    <t>AAGCAGT&gt;AAGTAGT</t>
+  </si>
+  <si>
+    <t>GCTCATG&gt;GCTTATG</t>
+  </si>
+  <si>
+    <t>ATCCTGT&gt;ATCTTGT</t>
+  </si>
+  <si>
+    <t>CTAAAGT&gt;CTAGAGT</t>
+  </si>
+  <si>
+    <t>TTTCAAC&gt;TTTTAAC</t>
+  </si>
+  <si>
+    <t>CAGGAC&gt;CAG…</t>
+  </si>
+  <si>
+    <t>TCATTGA&gt;TCACTGA</t>
+  </si>
+  <si>
+    <t>GAGGACA&gt;GAGAACA</t>
+  </si>
+  <si>
+    <t>CCACAGC&gt;CCATAGC</t>
+  </si>
+  <si>
+    <t>TTCCGG&gt;TTTTGG</t>
+  </si>
+  <si>
+    <t>CAGCGAA&gt;CAGTGAA</t>
+  </si>
+  <si>
+    <t>AAACGAC&gt;AAATGAC</t>
+  </si>
+  <si>
+    <t>TTTCCTT&gt;TTTTCTT</t>
+  </si>
+  <si>
+    <t>ATTGTT&gt;ATATTT</t>
+  </si>
+  <si>
+    <t>TGGCTTC&gt;TGGTTTC</t>
+  </si>
+  <si>
+    <t>TGAGAAA&gt;TGAAAAA</t>
+  </si>
+  <si>
+    <t>TGCGTCC&gt;TGCATCC</t>
+  </si>
+  <si>
+    <t>ATCGTCC&gt;ATCATCC</t>
+  </si>
+  <si>
+    <t>TTCCTTA&gt;TTCTTTA</t>
+  </si>
+  <si>
+    <t>TCCGGAA&gt;TCCAGAA</t>
+  </si>
+  <si>
+    <t>GTTCCTG&gt;GTTCTG</t>
+  </si>
+  <si>
+    <t>TTGCGAC&gt;TTGTGAC</t>
+  </si>
+  <si>
+    <t>GCTCTCG&gt;GCTTTCG</t>
+  </si>
+  <si>
+    <t>AATCAAG&gt;AATAAAG</t>
+  </si>
+  <si>
+    <t>CC&gt;TT</t>
   </si>
 </sst>
 </file>
@@ -767,7 +887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -924,6 +1044,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1297,7 +1423,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1370,8 +1496,17 @@
     </xf>
     <xf numFmtId="164" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1770,9 +1905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1780,7 +1915,9 @@
     <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
@@ -1809,7 +1946,7 @@
         <v>240</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>93</v>
@@ -1836,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1849,8 +1986,12 @@
       <c r="D2" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G2" s="4">
         <v>1.01091791346542</v>
       </c>
@@ -1874,7 +2015,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1887,8 +2028,12 @@
       <c r="D3" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G3" s="4">
         <v>0.242620299231702</v>
       </c>
@@ -1912,7 +2057,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1925,10 +2070,12 @@
       <c r="D4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="36"/>
+      <c r="E4" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G4" s="4">
         <v>2.9518803073190401</v>
       </c>
@@ -1954,7 +2101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1967,10 +2114,12 @@
       <c r="D5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="36"/>
+      <c r="E5" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G5" s="4">
         <v>6.0250707642539396</v>
       </c>
@@ -1996,7 +2145,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
@@ -2009,10 +2158,12 @@
       <c r="D6" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="F6" s="37"/>
+      <c r="E6" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G6" s="9">
         <v>4.5693489688637197</v>
       </c>
@@ -2038,7 +2189,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>232</v>
       </c>
@@ -2051,8 +2202,12 @@
       <c r="D7" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G7" s="4">
         <v>1.0861132660977499</v>
       </c>
@@ -2076,7 +2231,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>232</v>
       </c>
@@ -2089,8 +2244,12 @@
       <c r="D8" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G8" s="4">
         <v>0.28122575640031</v>
       </c>
@@ -2114,7 +2273,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>232</v>
       </c>
@@ -2127,10 +2286,12 @@
       <c r="D9" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="36"/>
+      <c r="E9" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G9" s="4">
         <v>2.4825446082234199</v>
       </c>
@@ -2156,7 +2317,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>232</v>
       </c>
@@ -2169,10 +2330,12 @@
       <c r="D10" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="36"/>
+      <c r="E10" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G10" s="4">
         <v>6.5554693560899899</v>
       </c>
@@ -2198,7 +2361,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>232</v>
       </c>
@@ -2211,10 +2374,12 @@
       <c r="D11" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="37"/>
+      <c r="E11" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G11" s="9">
         <v>4.4511249030256002</v>
       </c>
@@ -2240,7 +2405,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -2253,8 +2418,12 @@
       <c r="D12" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G12" s="4">
         <v>4.2702050663449898</v>
       </c>
@@ -2278,7 +2447,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -2291,8 +2460,12 @@
       <c r="D13" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G13" s="4">
         <v>5.4764776839565696</v>
       </c>
@@ -2316,7 +2489,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
@@ -2329,8 +2502,12 @@
       <c r="D14" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="E14" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G14" s="9">
         <v>5.9831121833534304</v>
       </c>
@@ -2354,7 +2531,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -2367,8 +2544,12 @@
       <c r="D15" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G15" s="4">
         <v>9.8609904430929607</v>
       </c>
@@ -2394,7 +2575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2407,8 +2588,12 @@
       <c r="D16" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G16" s="4">
         <v>3.8444830582102498</v>
       </c>
@@ -2434,7 +2619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
@@ -2447,8 +2632,12 @@
       <c r="D17" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="E17" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G17" s="9">
         <v>1.62901824500434</v>
       </c>
@@ -2474,7 +2663,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2487,10 +2676,12 @@
       <c r="D18" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="F18" s="36"/>
+      <c r="E18" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G18" s="11">
         <v>1.22699386503067</v>
       </c>
@@ -2516,7 +2707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2529,10 +2720,12 @@
       <c r="D19" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="36"/>
+      <c r="E19" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G19" s="11">
         <v>1.0686720759944499</v>
       </c>
@@ -2558,7 +2751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2571,8 +2764,12 @@
       <c r="D20" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G20" s="11">
         <v>1.1379378586978</v>
       </c>
@@ -2598,7 +2795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2608,11 +2805,15 @@
       <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>239</v>
+      </c>
       <c r="G21" s="11">
         <v>1.88007124480506</v>
       </c>
@@ -2638,7 +2839,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -2651,10 +2852,12 @@
       <c r="D22" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="F22" s="38"/>
+      <c r="E22" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="G22" s="11">
         <v>27.646942410449199</v>
       </c>
@@ -2680,7 +2883,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -2693,8 +2896,12 @@
       <c r="D23" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="E23" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G23" s="11">
         <v>0.41559469622006701</v>
       </c>
@@ -2717,7 +2924,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -2730,8 +2937,12 @@
       <c r="D24" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="E24" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G24" s="11">
         <v>9.8357411438749196</v>
       </c>
@@ -2757,7 +2968,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -2770,8 +2981,12 @@
       <c r="D25" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
+      <c r="E25" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G25" s="11">
         <v>0.24737779536908699</v>
       </c>
@@ -2797,7 +3012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -2807,13 +3022,15 @@
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="F26" s="39"/>
       <c r="G26" s="11">
         <v>6.1844448842271902</v>
       </c>
@@ -2839,7 +3056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -2849,13 +3066,15 @@
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="F27" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="F27" s="39"/>
       <c r="G27" s="11">
         <v>1.20720364140114</v>
       </c>
@@ -2881,7 +3100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -2894,10 +3113,12 @@
       <c r="D28" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E28" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="F28" s="39"/>
+      <c r="E28" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="G28" s="11">
         <v>13.2000791608945</v>
       </c>
@@ -3011,7 +3232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -3024,8 +3245,12 @@
       <c r="D33" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
+      <c r="E33" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="G33" s="4">
         <v>35.751038986740497</v>
       </c>
@@ -3051,7 +3276,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -3064,8 +3289,12 @@
       <c r="D34" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
+      <c r="E34" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="G34" s="4">
         <v>98.990698594894099</v>
       </c>
@@ -3091,7 +3320,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -3101,11 +3330,15 @@
       <c r="C35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
+      <c r="E35" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>239</v>
+      </c>
       <c r="G35" s="4">
         <v>4.8288145656045902</v>
       </c>
@@ -3131,7 +3364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
@@ -3144,8 +3377,12 @@
       <c r="D36" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
+      <c r="E36" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G36" s="9">
         <v>0.77181872155155296</v>
       </c>
@@ -3171,7 +3408,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -3184,10 +3421,12 @@
       <c r="D37" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="F37" s="36"/>
+      <c r="E37" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>238</v>
+      </c>
       <c r="G37" s="4">
         <v>2.6940517471325598</v>
       </c>
@@ -3213,7 +3452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
@@ -3226,10 +3465,12 @@
       <c r="D38" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="F38" s="36"/>
+      <c r="E38" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G38" s="4">
         <v>3.3208855694851902</v>
       </c>
@@ -3255,7 +3496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>23</v>
       </c>
@@ -3268,8 +3509,12 @@
       <c r="D39" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
+      <c r="E39" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G39" s="4">
         <v>3.0808215524139699</v>
       </c>
@@ -3295,7 +3540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -3305,11 +3550,15 @@
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
+      <c r="E40" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>239</v>
+      </c>
       <c r="G40" s="4">
         <v>5.1347025873566201</v>
       </c>
@@ -3335,7 +3584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
@@ -3348,10 +3597,12 @@
       <c r="D41" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="F41" s="38"/>
+      <c r="E41" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="G41" s="4">
         <v>29.6345692184582</v>
       </c>
@@ -3377,7 +3628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
@@ -3390,8 +3641,12 @@
       <c r="D42" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
+      <c r="E42" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G42" s="4">
         <v>0.89357161909842597</v>
       </c>
@@ -3415,7 +3670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>23</v>
       </c>
@@ -3428,8 +3683,12 @@
       <c r="D43" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
+      <c r="E43" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G43" s="4">
         <v>10.282742064550501</v>
       </c>
@@ -3455,7 +3714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -3468,8 +3727,12 @@
       <c r="D44" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
+      <c r="E44" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G44" s="4">
         <v>0.25340090690850797</v>
       </c>
@@ -3495,7 +3758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>23</v>
       </c>
@@ -3505,13 +3768,15 @@
       <c r="C45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="38" t="s">
         <v>229</v>
       </c>
       <c r="E45" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="F45" s="39"/>
       <c r="G45" s="4">
         <v>20.085356094958598</v>
       </c>
@@ -3537,7 +3802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
@@ -3547,13 +3812,15 @@
       <c r="C46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="38" t="s">
         <v>229</v>
       </c>
       <c r="E46" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="F46" s="39"/>
       <c r="G46" s="4">
         <v>2.8007468658308801</v>
       </c>
@@ -3579,7 +3846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
@@ -3592,10 +3859,12 @@
       <c r="D47" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E47" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="F47" s="39"/>
+      <c r="E47" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G47" s="4">
         <v>28.540944251800401</v>
       </c>
@@ -3709,7 +3978,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>23</v>
       </c>
@@ -3722,8 +3991,12 @@
       <c r="D52" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
+      <c r="E52" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G52" s="9">
         <v>37.623366230994897</v>
       </c>
@@ -3749,7 +4022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -3762,8 +4035,12 @@
       <c r="D53" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
+      <c r="E53" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G53" s="4">
         <v>0.39347129116875501</v>
       </c>
@@ -3787,7 +4064,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -3797,11 +4074,15 @@
       <c r="C54" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
+      <c r="E54" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>239</v>
+      </c>
       <c r="G54" s="4">
         <v>8.7438064704167803E-2</v>
       </c>
@@ -3827,7 +4108,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -3840,8 +4121,12 @@
       <c r="D55" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
+      <c r="E55" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G55" s="4">
         <v>1.50102011075488</v>
       </c>
@@ -3867,7 +4152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>57</v>
       </c>
@@ -3880,8 +4165,12 @@
       <c r="D56" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
+      <c r="E56" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G56" s="9">
         <v>2.7980180705333701</v>
       </c>
@@ -3907,7 +4196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -3920,8 +4209,12 @@
       <c r="D57" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
+      <c r="E57" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G57" s="4">
         <v>22.822201317027201</v>
       </c>
@@ -3945,7 +4238,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -3955,11 +4248,15 @@
       <c r="C58" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
+      <c r="E58" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>239</v>
+      </c>
       <c r="G58" s="4">
         <v>11.0253998118532</v>
       </c>
@@ -3985,7 +4282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -3998,8 +4295,12 @@
       <c r="D59" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
+      <c r="E59" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G59" s="4">
         <v>8.5042333019755407</v>
       </c>
@@ -4025,7 +4326,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
@@ -4038,8 +4339,12 @@
       <c r="D60" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
+      <c r="E60" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G60" s="9">
         <v>8.4101599247412899</v>
       </c>
@@ -4065,7 +4370,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>94</v>
       </c>
@@ -4076,10 +4381,14 @@
         <v>114</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
+        <v>199</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>239</v>
+      </c>
       <c r="G61" s="11">
         <v>5.9118644067796602</v>
       </c>
@@ -4089,7 +4398,9 @@
       <c r="I61" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J61" s="3"/>
+      <c r="J61" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>221</v>
       </c>
@@ -4103,7 +4414,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>94</v>
       </c>
@@ -4113,11 +4424,15 @@
       <c r="C62" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
+      <c r="D62" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G62" s="4">
         <v>9.6406779661016895</v>
       </c>
@@ -4141,7 +4456,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>94</v>
       </c>
@@ -4152,10 +4467,14 @@
         <v>113</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
+        <v>199</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G63" s="9">
         <v>40.786440677966098</v>
       </c>
@@ -4179,7 +4498,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>95</v>
       </c>
@@ -4190,10 +4509,14 @@
         <v>117</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
+        <v>199</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="G64" s="11">
         <v>1.44092219020172</v>
       </c>
@@ -4217,7 +4540,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>95</v>
       </c>
@@ -4228,10 +4551,14 @@
         <v>116</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
+        <v>199</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="G65" s="11">
         <v>4.5533141210374604</v>
       </c>
@@ -4255,7 +4582,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>95</v>
       </c>
@@ -4266,10 +4593,14 @@
         <v>118</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
+        <v>199</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>239</v>
+      </c>
       <c r="G66" s="9">
         <v>83.775216138328503</v>
       </c>
@@ -4293,7 +4624,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>96</v>
       </c>
@@ -4304,10 +4635,14 @@
         <v>119</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
+        <v>199</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="G67" s="11">
         <v>1.57232704402515</v>
       </c>
@@ -4331,7 +4666,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -4341,11 +4676,15 @@
       <c r="C68" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
+      <c r="D68" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G68" s="4">
         <v>5.3009883198562404</v>
       </c>
@@ -4369,7 +4708,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
@@ -4379,11 +4718,15 @@
       <c r="C69" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
+      <c r="D69" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G69" s="4">
         <v>4.8966756513926297</v>
       </c>
@@ -4407,7 +4750,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>96</v>
       </c>
@@ -4418,10 +4761,14 @@
         <v>122</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
+        <v>199</v>
+      </c>
+      <c r="E70" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G70" s="9">
         <v>0.494159928122192</v>
       </c>
@@ -4446,6 +4793,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="N58">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>

--- a/04_XV-seq/XV-seq_overview.xlsx
+++ b/04_XV-seq/XV-seq_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/scBPDCN-analysis/04_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E20708-9821-CC42-8C18-D8C973293D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7AFBFA-DB37-384A-BB87-B94EFF1C95B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="5520" windowWidth="25840" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XV-seq_overview" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,12 +1238,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1423,7 +1417,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1494,12 +1488,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1906,8 +1894,8 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1986,7 +1974,7 @@
       <c r="D2" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="36" t="s">
         <v>241</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2028,7 +2016,7 @@
       <c r="D3" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="36" t="s">
         <v>242</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -2070,7 +2058,7 @@
       <c r="D4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="36" t="s">
         <v>243</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2114,7 +2102,7 @@
       <c r="D5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="36" t="s">
         <v>251</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -2158,7 +2146,7 @@
       <c r="D6" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="37" t="s">
         <v>244</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -2202,7 +2190,7 @@
       <c r="D7" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="36" t="s">
         <v>241</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -2244,7 +2232,7 @@
       <c r="D8" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="36" t="s">
         <v>242</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -2286,7 +2274,7 @@
       <c r="D9" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="36" t="s">
         <v>243</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -2330,7 +2318,7 @@
       <c r="D10" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="36" t="s">
         <v>251</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -2374,7 +2362,7 @@
       <c r="D11" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="37" t="s">
         <v>244</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -2418,7 +2406,7 @@
       <c r="D12" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="36" t="s">
         <v>252</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -2460,7 +2448,7 @@
       <c r="D13" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="36" t="s">
         <v>253</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2502,7 +2490,7 @@
       <c r="D14" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="37" t="s">
         <v>254</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -2544,7 +2532,7 @@
       <c r="D15" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="36" t="s">
         <v>247</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -2588,7 +2576,7 @@
       <c r="D16" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="36" t="s">
         <v>247</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -2632,7 +2620,7 @@
       <c r="D17" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="37" t="s">
         <v>246</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -2676,7 +2664,7 @@
       <c r="D18" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="36" t="s">
         <v>255</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -2720,7 +2708,7 @@
       <c r="D19" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="36" t="s">
         <v>256</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -2764,7 +2752,7 @@
       <c r="D20" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="36" t="s">
         <v>248</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -2805,13 +2793,13 @@
       <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="4" t="s">
         <v>239</v>
       </c>
       <c r="G21" s="11">
@@ -2852,7 +2840,7 @@
       <c r="D22" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="38" t="s">
         <v>258</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -2896,7 +2884,7 @@
       <c r="D23" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="36" t="s">
         <v>249</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -2937,7 +2925,7 @@
       <c r="D24" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="39" t="s">
         <v>259</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -2981,7 +2969,7 @@
       <c r="D25" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="39" t="s">
         <v>250</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -3022,13 +3010,13 @@
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="11" t="s">
         <v>239</v>
       </c>
       <c r="G26" s="11">
@@ -3066,13 +3054,13 @@
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="11" t="s">
         <v>239</v>
       </c>
       <c r="G27" s="11">
@@ -3113,7 +3101,7 @@
       <c r="D28" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="39" t="s">
         <v>261</v>
       </c>
       <c r="F28" s="11" t="s">
@@ -3245,7 +3233,7 @@
       <c r="D33" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="39" t="s">
         <v>269</v>
       </c>
       <c r="F33" s="11" t="s">
@@ -3289,7 +3277,7 @@
       <c r="D34" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="39" t="s">
         <v>262</v>
       </c>
       <c r="F34" s="11" t="s">
@@ -3330,13 +3318,13 @@
       <c r="C35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="41" t="s">
+      <c r="D35" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="11" t="s">
         <v>239</v>
       </c>
       <c r="G35" s="4">
@@ -3377,7 +3365,7 @@
       <c r="D36" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="37" t="s">
         <v>270</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -3421,10 +3409,10 @@
       <c r="D37" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="41" t="s">
         <v>238</v>
       </c>
       <c r="G37" s="4">
@@ -3465,7 +3453,7 @@
       <c r="D38" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="36" t="s">
         <v>256</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -3509,7 +3497,7 @@
       <c r="D39" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="36" t="s">
         <v>248</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -3550,13 +3538,13 @@
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="4" t="s">
         <v>239</v>
       </c>
       <c r="G40" s="4">
@@ -3597,7 +3585,7 @@
       <c r="D41" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="42" t="s">
         <v>258</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -3641,7 +3629,7 @@
       <c r="D42" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="36" t="s">
         <v>249</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -3683,7 +3671,7 @@
       <c r="D43" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="36" t="s">
         <v>259</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -3727,7 +3715,7 @@
       <c r="D44" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="36" t="s">
         <v>250</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -3768,13 +3756,13 @@
       <c r="C45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="4" t="s">
         <v>239</v>
       </c>
       <c r="G45" s="4">
@@ -3812,13 +3800,13 @@
       <c r="C46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="4" t="s">
         <v>239</v>
       </c>
       <c r="G46" s="4">
@@ -3859,7 +3847,7 @@
       <c r="D47" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="36" t="s">
         <v>261</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -3991,7 +3979,7 @@
       <c r="D52" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="37" t="s">
         <v>269</v>
       </c>
       <c r="F52" s="9" t="s">
@@ -4035,7 +4023,7 @@
       <c r="D53" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="36" t="s">
         <v>264</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -4074,13 +4062,13 @@
       <c r="C54" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E54" s="39" t="s">
+      <c r="E54" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="4" t="s">
         <v>239</v>
       </c>
       <c r="G54" s="4">
@@ -4121,7 +4109,7 @@
       <c r="D55" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="36" t="s">
         <v>272</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -4165,7 +4153,7 @@
       <c r="D56" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="37" t="s">
         <v>273</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -4209,7 +4197,7 @@
       <c r="D57" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E57" s="36" t="s">
         <v>264</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -4248,13 +4236,13 @@
       <c r="C58" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="4" t="s">
         <v>239</v>
       </c>
       <c r="G58" s="4">
@@ -4295,7 +4283,7 @@
       <c r="D59" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="42" t="s">
+      <c r="E59" s="36" t="s">
         <v>272</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -4339,7 +4327,7 @@
       <c r="D60" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E60" s="37" t="s">
         <v>273</v>
       </c>
       <c r="F60" s="9" t="s">
@@ -4383,10 +4371,10 @@
       <c r="D61" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="F61" s="38" t="s">
+      <c r="F61" s="11" t="s">
         <v>239</v>
       </c>
       <c r="G61" s="11">
@@ -4427,7 +4415,7 @@
       <c r="D62" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="36" t="s">
         <v>274</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -4469,7 +4457,7 @@
       <c r="D63" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="37" t="s">
         <v>275</v>
       </c>
       <c r="F63" s="9" t="s">
@@ -4511,7 +4499,7 @@
       <c r="D64" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="39" t="s">
         <v>276</v>
       </c>
       <c r="F64" s="11" t="s">
@@ -4553,7 +4541,7 @@
       <c r="D65" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E65" s="45" t="s">
+      <c r="E65" s="39" t="s">
         <v>277</v>
       </c>
       <c r="F65" s="11" t="s">
@@ -4595,10 +4583,10 @@
       <c r="D66" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="F66" s="37" t="s">
+      <c r="F66" s="9" t="s">
         <v>239</v>
       </c>
       <c r="G66" s="9">
@@ -4637,7 +4625,7 @@
       <c r="D67" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="45" t="s">
+      <c r="E67" s="39" t="s">
         <v>266</v>
       </c>
       <c r="F67" s="11" t="s">
@@ -4679,7 +4667,7 @@
       <c r="D68" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E68" s="42" t="s">
+      <c r="E68" s="36" t="s">
         <v>279</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -4721,7 +4709,7 @@
       <c r="D69" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E69" s="42" t="s">
+      <c r="E69" s="36" t="s">
         <v>241</v>
       </c>
       <c r="F69" s="4" t="s">
@@ -4763,7 +4751,7 @@
       <c r="D70" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="37" t="s">
         <v>267</v>
       </c>
       <c r="F70" s="9" t="s">

--- a/04_XV-seq/XV-seq_overview.xlsx
+++ b/04_XV-seq/XV-seq_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/scBPDCN-analysis/04_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7AFBFA-DB37-384A-BB87-B94EFF1C95B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B9D473-2407-7B4A-9D03-2D01B049AD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="XV-seq_overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XV-seq_overview'!$A$1:$N$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XV-seq_overview'!$A$1:$P$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="283">
   <si>
     <t>Sample</t>
   </si>
@@ -877,7 +877,13 @@
     <t>AATCAAG&gt;AATAAAG</t>
   </si>
   <si>
-    <t>CC&gt;TT</t>
+    <t>CC&gt;CT (UV-associated)</t>
+  </si>
+  <si>
+    <t>GAGAAA&gt;GAGAAAA</t>
+  </si>
+  <si>
+    <t>CC&gt;TT (UV-associated</t>
   </si>
 </sst>
 </file>
@@ -1891,11 +1897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1905,19 +1911,19 @@
     <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="69.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18" style="5" customWidth="1"/>
-    <col min="12" max="12" width="85.83203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="16" style="32" customWidth="1"/>
-    <col min="14" max="14" width="61.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="5"/>
+    <col min="6" max="8" width="14.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18" style="5" customWidth="1"/>
+    <col min="14" max="14" width="85.83203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16" style="32" customWidth="1"/>
+    <col min="16" max="16" width="61.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1934,34 +1940,40 @@
         <v>240</v>
       </c>
       <c r="F1" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1980,30 +1992,36 @@
       <c r="F2" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="4">
         <v>1.01091791346542</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="25">
+      <c r="O2" s="25">
         <v>6415</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -2022,30 +2040,36 @@
       <c r="F3" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="4">
         <v>0.242620299231702</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="M3" s="25">
+      <c r="O3" s="25">
         <v>2555</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -2062,34 +2086,40 @@
         <v>243</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="4">
+        <v>239</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="4">
         <v>2.9518803073190401</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="N4" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="M4" s="25">
+      <c r="O4" s="25">
         <v>225</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -2106,34 +2136,40 @@
         <v>251</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="4">
+        <v>239</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="4">
         <v>6.0250707642539396</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="N5" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="M5" s="26">
+      <c r="O5" s="26">
         <v>324</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
@@ -2150,34 +2186,40 @@
         <v>244</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G6" s="9">
+        <v>239</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I6" s="9">
         <v>4.5693489688637197</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="N6" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="M6" s="27">
+      <c r="O6" s="27">
         <v>120</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>232</v>
       </c>
@@ -2196,30 +2238,36 @@
       <c r="F7" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="4">
         <v>1.0861132660977499</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="N7" s="3" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>232</v>
       </c>
@@ -2238,30 +2286,36 @@
       <c r="F8" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="4">
         <v>0.28122575640031</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M8" s="29" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>232</v>
       </c>
@@ -2278,34 +2332,40 @@
         <v>243</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G9" s="4">
+        <v>239</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="4">
         <v>2.4825446082234199</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="29" t="s">
+      <c r="L9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>232</v>
       </c>
@@ -2322,34 +2382,40 @@
         <v>251</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="4">
+        <v>239</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I10" s="4">
         <v>6.5554693560899899</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="29" t="s">
+      <c r="L10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>232</v>
       </c>
@@ -2366,34 +2432,40 @@
         <v>244</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" s="9">
+        <v>239</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I11" s="9">
         <v>4.4511249030256002</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="M11" s="30" t="s">
+      <c r="L11" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>139</v>
       </c>
       <c r="N11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -2412,30 +2484,36 @@
       <c r="F12" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="4">
         <v>4.2702050663449898</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="20" t="s">
+      <c r="L12" s="3"/>
+      <c r="M12" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="M12" s="25">
+      <c r="O12" s="25">
         <v>8449</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -2454,30 +2532,36 @@
       <c r="F13" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" s="4">
         <v>5.4764776839565696</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="20" t="s">
+      <c r="L13" s="3"/>
+      <c r="M13" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="N13" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="M13" s="25">
+      <c r="O13" s="25">
         <v>5109</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
@@ -2496,30 +2580,36 @@
       <c r="F14" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="9">
         <v>5.9831121833534304</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="15" t="s">
+      <c r="L14" s="8"/>
+      <c r="M14" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="N14" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="M14" s="27">
+      <c r="O14" s="27">
         <v>942</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="P14" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -2533,37 +2623,43 @@
         <v>228</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I15" s="4">
         <v>9.8609904430929607</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="L15" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="M15" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="N15" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="M15" s="31">
+      <c r="O15" s="31">
         <v>5002</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2582,32 +2678,38 @@
       <c r="F16" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="4">
         <v>3.8444830582102498</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="M16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="N16" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="M16" s="26">
+      <c r="O16" s="26">
         <v>4701</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
@@ -2626,32 +2728,38 @@
       <c r="F17" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" s="9">
         <v>1.62901824500434</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="L17" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="M17" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="N17" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="M17" s="27">
+      <c r="O17" s="27">
         <v>11002</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="P17" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2670,32 +2778,38 @@
       <c r="F18" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" s="11">
         <v>1.22699386503067</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M18" s="29">
+      <c r="O18" s="29">
         <v>6953</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2714,32 +2828,38 @@
       <c r="F19" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I19" s="11">
         <v>1.0686720759944499</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M19" s="29">
+      <c r="O19" s="29">
         <v>6215</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2758,32 +2878,38 @@
       <c r="F20" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I20" s="11">
         <v>1.1379378586978</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M20" s="29">
+      <c r="O20" s="29">
         <v>5667</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="P20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2800,34 +2926,40 @@
         <v>257</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G21" s="11">
+      <c r="H21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I21" s="11">
         <v>1.88007124480506</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="M21" s="29">
+      <c r="O21" s="29">
         <v>5189</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="P21" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -2844,34 +2976,40 @@
         <v>258</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="11">
+        <v>239</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I22" s="11">
         <v>27.646942410449199</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="N22" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="M22" s="32">
+      <c r="O22" s="32">
         <v>6681</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="P22" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -2890,29 +3028,35 @@
       <c r="F23" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I23" s="11">
         <v>0.41559469622006701</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="M23" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="N23" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="M23" s="32">
+      <c r="O23" s="32">
         <v>2760</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="P23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -2931,32 +3075,38 @@
       <c r="F24" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I24" s="11">
         <v>9.8357411438749196</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="K24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="N24" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="M24" s="32">
+      <c r="O24" s="32">
         <v>2622</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="P24" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -2975,32 +3125,38 @@
       <c r="F25" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I25" s="11">
         <v>0.24737779536908699</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="K25" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="L25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="M25" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="N25" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="M25" s="32">
+      <c r="O25" s="32">
         <v>1515</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="P25" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -3017,34 +3173,40 @@
         <v>260</v>
       </c>
       <c r="F26" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" s="11">
         <v>6.1844448842271902</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="N26" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="M26" s="32">
+      <c r="O26" s="32">
         <v>1454</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="P26" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -3061,34 +3223,40 @@
         <v>268</v>
       </c>
       <c r="F27" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="G27" s="11">
+      <c r="H27" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" s="11">
         <v>1.20720364140114</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="K27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="N27" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="32">
+      <c r="O27" s="32">
         <v>2090</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="P27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -3107,32 +3275,38 @@
       <c r="F28" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I28" s="11">
         <v>13.2000791608945</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="K28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="N28" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M28" s="32">
+      <c r="O28" s="32">
         <v>1816</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="P28" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>37</v>
       </c>
@@ -3146,15 +3320,17 @@
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="16" t="s">
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
@@ -3168,15 +3344,17 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="16" t="s">
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>37</v>
       </c>
@@ -3190,15 +3368,17 @@
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="18"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="18" t="s">
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
@@ -3212,15 +3392,17 @@
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="18"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="18" t="s">
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -3239,32 +3421,38 @@
       <c r="F33" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I33" s="4">
         <v>35.751038986740497</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="K33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="M33" s="29">
+      <c r="O33" s="29">
         <v>350</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -3283,32 +3471,38 @@
       <c r="F34" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I34" s="4">
         <v>98.990698594894099</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="K34" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="N34" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="M34" s="7">
+      <c r="O34" s="7">
         <v>421</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -3325,34 +3519,40 @@
         <v>263</v>
       </c>
       <c r="F35" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I35" s="4">
         <v>4.8288145656045902</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="K35" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="M35" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="N35" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="M35" s="7">
+      <c r="O35" s="7">
         <v>3296</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
@@ -3371,32 +3571,38 @@
       <c r="F36" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I36" s="9">
         <v>0.77181872155155296</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="J36" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="K36" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="L36" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="M36" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="N36" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="M36" s="10">
+      <c r="O36" s="10">
         <v>1824</v>
       </c>
-      <c r="N36" s="8" t="s">
+      <c r="P36" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -3412,35 +3618,41 @@
       <c r="E37" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="F37" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I37" s="4">
         <v>2.6940517471325598</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L37" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M37" s="29" t="s">
+      <c r="M37" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O37" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
@@ -3459,32 +3671,38 @@
       <c r="F38" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I38" s="4">
         <v>3.3208855694851902</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M38" s="29" t="s">
+      <c r="M38" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>23</v>
       </c>
@@ -3503,32 +3721,38 @@
       <c r="F39" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I39" s="4">
         <v>3.0808215524139699</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L39" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M39" s="29" t="s">
+      <c r="M39" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P39" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -3545,34 +3769,40 @@
         <v>257</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="4">
         <v>5.1347025873566201</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L40" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M40" s="29" t="s">
+      <c r="M40" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P40" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
@@ -3589,34 +3819,40 @@
         <v>258</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G41" s="4">
+        <v>239</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I41" s="4">
         <v>29.6345692184582</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="K41" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M41" s="29" t="s">
+      <c r="M41" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
@@ -3635,30 +3871,36 @@
       <c r="F42" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I42" s="4">
         <v>0.89357161909842597</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M42" s="29" t="s">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>23</v>
       </c>
@@ -3677,32 +3919,38 @@
       <c r="F43" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I43" s="4">
         <v>10.282742064550501</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="K43" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M43" s="29" t="s">
+      <c r="M43" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P43" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -3721,32 +3969,38 @@
       <c r="F44" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I44" s="4">
         <v>0.25340090690850797</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="K44" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M44" s="29" t="s">
+      <c r="M44" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>23</v>
       </c>
@@ -3763,34 +4017,40 @@
         <v>260</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I45" s="4">
         <v>20.085356094958598</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="K45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M45" s="29" t="s">
+      <c r="M45" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O45" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
@@ -3807,34 +4067,40 @@
         <v>268</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I46" s="4">
         <v>2.8007468658308801</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="K46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M46" s="29" t="s">
+      <c r="M46" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P46" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
@@ -3853,32 +4119,38 @@
       <c r="F47" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I47" s="4">
         <v>28.540944251800401</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="K47" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M47" s="29" t="s">
+      <c r="M47" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>23</v>
       </c>
@@ -3891,16 +4163,18 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="19"/>
       <c r="L48" s="18"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="18" t="s">
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>23</v>
       </c>
@@ -3913,16 +4187,18 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="19"/>
       <c r="L49" s="18"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="18" t="s">
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>23</v>
       </c>
@@ -3936,15 +4212,17 @@
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
       <c r="L50" s="18"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="18" t="s">
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>23</v>
       </c>
@@ -3958,15 +4236,17 @@
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
       <c r="L51" s="18"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="18" t="s">
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>23</v>
       </c>
@@ -3985,32 +4265,38 @@
       <c r="F52" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I52" s="9">
         <v>37.623366230994897</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="J52" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="K52" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="L52" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="M52" s="30" t="s">
+      <c r="M52" s="8" t="s">
         <v>139</v>
       </c>
       <c r="N52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O52" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="P52" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -4029,30 +4315,36 @@
       <c r="F53" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I53" s="4">
         <v>0.39347129116875501</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6" t="s">
+      <c r="L53" s="6"/>
+      <c r="M53" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="N53" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="M53" s="6">
+      <c r="O53" s="6">
         <v>4684</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="P53" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -4069,34 +4361,40 @@
         <v>271</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I54" s="4">
         <v>8.7438064704167803E-2</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="L54" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="M54" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="N54" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="M54" s="6" t="s">
+      <c r="O54" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="P54" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -4115,32 +4413,38 @@
       <c r="F55" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I55" s="4">
         <v>1.50102011075488</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="K55" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="L55" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="M55" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="N55" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="M55" s="6">
+      <c r="O55" s="6">
         <v>527</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="P55" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>57</v>
       </c>
@@ -4159,32 +4463,38 @@
       <c r="F56" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I56" s="9">
         <v>2.7980180705333701</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="J56" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="K56" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="L56" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="M56" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="L56" s="10" t="s">
+      <c r="N56" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="M56" s="10">
+      <c r="O56" s="10">
         <v>2572</v>
       </c>
-      <c r="N56" s="8" t="s">
+      <c r="P56" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -4203,30 +4513,36 @@
       <c r="F57" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I57" s="4">
         <v>22.822201317027201</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M57" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="N57" s="3" t="s">
+      <c r="L57" s="3"/>
+      <c r="M57" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O57" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="P57" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -4243,34 +4559,40 @@
         <v>271</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G58" s="4">
+      <c r="H58" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I58" s="4">
         <v>11.0253998118532</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="K58" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M58" s="29" t="s">
+      <c r="M58" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O58" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -4289,32 +4611,38 @@
       <c r="F59" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I59" s="4">
         <v>8.5042333019755407</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="J59" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="K59" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M59" s="29" t="s">
+      <c r="M59" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O59" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P59" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
@@ -4333,32 +4661,38 @@
       <c r="F60" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I60" s="9">
         <v>8.4101599247412899</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="J60" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="K60" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="L60" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="M60" s="30" t="s">
+      <c r="M60" s="8" t="s">
         <v>139</v>
       </c>
       <c r="N60" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O60" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="P60" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>94</v>
       </c>
@@ -4375,34 +4709,38 @@
         <v>265</v>
       </c>
       <c r="F61" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="G61" s="11">
+      <c r="I61" s="11">
         <v>5.9118644067796602</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="K61" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="K61" s="5" t="s">
+      <c r="L61" s="3"/>
+      <c r="M61" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L61" s="32" t="s">
+      <c r="N61" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="M61" s="5">
+      <c r="O61" s="5">
         <v>870</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="P61" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>94</v>
       </c>
@@ -4419,32 +4757,38 @@
         <v>274</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G62" s="4">
+        <v>239</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I62" s="4">
         <v>9.6406779661016895</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="K62" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="5" t="s">
+      <c r="L62" s="3"/>
+      <c r="M62" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="L62" s="32" t="s">
+      <c r="N62" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="M62" s="5">
+      <c r="O62" s="5">
         <v>2158</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="P62" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>94</v>
       </c>
@@ -4461,32 +4805,38 @@
         <v>275</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G63" s="9">
+        <v>239</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I63" s="9">
         <v>40.786440677966098</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="J63" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="K63" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8" t="s">
+      <c r="L63" s="8"/>
+      <c r="M63" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="L63" s="30" t="s">
+      <c r="N63" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="M63" s="8">
+      <c r="O63" s="8">
         <v>1234</v>
       </c>
-      <c r="N63" s="8" t="s">
+      <c r="P63" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>95</v>
       </c>
@@ -4505,30 +4855,36 @@
       <c r="F64" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I64" s="11">
         <v>1.44092219020172</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="K64" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="32" t="s">
+      <c r="L64" s="3"/>
+      <c r="M64" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="L64" s="32" t="s">
+      <c r="N64" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="M64" s="5">
+      <c r="O64" s="5">
         <v>2249</v>
       </c>
-      <c r="N64" s="3" t="s">
+      <c r="P64" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>95</v>
       </c>
@@ -4547,30 +4903,36 @@
       <c r="F65" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I65" s="11">
         <v>4.5533141210374604</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="K65" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="32" t="s">
+      <c r="L65" s="3"/>
+      <c r="M65" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="L65" s="32" t="s">
+      <c r="N65" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="M65" s="5">
+      <c r="O65" s="5">
         <v>4785</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="P65" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>95</v>
       </c>
@@ -4587,32 +4949,38 @@
         <v>278</v>
       </c>
       <c r="F66" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G66" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G66" s="9">
+      <c r="H66" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I66" s="9">
         <v>83.775216138328503</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="J66" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="K66" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J66" s="8"/>
-      <c r="K66" s="30" t="s">
+      <c r="L66" s="8"/>
+      <c r="M66" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="L66" s="30" t="s">
+      <c r="N66" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="M66" s="8">
+      <c r="O66" s="8">
         <v>805</v>
       </c>
-      <c r="N66" s="8" t="s">
+      <c r="P66" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>96</v>
       </c>
@@ -4631,30 +4999,36 @@
       <c r="F67" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I67" s="11">
         <v>1.57232704402515</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="J67" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="K67" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="5" t="s">
+      <c r="L67" s="3"/>
+      <c r="M67" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L67" s="32" t="s">
+      <c r="N67" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="M67" s="5">
+      <c r="O67" s="5">
         <v>2601</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="P67" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -4673,30 +5047,36 @@
       <c r="F68" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I68" s="4">
         <v>5.3009883198562404</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="K68" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="5" t="s">
+      <c r="L68" s="3"/>
+      <c r="M68" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="L68" s="32" t="s">
+      <c r="N68" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="M68" s="5">
+      <c r="O68" s="5">
         <v>6953</v>
       </c>
-      <c r="N68" s="3" t="s">
+      <c r="P68" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
@@ -4715,30 +5095,36 @@
       <c r="F69" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I69" s="4">
         <v>4.8966756513926297</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="J69" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="K69" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3" t="s">
+      <c r="L69" s="3"/>
+      <c r="M69" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L69" s="29" t="s">
+      <c r="N69" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="M69" s="3">
+      <c r="O69" s="3">
         <v>6699</v>
       </c>
-      <c r="N69" s="3" t="s">
+      <c r="P69" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>96</v>
       </c>
@@ -4757,42 +5143,48 @@
       <c r="F70" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I70" s="9">
         <v>0.494159928122192</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="J70" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="K70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8" t="s">
+      <c r="L70" s="8"/>
+      <c r="M70" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="L70" s="30" t="s">
+      <c r="N70" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="M70" s="8">
+      <c r="O70" s="8">
         <v>1137</v>
       </c>
-      <c r="N70" s="8" t="s">
+      <c r="P70" s="8" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="N58">
+  <conditionalFormatting sqref="P58">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N54">
+  <conditionalFormatting sqref="P54">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
     <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N72:N1048576 C14 C12 C7 N1:N52 N57 N59:N65">
+  <conditionalFormatting sqref="P72:P1048576 C14 C12 C7 P1:P52 P57 P59:P65">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/04_XV-seq/XV-seq_overview.xlsx
+++ b/04_XV-seq/XV-seq_overview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/scBPDCN-analysis/04_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B9D473-2407-7B4A-9D03-2D01B049AD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC752C7F-754A-3946-AF74-EE5B1AF787F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="XV-seq_overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XV-seq_overview'!$A$1:$P$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XV-seq_overview'!$A$1:$V$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="291">
   <si>
     <t>Sample</t>
   </si>
@@ -883,7 +883,31 @@
     <t>GAGAAA&gt;GAGAAAA</t>
   </si>
   <si>
-    <t>CC&gt;TT (UV-associated</t>
+    <t>Bam file location</t>
+  </si>
+  <si>
+    <t>Variant of unknown significance</t>
+  </si>
+  <si>
+    <t>Bulk VAF (WES/WGS)</t>
+  </si>
+  <si>
+    <t>Bulk VAF (RHP)</t>
+  </si>
+  <si>
+    <t>Mutant cell fraction (%)</t>
+  </si>
+  <si>
+    <t>Number of genotyped cells with enrichment</t>
+  </si>
+  <si>
+    <t>Number of genotyped cells without enrichment</t>
+  </si>
+  <si>
+    <t>CC&gt;TT (UV-specific)</t>
+  </si>
+  <si>
+    <t>Independent validation with ASXL1.1898:</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1082,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1244,6 +1268,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1379,7 +1415,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1422,8 +1458,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1501,8 +1538,22 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1540,6 +1591,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{AEEA19AF-5EEC-FF4A-889F-965B055D70E1}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1897,11 +1949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1909,21 +1961,25 @@
     <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18" style="5" customWidth="1"/>
-    <col min="14" max="14" width="85.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="16" style="32" customWidth="1"/>
-    <col min="16" max="16" width="61.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="5"/>
+    <col min="4" max="5" width="11.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.1640625" style="5" customWidth="1"/>
+    <col min="11" max="12" width="12.1640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="69.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="18" style="5" customWidth="1"/>
+    <col min="19" max="19" width="85.83203125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="16" style="32" customWidth="1"/>
+    <col min="21" max="21" width="40.33203125" style="32" customWidth="1"/>
+    <col min="22" max="22" width="61.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1933,47 +1989,65 @@
       <c r="C1" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="J1" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="U1" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1983,45 +2057,57 @@
       <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="G2" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H2" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" s="4">
         <v>1.01091791346542</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="45">
+        <v>25</v>
+      </c>
+      <c r="N2" s="4">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="25">
+      <c r="T2" s="25">
         <v>6415</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="U2" s="25"/>
+      <c r="V2" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -2031,45 +2117,57 @@
       <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="4">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="G3" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H3" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="4">
         <v>0.242620299231702</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="45">
+        <v>6</v>
+      </c>
+      <c r="N3" s="4">
+        <v>50</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="S3" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="O3" s="25">
+      <c r="T3" s="25">
         <v>2555</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -2079,47 +2177,57 @@
       <c r="C4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="G4" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="I4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="4">
         <v>2.9518803073190401</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="45">
+        <v>73</v>
+      </c>
+      <c r="N4" s="4">
+        <v>13.698630136986299</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="S4" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="O4" s="25">
+      <c r="T4" s="25">
         <v>225</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="U4" s="25"/>
+      <c r="V4" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -2129,47 +2237,57 @@
       <c r="C5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="G5" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="I5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="4">
         <v>6.0250707642539396</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="45">
+        <v>149</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2.0134228187919399</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="S5" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="O5" s="26">
+      <c r="T5" s="26">
         <v>324</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="U5" s="26"/>
+      <c r="V5" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
@@ -2179,47 +2297,57 @@
       <c r="C6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="G6" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="I6" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="9">
         <v>4.5693489688637197</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="L6" s="9"/>
+      <c r="M6" s="46">
+        <v>113</v>
+      </c>
+      <c r="N6" s="9">
+        <v>11.504424778761001</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="Q6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="R6" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="S6" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="O6" s="27">
+      <c r="T6" s="27">
         <v>120</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="U6" s="27"/>
+      <c r="V6" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>232</v>
       </c>
@@ -2229,45 +2357,55 @@
       <c r="C7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="G7" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H7" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="4">
         <v>1.0861132660977499</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="45">
+        <v>112</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10.714285714285699</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="U7" s="29"/>
+      <c r="V7" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>232</v>
       </c>
@@ -2277,45 +2415,55 @@
       <c r="C8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="G8" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H8" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="4">
         <v>0.28122575640031</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="45">
+        <v>29</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T8" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U8" s="29"/>
+      <c r="V8" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>232</v>
       </c>
@@ -2325,47 +2473,57 @@
       <c r="C9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="G9" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="I9" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="4">
         <v>2.4825446082234199</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="45">
+        <v>256</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U9" s="29"/>
+      <c r="V9" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>232</v>
       </c>
@@ -2375,47 +2533,57 @@
       <c r="C10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="G10" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="I10" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="4">
         <v>6.5554693560899899</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="45">
+        <v>676</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U10" s="29"/>
+      <c r="V10" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>232</v>
       </c>
@@ -2425,47 +2593,57 @@
       <c r="C11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="G11" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="I11" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="9">
         <v>4.4511249030256002</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="46">
+        <v>459</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="P11" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="P11" s="8" t="s">
+      <c r="Q11" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="U11" s="30"/>
+      <c r="V11" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -2475,45 +2653,57 @@
       <c r="C12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="G12" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H12" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="4">
         <v>4.2702050663449898</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="L12" s="4"/>
+      <c r="M12" s="45">
+        <v>177</v>
+      </c>
+      <c r="N12" s="4">
+        <v>42.937853107344601</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="20" t="s">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="S12" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="O12" s="25">
+      <c r="T12" s="25">
         <v>8449</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="U12" s="25"/>
+      <c r="V12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -2523,45 +2713,57 @@
       <c r="C13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="4">
+        <v>41.3</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="G13" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H13" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" s="4">
         <v>5.4764776839565696</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="45">
+        <v>227</v>
+      </c>
+      <c r="N13" s="4">
+        <v>36.123348017621097</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="20" t="s">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="S13" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="O13" s="25">
+      <c r="T13" s="25">
         <v>5109</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="U13" s="25"/>
+      <c r="V13" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
@@ -2571,45 +2773,57 @@
       <c r="C14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="9">
+        <v>85.8</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="G14" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>238</v>
-      </c>
       <c r="H14" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="9">
         <v>5.9831121833534304</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="46">
+        <v>248</v>
+      </c>
+      <c r="N14" s="9">
+        <v>14.516129032258</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="P14" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="15" t="s">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="S14" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="O14" s="27">
+      <c r="T14" s="27">
         <v>942</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="U14" s="27"/>
+      <c r="V14" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -2619,47 +2833,59 @@
       <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="4">
+        <v>44.8</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="G15" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H15" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I15" s="4">
-        <v>9.8609904430929607</v>
+      <c r="I15" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" s="4">
+        <v>9.8628347485303696</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="45">
+        <v>453</v>
+      </c>
+      <c r="N15" s="4">
+        <v>40.397350993377401</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="R15" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="S15" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="O15" s="31">
+      <c r="T15" s="31">
         <v>5002</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="U15" s="26"/>
+      <c r="V15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2669,47 +2895,59 @@
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="G16" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H16" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I16" s="4">
-        <v>3.8444830582102498</v>
+      <c r="I16" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="J16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3.8319181362943602</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="45">
+        <v>176</v>
+      </c>
+      <c r="N16" s="4">
+        <v>32.954545454545404</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="R16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="S16" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="O16" s="26">
+      <c r="T16" s="26">
         <v>4701</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="U16" s="26"/>
+      <c r="V16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
@@ -2719,47 +2957,59 @@
       <c r="C17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="9">
+        <v>87.9</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="G17" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>238</v>
-      </c>
       <c r="H17" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I17" s="9">
-        <v>1.62901824500434</v>
+      <c r="I17" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="J17" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1.6329196603527101</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="46">
+        <v>75</v>
+      </c>
+      <c r="N17" s="9">
+        <v>73.3333333333333</v>
+      </c>
+      <c r="O17" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="P17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="Q17" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="R17" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="S17" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="O17" s="27">
+      <c r="T17" s="27">
         <v>11002</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="U17" s="27"/>
+      <c r="V17" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2769,47 +3019,59 @@
       <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="11">
+        <v>29.5</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="G18" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H18" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" s="11">
         <v>1.22699386503067</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="L18" s="11"/>
+      <c r="M18" s="47">
         <v>124</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="N18" s="11">
+        <v>18.5483870967741</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="O18" s="29">
+      <c r="T18" s="29">
         <v>6953</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="U18" s="29"/>
+      <c r="V18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2819,47 +3081,59 @@
       <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="11">
+        <v>31.4</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="G19" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H19" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="11">
         <v>1.0686720759944499</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="L19" s="11"/>
+      <c r="M19" s="47">
+        <v>108</v>
+      </c>
+      <c r="N19" s="11">
+        <v>14.814814814814801</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="O19" s="29">
+      <c r="T19" s="29">
         <v>6215</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="U19" s="29"/>
+      <c r="V19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2869,47 +3143,59 @@
       <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="G20" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H20" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="11">
         <v>1.1379378586978</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="L20" s="11"/>
+      <c r="M20" s="47">
+        <v>115</v>
+      </c>
+      <c r="N20" s="11">
+        <v>2.60869565217391</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="O20" s="29">
+      <c r="T20" s="29">
         <v>5667</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="U20" s="29"/>
+      <c r="V20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2919,47 +3205,59 @@
       <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="G21" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="J21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K21" s="11">
         <v>1.88007124480506</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="L21" s="11"/>
+      <c r="M21" s="47">
+        <v>190</v>
+      </c>
+      <c r="N21" s="11">
+        <v>6.3157894736842097</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="O21" s="29">
+      <c r="T21" s="29">
         <v>5189</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="U21" s="29"/>
+      <c r="V21" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -2969,47 +3267,56 @@
       <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="G22" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="I22" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="11">
         <v>27.646942410449199</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="L22" s="11"/>
+      <c r="M22" s="47">
+        <v>2794</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0.46528274874731501</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="P22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="Q22" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="R22" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="S22" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="O22" s="32">
+      <c r="T22" s="32">
         <v>6681</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="V22" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -3019,44 +3326,58 @@
       <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="11">
+        <v>45</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="G23" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H23" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" s="11">
         <v>0.41559469622006701</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="L23" s="11"/>
+      <c r="M23" s="47">
+        <v>42</v>
+      </c>
+      <c r="N23" s="11">
+        <v>21.428571428571399</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="Q23" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="R23" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="S23" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="O23" s="32">
+      <c r="T23" s="32">
         <v>2760</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="V23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -3066,47 +3387,56 @@
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="G24" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H24" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="11">
         <v>9.8357411438749196</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="L24" s="11"/>
+      <c r="M24" s="47">
+        <v>994</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0.20120724346076399</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="P24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="Q24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="R24" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="S24" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="O24" s="32">
+      <c r="T24" s="32">
         <v>2622</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="V24" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -3116,47 +3446,56 @@
       <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="G25" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H25" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" s="11">
         <v>0.24737779536908699</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="L25" s="11"/>
+      <c r="M25" s="47">
+        <v>25</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="P25" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="Q25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="R25" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="S25" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="O25" s="32">
+      <c r="T25" s="32">
         <v>1515</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="V25" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -3166,47 +3505,56 @@
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="G26" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" s="11">
         <v>6.1844448842271902</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="L26" s="11"/>
+      <c r="M26" s="47">
+        <v>625</v>
+      </c>
+      <c r="N26" s="11">
+        <v>1.1199999999999899</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="P26" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="Q26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="R26" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="S26" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="O26" s="32">
+      <c r="T26" s="32">
         <v>1454</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="V26" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -3216,47 +3564,56 @@
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="G27" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="I27" s="11">
+      <c r="J27" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" s="11">
         <v>1.20720364140114</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="L27" s="11"/>
+      <c r="M27" s="47">
+        <v>122</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="O27" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="P27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="Q27" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="R27" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="S27" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O27" s="32">
+      <c r="T27" s="32">
         <v>2090</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="V27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -3266,47 +3623,56 @@
       <c r="C28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="G28" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="H28" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" s="11">
         <v>13.2000791608945</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="L28" s="11"/>
+      <c r="M28" s="47">
+        <v>1334</v>
+      </c>
+      <c r="N28" s="11">
+        <v>1.0494752623688099</v>
+      </c>
+      <c r="O28" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="P28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="Q28" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="R28" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="S28" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="O28" s="32">
+      <c r="T28" s="32">
         <v>1816</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="V28" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>37</v>
       </c>
@@ -3322,15 +3688,21 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="16" t="s">
+      <c r="L29" s="17"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
@@ -3346,15 +3718,21 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="16" t="s">
+      <c r="L30" s="17"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>37</v>
       </c>
@@ -3370,15 +3748,21 @@
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="18" t="s">
+      <c r="L31" s="19"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
@@ -3394,15 +3778,21 @@
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="18" t="s">
+      <c r="L32" s="19"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -3412,47 +3802,57 @@
       <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="G33" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="H33" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" s="4">
         <v>35.751038986740497</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="L33" s="4"/>
+      <c r="M33" s="47">
+        <v>3613</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0.38748962081372801</v>
+      </c>
+      <c r="O33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="P33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="O33" s="29">
+      <c r="T33" s="29">
         <v>350</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="U33" s="29"/>
+      <c r="V33" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -3462,47 +3862,57 @@
       <c r="C34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="G34" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="H34" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" s="4">
         <v>98.990698594894099</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="L34" s="4"/>
+      <c r="M34" s="47">
+        <v>10004</v>
+      </c>
+      <c r="N34" s="11">
+        <v>6.7772890843662497</v>
+      </c>
+      <c r="O34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="P34" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="R34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="S34" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="O34" s="7">
+      <c r="T34" s="7">
         <v>421</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="U34" s="7"/>
+      <c r="V34" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -3512,47 +3922,57 @@
       <c r="C35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="G35" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G35" s="11" t="s">
+      <c r="H35" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="I35" s="4">
+      <c r="J35" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" s="4">
         <v>4.8288145656045902</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="L35" s="4"/>
+      <c r="M35" s="45">
+        <v>488</v>
+      </c>
+      <c r="N35" s="4">
+        <v>5.3278688524590097</v>
+      </c>
+      <c r="O35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="P35" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="R35" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="S35" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="O35" s="7">
+      <c r="T35" s="7">
         <v>3296</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="U35" s="7"/>
+      <c r="V35" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
@@ -3562,47 +3982,57 @@
       <c r="C36" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="G36" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>238</v>
-      </c>
       <c r="H36" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" s="9">
         <v>0.77181872155155296</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="L36" s="9"/>
+      <c r="M36" s="46">
+        <v>78</v>
+      </c>
+      <c r="N36" s="9">
+        <v>20.5128205128205</v>
+      </c>
+      <c r="O36" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="P36" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="Q36" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="R36" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="S36" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="O36" s="10">
+      <c r="T36" s="10">
         <v>1824</v>
       </c>
-      <c r="P36" s="8" t="s">
+      <c r="U36" s="10"/>
+      <c r="V36" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -3612,47 +4042,57 @@
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="G37" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G37" s="41" t="s">
-        <v>238</v>
-      </c>
       <c r="H37" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K37" s="4">
         <v>2.6940517471325598</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="L37" s="4"/>
+      <c r="M37" s="45">
+        <v>202</v>
+      </c>
+      <c r="N37" s="4">
+        <v>36.138613861386098</v>
+      </c>
+      <c r="O37" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="P37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O37" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T37" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U37" s="29"/>
+      <c r="V37" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
@@ -3662,47 +4102,57 @@
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="G38" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H38" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K38" s="4">
         <v>3.3208855694851902</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="L38" s="4"/>
+      <c r="M38" s="45">
+        <v>249</v>
+      </c>
+      <c r="N38" s="4">
+        <v>32.931726907630498</v>
+      </c>
+      <c r="O38" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="P38" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O38" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T38" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U38" s="29"/>
+      <c r="V38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>23</v>
       </c>
@@ -3712,47 +4162,57 @@
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="G39" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H39" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39" s="4">
         <v>3.0808215524139699</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="L39" s="4"/>
+      <c r="M39" s="45">
+        <v>231</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O39" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T39" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U39" s="29"/>
+      <c r="V39" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -3762,47 +4222,57 @@
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="G40" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" s="4">
         <v>5.1347025873566201</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="L40" s="4"/>
+      <c r="M40" s="45">
+        <v>385</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0.77922077922077904</v>
+      </c>
+      <c r="O40" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O40" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T40" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U40" s="29"/>
+      <c r="V40" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
@@ -3812,47 +4282,57 @@
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="G41" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" s="4">
         <v>29.6345692184582</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="L41" s="4"/>
+      <c r="M41" s="45">
+        <v>2222</v>
+      </c>
+      <c r="N41" s="4">
+        <v>34.608460846084597</v>
+      </c>
+      <c r="O41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="P41" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O41" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T41" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U41" s="29"/>
+      <c r="V41" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
@@ -3862,45 +4342,55 @@
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="G42" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H42" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K42" s="4">
         <v>0.89357161909842597</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="L42" s="4"/>
+      <c r="M42" s="45">
+        <v>67</v>
+      </c>
+      <c r="N42" s="4">
+        <v>41.791044776119399</v>
+      </c>
+      <c r="O42" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="P42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O42" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T42" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U42" s="29"/>
+      <c r="V42" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>23</v>
       </c>
@@ -3910,47 +4400,57 @@
       <c r="C43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="G43" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H43" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K43" s="4">
         <v>10.282742064550501</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="L43" s="4"/>
+      <c r="M43" s="45">
+        <v>771</v>
+      </c>
+      <c r="N43" s="4">
+        <v>29.831387808041502</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="P43" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O43" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T43" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U43" s="29"/>
+      <c r="V43" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -3960,47 +4460,57 @@
       <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="G44" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H44" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K44" s="4">
         <v>0.25340090690850797</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="L44" s="4"/>
+      <c r="M44" s="45">
+        <v>19</v>
+      </c>
+      <c r="N44" s="4">
+        <v>26.315789473684202</v>
+      </c>
+      <c r="O44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="P44" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O44" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T44" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U44" s="29"/>
+      <c r="V44" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>23</v>
       </c>
@@ -4010,47 +4520,57 @@
       <c r="C45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="G45" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K45" s="4">
         <v>20.085356094958598</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="L45" s="4"/>
+      <c r="M45" s="45">
+        <v>1506</v>
+      </c>
+      <c r="N45" s="4">
+        <v>40.106241699867198</v>
+      </c>
+      <c r="O45" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="P45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O45" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T45" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U45" s="29"/>
+      <c r="V45" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
@@ -4060,47 +4580,57 @@
       <c r="C46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="G46" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K46" s="4">
         <v>2.8007468658308801</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="L46" s="4"/>
+      <c r="M46" s="45">
+        <v>210</v>
+      </c>
+      <c r="N46" s="4">
+        <v>38.095238095238003</v>
+      </c>
+      <c r="O46" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="P46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O46" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T46" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U46" s="29"/>
+      <c r="V46" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
@@ -4110,47 +4640,57 @@
       <c r="C47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="G47" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H47" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K47" s="4">
         <v>28.540944251800401</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="L47" s="4"/>
+      <c r="M47" s="45">
+        <v>2140</v>
+      </c>
+      <c r="N47" s="4">
+        <v>79.906542056074699</v>
+      </c>
+      <c r="O47" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="P47" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O47" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T47" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U47" s="29"/>
+      <c r="V47" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>23</v>
       </c>
@@ -4158,23 +4698,29 @@
       <c r="C48" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="18" t="s">
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>23</v>
       </c>
@@ -4182,23 +4728,29 @@
       <c r="C49" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="18" t="s">
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>23</v>
       </c>
@@ -4214,15 +4766,21 @@
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="18" t="s">
+      <c r="L50" s="19"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>23</v>
       </c>
@@ -4238,15 +4796,21 @@
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="18" t="s">
+      <c r="L51" s="19"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>23</v>
       </c>
@@ -4256,47 +4820,57 @@
       <c r="C52" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="G52" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>238</v>
-      </c>
       <c r="H52" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K52" s="9">
         <v>37.623366230994897</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="L52" s="9"/>
+      <c r="M52" s="46">
+        <v>2821</v>
+      </c>
+      <c r="N52" s="9">
+        <v>64.835164835164804</v>
+      </c>
+      <c r="O52" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="P52" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="L52" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="O52" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="P52" s="8" t="s">
+      <c r="Q52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="S52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="T52" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="U52" s="30"/>
+      <c r="V52" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -4306,45 +4880,57 @@
       <c r="C53" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="4">
+        <v>93</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="G53" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H53" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K53" s="4">
         <v>0.39347129116875501</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="L53" s="4"/>
+      <c r="M53" s="45">
+        <v>27</v>
+      </c>
+      <c r="N53" s="4">
+        <v>55.5555555555555</v>
+      </c>
+      <c r="O53" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="P53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6" t="s">
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="N53" s="6" t="s">
+      <c r="S53" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O53" s="6">
+      <c r="T53" s="6">
         <v>4684</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="U53" s="6"/>
+      <c r="V53" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -4354,47 +4940,57 @@
       <c r="C54" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="G54" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I54" s="4">
+      <c r="J54" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K54" s="4">
         <v>8.7438064704167803E-2</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="L54" s="4"/>
+      <c r="M54" s="45">
+        <v>6</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="P54" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="Q54" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M54" s="6" t="s">
+      <c r="R54" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="N54" s="6" t="s">
+      <c r="S54" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="O54" s="6" t="s">
+      <c r="T54" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="U54" s="6"/>
+      <c r="V54" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -4404,47 +5000,57 @@
       <c r="C55" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="G55" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H55" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K55" s="4">
         <v>1.50102011075488</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="L55" s="4"/>
+      <c r="M55" s="45">
+        <v>103</v>
+      </c>
+      <c r="N55" s="4">
+        <v>11.6504854368932</v>
+      </c>
+      <c r="O55" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="P55" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="Q55" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M55" s="6" t="s">
+      <c r="R55" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="N55" s="6" t="s">
+      <c r="S55" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="O55" s="6">
+      <c r="T55" s="6">
         <v>527</v>
       </c>
-      <c r="P55" s="3" t="s">
+      <c r="U55" s="6"/>
+      <c r="V55" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>57</v>
       </c>
@@ -4454,47 +5060,57 @@
       <c r="C56" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="G56" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>238</v>
-      </c>
       <c r="H56" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K56" s="9">
         <v>2.7980180705333701</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="L56" s="9"/>
+      <c r="M56" s="46">
+        <v>192</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+      <c r="O56" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="P56" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="L56" s="10" t="s">
+      <c r="Q56" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="M56" s="10" t="s">
+      <c r="R56" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="S56" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="O56" s="10">
+      <c r="T56" s="10">
         <v>2572</v>
       </c>
-      <c r="P56" s="8" t="s">
+      <c r="U56" s="10"/>
+      <c r="V56" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -4504,45 +5120,55 @@
       <c r="C57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E57" s="36" t="s">
+      <c r="G57" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H57" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K57" s="4">
         <v>22.822201317027201</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="L57" s="4"/>
+      <c r="M57" s="45">
+        <v>1213</v>
+      </c>
+      <c r="N57" s="4">
+        <v>18.2192910140148</v>
+      </c>
+      <c r="O57" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="P57" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N57" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="O57" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="P57" s="3" t="s">
+      <c r="Q57" s="3"/>
+      <c r="R57" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="T57" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="U57" s="29"/>
+      <c r="V57" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -4552,47 +5178,57 @@
       <c r="C58" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="G58" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I58" s="4">
+      <c r="J58" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K58" s="4">
         <v>11.0253998118532</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="L58" s="4"/>
+      <c r="M58" s="45">
+        <v>586</v>
+      </c>
+      <c r="N58" s="4">
+        <v>16.382252559726901</v>
+      </c>
+      <c r="O58" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="P58" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O58" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T58" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U58" s="29"/>
+      <c r="V58" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -4602,47 +5238,57 @@
       <c r="C59" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="G59" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H59" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K59" s="4">
         <v>8.5042333019755407</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="L59" s="4"/>
+      <c r="M59" s="45">
+        <v>452</v>
+      </c>
+      <c r="N59" s="4">
+        <v>16.150442477876101</v>
+      </c>
+      <c r="O59" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="P59" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O59" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="P59" s="3" t="s">
+      <c r="Q59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T59" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U59" s="29"/>
+      <c r="V59" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
@@ -4652,47 +5298,57 @@
       <c r="C60" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="G60" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>238</v>
-      </c>
       <c r="H60" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K60" s="9">
         <v>8.4101599247412899</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="L60" s="9"/>
+      <c r="M60" s="46">
+        <v>447</v>
+      </c>
+      <c r="N60" s="9">
+        <v>13.8702460850111</v>
+      </c>
+      <c r="O60" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="K60" s="9" t="s">
+      <c r="P60" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="L60" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="O60" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="P60" s="8" t="s">
+      <c r="Q60" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="S60" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="T60" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="U60" s="30"/>
+      <c r="V60" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>94</v>
       </c>
@@ -4702,45 +5358,57 @@
       <c r="C61" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E61" s="39" t="s">
+      <c r="D61" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G61" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="F61" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="H61" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="I61" s="11">
-        <v>5.9118644067796602</v>
-      </c>
-      <c r="J61" s="4" t="s">
+      <c r="K61" s="11">
+        <v>5.9126661242202303</v>
+      </c>
+      <c r="L61" s="11"/>
+      <c r="M61" s="45">
+        <v>436</v>
+      </c>
+      <c r="N61" s="4">
+        <v>13.7614678899082</v>
+      </c>
+      <c r="O61" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="P61" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="5" t="s">
+      <c r="Q61" s="3"/>
+      <c r="R61" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="N61" s="32" t="s">
+      <c r="S61" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="O61" s="5">
+      <c r="T61" s="5">
         <v>870</v>
       </c>
-      <c r="P61" s="3" t="s">
+      <c r="U61" s="5"/>
+      <c r="V61" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>94</v>
       </c>
@@ -4750,45 +5418,59 @@
       <c r="C62" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="G62" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I62" s="4">
-        <v>9.6406779661016895</v>
+      <c r="I62" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="J62" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K62" s="4">
+        <v>9.6555465147816602</v>
+      </c>
+      <c r="L62" s="4"/>
+      <c r="M62" s="45">
+        <v>712</v>
+      </c>
+      <c r="N62" s="4">
+        <v>2.80898876404494</v>
+      </c>
+      <c r="O62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="P62" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="5" t="s">
+      <c r="Q62" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="R62" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="N62" s="32" t="s">
+      <c r="S62" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="O62" s="5">
+      <c r="T62" s="5">
         <v>2158</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="U62" s="5"/>
+      <c r="V62" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>94</v>
       </c>
@@ -4798,45 +5480,57 @@
       <c r="C63" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E63" s="37" t="s">
+      <c r="D63" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G63" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="H63" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G63" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="I63" s="9">
-        <v>40.786440677966098</v>
+      <c r="I63" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="J63" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K63" s="9">
+        <v>40.791971792785397</v>
+      </c>
+      <c r="L63" s="9"/>
+      <c r="M63" s="46">
+        <v>3008</v>
+      </c>
+      <c r="N63" s="9">
+        <v>19.946808510638299</v>
+      </c>
+      <c r="O63" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="P63" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8" t="s">
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="N63" s="30" t="s">
+      <c r="S63" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="O63" s="8">
+      <c r="T63" s="8">
         <v>1234</v>
       </c>
-      <c r="P63" s="8" t="s">
+      <c r="U63" s="8"/>
+      <c r="V63" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>95</v>
       </c>
@@ -4846,45 +5540,57 @@
       <c r="C64" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="G64" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="H64" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="K64" s="11">
         <v>1.44092219020172</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="L64" s="11"/>
+      <c r="M64" s="45">
+        <v>50</v>
+      </c>
+      <c r="N64" s="4">
+        <v>54</v>
+      </c>
+      <c r="O64" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="P64" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="32" t="s">
+      <c r="Q64" s="3"/>
+      <c r="R64" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="N64" s="32" t="s">
+      <c r="S64" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="O64" s="5">
+      <c r="T64" s="5">
         <v>2249</v>
       </c>
-      <c r="P64" s="3" t="s">
+      <c r="U64" s="5"/>
+      <c r="V64" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>95</v>
       </c>
@@ -4894,45 +5600,57 @@
       <c r="C65" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="11">
+        <v>82.7</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="G65" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="H65" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="K65" s="4">
         <v>4.5533141210374604</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="L65" s="4"/>
+      <c r="M65" s="45">
+        <v>158</v>
+      </c>
+      <c r="N65" s="4">
+        <v>93.670886075949298</v>
+      </c>
+      <c r="O65" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="P65" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L65" s="3"/>
-      <c r="M65" s="32" t="s">
+      <c r="Q65" s="3"/>
+      <c r="R65" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="N65" s="32" t="s">
+      <c r="S65" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="O65" s="5">
+      <c r="T65" s="5">
         <v>4785</v>
       </c>
-      <c r="P65" s="3" t="s">
+      <c r="U65" s="5"/>
+      <c r="V65" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>95</v>
       </c>
@@ -4942,45 +5660,57 @@
       <c r="C66" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="9">
+        <v>43.4</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E66" s="37" t="s">
+      <c r="G66" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G66" s="9" t="s">
+      <c r="H66" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I66" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="I66" s="9">
+      <c r="J66" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K66" s="9">
         <v>83.775216138328503</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="L66" s="9"/>
+      <c r="M66" s="46">
+        <v>2907</v>
+      </c>
+      <c r="N66" s="9">
+        <v>72.755417956656302</v>
+      </c>
+      <c r="O66" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="P66" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L66" s="8"/>
-      <c r="M66" s="30" t="s">
+      <c r="Q66" s="8"/>
+      <c r="R66" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="N66" s="30" t="s">
+      <c r="S66" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="O66" s="8">
+      <c r="T66" s="8">
         <v>805</v>
       </c>
-      <c r="P66" s="8" t="s">
+      <c r="U66" s="8"/>
+      <c r="V66" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>96</v>
       </c>
@@ -4990,45 +5720,57 @@
       <c r="C67" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="11">
+        <v>40.6</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="G67" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="H67" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="K67" s="11">
         <v>1.57232704402515</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="L67" s="11"/>
+      <c r="M67" s="45">
+        <v>70</v>
+      </c>
+      <c r="N67" s="4">
+        <v>67.142857142857096</v>
+      </c>
+      <c r="O67" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="P67" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="5" t="s">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N67" s="32" t="s">
+      <c r="S67" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="O67" s="5">
+      <c r="T67" s="5">
         <v>2601</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="U67" s="5"/>
+      <c r="V67" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -5038,45 +5780,57 @@
       <c r="C68" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="4">
+        <v>48.3</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E68" s="36" t="s">
+      <c r="G68" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H68" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K68" s="4">
         <v>5.3009883198562404</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="L68" s="4"/>
+      <c r="M68" s="45">
+        <v>236</v>
+      </c>
+      <c r="N68" s="4">
+        <v>52.966101694915203</v>
+      </c>
+      <c r="O68" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="P68" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="5" t="s">
+      <c r="Q68" s="3"/>
+      <c r="R68" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="N68" s="32" t="s">
+      <c r="S68" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="O68" s="5">
+      <c r="T68" s="5">
         <v>6953</v>
       </c>
-      <c r="P68" s="3" t="s">
+      <c r="U68" s="5"/>
+      <c r="V68" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
@@ -5086,45 +5840,57 @@
       <c r="C69" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="4">
+        <v>46.7</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="G69" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="H69" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K69" s="4">
         <v>4.8966756513926297</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="L69" s="4"/>
+      <c r="M69" s="45">
+        <v>218</v>
+      </c>
+      <c r="N69" s="4">
+        <v>44.4954128440367</v>
+      </c>
+      <c r="O69" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="P69" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3" t="s">
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="N69" s="29" t="s">
+      <c r="S69" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="O69" s="3">
+      <c r="T69" s="3">
         <v>6699</v>
       </c>
-      <c r="P69" s="3" t="s">
+      <c r="U69" s="3"/>
+      <c r="V69" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>96</v>
       </c>
@@ -5134,57 +5900,69 @@
       <c r="C70" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="9">
+        <v>61.1</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E70" s="37" t="s">
+      <c r="G70" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="F70" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>238</v>
-      </c>
       <c r="H70" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K70" s="9">
         <v>0.494159928122192</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="L70" s="9"/>
+      <c r="M70" s="46">
+        <v>22</v>
+      </c>
+      <c r="N70" s="9">
+        <v>100</v>
+      </c>
+      <c r="O70" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="K70" s="9" t="s">
+      <c r="P70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8" t="s">
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="N70" s="30" t="s">
+      <c r="S70" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="O70" s="8">
+      <c r="T70" s="8">
         <v>1137</v>
       </c>
-      <c r="P70" s="8" t="s">
+      <c r="U70" s="8"/>
+      <c r="V70" s="8" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="P58">
+  <conditionalFormatting sqref="V58">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P54">
+  <conditionalFormatting sqref="V54">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="C2:E2">
     <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P72:P1048576 C14 C12 C7 P1:P52 P57 P59:P65">
+  <conditionalFormatting sqref="V72:V1048576 C14:E14 C12:E12 C7:E7 V1:V52 V57 V59:V65">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/04_XV-seq/XV-seq_overview.xlsx
+++ b/04_XV-seq/XV-seq_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/scBPDCN-analysis/04_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC752C7F-754A-3946-AF74-EE5B1AF787F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EADFD23-095A-5449-8161-94A802C6991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="XV-seq_overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XV-seq_overview'!$A$1:$V$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XV-seq_overview'!$A$1:$X$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="298">
   <si>
     <t>Sample</t>
   </si>
@@ -421,12 +420,6 @@
     <t>RHP targeted sequencing</t>
   </si>
   <si>
-    <t>Clone 1</t>
-  </si>
-  <si>
-    <t>Clone 2</t>
-  </si>
-  <si>
     <t>WGS</t>
   </si>
   <si>
@@ -493,9 +486,6 @@
     <t>Skin-specific mutation indicating CDKN2A deletion. One primer/PCR, five aberrant splicing acceptor sites.</t>
   </si>
   <si>
-    <t>Skin-specific mutation, C&gt;T</t>
-  </si>
-  <si>
     <t>TET2.2340</t>
   </si>
   <si>
@@ -907,7 +897,37 @@
     <t>CC&gt;TT (UV-specific)</t>
   </si>
   <si>
-    <t>Independent validation with ASXL1.1898:</t>
+    <t>Independently validated with ASXL1.1898 primer (see methods).</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>nd</t>
+  </si>
+  <si>
+    <t>no vaf</t>
+  </si>
+  <si>
+    <t>Skin-specific mutation. Annotated as splice donor variant in WES.</t>
+  </si>
+  <si>
+    <t>Skin-specific mutation. Annotated as f659f in WES.</t>
+  </si>
+  <si>
+    <t>Clone 1 (also found in relapse)</t>
+  </si>
+  <si>
+    <t>Clone 2 (not found in relapse)</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>Number of wildtype UMIs</t>
+  </si>
+  <si>
+    <t>Number of mutant UMIs</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1480,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1538,9 +1558,6 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1551,6 +1568,36 @@
     <xf numFmtId="1" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1598,17 +1645,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1949,1730 +1986,1981 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5" style="5" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="55" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="14.1640625" style="5" customWidth="1"/>
-    <col min="11" max="12" width="12.1640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="69.5" style="5" customWidth="1"/>
-    <col min="18" max="18" width="18" style="5" customWidth="1"/>
-    <col min="19" max="19" width="85.83203125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="16" style="32" customWidth="1"/>
-    <col min="21" max="21" width="40.33203125" style="32" customWidth="1"/>
-    <col min="22" max="22" width="61.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="5"/>
+    <col min="11" max="12" width="13.6640625" style="5" customWidth="1"/>
+    <col min="13" max="14" width="12.1640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="69.5" style="5" customWidth="1"/>
+    <col min="20" max="20" width="18" style="5" customWidth="1"/>
+    <col min="21" max="21" width="85.83203125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="16" style="32" customWidth="1"/>
+    <col min="23" max="23" width="40.33203125" style="32" customWidth="1"/>
+    <col min="24" max="24" width="61.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="O1" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q1" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="R1" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="50">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="50">
+        <v>2</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K2" s="4">
+        <v>235</v>
+      </c>
+      <c r="K2" s="44">
+        <v>356</v>
+      </c>
+      <c r="L2" s="44">
+        <v>101</v>
+      </c>
+      <c r="M2" s="4">
         <v>1.01091791346542</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="45">
+      <c r="N2" s="4"/>
+      <c r="O2" s="44">
         <v>25</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>20</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="T2" s="25">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="V2" s="25">
         <v>6415</v>
       </c>
-      <c r="U2" s="25"/>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="25"/>
+      <c r="X2" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="50">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="50">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K3" s="4">
+        <v>235</v>
+      </c>
+      <c r="K3" s="44">
+        <v>27</v>
+      </c>
+      <c r="L3" s="44">
+        <v>15</v>
+      </c>
+      <c r="M3" s="4">
         <v>0.242620299231702</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="45">
+      <c r="N3" s="4"/>
+      <c r="O3" s="44">
         <v>6</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>50</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="T3" s="25">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="V3" s="25">
         <v>2555</v>
       </c>
-      <c r="U3" s="25"/>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>289</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K4" s="4">
+        <v>235</v>
+      </c>
+      <c r="K4" s="44">
+        <v>386</v>
+      </c>
+      <c r="L4" s="44">
+        <v>62</v>
+      </c>
+      <c r="M4" s="4">
         <v>2.9518803073190401</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="45">
+      <c r="N4" s="4"/>
+      <c r="O4" s="44">
         <v>73</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>13.698630136986299</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="T4" s="25">
+      <c r="R4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="V4" s="25">
         <v>225</v>
       </c>
-      <c r="U4" s="25"/>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="25"/>
+      <c r="X4" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>289</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K5" s="4">
+        <v>235</v>
+      </c>
+      <c r="K5" s="44">
+        <v>2502</v>
+      </c>
+      <c r="L5" s="44">
+        <v>92</v>
+      </c>
+      <c r="M5" s="4">
         <v>6.0250707642539396</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="45">
+      <c r="N5" s="4"/>
+      <c r="O5" s="44">
         <v>149</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>2.0134228187919399</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="T5" s="26">
+      <c r="R5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="V5" s="26">
         <v>324</v>
       </c>
-      <c r="U5" s="26"/>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="26"/>
+      <c r="X5" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="51">
+        <v>2.6</v>
+      </c>
       <c r="F6" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="45">
+        <v>709</v>
+      </c>
+      <c r="L6" s="45">
+        <v>69</v>
+      </c>
+      <c r="M6" s="9">
+        <v>4.5693489688637197</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="45">
+        <v>113</v>
+      </c>
+      <c r="P6" s="9">
+        <v>11.504424778761001</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="V6" s="27">
+        <v>120</v>
+      </c>
+      <c r="W6" s="27"/>
+      <c r="X6" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K6" s="9">
-        <v>4.5693489688637197</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="46">
-        <v>113</v>
-      </c>
-      <c r="N6" s="9">
-        <v>11.504424778761001</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="T6" s="27">
-        <v>120</v>
-      </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="50">
+        <v>2.4</v>
+      </c>
       <c r="F7" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K7" s="4">
+        <v>235</v>
+      </c>
+      <c r="K7" s="44">
+        <v>119</v>
+      </c>
+      <c r="L7" s="44">
+        <v>14</v>
+      </c>
+      <c r="M7" s="4">
         <v>1.0861132660977499</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="45">
+      <c r="N7" s="4"/>
+      <c r="O7" s="44">
         <v>112</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>10.714285714285699</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="U7" s="29"/>
-      <c r="V7" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="S7" s="3"/>
+      <c r="T7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="W7" s="29"/>
+      <c r="X7" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="50">
+        <v>14.3</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K8" s="4">
+        <v>235</v>
+      </c>
+      <c r="K8" s="44">
+        <v>29</v>
+      </c>
+      <c r="L8" s="44">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <v>0.28122575640031</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="45">
+      <c r="N8" s="4"/>
+      <c r="O8" s="44">
         <v>29</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T8" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U8" s="29"/>
-      <c r="V8" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W8" s="29"/>
+      <c r="X8" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>289</v>
+      </c>
       <c r="F9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K9" s="44">
+        <v>297</v>
+      </c>
+      <c r="L9" s="44">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2.4825446082234199</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="44">
+        <v>256</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W9" s="29"/>
+      <c r="X9" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K9" s="4">
-        <v>2.4825446082234199</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="45">
-        <v>256</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T9" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U9" s="29"/>
-      <c r="V9" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="B10" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>289</v>
+      </c>
       <c r="F10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K10" s="44">
+        <v>839</v>
+      </c>
+      <c r="L10" s="44">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>6.5554693560899899</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="44">
+        <v>676</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W10" s="29"/>
+      <c r="X10" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G10" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K10" s="4">
-        <v>6.5554693560899899</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="45">
-        <v>676</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T10" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U10" s="29"/>
-      <c r="V10" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>232</v>
-      </c>
       <c r="B11" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>289</v>
+      </c>
       <c r="F11" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K11" s="9">
+        <v>235</v>
+      </c>
+      <c r="K11" s="45">
+        <v>526</v>
+      </c>
+      <c r="L11" s="45">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
         <v>4.4511249030256002</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="46">
+      <c r="N11" s="9"/>
+      <c r="O11" s="45">
         <v>459</v>
       </c>
-      <c r="N11" s="9">
+      <c r="P11" s="9">
         <v>0</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="Q11" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="P11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="T11" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="U11" s="30"/>
-      <c r="V11" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="R11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="V11" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="W11" s="30"/>
+      <c r="X11" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="50">
         <v>36.799999999999997</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="59" t="s">
+        <v>295</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K12" s="4">
+        <v>235</v>
+      </c>
+      <c r="K12" s="44">
+        <v>1287</v>
+      </c>
+      <c r="L12" s="44">
+        <v>819</v>
+      </c>
+      <c r="M12" s="4">
         <v>4.2702050663449898</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="45">
+      <c r="N12" s="4"/>
+      <c r="O12" s="44">
         <v>177</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>42.937853107344601</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="20" t="s">
+      <c r="S12" s="3"/>
+      <c r="T12" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="U12" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="S12" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="T12" s="25">
+      <c r="V12" s="25">
         <v>8449</v>
       </c>
-      <c r="U12" s="25"/>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="25"/>
+      <c r="X12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="50">
         <v>41.3</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="50" t="s">
+        <v>295</v>
+      </c>
       <c r="F13" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K13" s="4">
+        <v>235</v>
+      </c>
+      <c r="K13" s="44">
+        <v>1288</v>
+      </c>
+      <c r="L13" s="44">
+        <v>1045</v>
+      </c>
+      <c r="M13" s="4">
         <v>5.4764776839565696</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="45">
+      <c r="N13" s="4"/>
+      <c r="O13" s="44">
         <v>227</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>36.123348017621097</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="20" t="s">
+      <c r="S13" s="3"/>
+      <c r="T13" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="U13" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="S13" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="T13" s="25">
+      <c r="V13" s="25">
         <v>5109</v>
       </c>
-      <c r="U13" s="25"/>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="25"/>
+      <c r="X13" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="51">
         <v>85.8</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="51" t="s">
+        <v>295</v>
+      </c>
       <c r="F14" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K14" s="9">
+        <v>235</v>
+      </c>
+      <c r="K14" s="45">
+        <v>1780</v>
+      </c>
+      <c r="L14" s="45">
+        <v>348</v>
+      </c>
+      <c r="M14" s="9">
         <v>5.9831121833534304</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="46">
+      <c r="N14" s="9"/>
+      <c r="O14" s="45">
         <v>248</v>
       </c>
-      <c r="N14" s="9">
+      <c r="P14" s="9">
         <v>14.516129032258</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="Q14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="R14" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="15" t="s">
+      <c r="S14" s="8"/>
+      <c r="T14" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="U14" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="S14" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="T14" s="27">
+      <c r="V14" s="27">
         <v>942</v>
       </c>
-      <c r="U14" s="27"/>
-      <c r="V14" s="8" t="s">
+      <c r="W14" s="27"/>
+      <c r="X14" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="50">
         <v>44.8</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="50">
+        <v>43</v>
+      </c>
       <c r="F15" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K15" s="4">
+        <v>235</v>
+      </c>
+      <c r="K15" s="44">
+        <v>348</v>
+      </c>
+      <c r="L15" s="44">
+        <v>219</v>
+      </c>
+      <c r="M15" s="4">
         <v>9.8628347485303696</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="45">
+      <c r="N15" s="4"/>
+      <c r="O15" s="44">
         <v>453</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>40.397350993377401</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="S15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T15" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="U15" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="S15" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="T15" s="31">
+      <c r="V15" s="31">
         <v>5002</v>
       </c>
-      <c r="U15" s="26"/>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="26"/>
+      <c r="X15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="50">
         <v>35.5</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="50">
+        <v>50</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K16" s="4">
+        <v>235</v>
+      </c>
+      <c r="K16" s="44">
+        <v>129</v>
+      </c>
+      <c r="L16" s="44">
+        <v>64</v>
+      </c>
+      <c r="M16" s="4">
         <v>3.8319181362943602</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="45">
+      <c r="N16" s="4"/>
+      <c r="O16" s="44">
         <v>176</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>32.954545454545404</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="T16" s="26">
+      <c r="S16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="V16" s="26">
         <v>4701</v>
       </c>
-      <c r="U16" s="26"/>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="26"/>
+      <c r="X16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="51">
         <v>87.9</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="51">
+        <v>78.099999999999994</v>
+      </c>
       <c r="F17" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K17" s="9">
+        <v>235</v>
+      </c>
+      <c r="K17" s="45">
+        <v>27</v>
+      </c>
+      <c r="L17" s="45">
+        <v>99</v>
+      </c>
+      <c r="M17" s="9">
         <v>1.6329196603527101</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="46">
+      <c r="N17" s="9"/>
+      <c r="O17" s="45">
         <v>75</v>
       </c>
-      <c r="N17" s="9">
+      <c r="P17" s="9">
         <v>73.3333333333333</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="Q17" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="R17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Q17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="R17" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="S17" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="T17" s="27">
+      <c r="S17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="V17" s="27">
         <v>11002</v>
       </c>
-      <c r="U17" s="27"/>
-      <c r="V17" s="8" t="s">
+      <c r="W17" s="27"/>
+      <c r="X17" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="52">
         <v>29.5</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="52">
+        <v>20</v>
+      </c>
       <c r="F18" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K18" s="11">
+        <v>235</v>
+      </c>
+      <c r="K18" s="46">
+        <v>127</v>
+      </c>
+      <c r="L18" s="46">
+        <v>29</v>
+      </c>
+      <c r="M18" s="11">
         <v>1.22699386503067</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="47">
+      <c r="N18" s="11"/>
+      <c r="O18" s="46">
         <v>124</v>
       </c>
-      <c r="N18" s="11">
+      <c r="P18" s="11">
         <v>18.5483870967741</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="R18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="S18" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="T18" s="29">
+        <v>293</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V18" s="29">
         <v>6953</v>
       </c>
-      <c r="U18" s="29"/>
-      <c r="V18" s="5" t="s">
+      <c r="W18" s="29"/>
+      <c r="X18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="52">
         <v>31.4</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="52">
+        <v>11.7</v>
+      </c>
       <c r="F19" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K19" s="11">
+        <v>235</v>
+      </c>
+      <c r="K19" s="46">
+        <v>117</v>
+      </c>
+      <c r="L19" s="46">
+        <v>19</v>
+      </c>
+      <c r="M19" s="11">
         <v>1.0686720759944499</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="47">
+      <c r="N19" s="11"/>
+      <c r="O19" s="46">
         <v>108</v>
       </c>
-      <c r="N19" s="11">
+      <c r="P19" s="11">
         <v>14.814814814814801</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="R19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="S19" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T19" s="29">
+        <v>293</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V19" s="29">
         <v>6215</v>
       </c>
-      <c r="U19" s="29"/>
-      <c r="V19" s="5" t="s">
+      <c r="W19" s="29"/>
+      <c r="X19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="52">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="52">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="F20" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K20" s="11">
+        <v>235</v>
+      </c>
+      <c r="K20" s="46">
+        <v>143</v>
+      </c>
+      <c r="L20" s="46">
+        <v>3</v>
+      </c>
+      <c r="M20" s="11">
         <v>1.1379378586978</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="47">
+      <c r="N20" s="11"/>
+      <c r="O20" s="46">
         <v>115</v>
       </c>
-      <c r="N20" s="11">
+      <c r="P20" s="11">
         <v>2.60869565217391</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="T20" s="29">
+        <v>294</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V20" s="29">
         <v>5667</v>
       </c>
-      <c r="U20" s="29"/>
-      <c r="V20" s="5" t="s">
+      <c r="W20" s="29"/>
+      <c r="X20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="52">
         <v>6.9</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="52">
+        <v>9.6</v>
+      </c>
       <c r="F21" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K21" s="11">
+        <v>235</v>
+      </c>
+      <c r="K21" s="46">
+        <v>237</v>
+      </c>
+      <c r="L21" s="46">
+        <v>15</v>
+      </c>
+      <c r="M21" s="11">
         <v>1.88007124480506</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="47">
+      <c r="N21" s="11"/>
+      <c r="O21" s="46">
         <v>190</v>
       </c>
-      <c r="N21" s="11">
+      <c r="P21" s="11">
         <v>6.3157894736842097</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="S21" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="T21" s="29">
+        <v>294</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="V21" s="29">
         <v>5189</v>
       </c>
-      <c r="U21" s="29"/>
-      <c r="V21" s="5" t="s">
+      <c r="W21" s="29"/>
+      <c r="X21" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>289</v>
+      </c>
       <c r="F22" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="K22" s="11">
+        <v>235</v>
+      </c>
+      <c r="K22" s="46">
+        <v>4497</v>
+      </c>
+      <c r="L22" s="46">
+        <v>16</v>
+      </c>
+      <c r="M22" s="11">
         <v>27.646942410449199</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="47">
+      <c r="N22" s="11"/>
+      <c r="O22" s="46">
         <v>2794</v>
       </c>
-      <c r="N22" s="11">
+      <c r="P22" s="11">
         <v>0.46528274874731501</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="Q22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="R22" s="5" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="T22" s="32">
+        <v>10</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V22" s="32">
         <v>6681</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="X22" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="52">
         <v>45</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="52">
+        <v>27.2</v>
+      </c>
       <c r="F23" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K23" s="11">
+        <v>235</v>
+      </c>
+      <c r="K23" s="46">
+        <v>52</v>
+      </c>
+      <c r="L23" s="46">
+        <v>15</v>
+      </c>
+      <c r="M23" s="11">
         <v>0.41559469622006701</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="47">
+      <c r="N23" s="11"/>
+      <c r="O23" s="46">
         <v>42</v>
       </c>
-      <c r="N23" s="11">
+      <c r="P23" s="11">
         <v>21.428571428571399</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q23" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="S23" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="T23" s="32">
+        <v>287</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="V23" s="32">
         <v>2760</v>
       </c>
-      <c r="V23" s="5" t="s">
+      <c r="X23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>289</v>
+      </c>
       <c r="F24" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K24" s="11">
+        <v>235</v>
+      </c>
+      <c r="K24" s="46">
+        <v>1744</v>
+      </c>
+      <c r="L24" s="46">
+        <v>2</v>
+      </c>
+      <c r="M24" s="11">
         <v>9.8357411438749196</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="47">
+      <c r="N24" s="11"/>
+      <c r="O24" s="46">
         <v>994</v>
       </c>
-      <c r="N24" s="11">
+      <c r="P24" s="11">
         <v>0.20120724346076399</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="Q24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q24" s="5" t="s">
+      <c r="R24" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="S24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R24" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="T24" s="32">
+      <c r="T24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="V24" s="32">
         <v>2622</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="X24" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>289</v>
+      </c>
       <c r="F25" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K25" s="11">
+        <v>235</v>
+      </c>
+      <c r="K25" s="46">
+        <v>33</v>
+      </c>
+      <c r="L25" s="46">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
         <v>0.24737779536908699</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="47">
+      <c r="N25" s="11"/>
+      <c r="O25" s="46">
         <v>25</v>
       </c>
-      <c r="N25" s="11">
+      <c r="P25" s="11">
         <v>0</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P25" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>160</v>
+      <c r="R25" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="T25" s="32">
+        <v>291</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="V25" s="32">
         <v>1515</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="X25" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>289</v>
+      </c>
       <c r="F26" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="K26" s="11">
+        <v>235</v>
+      </c>
+      <c r="K26" s="46">
+        <v>1043</v>
+      </c>
+      <c r="L26" s="46">
+        <v>13</v>
+      </c>
+      <c r="M26" s="11">
         <v>6.1844448842271902</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="47">
+      <c r="N26" s="11"/>
+      <c r="O26" s="46">
         <v>625</v>
       </c>
-      <c r="N26" s="11">
+      <c r="P26" s="11">
         <v>1.1199999999999899</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="Q26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>161</v>
+      <c r="R26" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="T26" s="32">
+        <v>292</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="V26" s="32">
         <v>1454</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="X26" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>289</v>
+      </c>
       <c r="F27" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="K27" s="11">
+        <v>235</v>
+      </c>
+      <c r="K27" s="46">
+        <v>167</v>
+      </c>
+      <c r="L27" s="46">
+        <v>1</v>
+      </c>
+      <c r="M27" s="11">
         <v>1.20720364140114</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="47">
+      <c r="N27" s="11"/>
+      <c r="O27" s="46">
         <v>122</v>
       </c>
-      <c r="N27" s="11">
+      <c r="P27" s="11">
         <v>0.81967213114754101</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P27" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>162</v>
+      <c r="R27" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="T27" s="32">
+        <v>10</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V27" s="32">
         <v>2090</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="X27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>290</v>
+      </c>
       <c r="F28" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="K28" s="11">
+        <v>235</v>
+      </c>
+      <c r="K28" s="46">
+        <v>3249</v>
+      </c>
+      <c r="L28" s="46">
+        <v>204</v>
+      </c>
+      <c r="M28" s="11">
         <v>13.2000791608945</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="47">
+      <c r="N28" s="11"/>
+      <c r="O28" s="46">
         <v>1334</v>
       </c>
-      <c r="N28" s="11">
+      <c r="P28" s="11">
         <v>1.0494752623688099</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P28" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>163</v>
+      <c r="R28" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="T28" s="32">
+        <v>149</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="V28" s="32">
         <v>1816</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="X28" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>37</v>
       </c>
@@ -3680,29 +3968,35 @@
       <c r="C29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="48"/>
+      <c r="K29" s="47">
+        <v>3249</v>
+      </c>
+      <c r="L29" s="47">
+        <v>11</v>
+      </c>
+      <c r="M29" s="17"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
+      <c r="O29" s="47"/>
       <c r="P29" s="17"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
       <c r="S29" s="16"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="16" t="s">
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
@@ -3710,29 +4004,35 @@
       <c r="C30" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="48"/>
+      <c r="K30" s="47">
+        <v>3249</v>
+      </c>
+      <c r="L30" s="47">
+        <v>5</v>
+      </c>
+      <c r="M30" s="17"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
+      <c r="O30" s="47"/>
       <c r="P30" s="17"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
       <c r="S30" s="16"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="16" t="s">
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>37</v>
       </c>
@@ -3740,29 +4040,35 @@
       <c r="C31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="49"/>
+      <c r="K31" s="48">
+        <v>3249</v>
+      </c>
+      <c r="L31" s="48">
+        <v>10</v>
+      </c>
+      <c r="M31" s="19"/>
       <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
+      <c r="O31" s="48"/>
       <c r="P31" s="19"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="18" t="s">
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
@@ -3770,927 +4076,1083 @@
       <c r="C32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="49"/>
+      <c r="K32" s="48">
+        <v>3249</v>
+      </c>
+      <c r="L32" s="48">
+        <v>6</v>
+      </c>
+      <c r="M32" s="19"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
+      <c r="O32" s="48"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="18" t="s">
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>289</v>
+      </c>
       <c r="F33" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="K33" s="4">
+        <v>235</v>
+      </c>
+      <c r="K33" s="46">
+        <v>26276</v>
+      </c>
+      <c r="L33" s="46">
+        <v>175</v>
+      </c>
+      <c r="M33" s="4">
         <v>35.751038986740497</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="47">
+      <c r="N33" s="4"/>
+      <c r="O33" s="46">
         <v>3613</v>
       </c>
-      <c r="N33" s="11">
+      <c r="P33" s="11">
         <v>0.38748962081372801</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P33" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="S33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="T33" s="29">
+      <c r="T33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="V33" s="29">
         <v>350</v>
       </c>
-      <c r="U33" s="29"/>
-      <c r="V33" s="3" t="s">
+      <c r="W33" s="29"/>
+      <c r="X33" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="D34" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="50">
+        <v>20.2</v>
+      </c>
       <c r="F34" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="K34" s="4">
+        <v>235</v>
+      </c>
+      <c r="K34" s="46">
+        <v>97176</v>
+      </c>
+      <c r="L34" s="46">
+        <v>12561</v>
+      </c>
+      <c r="M34" s="4">
         <v>98.990698594894099</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="47">
+      <c r="N34" s="4"/>
+      <c r="O34" s="46">
         <v>10004</v>
       </c>
-      <c r="N34" s="11">
+      <c r="P34" s="11">
         <v>6.7772890843662497</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="Q34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P34" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="R34" s="7" t="s">
+      <c r="R34" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="U34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="S34" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="T34" s="7">
+      <c r="V34" s="7">
         <v>421</v>
       </c>
-      <c r="U34" s="7"/>
-      <c r="V34" s="3" t="s">
+      <c r="W34" s="7"/>
+      <c r="X34" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="50">
+        <v>10.4</v>
+      </c>
       <c r="F35" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="K35" s="4">
+        <v>235</v>
+      </c>
+      <c r="K35" s="44">
+        <v>6866</v>
+      </c>
+      <c r="L35" s="44">
+        <v>377</v>
+      </c>
+      <c r="M35" s="4">
         <v>4.8288145656045902</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="45">
+      <c r="N35" s="4"/>
+      <c r="O35" s="44">
         <v>488</v>
       </c>
-      <c r="N35" s="4">
+      <c r="P35" s="4">
         <v>5.3278688524590097</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P35" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="R35" s="7" t="s">
+      <c r="R35" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="U35" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="S35" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="T35" s="7">
+      <c r="V35" s="7">
         <v>3296</v>
       </c>
-      <c r="U35" s="7"/>
-      <c r="V35" s="3" t="s">
+      <c r="W35" s="7"/>
+      <c r="X35" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="51">
+        <v>32.700000000000003</v>
+      </c>
       <c r="F36" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K36" s="9">
+        <v>235</v>
+      </c>
+      <c r="K36" s="45">
+        <v>616</v>
+      </c>
+      <c r="L36" s="45">
+        <v>181</v>
+      </c>
+      <c r="M36" s="9">
         <v>0.77181872155155296</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="46">
+      <c r="N36" s="9"/>
+      <c r="O36" s="45">
         <v>78</v>
       </c>
-      <c r="N36" s="9">
+      <c r="P36" s="9">
         <v>20.5128205128205</v>
       </c>
-      <c r="O36" s="9" t="s">
+      <c r="Q36" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="P36" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q36" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="R36" s="10" t="s">
+      <c r="R36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="U36" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="S36" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="T36" s="10">
+      <c r="V36" s="10">
         <v>1824</v>
       </c>
-      <c r="U36" s="10"/>
-      <c r="V36" s="8" t="s">
+      <c r="W36" s="10"/>
+      <c r="X36" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="D37" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E37" s="50">
+        <v>23.6</v>
+      </c>
       <c r="F37" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K37" s="4">
+        <v>235</v>
+      </c>
+      <c r="K37" s="44">
+        <v>171</v>
+      </c>
+      <c r="L37" s="44">
+        <v>79</v>
+      </c>
+      <c r="M37" s="4">
         <v>2.6940517471325598</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="45">
+      <c r="N37" s="4"/>
+      <c r="O37" s="44">
         <v>202</v>
       </c>
-      <c r="N37" s="4">
+      <c r="P37" s="4">
         <v>36.138613861386098</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="Q37" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="R37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q37" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="S37" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T37" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U37" s="29"/>
-      <c r="V37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V37" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W37" s="29"/>
+      <c r="X37" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="D38" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="50">
+        <v>19.3</v>
+      </c>
       <c r="F38" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K38" s="4">
+        <v>235</v>
+      </c>
+      <c r="K38" s="44">
+        <v>335</v>
+      </c>
+      <c r="L38" s="44">
+        <v>123</v>
+      </c>
+      <c r="M38" s="4">
         <v>3.3208855694851902</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="45">
+      <c r="N38" s="4"/>
+      <c r="O38" s="44">
         <v>249</v>
       </c>
-      <c r="N38" s="4">
+      <c r="P38" s="4">
         <v>32.931726907630498</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="Q38" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="R38" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="S38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T38" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U38" s="29"/>
-      <c r="V38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V38" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W38" s="29"/>
+      <c r="X38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="D39" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>289</v>
+      </c>
       <c r="F39" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K39" s="4">
+        <v>235</v>
+      </c>
+      <c r="K39" s="44">
+        <v>361</v>
+      </c>
+      <c r="L39" s="44">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
         <v>3.0808215524139699</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="45">
+      <c r="N39" s="4"/>
+      <c r="O39" s="44">
         <v>231</v>
       </c>
-      <c r="N39" s="4">
+      <c r="P39" s="4">
         <v>0</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="S39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T39" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U39" s="29"/>
-      <c r="V39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V39" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W39" s="29"/>
+      <c r="X39" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="D40" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>289</v>
+      </c>
       <c r="F40" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K40" s="4">
+        <v>235</v>
+      </c>
+      <c r="K40" s="44">
+        <v>548</v>
+      </c>
+      <c r="L40" s="44">
+        <v>3</v>
+      </c>
+      <c r="M40" s="4">
         <v>5.1347025873566201</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="45">
+      <c r="N40" s="4"/>
+      <c r="O40" s="44">
         <v>385</v>
       </c>
-      <c r="N40" s="4">
+      <c r="P40" s="4">
         <v>0.77922077922077904</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="Q40" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="R40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="S40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T40" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U40" s="29"/>
-      <c r="V40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V40" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W40" s="29"/>
+      <c r="X40" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="D41" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E41" s="50">
+        <v>17.7</v>
+      </c>
       <c r="F41" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="K41" s="4">
+        <v>235</v>
+      </c>
+      <c r="K41" s="44">
+        <v>2818</v>
+      </c>
+      <c r="L41" s="44">
+        <v>976</v>
+      </c>
+      <c r="M41" s="4">
         <v>29.6345692184582</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="45">
+      <c r="N41" s="4"/>
+      <c r="O41" s="44">
         <v>2222</v>
       </c>
-      <c r="N41" s="4">
+      <c r="P41" s="4">
         <v>34.608460846084597</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="Q41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>139</v>
+      <c r="R41" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T41" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U41" s="29"/>
-      <c r="V41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V41" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W41" s="29"/>
+      <c r="X41" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="D42" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="50">
+        <v>21.4</v>
+      </c>
       <c r="F42" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K42" s="4">
+        <v>235</v>
+      </c>
+      <c r="K42" s="44">
+        <v>68</v>
+      </c>
+      <c r="L42" s="44">
+        <v>47</v>
+      </c>
+      <c r="M42" s="4">
         <v>0.89357161909842597</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="45">
+      <c r="N42" s="4"/>
+      <c r="O42" s="44">
         <v>67</v>
       </c>
-      <c r="N42" s="4">
+      <c r="P42" s="4">
         <v>41.791044776119399</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="Q42" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="R42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T42" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U42" s="29"/>
-      <c r="V42" s="3" t="s">
+      <c r="S42" s="3"/>
+      <c r="T42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V42" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W42" s="29"/>
+      <c r="X42" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="D43" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="50">
+        <v>22.4</v>
+      </c>
       <c r="F43" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K43" s="4">
+        <v>235</v>
+      </c>
+      <c r="K43" s="44">
+        <v>1286</v>
+      </c>
+      <c r="L43" s="44">
+        <v>410</v>
+      </c>
+      <c r="M43" s="4">
         <v>10.282742064550501</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="45">
+      <c r="N43" s="4"/>
+      <c r="O43" s="44">
         <v>771</v>
       </c>
-      <c r="N43" s="4">
+      <c r="P43" s="4">
         <v>29.831387808041502</v>
       </c>
-      <c r="O43" s="4" t="s">
+      <c r="Q43" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P43" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>139</v>
+      <c r="R43" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T43" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U43" s="29"/>
-      <c r="V43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V43" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W43" s="29"/>
+      <c r="X43" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="D44" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" s="50">
+        <v>22.4</v>
+      </c>
       <c r="F44" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K44" s="4">
+        <v>235</v>
+      </c>
+      <c r="K44" s="44">
+        <v>16</v>
+      </c>
+      <c r="L44" s="44">
+        <v>6</v>
+      </c>
+      <c r="M44" s="4">
         <v>0.25340090690850797</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="45">
+      <c r="N44" s="4"/>
+      <c r="O44" s="44">
         <v>19</v>
       </c>
-      <c r="N44" s="4">
+      <c r="P44" s="4">
         <v>26.315789473684202</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="Q44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P44" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>139</v>
+      <c r="R44" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T44" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U44" s="29"/>
-      <c r="V44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V44" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W44" s="29"/>
+      <c r="X44" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="D45" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E45" s="50">
+        <v>22.1</v>
+      </c>
       <c r="F45" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K45" s="4">
+        <v>235</v>
+      </c>
+      <c r="K45" s="44">
+        <v>1512</v>
+      </c>
+      <c r="L45" s="44">
+        <v>744</v>
+      </c>
+      <c r="M45" s="4">
         <v>20.085356094958598</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="45">
+      <c r="N45" s="4"/>
+      <c r="O45" s="44">
         <v>1506</v>
       </c>
-      <c r="N45" s="4">
+      <c r="P45" s="4">
         <v>40.106241699867198</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="Q45" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P45" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>139</v>
+      <c r="R45" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T45" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U45" s="29"/>
-      <c r="V45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V45" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W45" s="29"/>
+      <c r="X45" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="D46" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E46" s="50">
+        <v>22.1</v>
+      </c>
       <c r="F46" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K46" s="4">
+        <v>235</v>
+      </c>
+      <c r="K46" s="44">
+        <v>177</v>
+      </c>
+      <c r="L46" s="44">
+        <v>90</v>
+      </c>
+      <c r="M46" s="4">
         <v>2.8007468658308801</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="45">
+      <c r="N46" s="4"/>
+      <c r="O46" s="44">
         <v>210</v>
       </c>
-      <c r="N46" s="4">
+      <c r="P46" s="4">
         <v>38.095238095238003</v>
       </c>
-      <c r="O46" s="4" t="s">
+      <c r="Q46" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P46" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>139</v>
+      <c r="R46" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T46" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U46" s="29"/>
-      <c r="V46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V46" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W46" s="29"/>
+      <c r="X46" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="D47" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>290</v>
+      </c>
       <c r="F47" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K47" s="4">
+        <v>235</v>
+      </c>
+      <c r="K47" s="44">
+        <v>9093</v>
+      </c>
+      <c r="L47" s="44">
+        <v>21282</v>
+      </c>
+      <c r="M47" s="4">
         <v>28.540944251800401</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="45">
+      <c r="N47" s="4"/>
+      <c r="O47" s="44">
         <v>2140</v>
       </c>
-      <c r="N47" s="4">
+      <c r="P47" s="4">
         <v>79.906542056074699</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="Q47" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P47" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>139</v>
+      <c r="R47" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T47" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U47" s="29"/>
-      <c r="V47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V47" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W47" s="29"/>
+      <c r="X47" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>23</v>
       </c>
@@ -4698,29 +5160,35 @@
       <c r="C48" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="17"/>
+      <c r="K48" s="48">
+        <v>9104</v>
+      </c>
+      <c r="L48" s="48">
+        <v>2075</v>
+      </c>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="48"/>
       <c r="P48" s="19"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="19"/>
       <c r="S48" s="18"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="18" t="s">
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>23</v>
       </c>
@@ -4728,29 +5196,35 @@
       <c r="C49" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="17"/>
+      <c r="K49" s="48">
+        <v>9108</v>
+      </c>
+      <c r="L49" s="48">
+        <v>1867</v>
+      </c>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="48"/>
       <c r="P49" s="19"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="19"/>
       <c r="S49" s="18"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="18" t="s">
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>23</v>
       </c>
@@ -4758,29 +5232,35 @@
       <c r="C50" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="49"/>
+      <c r="K50" s="48">
+        <v>9123</v>
+      </c>
+      <c r="L50" s="48">
+        <v>1253</v>
+      </c>
+      <c r="M50" s="19"/>
       <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
+      <c r="O50" s="48"/>
       <c r="P50" s="19"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
       <c r="S50" s="18"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="18" t="s">
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>23</v>
       </c>
@@ -4788,1182 +5268,1353 @@
       <c r="C51" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="49"/>
+      <c r="K51" s="48">
+        <v>9096</v>
+      </c>
+      <c r="L51" s="48">
+        <v>658</v>
+      </c>
+      <c r="M51" s="19"/>
       <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
+      <c r="O51" s="48"/>
       <c r="P51" s="19"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
       <c r="S51" s="18"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="18" t="s">
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="D52" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="51">
+        <v>45.5</v>
+      </c>
       <c r="F52" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K52" s="9">
+        <v>235</v>
+      </c>
+      <c r="K52" s="45">
+        <v>2425</v>
+      </c>
+      <c r="L52" s="45">
+        <v>2565</v>
+      </c>
+      <c r="M52" s="9">
         <v>37.623366230994897</v>
       </c>
-      <c r="L52" s="9"/>
-      <c r="M52" s="46">
+      <c r="N52" s="9"/>
+      <c r="O52" s="45">
         <v>2821</v>
       </c>
-      <c r="N52" s="9">
+      <c r="P52" s="9">
         <v>64.835164835164804</v>
       </c>
-      <c r="O52" s="9" t="s">
+      <c r="Q52" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="P52" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q52" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="R52" s="8" t="s">
-        <v>139</v>
+      <c r="R52" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="T52" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="U52" s="30"/>
-      <c r="V52" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="T52" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="U52" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="V52" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="W52" s="30"/>
+      <c r="X52" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="50">
         <v>93</v>
       </c>
-      <c r="E53" s="4"/>
+      <c r="E53" s="56" t="s">
+        <v>289</v>
+      </c>
       <c r="F53" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K53" s="4">
+        <v>235</v>
+      </c>
+      <c r="K53" s="44">
+        <v>22</v>
+      </c>
+      <c r="L53" s="44">
+        <v>56</v>
+      </c>
+      <c r="M53" s="4">
         <v>0.39347129116875501</v>
       </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="45">
+      <c r="N53" s="4"/>
+      <c r="O53" s="44">
         <v>27</v>
       </c>
-      <c r="N53" s="4">
+      <c r="P53" s="4">
         <v>55.5555555555555</v>
       </c>
-      <c r="O53" s="4" t="s">
+      <c r="Q53" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="R53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="S53" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="T53" s="6">
+      <c r="S53" s="6"/>
+      <c r="T53" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V53" s="6">
         <v>4684</v>
       </c>
-      <c r="U53" s="6"/>
-      <c r="V53" s="3" t="s">
+      <c r="W53" s="6"/>
+      <c r="X53" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="D54" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E54" s="56" t="s">
+        <v>289</v>
+      </c>
       <c r="F54" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K54" s="4">
+        <v>235</v>
+      </c>
+      <c r="K54" s="44">
+        <v>11</v>
+      </c>
+      <c r="L54" s="44">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
         <v>8.7438064704167803E-2</v>
       </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="45">
+      <c r="N54" s="4"/>
+      <c r="O54" s="44">
         <v>6</v>
       </c>
-      <c r="N54" s="4">
+      <c r="P54" s="4">
         <v>0</v>
       </c>
-      <c r="O54" s="4" t="s">
+      <c r="Q54" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>201</v>
+      <c r="R54" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="U54" s="6"/>
-      <c r="V54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="V54" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="W54" s="6"/>
+      <c r="X54" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="D55" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E55" s="56" t="s">
+        <v>289</v>
+      </c>
       <c r="F55" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K55" s="4">
+        <v>235</v>
+      </c>
+      <c r="K55" s="44">
+        <v>172</v>
+      </c>
+      <c r="L55" s="44">
+        <v>18</v>
+      </c>
+      <c r="M55" s="4">
         <v>1.50102011075488</v>
       </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="45">
+      <c r="N55" s="4"/>
+      <c r="O55" s="44">
         <v>103</v>
       </c>
-      <c r="N55" s="4">
+      <c r="P55" s="4">
         <v>11.6504854368932</v>
       </c>
-      <c r="O55" s="4" t="s">
+      <c r="Q55" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P55" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q55" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R55" s="6" t="s">
-        <v>202</v>
+      <c r="R55" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="T55" s="6">
+        <v>136</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="V55" s="6">
         <v>527</v>
       </c>
-      <c r="U55" s="6"/>
-      <c r="V55" s="3" t="s">
+      <c r="W55" s="6"/>
+      <c r="X55" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="D56" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="E56" s="57" t="s">
+        <v>289</v>
+      </c>
       <c r="F56" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K56" s="9">
+        <v>235</v>
+      </c>
+      <c r="K56" s="45">
+        <v>365</v>
+      </c>
+      <c r="L56" s="45">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
         <v>2.7980180705333701</v>
       </c>
-      <c r="L56" s="9"/>
-      <c r="M56" s="46">
+      <c r="N56" s="9"/>
+      <c r="O56" s="45">
         <v>192</v>
       </c>
-      <c r="N56" s="9">
+      <c r="P56" s="9">
         <v>0</v>
       </c>
-      <c r="O56" s="9" t="s">
+      <c r="Q56" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="P56" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q56" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="R56" s="10" t="s">
-        <v>203</v>
+      <c r="R56" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="S56" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="T56" s="10">
+        <v>136</v>
+      </c>
+      <c r="T56" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="U56" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="V56" s="10">
         <v>2572</v>
       </c>
-      <c r="U56" s="10"/>
-      <c r="V56" s="8" t="s">
+      <c r="W56" s="10"/>
+      <c r="X56" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="D57" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="56" t="s">
+        <v>289</v>
+      </c>
       <c r="F57" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K57" s="4">
+        <v>235</v>
+      </c>
+      <c r="K57" s="44">
+        <v>2439</v>
+      </c>
+      <c r="L57" s="44">
+        <v>551</v>
+      </c>
+      <c r="M57" s="4">
         <v>22.822201317027201</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="45">
+      <c r="N57" s="4"/>
+      <c r="O57" s="44">
         <v>1213</v>
       </c>
-      <c r="N57" s="4">
+      <c r="P57" s="4">
         <v>18.2192910140148</v>
       </c>
-      <c r="O57" s="4" t="s">
+      <c r="Q57" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P57" s="4" t="s">
+      <c r="R57" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="S57" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="T57" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="U57" s="29"/>
-      <c r="V57" s="3" t="s">
+      <c r="S57" s="3"/>
+      <c r="T57" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="U57" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="V57" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="W57" s="29"/>
+      <c r="X57" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="D58" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E58" s="56" t="s">
+        <v>289</v>
+      </c>
       <c r="F58" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K58" s="4">
+        <v>235</v>
+      </c>
+      <c r="K58" s="44">
+        <v>673</v>
+      </c>
+      <c r="L58" s="44">
+        <v>124</v>
+      </c>
+      <c r="M58" s="4">
         <v>11.0253998118532</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="45">
+      <c r="N58" s="4"/>
+      <c r="O58" s="44">
         <v>586</v>
       </c>
-      <c r="N58" s="4">
+      <c r="P58" s="4">
         <v>16.382252559726901</v>
       </c>
-      <c r="O58" s="4" t="s">
+      <c r="Q58" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P58" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>139</v>
+      <c r="R58" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T58" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U58" s="29"/>
-      <c r="V58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V58" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W58" s="29"/>
+      <c r="X58" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="D59" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E59" s="56" t="s">
+        <v>289</v>
+      </c>
       <c r="F59" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K59" s="4">
+        <v>235</v>
+      </c>
+      <c r="K59" s="44">
+        <v>3006</v>
+      </c>
+      <c r="L59" s="44">
+        <v>676</v>
+      </c>
+      <c r="M59" s="4">
         <v>8.5042333019755407</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="45">
+      <c r="N59" s="4"/>
+      <c r="O59" s="44">
         <v>452</v>
       </c>
-      <c r="N59" s="4">
+      <c r="P59" s="4">
         <v>16.150442477876101</v>
       </c>
-      <c r="O59" s="4" t="s">
+      <c r="Q59" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P59" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>139</v>
+      <c r="R59" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T59" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U59" s="29"/>
-      <c r="V59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V59" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W59" s="29"/>
+      <c r="X59" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="D60" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" s="57" t="s">
+        <v>289</v>
+      </c>
       <c r="F60" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K60" s="9">
+        <v>235</v>
+      </c>
+      <c r="K60" s="45">
+        <v>3256</v>
+      </c>
+      <c r="L60" s="45">
+        <v>624</v>
+      </c>
+      <c r="M60" s="9">
         <v>8.4101599247412899</v>
       </c>
-      <c r="L60" s="9"/>
-      <c r="M60" s="46">
+      <c r="N60" s="9"/>
+      <c r="O60" s="45">
         <v>447</v>
       </c>
-      <c r="N60" s="9">
+      <c r="P60" s="9">
         <v>13.8702460850111</v>
       </c>
-      <c r="O60" s="9" t="s">
+      <c r="Q60" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="P60" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q60" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="R60" s="8" t="s">
-        <v>139</v>
+      <c r="R60" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="S60" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="T60" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="U60" s="30"/>
-      <c r="V60" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="T60" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="U60" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="V60" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="W60" s="30"/>
+      <c r="X60" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="52">
         <v>2.7</v>
       </c>
-      <c r="E61" s="11"/>
+      <c r="E61" s="52" t="s">
+        <v>295</v>
+      </c>
       <c r="F61" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="K61" s="11">
+        <v>236</v>
+      </c>
+      <c r="K61" s="44">
+        <v>4935</v>
+      </c>
+      <c r="L61" s="44">
+        <v>885</v>
+      </c>
+      <c r="M61" s="11">
         <v>5.9126661242202303</v>
       </c>
-      <c r="L61" s="11"/>
-      <c r="M61" s="45">
+      <c r="N61" s="11"/>
+      <c r="O61" s="44">
         <v>436</v>
       </c>
-      <c r="N61" s="4">
+      <c r="P61" s="4">
         <v>13.7614678899082</v>
       </c>
-      <c r="O61" s="4" t="s">
+      <c r="Q61" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="R61" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="S61" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="T61" s="5">
+      <c r="S61" s="3"/>
+      <c r="T61" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="U61" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="V61" s="5">
         <v>870</v>
       </c>
-      <c r="U61" s="5"/>
-      <c r="V61" s="3" t="s">
+      <c r="W61" s="5"/>
+      <c r="X61" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="50">
         <v>4.8</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11" t="s">
-        <v>199</v>
+      <c r="E62" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K62" s="4">
+        <v>235</v>
+      </c>
+      <c r="K62" s="44">
+        <v>16239</v>
+      </c>
+      <c r="L62" s="44">
+        <v>565</v>
+      </c>
+      <c r="M62" s="4">
         <v>9.6555465147816602</v>
       </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="45">
+      <c r="N62" s="4"/>
+      <c r="O62" s="44">
         <v>712</v>
       </c>
-      <c r="N62" s="4">
+      <c r="P62" s="4">
         <v>2.80898876404494</v>
       </c>
-      <c r="O62" s="4" t="s">
+      <c r="Q62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P62" s="4" t="s">
+      <c r="R62" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="S62" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="T62" s="5">
+      <c r="S62" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="U62" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="V62" s="5">
         <v>2158</v>
       </c>
-      <c r="U62" s="5"/>
-      <c r="V62" s="3" t="s">
+      <c r="W62" s="5"/>
+      <c r="X62" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="51">
         <v>5.3</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="51" t="s">
+        <v>295</v>
+      </c>
       <c r="F63" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K63" s="9">
+        <v>235</v>
+      </c>
+      <c r="K63" s="45">
+        <v>41053</v>
+      </c>
+      <c r="L63" s="45">
+        <v>5054</v>
+      </c>
+      <c r="M63" s="9">
         <v>40.791971792785397</v>
       </c>
-      <c r="L63" s="9"/>
-      <c r="M63" s="46">
+      <c r="N63" s="9"/>
+      <c r="O63" s="45">
         <v>3008</v>
       </c>
-      <c r="N63" s="9">
+      <c r="P63" s="9">
         <v>19.946808510638299</v>
       </c>
-      <c r="O63" s="9" t="s">
+      <c r="Q63" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="P63" s="9" t="s">
+      <c r="R63" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="S63" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="T63" s="8">
+      <c r="S63" s="8"/>
+      <c r="T63" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="U63" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="V63" s="8">
         <v>1234</v>
       </c>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8" t="s">
+      <c r="W63" s="8"/>
+      <c r="X63" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="52">
         <v>39.9</v>
       </c>
-      <c r="E64" s="11"/>
+      <c r="E64" s="52" t="s">
+        <v>295</v>
+      </c>
       <c r="F64" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="K64" s="11">
+        <v>235</v>
+      </c>
+      <c r="K64" s="44">
+        <v>323</v>
+      </c>
+      <c r="L64" s="44">
+        <v>258</v>
+      </c>
+      <c r="M64" s="11">
         <v>1.44092219020172</v>
       </c>
-      <c r="L64" s="11"/>
-      <c r="M64" s="45">
+      <c r="N64" s="11"/>
+      <c r="O64" s="44">
         <v>50</v>
       </c>
-      <c r="N64" s="4">
+      <c r="P64" s="4">
         <v>54</v>
       </c>
-      <c r="O64" s="4" t="s">
+      <c r="Q64" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="R64" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="S64" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="T64" s="5">
+      <c r="S64" s="3"/>
+      <c r="T64" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="U64" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="V64" s="5">
         <v>2249</v>
       </c>
-      <c r="U64" s="5"/>
-      <c r="V64" s="3" t="s">
+      <c r="W64" s="5"/>
+      <c r="X64" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="52">
         <v>82.7</v>
       </c>
-      <c r="E65" s="11"/>
+      <c r="E65" s="52" t="s">
+        <v>295</v>
+      </c>
       <c r="F65" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="K65" s="4">
+        <v>235</v>
+      </c>
+      <c r="K65" s="44">
+        <v>94</v>
+      </c>
+      <c r="L65" s="44">
+        <v>1952</v>
+      </c>
+      <c r="M65" s="4">
         <v>4.5533141210374604</v>
       </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="45">
+      <c r="N65" s="4"/>
+      <c r="O65" s="44">
         <v>158</v>
       </c>
-      <c r="N65" s="4">
+      <c r="P65" s="4">
         <v>93.670886075949298</v>
       </c>
-      <c r="O65" s="4" t="s">
+      <c r="Q65" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="R65" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="S65" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="T65" s="5">
+      <c r="S65" s="3"/>
+      <c r="T65" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="U65" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="V65" s="5">
         <v>4785</v>
       </c>
-      <c r="U65" s="5"/>
-      <c r="V65" s="3" t="s">
+      <c r="W65" s="5"/>
+      <c r="X65" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="51">
         <v>43.4</v>
       </c>
-      <c r="E66" s="9"/>
+      <c r="E66" s="51" t="s">
+        <v>295</v>
+      </c>
       <c r="F66" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K66" s="9">
+        <v>235</v>
+      </c>
+      <c r="K66" s="45">
+        <v>77704</v>
+      </c>
+      <c r="L66" s="45">
+        <v>66301</v>
+      </c>
+      <c r="M66" s="9">
         <v>83.775216138328503</v>
       </c>
-      <c r="L66" s="9"/>
-      <c r="M66" s="46">
+      <c r="N66" s="9"/>
+      <c r="O66" s="45">
         <v>2907</v>
       </c>
-      <c r="N66" s="9">
+      <c r="P66" s="9">
         <v>72.755417956656302</v>
       </c>
-      <c r="O66" s="9" t="s">
+      <c r="Q66" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="P66" s="9" t="s">
+      <c r="R66" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="S66" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="T66" s="8">
+      <c r="S66" s="8"/>
+      <c r="T66" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="U66" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="V66" s="8">
         <v>805</v>
       </c>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8" t="s">
+      <c r="W66" s="8"/>
+      <c r="X66" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="52">
         <v>40.6</v>
       </c>
-      <c r="E67" s="11"/>
+      <c r="E67" s="52" t="s">
+        <v>295</v>
+      </c>
       <c r="F67" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="K67" s="11">
+        <v>235</v>
+      </c>
+      <c r="K67" s="44">
+        <v>248</v>
+      </c>
+      <c r="L67" s="44">
+        <v>441</v>
+      </c>
+      <c r="M67" s="11">
         <v>1.57232704402515</v>
       </c>
-      <c r="L67" s="11"/>
-      <c r="M67" s="45">
+      <c r="N67" s="11"/>
+      <c r="O67" s="44">
         <v>70</v>
       </c>
-      <c r="N67" s="4">
+      <c r="P67" s="4">
         <v>67.142857142857096</v>
       </c>
-      <c r="O67" s="4" t="s">
+      <c r="Q67" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="R67" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="S67" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="T67" s="5">
+      <c r="S67" s="3"/>
+      <c r="T67" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="U67" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="V67" s="5">
         <v>2601</v>
       </c>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5" t="s">
+      <c r="W67" s="5"/>
+      <c r="X67" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="50">
         <v>48.3</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="52" t="s">
+        <v>295</v>
+      </c>
       <c r="F68" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K68" s="4">
+        <v>235</v>
+      </c>
+      <c r="K68" s="44">
+        <v>1118</v>
+      </c>
+      <c r="L68" s="44">
+        <v>1156</v>
+      </c>
+      <c r="M68" s="4">
         <v>5.3009883198562404</v>
       </c>
-      <c r="L68" s="4"/>
-      <c r="M68" s="45">
+      <c r="N68" s="4"/>
+      <c r="O68" s="44">
         <v>236</v>
       </c>
-      <c r="N68" s="4">
+      <c r="P68" s="4">
         <v>52.966101694915203</v>
       </c>
-      <c r="O68" s="4" t="s">
+      <c r="Q68" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P68" s="4" t="s">
+      <c r="R68" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="S68" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="T68" s="5">
+      <c r="S68" s="3"/>
+      <c r="T68" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="U68" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="V68" s="5">
         <v>6953</v>
       </c>
-      <c r="U68" s="5"/>
-      <c r="V68" s="3" t="s">
+      <c r="W68" s="5"/>
+      <c r="X68" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="50">
         <v>46.7</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="11" t="s">
-        <v>199</v>
+      <c r="E69" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K69" s="4">
+        <v>235</v>
+      </c>
+      <c r="K69" s="44">
+        <v>901</v>
+      </c>
+      <c r="L69" s="44">
+        <v>727</v>
+      </c>
+      <c r="M69" s="4">
         <v>4.8966756513926297</v>
       </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="45">
+      <c r="N69" s="4"/>
+      <c r="O69" s="44">
         <v>218</v>
       </c>
-      <c r="N69" s="4">
+      <c r="P69" s="4">
         <v>44.4954128440367</v>
       </c>
-      <c r="O69" s="4" t="s">
+      <c r="Q69" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P69" s="4" t="s">
+      <c r="R69" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="S69" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="T69" s="3">
+      <c r="S69" s="3"/>
+      <c r="T69" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="U69" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="V69" s="3">
         <v>6699</v>
       </c>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3" t="s">
+      <c r="W69" s="3"/>
+      <c r="X69" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="51">
         <v>61.1</v>
       </c>
-      <c r="E70" s="9"/>
+      <c r="E70" s="51" t="s">
+        <v>295</v>
+      </c>
       <c r="F70" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K70" s="9">
+        <v>235</v>
+      </c>
+      <c r="K70" s="45">
+        <v>3</v>
+      </c>
+      <c r="L70" s="45">
+        <v>52</v>
+      </c>
+      <c r="M70" s="9">
         <v>0.494159928122192</v>
       </c>
-      <c r="L70" s="9"/>
-      <c r="M70" s="46">
+      <c r="N70" s="9"/>
+      <c r="O70" s="45">
         <v>22</v>
       </c>
-      <c r="N70" s="9">
+      <c r="P70" s="9">
         <v>100</v>
       </c>
-      <c r="O70" s="9" t="s">
+      <c r="Q70" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="P70" s="9" t="s">
+      <c r="R70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="S70" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="T70" s="8">
+      <c r="S70" s="8"/>
+      <c r="T70" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="U70" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="V70" s="8">
         <v>1137</v>
       </c>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8" t="s">
+      <c r="W70" s="8"/>
+      <c r="X70" s="8" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="V58">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  <conditionalFormatting sqref="X58">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V54">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="X54">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E2">
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V72:V1048576 C14:E14 C12:E12 C7:E7 V1:V52 V57 V59:V65">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/04_XV-seq/XV-seq_overview.xlsx
+++ b/04_XV-seq/XV-seq_overview.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/scBPDCN-analysis/04_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EADFD23-095A-5449-8161-94A802C6991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972E2FB7-0CA8-4748-89F2-23307D5AA898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="-5960" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XV-seq_overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XV-seq_overview'!$A$1:$X$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XV-seq_overview'!$A$1:$Y$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="310">
   <si>
     <t>Sample</t>
   </si>
@@ -873,9 +873,6 @@
     <t>GAGAAA&gt;GAGAAAA</t>
   </si>
   <si>
-    <t>Bam file location</t>
-  </si>
-  <si>
     <t>Variant of unknown significance</t>
   </si>
   <si>
@@ -928,6 +925,45 @@
   </si>
   <si>
     <t>Number of mutant UMIs</t>
+  </si>
+  <si>
+    <t>RNA-seq bam file location</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/SW_pipeline/4_star/191111.190314.BPDCN180628-1.star/191111.190314.BPDCN180628-1_Aligned.sortedByCoord.out.bam,/broad/vangalenlab/vangalen/SW_pipeline/4_star/191111.190314.BPDCN180628-2.star/191111.190314.BPDCN180628-2_Aligned.sortedByCoord.out.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-DX_2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-DX_3/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-MRD_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-MRD_2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-MRD_3/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT5-DX_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT5-DX_3/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712-1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712-2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712-3/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712-4/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712R-1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712R-2/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT12-DX_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT12-DX_2/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT12-REL_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT12-REL_2/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN181128_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN181128_2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN181128_3/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN180329_5/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN180329_6/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN180329_7/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN190711_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN190711_2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN190711_3/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>XV-seq fastq file location</t>
   </si>
 </sst>
 </file>
@@ -1090,16 +1126,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1480,125 +1516,83 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1690,7 +1684,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1978,7 +1972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1986,90 +1980,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5" style="55" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.1640625" style="5" customWidth="1"/>
-    <col min="11" max="12" width="13.6640625" style="5" customWidth="1"/>
-    <col min="13" max="14" width="12.1640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="69.5" style="5" customWidth="1"/>
-    <col min="20" max="20" width="18" style="5" customWidth="1"/>
-    <col min="21" max="21" width="85.83203125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="16" style="32" customWidth="1"/>
-    <col min="23" max="23" width="40.33203125" style="32" customWidth="1"/>
-    <col min="24" max="24" width="61.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="30" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.1640625" style="3" customWidth="1"/>
+    <col min="11" max="12" width="13.6640625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="12.1640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="69.5" style="3" customWidth="1"/>
+    <col min="20" max="20" width="18" style="3" customWidth="1"/>
+    <col min="21" max="21" width="85.83203125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="16" style="13" customWidth="1"/>
+    <col min="23" max="24" width="48.1640625" style="13" customWidth="1"/>
+    <col min="25" max="25" width="61.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="16" t="s">
         <v>138</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -2081,17 +2075,20 @@
       <c r="U1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="W1" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="W1" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -2101,16 +2098,16 @@
       <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="27">
         <v>6</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="27">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="17" t="s">
         <v>238</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -2122,17 +2119,17 @@
       <c r="J2" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="23">
         <v>356</v>
       </c>
-      <c r="L2" s="44">
+      <c r="L2" s="23">
         <v>101</v>
       </c>
       <c r="M2" s="4">
         <v>1.01091791346542</v>
       </c>
       <c r="N2" s="4"/>
-      <c r="O2" s="44">
+      <c r="O2" s="23">
         <v>25</v>
       </c>
       <c r="P2" s="4">
@@ -2144,22 +2141,23 @@
       <c r="R2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S2" s="3"/>
       <c r="T2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="V2" s="25">
+      <c r="V2" s="13">
         <v>6415</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="3" t="s">
+      <c r="W2" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -2169,16 +2167,16 @@
       <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="27">
         <v>13</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="27">
         <v>9.3000000000000007</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="17" t="s">
         <v>239</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -2190,17 +2188,17 @@
       <c r="J3" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="23">
         <v>27</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="23">
         <v>15</v>
       </c>
       <c r="M3" s="4">
         <v>0.242620299231702</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="O3" s="44">
+      <c r="O3" s="23">
         <v>6</v>
       </c>
       <c r="P3" s="4">
@@ -2212,22 +2210,23 @@
       <c r="R3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="3"/>
       <c r="T3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3" s="13">
         <v>2555</v>
       </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="3" t="s">
+      <c r="W3" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -2237,16 +2236,16 @@
       <c r="C4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>288</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>289</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="17" t="s">
         <v>240</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -2258,17 +2257,17 @@
       <c r="J4" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="23">
         <v>386</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="23">
         <v>62</v>
       </c>
       <c r="M4" s="4">
         <v>2.9518803073190401</v>
       </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="44">
+      <c r="O4" s="23">
         <v>73</v>
       </c>
       <c r="P4" s="4">
@@ -2280,24 +2279,26 @@
       <c r="R4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="13">
         <v>225</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="3" t="s">
+      <c r="W4" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -2307,16 +2308,16 @@
       <c r="C5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>288</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>289</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="17" t="s">
         <v>248</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2328,17 +2329,17 @@
       <c r="J5" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="23">
         <v>2502</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="23">
         <v>92</v>
       </c>
       <c r="M5" s="4">
         <v>6.0250707642539396</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="44">
+      <c r="O5" s="23">
         <v>149</v>
       </c>
       <c r="P5" s="4">
@@ -2350,94 +2351,99 @@
       <c r="R5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="13">
         <v>324</v>
       </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="3" t="s">
+      <c r="W5" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="51">
+      <c r="D6" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="28">
         <v>2.6</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K6" s="45">
+      <c r="I6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="24">
         <v>709</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="24">
         <v>69</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <v>4.5693489688637197</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="45">
+      <c r="N6" s="7"/>
+      <c r="O6" s="24">
         <v>113</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="7">
         <v>11.504424778761001</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="U6" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="14">
         <v>120</v>
       </c>
-      <c r="W6" s="27"/>
-      <c r="X6" s="8" t="s">
+      <c r="W6" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>229</v>
       </c>
@@ -2447,16 +2453,16 @@
       <c r="C7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" s="50">
+      <c r="D7" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="27">
         <v>2.4</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="17" t="s">
         <v>238</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -2468,17 +2474,17 @@
       <c r="J7" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="23">
         <v>119</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="23">
         <v>14</v>
       </c>
       <c r="M7" s="4">
         <v>1.0861132660977499</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="44">
+      <c r="O7" s="23">
         <v>112</v>
       </c>
       <c r="P7" s="4">
@@ -2490,22 +2496,23 @@
       <c r="R7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="V7" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="W7" s="29"/>
-      <c r="X7" s="3" t="s">
+      <c r="T7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W7" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>229</v>
       </c>
@@ -2515,16 +2522,16 @@
       <c r="C8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E8" s="50">
+      <c r="D8" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" s="27">
         <v>14.3</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="17" t="s">
         <v>239</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -2536,17 +2543,17 @@
       <c r="J8" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="23">
         <v>29</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="23">
         <v>0</v>
       </c>
       <c r="M8" s="4">
         <v>0.28122575640031</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="44">
+      <c r="O8" s="23">
         <v>29</v>
       </c>
       <c r="P8" s="4">
@@ -2558,22 +2565,23 @@
       <c r="R8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S8" s="3"/>
       <c r="T8" s="3" t="s">
         <v>137</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V8" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W8" s="29"/>
-      <c r="X8" s="3" t="s">
+      <c r="V8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W8" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>229</v>
       </c>
@@ -2583,16 +2591,16 @@
       <c r="C9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>289</v>
+      <c r="D9" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>288</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="17" t="s">
         <v>240</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -2604,17 +2612,17 @@
       <c r="J9" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="23">
         <v>297</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="23">
         <v>0</v>
       </c>
       <c r="M9" s="4">
         <v>2.4825446082234199</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="44">
+      <c r="O9" s="23">
         <v>256</v>
       </c>
       <c r="P9" s="4">
@@ -2626,7 +2634,7 @@
       <c r="R9" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="5" t="s">
         <v>137</v>
       </c>
       <c r="T9" s="3" t="s">
@@ -2635,15 +2643,17 @@
       <c r="U9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V9" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="3" t="s">
+      <c r="V9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>229</v>
       </c>
@@ -2653,16 +2663,16 @@
       <c r="C10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>289</v>
+      <c r="D10" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>288</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="17" t="s">
         <v>248</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -2674,17 +2684,17 @@
       <c r="J10" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="23">
         <v>839</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="23">
         <v>0</v>
       </c>
       <c r="M10" s="4">
         <v>6.5554693560899899</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="44">
+      <c r="O10" s="23">
         <v>676</v>
       </c>
       <c r="P10" s="4">
@@ -2696,7 +2706,7 @@
       <c r="R10" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="5" t="s">
         <v>137</v>
       </c>
       <c r="T10" s="3" t="s">
@@ -2705,85 +2715,90 @@
       <c r="U10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V10" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W10" s="29"/>
-      <c r="X10" s="3" t="s">
+      <c r="V10" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W10" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y10" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K11" s="45">
+      <c r="I11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K11" s="24">
         <v>526</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="24">
         <v>0</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="7">
         <v>4.4511249030256002</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="45">
+      <c r="N11" s="7"/>
+      <c r="O11" s="24">
         <v>459</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="7">
         <v>0</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="S11" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="V11" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="W11" s="30"/>
-      <c r="X11" s="8" t="s">
+      <c r="S11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="W11" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -2793,16 +2808,16 @@
       <c r="C12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="27">
         <v>36.799999999999997</v>
       </c>
-      <c r="E12" s="59" t="s">
-        <v>295</v>
+      <c r="E12" s="34" t="s">
+        <v>294</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="17" t="s">
         <v>249</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -2814,17 +2829,17 @@
       <c r="J12" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="23">
         <v>1287</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="23">
         <v>819</v>
       </c>
       <c r="M12" s="4">
         <v>4.2702050663449898</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="44">
+      <c r="O12" s="23">
         <v>177</v>
       </c>
       <c r="P12" s="4">
@@ -2836,22 +2851,23 @@
       <c r="R12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="20" t="s">
+      <c r="T12" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="V12" s="25">
+      <c r="V12" s="13">
         <v>8449</v>
       </c>
-      <c r="W12" s="25"/>
-      <c r="X12" s="3" t="s">
+      <c r="W12" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -2861,16 +2877,16 @@
       <c r="C13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="27">
         <v>41.3</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>295</v>
+      <c r="E13" s="27" t="s">
+        <v>294</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="17" t="s">
         <v>250</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -2882,17 +2898,17 @@
       <c r="J13" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="23">
         <v>1288</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="23">
         <v>1045</v>
       </c>
       <c r="M13" s="4">
         <v>5.4764776839565696</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="44">
+      <c r="O13" s="23">
         <v>227</v>
       </c>
       <c r="P13" s="4">
@@ -2904,90 +2920,94 @@
       <c r="R13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="U13" s="20" t="s">
+      <c r="U13" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="V13" s="25">
+      <c r="V13" s="13">
         <v>5109</v>
       </c>
-      <c r="W13" s="25"/>
-      <c r="X13" s="3" t="s">
+      <c r="W13" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y13" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="28">
         <v>85.8</v>
       </c>
-      <c r="E14" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K14" s="45">
+      <c r="H14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="24">
         <v>1780</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="24">
         <v>348</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="7">
         <v>5.9831121833534304</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="45">
+      <c r="N14" s="7"/>
+      <c r="O14" s="24">
         <v>248</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="7">
         <v>14.516129032258</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="15" t="s">
+      <c r="S14" s="6"/>
+      <c r="T14" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="U14" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14" s="14">
         <v>942</v>
       </c>
-      <c r="W14" s="27"/>
-      <c r="X14" s="8" t="s">
+      <c r="W14" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -2997,16 +3017,16 @@
       <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="27">
         <v>44.8</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="27">
         <v>43</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="17" t="s">
         <v>278</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -3018,17 +3038,17 @@
       <c r="J15" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="23">
         <v>348</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="23">
         <v>219</v>
       </c>
       <c r="M15" s="4">
         <v>9.8628347485303696</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="44">
+      <c r="O15" s="23">
         <v>453</v>
       </c>
       <c r="P15" s="4">
@@ -3040,24 +3060,26 @@
       <c r="R15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="S15" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="U15" s="13" t="s">
+      <c r="U15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="V15" s="31">
+      <c r="V15" s="13">
         <v>5002</v>
       </c>
-      <c r="W15" s="26"/>
-      <c r="X15" s="3" t="s">
+      <c r="W15" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -3067,16 +3089,16 @@
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="27">
         <v>35.5</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="27">
         <v>50</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="17" t="s">
         <v>244</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -3088,17 +3110,17 @@
       <c r="J16" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="23">
         <v>129</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="23">
         <v>64</v>
       </c>
       <c r="M16" s="4">
         <v>3.8319181362943602</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="44">
+      <c r="O16" s="23">
         <v>176</v>
       </c>
       <c r="P16" s="4">
@@ -3113,110 +3135,115 @@
       <c r="S16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="T16" s="14" t="s">
+      <c r="T16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="U16" s="14" t="s">
+      <c r="U16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="V16" s="26">
+      <c r="V16" s="13">
         <v>4701</v>
       </c>
-      <c r="W16" s="26"/>
-      <c r="X16" s="3" t="s">
+      <c r="W16" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="28">
         <v>87.9</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="28">
         <v>78.099999999999994</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K17" s="45">
+      <c r="H17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="24">
         <v>27</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="24">
         <v>99</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="7">
         <v>1.6329196603527101</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="45">
+      <c r="N17" s="7"/>
+      <c r="O17" s="24">
         <v>75</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="7">
         <v>73.3333333333333</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="U17" s="15" t="s">
+      <c r="U17" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="V17" s="27">
+      <c r="V17" s="14">
         <v>11002</v>
       </c>
-      <c r="W17" s="27"/>
-      <c r="X17" s="8" t="s">
+      <c r="W17" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="27">
         <v>29.5</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="27">
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="17" t="s">
         <v>252</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -3228,20 +3255,20 @@
       <c r="J18" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="23">
         <v>127</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="23">
         <v>29</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="4">
         <v>1.22699386503067</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="46">
+      <c r="N18" s="4"/>
+      <c r="O18" s="23">
         <v>124</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="4">
         <v>18.5483870967741</v>
       </c>
       <c r="Q18" s="4" t="s">
@@ -3251,7 +3278,7 @@
         <v>127</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>150</v>
@@ -3259,34 +3286,36 @@
       <c r="U18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="V18" s="29">
+      <c r="V18" s="13">
         <v>6953</v>
       </c>
-      <c r="W18" s="29"/>
-      <c r="X18" s="5" t="s">
+      <c r="W18" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y18" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="27">
         <v>31.4</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="27">
         <v>11.7</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="17" t="s">
         <v>253</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -3298,20 +3327,20 @@
       <c r="J19" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="23">
         <v>117</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="23">
         <v>19</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="4">
         <v>1.0686720759944499</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="46">
+      <c r="N19" s="4"/>
+      <c r="O19" s="23">
         <v>108</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="4">
         <v>14.814814814814801</v>
       </c>
       <c r="Q19" s="4" t="s">
@@ -3321,7 +3350,7 @@
         <v>127</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>151</v>
@@ -3329,34 +3358,36 @@
       <c r="U19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="V19" s="29">
+      <c r="V19" s="13">
         <v>6215</v>
       </c>
-      <c r="W19" s="29"/>
-      <c r="X19" s="5" t="s">
+      <c r="W19" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y19" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="27">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="27">
         <v>8.6999999999999993</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="17" t="s">
         <v>245</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -3368,20 +3399,20 @@
       <c r="J20" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="23">
         <v>143</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="23">
         <v>3</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="4">
         <v>1.1379378586978</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="46">
+      <c r="N20" s="4"/>
+      <c r="O20" s="23">
         <v>115</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="4">
         <v>2.60869565217391</v>
       </c>
       <c r="Q20" s="4" t="s">
@@ -3391,7 +3422,7 @@
         <v>127</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>152</v>
@@ -3399,34 +3430,36 @@
       <c r="U20" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="V20" s="29">
+      <c r="V20" s="13">
         <v>5667</v>
       </c>
-      <c r="W20" s="29"/>
-      <c r="X20" s="5" t="s">
+      <c r="W20" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="27">
         <v>6.9</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="27">
         <v>9.6</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="17" t="s">
         <v>254</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -3438,20 +3471,20 @@
       <c r="J21" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="23">
         <v>237</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21" s="23">
         <v>15</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="4">
         <v>1.88007124480506</v>
       </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="46">
+      <c r="N21" s="4"/>
+      <c r="O21" s="23">
         <v>190</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="4">
         <v>6.3157894736842097</v>
       </c>
       <c r="Q21" s="4" t="s">
@@ -3461,7 +3494,7 @@
         <v>127</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>153</v>
@@ -3469,103 +3502,108 @@
       <c r="U21" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="V21" s="29">
+      <c r="V21" s="13">
         <v>5189</v>
       </c>
-      <c r="W21" s="29"/>
-      <c r="X21" s="5" t="s">
+      <c r="W21" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y21" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="K22" s="46">
+      <c r="I22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" s="23">
         <v>4497</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="23">
         <v>16</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="4">
         <v>27.646942410449199</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="46">
+      <c r="N22" s="4"/>
+      <c r="O22" s="23">
         <v>2794</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="4">
         <v>0.46528274874731501</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V22" s="32">
+      <c r="V22" s="13">
         <v>6681</v>
       </c>
-      <c r="X22" s="5" t="s">
+      <c r="W22" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y22" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="27">
         <v>45</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="27">
         <v>27.2</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="17" t="s">
         <v>246</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -3577,20 +3615,20 @@
       <c r="J23" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="23">
         <v>52</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="23">
         <v>15</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="4">
         <v>0.41559469622006701</v>
       </c>
-      <c r="N23" s="11"/>
-      <c r="O23" s="46">
+      <c r="N23" s="4"/>
+      <c r="O23" s="23">
         <v>42</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="4">
         <v>21.428571428571399</v>
       </c>
       <c r="Q23" s="4" t="s">
@@ -3599,42 +3637,45 @@
       <c r="R23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S23" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="T23" s="5" t="s">
+      <c r="S23" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="T23" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="U23" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="V23" s="32">
+      <c r="V23" s="13">
         <v>2760</v>
       </c>
-      <c r="X23" s="5" t="s">
+      <c r="W23" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y23" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="E24" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="17" t="s">
         <v>256</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -3646,64 +3687,67 @@
       <c r="J24" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="23">
         <v>1744</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="23">
         <v>2</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="4">
         <v>9.8357411438749196</v>
       </c>
-      <c r="N24" s="11"/>
-      <c r="O24" s="46">
+      <c r="N24" s="4"/>
+      <c r="O24" s="23">
         <v>994</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="4">
         <v>0.20120724346076399</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="T24" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="V24" s="32">
+      <c r="V24" s="13">
         <v>2622</v>
       </c>
-      <c r="X24" s="5" t="s">
+      <c r="W24" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y24" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="E25" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="17" t="s">
         <v>247</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -3715,396 +3759,420 @@
       <c r="J25" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="23">
         <v>33</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="23">
         <v>0</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="4">
         <v>0.24737779536908699</v>
       </c>
-      <c r="N25" s="11"/>
-      <c r="O25" s="46">
+      <c r="N25" s="4"/>
+      <c r="O25" s="23">
         <v>25</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="4">
         <v>0</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S25" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="T25" s="5" t="s">
+      <c r="S25" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="U25" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="V25" s="32">
+      <c r="V25" s="13">
         <v>1515</v>
       </c>
-      <c r="X25" s="5" t="s">
+      <c r="W25" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y25" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="E26" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I26" s="11" t="s">
+      <c r="H26" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K26" s="46">
+      <c r="J26" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="23">
         <v>1043</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="23">
         <v>13</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="4">
         <v>6.1844448842271902</v>
       </c>
-      <c r="N26" s="11"/>
-      <c r="O26" s="46">
+      <c r="N26" s="4"/>
+      <c r="O26" s="23">
         <v>625</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="4">
         <v>1.1199999999999899</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="R26" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S26" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="T26" s="5" t="s">
+      <c r="S26" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="T26" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="U26" s="5" t="s">
+      <c r="U26" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="V26" s="32">
+      <c r="V26" s="13">
         <v>1454</v>
       </c>
-      <c r="X26" s="5" t="s">
+      <c r="W26" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y26" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="E27" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I27" s="11" t="s">
+      <c r="H27" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K27" s="46">
+      <c r="J27" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" s="23">
         <v>167</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="23">
         <v>1</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="4">
         <v>1.20720364140114</v>
       </c>
-      <c r="N27" s="11"/>
-      <c r="O27" s="46">
+      <c r="N27" s="4"/>
+      <c r="O27" s="23">
         <v>122</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="4">
         <v>0.81967213114754101</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="R27" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="U27" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="V27" s="32">
+      <c r="V27" s="13">
         <v>2090</v>
       </c>
-      <c r="X27" s="5" t="s">
+      <c r="W27" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y27" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="E28" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="D28" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K28" s="46">
+      <c r="H28" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" s="23">
         <v>3249</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="23">
         <v>204</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="4">
         <v>13.2000791608945</v>
       </c>
-      <c r="N28" s="11"/>
-      <c r="O28" s="46">
+      <c r="N28" s="4"/>
+      <c r="O28" s="23">
         <v>1334</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="4">
         <v>1.0494752623688099</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="R28" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="S28" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="T28" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="U28" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="V28" s="32">
+      <c r="V28" s="13">
         <v>1816</v>
       </c>
-      <c r="X28" s="5" t="s">
+      <c r="W28" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y28" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="47">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="25">
         <v>3249</v>
       </c>
-      <c r="L29" s="47">
+      <c r="L29" s="25">
         <v>11</v>
       </c>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="16" t="s">
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="47">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="25">
         <v>3249</v>
       </c>
-      <c r="L30" s="47">
+      <c r="L30" s="25">
         <v>5</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="16" t="s">
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="48">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="25">
         <v>3249</v>
       </c>
-      <c r="L31" s="48">
+      <c r="L31" s="25">
         <v>10</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="18" t="s">
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="48">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="25">
         <v>3249</v>
       </c>
-      <c r="L32" s="48">
+      <c r="L32" s="25">
         <v>6</v>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="18" t="s">
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -4114,47 +4182,47 @@
       <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="E33" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K33" s="46">
+      <c r="H33" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K33" s="23">
         <v>26276</v>
       </c>
-      <c r="L33" s="46">
+      <c r="L33" s="23">
         <v>175</v>
       </c>
       <c r="M33" s="4">
         <v>35.751038986740497</v>
       </c>
       <c r="N33" s="4"/>
-      <c r="O33" s="46">
+      <c r="O33" s="23">
         <v>3613</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" s="4">
         <v>0.38748962081372801</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R33" s="11" t="s">
+      <c r="R33" s="4" t="s">
         <v>129</v>
       </c>
       <c r="S33" s="3" t="s">
@@ -4166,15 +4234,17 @@
       <c r="U33" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="V33" s="29">
+      <c r="V33" s="13">
         <v>350</v>
       </c>
-      <c r="W33" s="29"/>
-      <c r="X33" s="3" t="s">
+      <c r="W33" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y33" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -4184,67 +4254,70 @@
       <c r="C34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="E34" s="50">
+      <c r="D34" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E34" s="27">
         <v>20.2</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K34" s="46">
+      <c r="H34" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" s="23">
         <v>97176</v>
       </c>
-      <c r="L34" s="46">
+      <c r="L34" s="23">
         <v>12561</v>
       </c>
       <c r="M34" s="4">
         <v>98.990698594894099</v>
       </c>
       <c r="N34" s="4"/>
-      <c r="O34" s="46">
+      <c r="O34" s="23">
         <v>10004</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="4">
         <v>6.7772890843662497</v>
       </c>
       <c r="Q34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="S34" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="T34" s="7" t="s">
+      <c r="T34" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="U34" s="7" t="s">
+      <c r="U34" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="V34" s="7">
+      <c r="V34" s="5">
         <v>421</v>
       </c>
-      <c r="W34" s="7"/>
-      <c r="X34" s="3" t="s">
+      <c r="W34" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -4254,38 +4327,38 @@
       <c r="C35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="E35" s="50">
+      <c r="D35" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E35" s="27">
         <v>10.4</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I35" s="11" t="s">
+      <c r="H35" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="J35" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K35" s="44">
+      <c r="J35" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="23">
         <v>6866</v>
       </c>
-      <c r="L35" s="44">
+      <c r="L35" s="23">
         <v>377</v>
       </c>
       <c r="M35" s="4">
         <v>4.8288145656045902</v>
       </c>
       <c r="N35" s="4"/>
-      <c r="O35" s="44">
+      <c r="O35" s="23">
         <v>488</v>
       </c>
       <c r="P35" s="4">
@@ -4294,97 +4367,103 @@
       <c r="Q35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S35" s="7" t="s">
+      <c r="S35" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="T35" s="7" t="s">
+      <c r="T35" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="U35" s="7" t="s">
+      <c r="U35" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="5">
         <v>3296</v>
       </c>
-      <c r="W35" s="7"/>
-      <c r="X35" s="3" t="s">
+      <c r="W35" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="E36" s="51">
+      <c r="D36" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36" s="28">
         <v>32.700000000000003</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K36" s="45">
+      <c r="H36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" s="24">
         <v>616</v>
       </c>
-      <c r="L36" s="45">
+      <c r="L36" s="24">
         <v>181</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="7">
         <v>0.77181872155155296</v>
       </c>
-      <c r="N36" s="9"/>
-      <c r="O36" s="45">
+      <c r="N36" s="7"/>
+      <c r="O36" s="24">
         <v>78</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P36" s="7">
         <v>20.5128205128205</v>
       </c>
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="R36" s="9" t="s">
+      <c r="R36" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="S36" s="10" t="s">
+      <c r="S36" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="T36" s="10" t="s">
+      <c r="T36" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="U36" s="10" t="s">
+      <c r="U36" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="V36" s="10">
+      <c r="V36" s="8">
         <v>1824</v>
       </c>
-      <c r="W36" s="10"/>
-      <c r="X36" s="8" t="s">
+      <c r="W36" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -4394,38 +4473,38 @@
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E37" s="50">
+      <c r="D37" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E37" s="27">
         <v>23.6</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="20" t="s">
         <v>252</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="I37" s="41" t="s">
+      <c r="I37" s="21" t="s">
         <v>235</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K37" s="44">
+      <c r="K37" s="23">
         <v>171</v>
       </c>
-      <c r="L37" s="44">
+      <c r="L37" s="23">
         <v>79</v>
       </c>
       <c r="M37" s="4">
         <v>2.6940517471325598</v>
       </c>
       <c r="N37" s="4"/>
-      <c r="O37" s="44">
+      <c r="O37" s="23">
         <v>202</v>
       </c>
       <c r="P37" s="4">
@@ -4446,15 +4525,17 @@
       <c r="U37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V37" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W37" s="29"/>
-      <c r="X37" s="3" t="s">
+      <c r="V37" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W37" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y37" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
@@ -4464,16 +4545,16 @@
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E38" s="50">
+      <c r="D38" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E38" s="27">
         <v>19.3</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="G38" s="17" t="s">
         <v>253</v>
       </c>
       <c r="H38" s="4" t="s">
@@ -4485,17 +4566,17 @@
       <c r="J38" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K38" s="44">
+      <c r="K38" s="23">
         <v>335</v>
       </c>
-      <c r="L38" s="44">
+      <c r="L38" s="23">
         <v>123</v>
       </c>
       <c r="M38" s="4">
         <v>3.3208855694851902</v>
       </c>
       <c r="N38" s="4"/>
-      <c r="O38" s="44">
+      <c r="O38" s="23">
         <v>249</v>
       </c>
       <c r="P38" s="4">
@@ -4516,15 +4597,17 @@
       <c r="U38" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V38" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W38" s="29"/>
-      <c r="X38" s="3" t="s">
+      <c r="V38" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W38" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>23</v>
       </c>
@@ -4534,16 +4617,16 @@
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>289</v>
+      <c r="D39" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>288</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="G39" s="17" t="s">
         <v>245</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -4555,17 +4638,17 @@
       <c r="J39" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K39" s="44">
+      <c r="K39" s="23">
         <v>361</v>
       </c>
-      <c r="L39" s="44">
+      <c r="L39" s="23">
         <v>0</v>
       </c>
       <c r="M39" s="4">
         <v>3.0808215524139699</v>
       </c>
       <c r="N39" s="4"/>
-      <c r="O39" s="44">
+      <c r="O39" s="23">
         <v>231</v>
       </c>
       <c r="P39" s="4">
@@ -4586,15 +4669,17 @@
       <c r="U39" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V39" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W39" s="29"/>
-      <c r="X39" s="3" t="s">
+      <c r="V39" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W39" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y39" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -4604,16 +4689,16 @@
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>289</v>
+      <c r="D40" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>288</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="17" t="s">
         <v>254</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -4625,17 +4710,17 @@
       <c r="J40" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K40" s="44">
+      <c r="K40" s="23">
         <v>548</v>
       </c>
-      <c r="L40" s="44">
+      <c r="L40" s="23">
         <v>3</v>
       </c>
       <c r="M40" s="4">
         <v>5.1347025873566201</v>
       </c>
       <c r="N40" s="4"/>
-      <c r="O40" s="44">
+      <c r="O40" s="23">
         <v>385</v>
       </c>
       <c r="P40" s="4">
@@ -4656,15 +4741,17 @@
       <c r="U40" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V40" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W40" s="29"/>
-      <c r="X40" s="3" t="s">
+      <c r="V40" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W40" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y40" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
@@ -4674,16 +4761,16 @@
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E41" s="50">
+      <c r="D41" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E41" s="27">
         <v>17.7</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="19" t="s">
         <v>255</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -4695,17 +4782,17 @@
       <c r="J41" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="K41" s="44">
+      <c r="K41" s="23">
         <v>2818</v>
       </c>
-      <c r="L41" s="44">
+      <c r="L41" s="23">
         <v>976</v>
       </c>
       <c r="M41" s="4">
         <v>29.6345692184582</v>
       </c>
       <c r="N41" s="4"/>
-      <c r="O41" s="44">
+      <c r="O41" s="23">
         <v>2222</v>
       </c>
       <c r="P41" s="4">
@@ -4714,7 +4801,7 @@
       <c r="Q41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="R41" s="3" t="s">
         <v>129</v>
       </c>
       <c r="S41" s="3" t="s">
@@ -4726,15 +4813,17 @@
       <c r="U41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V41" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W41" s="29"/>
-      <c r="X41" s="3" t="s">
+      <c r="V41" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W41" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y41" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
@@ -4744,16 +4833,16 @@
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E42" s="50">
+      <c r="D42" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E42" s="27">
         <v>21.4</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G42" s="36" t="s">
+      <c r="G42" s="17" t="s">
         <v>246</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -4765,17 +4854,17 @@
       <c r="J42" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K42" s="44">
+      <c r="K42" s="23">
         <v>68</v>
       </c>
-      <c r="L42" s="44">
+      <c r="L42" s="23">
         <v>47</v>
       </c>
       <c r="M42" s="4">
         <v>0.89357161909842597</v>
       </c>
       <c r="N42" s="4"/>
-      <c r="O42" s="44">
+      <c r="O42" s="23">
         <v>67</v>
       </c>
       <c r="P42" s="4">
@@ -4787,22 +4876,23 @@
       <c r="R42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S42" s="3"/>
       <c r="T42" s="3" t="s">
         <v>137</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V42" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W42" s="29"/>
-      <c r="X42" s="3" t="s">
+      <c r="V42" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W42" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y42" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>23</v>
       </c>
@@ -4812,16 +4902,16 @@
       <c r="C43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E43" s="50">
+      <c r="D43" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E43" s="27">
         <v>22.4</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="17" t="s">
         <v>256</v>
       </c>
       <c r="H43" s="4" t="s">
@@ -4833,17 +4923,17 @@
       <c r="J43" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K43" s="44">
+      <c r="K43" s="23">
         <v>1286</v>
       </c>
-      <c r="L43" s="44">
+      <c r="L43" s="23">
         <v>410</v>
       </c>
       <c r="M43" s="4">
         <v>10.282742064550501</v>
       </c>
       <c r="N43" s="4"/>
-      <c r="O43" s="44">
+      <c r="O43" s="23">
         <v>771</v>
       </c>
       <c r="P43" s="4">
@@ -4852,7 +4942,7 @@
       <c r="Q43" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R43" s="11" t="s">
+      <c r="R43" s="4" t="s">
         <v>129</v>
       </c>
       <c r="S43" s="3" t="s">
@@ -4864,15 +4954,17 @@
       <c r="U43" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V43" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W43" s="29"/>
-      <c r="X43" s="3" t="s">
+      <c r="V43" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W43" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y43" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -4882,16 +4974,16 @@
       <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E44" s="50">
+      <c r="D44" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E44" s="27">
         <v>22.4</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="17" t="s">
         <v>247</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -4903,17 +4995,17 @@
       <c r="J44" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K44" s="44">
+      <c r="K44" s="23">
         <v>16</v>
       </c>
-      <c r="L44" s="44">
+      <c r="L44" s="23">
         <v>6</v>
       </c>
       <c r="M44" s="4">
         <v>0.25340090690850797</v>
       </c>
       <c r="N44" s="4"/>
-      <c r="O44" s="44">
+      <c r="O44" s="23">
         <v>19</v>
       </c>
       <c r="P44" s="4">
@@ -4922,7 +5014,7 @@
       <c r="Q44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R44" s="11" t="s">
+      <c r="R44" s="4" t="s">
         <v>129</v>
       </c>
       <c r="S44" s="3" t="s">
@@ -4934,15 +5026,17 @@
       <c r="U44" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V44" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W44" s="29"/>
-      <c r="X44" s="3" t="s">
+      <c r="V44" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W44" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y44" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>23</v>
       </c>
@@ -4952,16 +5046,16 @@
       <c r="C45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E45" s="50">
+      <c r="D45" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E45" s="27">
         <v>22.1</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="17" t="s">
         <v>257</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -4973,17 +5067,17 @@
       <c r="J45" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K45" s="44">
+      <c r="K45" s="23">
         <v>1512</v>
       </c>
-      <c r="L45" s="44">
+      <c r="L45" s="23">
         <v>744</v>
       </c>
       <c r="M45" s="4">
         <v>20.085356094958598</v>
       </c>
       <c r="N45" s="4"/>
-      <c r="O45" s="44">
+      <c r="O45" s="23">
         <v>1506</v>
       </c>
       <c r="P45" s="4">
@@ -4992,7 +5086,7 @@
       <c r="Q45" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R45" s="11" t="s">
+      <c r="R45" s="4" t="s">
         <v>129</v>
       </c>
       <c r="S45" s="3" t="s">
@@ -5004,15 +5098,17 @@
       <c r="U45" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V45" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W45" s="29"/>
-      <c r="X45" s="3" t="s">
+      <c r="V45" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W45" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y45" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
@@ -5022,16 +5118,16 @@
       <c r="C46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E46" s="50">
+      <c r="D46" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E46" s="27">
         <v>22.1</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="17" t="s">
         <v>265</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -5043,17 +5139,17 @@
       <c r="J46" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K46" s="44">
+      <c r="K46" s="23">
         <v>177</v>
       </c>
-      <c r="L46" s="44">
+      <c r="L46" s="23">
         <v>90</v>
       </c>
       <c r="M46" s="4">
         <v>2.8007468658308801</v>
       </c>
       <c r="N46" s="4"/>
-      <c r="O46" s="44">
+      <c r="O46" s="23">
         <v>210</v>
       </c>
       <c r="P46" s="4">
@@ -5062,7 +5158,7 @@
       <c r="Q46" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R46" s="11" t="s">
+      <c r="R46" s="4" t="s">
         <v>129</v>
       </c>
       <c r="S46" s="3" t="s">
@@ -5074,15 +5170,17 @@
       <c r="U46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V46" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W46" s="29"/>
-      <c r="X46" s="3" t="s">
+      <c r="V46" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W46" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y46" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
@@ -5092,16 +5190,16 @@
       <c r="C47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="F47" s="11" t="s">
+      <c r="D47" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="17" t="s">
         <v>258</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -5113,17 +5211,17 @@
       <c r="J47" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K47" s="44">
+      <c r="K47" s="23">
         <v>9093</v>
       </c>
-      <c r="L47" s="44">
+      <c r="L47" s="23">
         <v>21282</v>
       </c>
       <c r="M47" s="4">
         <v>28.540944251800401</v>
       </c>
       <c r="N47" s="4"/>
-      <c r="O47" s="44">
+      <c r="O47" s="23">
         <v>2140</v>
       </c>
       <c r="P47" s="4">
@@ -5132,7 +5230,7 @@
       <c r="Q47" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R47" s="11" t="s">
+      <c r="R47" s="4" t="s">
         <v>129</v>
       </c>
       <c r="S47" s="3" t="s">
@@ -5144,229 +5242,246 @@
       <c r="U47" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V47" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W47" s="29"/>
-      <c r="X47" s="3" t="s">
+      <c r="V47" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W47" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y47" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A48" s="18" t="s">
+    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="48">
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="25">
         <v>9104</v>
       </c>
-      <c r="L48" s="48">
+      <c r="L48" s="25">
         <v>2075</v>
       </c>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="18" t="s">
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="48">
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="25">
         <v>9108</v>
       </c>
-      <c r="L49" s="48">
+      <c r="L49" s="25">
         <v>1867</v>
       </c>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="18" t="s">
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A50" s="18" t="s">
+    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="48">
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="25">
         <v>9123</v>
       </c>
-      <c r="L50" s="48">
+      <c r="L50" s="25">
         <v>1253</v>
       </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="18" t="s">
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A51" s="18" t="s">
+    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="48">
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="25">
         <v>9096</v>
       </c>
-      <c r="L51" s="48">
+      <c r="L51" s="25">
         <v>658</v>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="18" t="s">
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="E52" s="51">
+      <c r="D52" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="E52" s="28">
         <v>45.5</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G52" s="37" t="s">
+      <c r="G52" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K52" s="45">
+      <c r="H52" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K52" s="24">
         <v>2425</v>
       </c>
-      <c r="L52" s="45">
+      <c r="L52" s="24">
         <v>2565</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="7">
         <v>37.623366230994897</v>
       </c>
-      <c r="N52" s="9"/>
-      <c r="O52" s="45">
+      <c r="N52" s="7"/>
+      <c r="O52" s="24">
         <v>2821</v>
       </c>
-      <c r="P52" s="9">
+      <c r="P52" s="7">
         <v>64.835164835164804</v>
       </c>
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="R52" s="9" t="s">
+      <c r="R52" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="S52" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="T52" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="U52" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="V52" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="W52" s="30"/>
-      <c r="X52" s="8" t="s">
+      <c r="S52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="U52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="V52" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="W52" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -5376,16 +5491,16 @@
       <c r="C53" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="50">
+      <c r="D53" s="27">
         <v>93</v>
       </c>
-      <c r="E53" s="56" t="s">
-        <v>289</v>
+      <c r="E53" s="31" t="s">
+        <v>288</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G53" s="36" t="s">
+      <c r="G53" s="17" t="s">
         <v>261</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -5397,17 +5512,17 @@
       <c r="J53" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K53" s="44">
+      <c r="K53" s="23">
         <v>22</v>
       </c>
-      <c r="L53" s="44">
+      <c r="L53" s="23">
         <v>56</v>
       </c>
       <c r="M53" s="4">
         <v>0.39347129116875501</v>
       </c>
       <c r="N53" s="4"/>
-      <c r="O53" s="44">
+      <c r="O53" s="23">
         <v>27</v>
       </c>
       <c r="P53" s="4">
@@ -5419,22 +5534,25 @@
       <c r="R53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6" t="s">
+      <c r="S53" s="5"/>
+      <c r="T53" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="U53" s="6" t="s">
+      <c r="U53" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="V53" s="6">
+      <c r="V53" s="5">
         <v>4684</v>
       </c>
-      <c r="W53" s="6"/>
-      <c r="X53" s="3" t="s">
+      <c r="W53" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -5444,16 +5562,16 @@
       <c r="C54" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E54" s="31" t="s">
         <v>288</v>
-      </c>
-      <c r="E54" s="56" t="s">
-        <v>289</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G54" s="36" t="s">
+      <c r="G54" s="17" t="s">
         <v>268</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -5465,17 +5583,17 @@
       <c r="J54" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K54" s="44">
+      <c r="K54" s="23">
         <v>11</v>
       </c>
-      <c r="L54" s="44">
+      <c r="L54" s="23">
         <v>0</v>
       </c>
       <c r="M54" s="4">
         <v>8.7438064704167803E-2</v>
       </c>
       <c r="N54" s="4"/>
-      <c r="O54" s="44">
+      <c r="O54" s="23">
         <v>6</v>
       </c>
       <c r="P54" s="4">
@@ -5487,24 +5605,27 @@
       <c r="R54" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="S54" s="6" t="s">
+      <c r="S54" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="T54" s="6" t="s">
+      <c r="T54" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="U54" s="6" t="s">
+      <c r="U54" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="V54" s="6" t="s">
+      <c r="V54" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="W54" s="6"/>
-      <c r="X54" s="3" t="s">
+      <c r="W54" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -5514,16 +5635,16 @@
       <c r="C55" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E55" s="31" t="s">
         <v>288</v>
-      </c>
-      <c r="E55" s="56" t="s">
-        <v>289</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G55" s="36" t="s">
+      <c r="G55" s="17" t="s">
         <v>269</v>
       </c>
       <c r="H55" s="4" t="s">
@@ -5535,17 +5656,17 @@
       <c r="J55" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K55" s="44">
+      <c r="K55" s="23">
         <v>172</v>
       </c>
-      <c r="L55" s="44">
+      <c r="L55" s="23">
         <v>18</v>
       </c>
       <c r="M55" s="4">
         <v>1.50102011075488</v>
       </c>
       <c r="N55" s="4"/>
-      <c r="O55" s="44">
+      <c r="O55" s="23">
         <v>103</v>
       </c>
       <c r="P55" s="4">
@@ -5557,94 +5678,100 @@
       <c r="R55" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="S55" s="6" t="s">
+      <c r="S55" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="T55" s="6" t="s">
+      <c r="T55" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="U55" s="6" t="s">
+      <c r="U55" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="V55" s="6">
+      <c r="V55" s="5">
         <v>527</v>
       </c>
-      <c r="W55" s="6"/>
-      <c r="X55" s="3" t="s">
+      <c r="W55" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="E56" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="E56" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G56" s="37" t="s">
+      <c r="G56" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K56" s="45">
+      <c r="H56" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K56" s="24">
         <v>365</v>
       </c>
-      <c r="L56" s="45">
+      <c r="L56" s="24">
         <v>0</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M56" s="7">
         <v>2.7980180705333701</v>
       </c>
-      <c r="N56" s="9"/>
-      <c r="O56" s="45">
+      <c r="N56" s="7"/>
+      <c r="O56" s="24">
         <v>192</v>
       </c>
-      <c r="P56" s="9">
+      <c r="P56" s="7">
         <v>0</v>
       </c>
-      <c r="Q56" s="9" t="s">
+      <c r="Q56" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="R56" s="9" t="s">
+      <c r="R56" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="S56" s="10" t="s">
+      <c r="S56" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="T56" s="10" t="s">
+      <c r="T56" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="U56" s="10" t="s">
+      <c r="U56" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="V56" s="10">
+      <c r="V56" s="8">
         <v>2572</v>
       </c>
-      <c r="W56" s="10"/>
-      <c r="X56" s="8" t="s">
+      <c r="W56" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -5654,16 +5781,16 @@
       <c r="C57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E57" s="56" t="s">
-        <v>289</v>
+      <c r="D57" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>288</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G57" s="36" t="s">
+      <c r="G57" s="17" t="s">
         <v>261</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -5675,17 +5802,17 @@
       <c r="J57" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K57" s="44">
+      <c r="K57" s="23">
         <v>2439</v>
       </c>
-      <c r="L57" s="44">
+      <c r="L57" s="23">
         <v>551</v>
       </c>
       <c r="M57" s="4">
         <v>22.822201317027201</v>
       </c>
       <c r="N57" s="4"/>
-      <c r="O57" s="44">
+      <c r="O57" s="23">
         <v>1213</v>
       </c>
       <c r="P57" s="4">
@@ -5697,22 +5824,23 @@
       <c r="R57" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S57" s="3"/>
-      <c r="T57" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="U57" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="V57" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="W57" s="29"/>
-      <c r="X57" s="3" t="s">
+      <c r="T57" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="U57" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="V57" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W57" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y57" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -5722,16 +5850,16 @@
       <c r="C58" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E58" s="56" t="s">
-        <v>289</v>
+      <c r="D58" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>288</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G58" s="36" t="s">
+      <c r="G58" s="17" t="s">
         <v>268</v>
       </c>
       <c r="H58" s="4" t="s">
@@ -5743,17 +5871,17 @@
       <c r="J58" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K58" s="44">
+      <c r="K58" s="23">
         <v>673</v>
       </c>
-      <c r="L58" s="44">
+      <c r="L58" s="23">
         <v>124</v>
       </c>
       <c r="M58" s="4">
         <v>11.0253998118532</v>
       </c>
       <c r="N58" s="4"/>
-      <c r="O58" s="44">
+      <c r="O58" s="23">
         <v>586</v>
       </c>
       <c r="P58" s="4">
@@ -5774,15 +5902,17 @@
       <c r="U58" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V58" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W58" s="29"/>
-      <c r="X58" s="3" t="s">
+      <c r="V58" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W58" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y58" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -5792,16 +5922,16 @@
       <c r="C59" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E59" s="56" t="s">
-        <v>289</v>
+      <c r="D59" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>288</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G59" s="36" t="s">
+      <c r="G59" s="17" t="s">
         <v>269</v>
       </c>
       <c r="H59" s="4" t="s">
@@ -5813,17 +5943,17 @@
       <c r="J59" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K59" s="44">
+      <c r="K59" s="23">
         <v>3006</v>
       </c>
-      <c r="L59" s="44">
+      <c r="L59" s="23">
         <v>676</v>
       </c>
       <c r="M59" s="4">
         <v>8.5042333019755407</v>
       </c>
       <c r="N59" s="4"/>
-      <c r="O59" s="44">
+      <c r="O59" s="23">
         <v>452</v>
       </c>
       <c r="P59" s="4">
@@ -5844,126 +5974,131 @@
       <c r="U59" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V59" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W59" s="29"/>
-      <c r="X59" s="3" t="s">
+      <c r="V59" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="W59" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y59" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="E60" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="F60" s="9" t="s">
+      <c r="D60" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G60" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="H60" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K60" s="45">
+      <c r="H60" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K60" s="24">
         <v>3256</v>
       </c>
-      <c r="L60" s="45">
+      <c r="L60" s="24">
         <v>624</v>
       </c>
-      <c r="M60" s="9">
+      <c r="M60" s="7">
         <v>8.4101599247412899</v>
       </c>
-      <c r="N60" s="9"/>
-      <c r="O60" s="45">
+      <c r="N60" s="7"/>
+      <c r="O60" s="24">
         <v>447</v>
       </c>
-      <c r="P60" s="9">
+      <c r="P60" s="7">
         <v>13.8702460850111</v>
       </c>
-      <c r="Q60" s="9" t="s">
+      <c r="Q60" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="R60" s="9" t="s">
+      <c r="R60" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="S60" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="T60" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="U60" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="V60" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="W60" s="30"/>
-      <c r="X60" s="8" t="s">
+      <c r="S60" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="U60" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="V60" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="W60" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="52">
+      <c r="D61" s="27">
         <v>2.7</v>
       </c>
-      <c r="E61" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="F61" s="11" t="s">
+      <c r="E61" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G61" s="39" t="s">
+      <c r="G61" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="J61" s="11" t="s">
+      <c r="H61" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="K61" s="44">
+      <c r="K61" s="23">
         <v>4935</v>
       </c>
-      <c r="L61" s="44">
+      <c r="L61" s="23">
         <v>885</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M61" s="4">
         <v>5.9126661242202303</v>
       </c>
-      <c r="N61" s="11"/>
-      <c r="O61" s="44">
+      <c r="N61" s="4"/>
+      <c r="O61" s="23">
         <v>436</v>
       </c>
       <c r="P61" s="4">
@@ -5972,44 +6107,46 @@
       <c r="Q61" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="R61" s="11" t="s">
+      <c r="R61" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S61" s="3"/>
-      <c r="T61" s="5" t="s">
+      <c r="T61" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="U61" s="32" t="s">
+      <c r="U61" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="V61" s="5">
+      <c r="V61" s="13">
         <v>870</v>
       </c>
-      <c r="W61" s="5"/>
-      <c r="X61" s="3" t="s">
+      <c r="W61" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="50">
+      <c r="D62" s="27">
         <v>4.8</v>
       </c>
-      <c r="E62" s="50" t="s">
-        <v>295</v>
+      <c r="E62" s="27" t="s">
+        <v>294</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="36" t="s">
+      <c r="G62" s="17" t="s">
         <v>271</v>
       </c>
       <c r="H62" s="4" t="s">
@@ -6021,17 +6158,17 @@
       <c r="J62" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K62" s="44">
+      <c r="K62" s="23">
         <v>16239</v>
       </c>
-      <c r="L62" s="44">
+      <c r="L62" s="23">
         <v>565</v>
       </c>
       <c r="M62" s="4">
         <v>9.6555465147816602</v>
       </c>
       <c r="N62" s="4"/>
-      <c r="O62" s="44">
+      <c r="O62" s="23">
         <v>712</v>
       </c>
       <c r="P62" s="4">
@@ -6044,132 +6181,138 @@
         <v>127</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="T62" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="U62" s="32" t="s">
+      <c r="U62" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="V62" s="5">
+      <c r="V62" s="13">
         <v>2158</v>
       </c>
-      <c r="W62" s="5"/>
-      <c r="X62" s="3" t="s">
+      <c r="W62" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="51">
+      <c r="D63" s="28">
         <v>5.3</v>
       </c>
-      <c r="E63" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="F63" s="9" t="s">
+      <c r="E63" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="G63" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K63" s="45">
+      <c r="I63" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K63" s="24">
         <v>41053</v>
       </c>
-      <c r="L63" s="45">
+      <c r="L63" s="24">
         <v>5054</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M63" s="7">
         <v>40.791971792785397</v>
       </c>
-      <c r="N63" s="9"/>
-      <c r="O63" s="45">
+      <c r="N63" s="7"/>
+      <c r="O63" s="24">
         <v>3008</v>
       </c>
-      <c r="P63" s="9">
+      <c r="P63" s="7">
         <v>19.946808510638299</v>
       </c>
-      <c r="Q63" s="9" t="s">
+      <c r="Q63" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="R63" s="9" t="s">
+      <c r="R63" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8" t="s">
+      <c r="S63" s="6"/>
+      <c r="T63" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="U63" s="30" t="s">
+      <c r="U63" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="V63" s="8">
+      <c r="V63" s="14">
         <v>1234</v>
       </c>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8" t="s">
+      <c r="W63" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="27">
         <v>39.9</v>
       </c>
-      <c r="E64" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="F64" s="11" t="s">
+      <c r="E64" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G64" s="39" t="s">
+      <c r="G64" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K64" s="44">
+      <c r="H64" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K64" s="23">
         <v>323</v>
       </c>
-      <c r="L64" s="44">
+      <c r="L64" s="23">
         <v>258</v>
       </c>
-      <c r="M64" s="11">
+      <c r="M64" s="4">
         <v>1.44092219020172</v>
       </c>
-      <c r="N64" s="11"/>
-      <c r="O64" s="44">
+      <c r="N64" s="4"/>
+      <c r="O64" s="23">
         <v>50</v>
       </c>
       <c r="P64" s="4">
@@ -6178,66 +6321,68 @@
       <c r="Q64" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="R64" s="11" t="s">
+      <c r="R64" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S64" s="3"/>
-      <c r="T64" s="32" t="s">
+      <c r="T64" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="U64" s="32" t="s">
+      <c r="U64" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="V64" s="5">
+      <c r="V64" s="13">
         <v>2249</v>
       </c>
-      <c r="W64" s="5"/>
-      <c r="X64" s="3" t="s">
+      <c r="W64" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="27">
         <v>82.7</v>
       </c>
-      <c r="E65" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="F65" s="11" t="s">
+      <c r="E65" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G65" s="39" t="s">
+      <c r="G65" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K65" s="44">
+      <c r="H65" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K65" s="23">
         <v>94</v>
       </c>
-      <c r="L65" s="44">
+      <c r="L65" s="23">
         <v>1952</v>
       </c>
       <c r="M65" s="4">
         <v>4.5533141210374604</v>
       </c>
       <c r="N65" s="4"/>
-      <c r="O65" s="44">
+      <c r="O65" s="23">
         <v>158</v>
       </c>
       <c r="P65" s="4">
@@ -6246,134 +6391,139 @@
       <c r="Q65" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="R65" s="11" t="s">
+      <c r="R65" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S65" s="3"/>
-      <c r="T65" s="32" t="s">
+      <c r="T65" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="U65" s="32" t="s">
+      <c r="U65" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="V65" s="5">
+      <c r="V65" s="13">
         <v>4785</v>
       </c>
-      <c r="W65" s="5"/>
-      <c r="X65" s="3" t="s">
+      <c r="W65" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="51">
+      <c r="D66" s="28">
         <v>43.4</v>
       </c>
-      <c r="E66" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="F66" s="9" t="s">
+      <c r="E66" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G66" s="37" t="s">
+      <c r="G66" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I66" s="9" t="s">
+      <c r="H66" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I66" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="J66" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K66" s="45">
+      <c r="J66" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K66" s="24">
         <v>77704</v>
       </c>
-      <c r="L66" s="45">
+      <c r="L66" s="24">
         <v>66301</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M66" s="7">
         <v>83.775216138328503</v>
       </c>
-      <c r="N66" s="9"/>
-      <c r="O66" s="45">
+      <c r="N66" s="7"/>
+      <c r="O66" s="24">
         <v>2907</v>
       </c>
-      <c r="P66" s="9">
+      <c r="P66" s="7">
         <v>72.755417956656302</v>
       </c>
-      <c r="Q66" s="9" t="s">
+      <c r="Q66" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="R66" s="9" t="s">
+      <c r="R66" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S66" s="8"/>
-      <c r="T66" s="30" t="s">
+      <c r="S66" s="6"/>
+      <c r="T66" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="U66" s="30" t="s">
+      <c r="U66" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="V66" s="8">
+      <c r="V66" s="14">
         <v>805</v>
       </c>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8" t="s">
+      <c r="W66" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="27">
         <v>40.6</v>
       </c>
-      <c r="E67" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="F67" s="11" t="s">
+      <c r="E67" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G67" s="39" t="s">
+      <c r="G67" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K67" s="44">
+      <c r="H67" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K67" s="23">
         <v>248</v>
       </c>
-      <c r="L67" s="44">
+      <c r="L67" s="23">
         <v>441</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M67" s="4">
         <v>1.57232704402515</v>
       </c>
-      <c r="N67" s="11"/>
-      <c r="O67" s="44">
+      <c r="N67" s="4"/>
+      <c r="O67" s="23">
         <v>70</v>
       </c>
       <c r="P67" s="4">
@@ -6382,25 +6532,27 @@
       <c r="Q67" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="R67" s="11" t="s">
+      <c r="R67" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S67" s="3"/>
-      <c r="T67" s="5" t="s">
+      <c r="T67" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="U67" s="32" t="s">
+      <c r="U67" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="V67" s="5">
+      <c r="V67" s="13">
         <v>2601</v>
       </c>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5" t="s">
+      <c r="W67" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -6410,16 +6562,16 @@
       <c r="C68" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D68" s="27">
         <v>48.3</v>
       </c>
-      <c r="E68" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="F68" s="11" t="s">
+      <c r="E68" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G68" s="36" t="s">
+      <c r="G68" s="17" t="s">
         <v>276</v>
       </c>
       <c r="H68" s="4" t="s">
@@ -6431,17 +6583,17 @@
       <c r="J68" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K68" s="44">
+      <c r="K68" s="23">
         <v>1118</v>
       </c>
-      <c r="L68" s="44">
+      <c r="L68" s="23">
         <v>1156</v>
       </c>
       <c r="M68" s="4">
         <v>5.3009883198562404</v>
       </c>
       <c r="N68" s="4"/>
-      <c r="O68" s="44">
+      <c r="O68" s="23">
         <v>236</v>
       </c>
       <c r="P68" s="4">
@@ -6453,22 +6605,24 @@
       <c r="R68" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S68" s="3"/>
-      <c r="T68" s="5" t="s">
+      <c r="T68" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="U68" s="32" t="s">
+      <c r="U68" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="V68" s="5">
+      <c r="V68" s="13">
         <v>6953</v>
       </c>
-      <c r="W68" s="5"/>
-      <c r="X68" s="3" t="s">
+      <c r="W68" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
@@ -6478,16 +6632,16 @@
       <c r="C69" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="50">
+      <c r="D69" s="27">
         <v>46.7</v>
       </c>
-      <c r="E69" s="50" t="s">
-        <v>295</v>
+      <c r="E69" s="27" t="s">
+        <v>294</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G69" s="36" t="s">
+      <c r="G69" s="17" t="s">
         <v>238</v>
       </c>
       <c r="H69" s="4" t="s">
@@ -6499,17 +6653,17 @@
       <c r="J69" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K69" s="44">
+      <c r="K69" s="23">
         <v>901</v>
       </c>
-      <c r="L69" s="44">
+      <c r="L69" s="23">
         <v>727</v>
       </c>
       <c r="M69" s="4">
         <v>4.8966756513926297</v>
       </c>
       <c r="N69" s="4"/>
-      <c r="O69" s="44">
+      <c r="O69" s="23">
         <v>218</v>
       </c>
       <c r="P69" s="4">
@@ -6521,96 +6675,101 @@
       <c r="R69" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S69" s="3"/>
       <c r="T69" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="U69" s="29" t="s">
+      <c r="U69" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="V69" s="3">
+      <c r="V69" s="13">
         <v>6699</v>
       </c>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3" t="s">
+      <c r="W69" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="28">
         <v>61.1</v>
       </c>
-      <c r="E70" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="F70" s="9" t="s">
+      <c r="E70" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G70" s="37" t="s">
+      <c r="G70" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="H70" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="K70" s="45">
+      <c r="H70" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K70" s="24">
         <v>3</v>
       </c>
-      <c r="L70" s="45">
+      <c r="L70" s="24">
         <v>52</v>
       </c>
-      <c r="M70" s="9">
+      <c r="M70" s="7">
         <v>0.494159928122192</v>
       </c>
-      <c r="N70" s="9"/>
-      <c r="O70" s="45">
+      <c r="N70" s="7"/>
+      <c r="O70" s="24">
         <v>22</v>
       </c>
-      <c r="P70" s="9">
+      <c r="P70" s="7">
         <v>100</v>
       </c>
-      <c r="Q70" s="9" t="s">
+      <c r="Q70" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="R70" s="9" t="s">
+      <c r="R70" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8" t="s">
+      <c r="S70" s="6"/>
+      <c r="T70" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="U70" s="30" t="s">
+      <c r="U70" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="V70" s="8">
+      <c r="V70" s="14">
         <v>1137</v>
       </c>
-      <c r="W70" s="8"/>
-      <c r="X70" s="8" t="s">
+      <c r="W70" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="X58">
+  <conditionalFormatting sqref="Y58">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X54">
+  <conditionalFormatting sqref="Y54">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E2">

--- a/04_XV-seq/XV-seq_overview.xlsx
+++ b/04_XV-seq/XV-seq_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/scBPDCN-analysis/04_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D306D-1828-C24A-8C8F-0E091C920CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C02D16-9D4F-7C46-8ACE-17B32065B964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="481">
   <si>
     <t>Sample</t>
   </si>
@@ -1474,6 +1474,9 @@
   </si>
   <si>
     <t>Single-cell genotyping yielded few reads.</t>
+  </si>
+  <si>
+    <t>Base change</t>
   </si>
 </sst>
 </file>
@@ -2462,10 +2465,10 @@
   <dimension ref="A1:AE70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y57" sqref="Y57"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2512,7 +2515,7 @@
         <v>309</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>126</v>
+        <v>480</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>310</v>

--- a/04_XV-seq/XV-seq_overview.xlsx
+++ b/04_XV-seq/XV-seq_overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/scBPDCN-analysis/04_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C02D16-9D4F-7C46-8ACE-17B32065B964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D96C23-F06D-614A-B2ED-96FD55C4AB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XV-seq_overview" sheetId="1" r:id="rId1"/>
@@ -1302,159 +1302,6 @@
     <t>CDKN2a hom. deletion</t>
   </si>
   <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1/ASXL1.2046/Merged_Patient1_GoT_S1R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient1/ASXL1.2046/Merged_Patient1_GoT_S1R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1/FAM98C.903/Merged_Patient1_GoT_S1R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient1/FAM98C.903/Merged_Patient1_GoT_S1R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1/SETX.10691/Merged_Patient1_GoT_S1R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient1/SETX.10691/Merged_Patient1_GoT_S1R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1/SMARCC1.5233/Merged_Patient1_GoT_S1R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient1/SMARCC1.5233/Merged_Patient1_GoT_S1R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1/TET2.2847/Merged_Patient1_GoT_S1R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient1/TET2.2847/Merged_Patient1_GoT_S1R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/ASXL1.2046/Merged_Patient1MRD_GoT_S2R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient1MRD/ASXL1.2046/Merged_Patient1MRD_GoT_S2R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/FAM98C.903/Merged_Patient1MRD_GoT_S2R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient1MRD/FAM98C.903/Merged_Patient1MRD_GoT_S2R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/SETX.10691/Merged_Patient1MRD_GoT_S2R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient1MRD/SETX.10691/Merged_Patient1MRD_GoT_S2R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/SMARCC1.5233/Merged_Patient1MRD_GoT_S2R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient1MRD/SMARCC1.5233/Merged_Patient1MRD_GoT_S2R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/TET2.2847/Merged_Patient1MRD_GoT_S2R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient1MRD/TET2.2847/Merged_Patient1MRD_GoT_S2R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient5/TET2.796/Merged_Patient5_GoT_S3R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient5/TET2.796/Merged_Patient5_GoT_S3R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient5/TET2.4135/Merged_Patient5_GoT_S4R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient5/TET2.4135/Merged_Patient5_GoT_S4R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-AllRxns_R1.fastq,/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-AllRxns_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn6_R1.fastq,/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn6_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn4_R1.fastq,/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn4_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn3_R1.fastq,/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn3_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn1_R1.fastq,/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient10/RPS24.40/Merged_Patient10_GoT_S5R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient10/RPS24.40/Merged_Patient10_GoT_S5R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient10/SMARCD1.1330/Merged_Patient10_GoT_S5R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient10/SMARCD1.1330/Merged_Patient10_GoT_S5R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn4_R1.fastq,/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn4_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn2_R1.fastq,/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn2_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn3_R1.fastq,/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn3_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn1_R1.fastq,/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn2_R1.fastq,/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn2_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn6_R1.fastq,/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn6_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn4_R1.fastq,/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn4_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn3_R1.fastq,/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn3_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/BPDCN712_220426_AKA_Pt10/RAB9A.575R/BPDCN712-GoT-Rxn1_R1.fastq,/broad/vangalenlab/ssozi/GoT/BPDCN712_220426_AKA_Pt10/RAB9A.575R/BPDCN712-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn5_R1.fastq,/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn5_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient12/TET2.4588/Merged_Patient12_GoT_S6R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient12/TET2.4588/Merged_Patient12_GoT_S6R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient12REL/TET2.4588/Merged_Patient12REL_GoT_S7R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient12REL/TET2.4588/Merged_Patient12REL_GoT_S7R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient5/ZRSR2.500/Merged_Patient5_GoT_S4R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient5/ZRSR2.500/Merged_Patient5_GoT_S4R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn5_R1.fastq,/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn5_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient10/PRKDC.10039/Merged_Patient10_GoT_S5R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient10/PRKDC.10039/Merged_Patient10_GoT_S5R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn2_R1.fastq,/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn2_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient12/MALAT1.5155/Merged_Patient12_GoT_S6R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient12/MALAT1.5155/Merged_Patient12_GoT_S6R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient12/NFIC.1529/Merged_Patient12_GoT_S6R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient12/NFIC.1529/Merged_Patient12_GoT_S6R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient12/NOTCH1.8738/Merged_Patient12_GoT_S6R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient12/NOTCH1.8738/Merged_Patient12_GoT_S6R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient12REL/MALAT1.5155/Merged_Patient12REL_GoT_S7R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient12REL/MALAT1.5155/Merged_Patient12REL_GoT_S7R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient12REL/NFIC.1529/Merged_Patient12REL_GoT_S7R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient12REL/NFIC.1529/Merged_Patient12REL_GoT_S7R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient12REL/NOTCH1.8738/Merged_Patient12REL_GoT_S7R1.fastq,/broad/vangalenlab/ssozi/GoT/Patient12REL/NOTCH1.8738/Merged_Patient12REL_GoT_S7R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN181128/IDH2.392/BPDCN181128-GoT-Rxn1_R1.fastq,/broad/vangalenlab/depasquale/GoT/BPDCN181128/IDH2.392/BPDCN181128-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN181128/ETV6.1070/BPDCN181128-GoT-Rxn1_R1.fastq,/broad/vangalenlab/depasquale/GoT/BPDCN181128/ETV6.1070/BPDCN181128-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN180329/ASXL1.2398/BPDCN180329-GoT-Rxn1_R1.fastq,/broad/vangalenlab/depasquale/GoT/BPDCN180329/ASXL1.2398/BPDCN180329-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN180329/TET2.4509/BPDCN180329-GoT-Rxn1_R1.fastq,/broad/vangalenlab/depasquale/GoT/BPDCN180329/TET2.4509/BPDCN180329-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN180329/U2AF1.65/BPDCN180329-GoT-Rxn1_R1.fastq,/broad/vangalenlab/depasquale/GoT/BPDCN180329/U2AF1.65/BPDCN180329-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN190711/ASXL1.2046/BPDCN190711-GoT-Rxn1_R1.fastq,/broad/vangalenlab/depasquale/GoT/BPDCN190711/ASXL1.2046/BPDCN190711-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2595/BPDCN190711-GoT-Rxn2_R1.fastq,/broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2595/BPDCN190711-GoT-Rxn2_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2340/BPDCN190711-GoT-Rxn1_R1.fastq,/broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2340/BPDCN190711-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN190711/ZRSR2.331/BPDCN190711-GoT-Rxn1_R1.fastq,/broad/vangalenlab/depasquale/GoT/BPDCN190711/ZRSR2.331/BPDCN190711-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/depasquale/GoT/BPDCN181128/EZH2.362/BPDCN181128-GoT-Rxn1_R1.fastq,/broad/depasquale/GoT/BPDCN181128/EZH2.362/BPDCN181128-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
     <t>Independently validated with ASXL1.1898 primer (see Methods).</t>
   </si>
   <si>
@@ -1477,6 +1324,159 @@
   </si>
   <si>
     <t>Base change</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn4_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn4_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn3_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn3_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn2_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn2_R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient10/PRKDC.10039/Merged_Patient10_GoT_S5R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient10/PRKDC.10039/Merged_Patient10_GoT_S5R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn1_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient10/RPS24.40/Merged_Patient10_GoT_S5R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient10/RPS24.40/Merged_Patient10_GoT_S5R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient10/SMARCD1.1330/Merged_Patient10_GoT_S5R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient10/SMARCD1.1330/Merged_Patient10_GoT_S5R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn4_R1.fastq, /broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn4_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn2_R1.fastq, /broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn2_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn3_R1.fastq, /broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn3_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn1_R1.fastq, /broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn6_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn6_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn4_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn4_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn3_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn3_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn2_R1.fastq,  /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn2_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/BPDCN712_220426_AKA_Pt10/RAB9A.575R/BPDCN712R-GoT-Rxn1_R1.fastq, /broad/vangalenlab/ssozi/GoT/BPDCN712_220426_AKA_Pt10/RAB9A.575R/BPDCN712R-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn5_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn5_R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12/MALAT1.5155/Merged_Patient12_GoT_S6R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12/MALAT1.5155/Merged_Patient12_GoT_S6R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12/NFIC.1529/Merged_Patient12_GoT_S6R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12/NFIC.1529/Merged_Patient12_GoT_S6R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12/NOTCH1.8738/Merged_Patient12_GoT_S6R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12/NOTCH1.8738/Merged_Patient12_GoT_S6R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient12/TET2.4588/Merged_Patient12_GoT_S6R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12/TET2.4588/Merged_Patient12_GoT_S6R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12REL/MALAT1.5155/Merged_Patient12REL_GoT_S7R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12REL/MALAT1.5155/Merged_Patient12REL_GoT_S7R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12REL/NFIC.1529/Merged_Patient12REL_GoT_S7R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12REL/NFIC.1529/Merged_Patient12REL_GoT_S7R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12REL/NOTCH1.8738/Merged_Patient12REL_GoT_S7R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12REL/NOTCH1.8738/Merged_Patient12REL_GoT_S7R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient12REL/TET2.4588/Merged_Patient12REL_GoT_S7R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12REL/TET2.4588/Merged_Patient12REL_GoT_S7R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN181128/ETV6.1070/BPDCN181128-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN181128/ETV6.1070/BPDCN181128-GoT-Rxn1_R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/depasquale/GoT/BPDCN181128/EZH2.362/BPDCN181128-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN181128/EZH2.362/BPDCN181128-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN181128/IDH2.392/BPDCN181128-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN181128/IDH2.392/BPDCN181128-GoT-Rxn1_R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/depasquale/GoT/BPDCN180329/ASXL1.2398/BPDCN180329-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN180329/ASXL1.2398/BPDCN180329-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN180329/TET2.4509/BPDCN180329-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN180329/TET2.4509/BPDCN180329-GoT-Rxn1_R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN180329/U2AF1.65/BPDCN180329-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN180329/U2AF1.65/BPDCN180329-GoT-Rxn1_R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN190711/ASXL1.2046/BPDCN190711-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN190711/ASXL1.2046/BPDCN190711-GoT-Rxn1_R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2595/BPDCN190711-GoT-Rxn2_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2595/BPDCN190711-GoT-Rxn2_R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2340/BPDCN190711-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2340/BPDCN190711-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/depasquale/GoT/BPDCN190711/ZRSR2.331/BPDCN190711-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN190711/ZRSR2.331/BPDCN190711-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1/ASXL1.2046/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/ASXL1.2046/Merged_Patient1_GoT_S1R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1/FAM98C.903/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/FAM98C.903/Merged_Patient1_GoT_S1R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1/SETX.10691/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/SETX.10691/Merged_Patient1_GoT_S1R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1/SMARCC1.5233/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/SMARCC1.5233/Merged_Patient1_GoT_S1R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1/TET2.2847/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/TET2.2847/Merged_Patient1_GoT_S1R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/ASXL1.2046/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/ASXL1.2046/Merged_Patient1MRD_GoT_S2R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/FAM98C.903/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/FAM98C.903/Merged_Patient1MRD_GoT_S2R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/SETX.10691/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/SETX.10691/Merged_Patient1MRD_GoT_S2R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/SMARCC1.5233/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/SMARCC1.5233/Merged_Patient1MRD_GoT_S2R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/TET2.2847/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/TET2.2847/Merged_Patient1MRD_GoT_S2R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient5/TET2.796/Merged_Patient5_GoT_S3R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient5/TET2.796/Merged_Patient5_GoT_S3R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient5/TET2.4135/Merged_Patient5_GoT_S4R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient5/TET2.4135/Merged_Patient5_GoT_S4R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient5/ZRSR2.500/Merged_Patient5_GoT_S4R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient5/ZRSR2.500/Merged_Patient5_GoT_S4R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-AllRxns_R1.fastq, /broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-AllRxns_R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn5_R1.fastq, /broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn5_R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn6_R1.fastq, /broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn6_R2.fastq</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1486,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1643,12 +1643,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2028,7 +2022,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2095,17 +2089,37 @@
     <xf numFmtId="164" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2465,10 +2479,10 @@
   <dimension ref="A1:AE70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2515,7 +2529,7 @@
         <v>309</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>480</v>
+        <v>429</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>310</v>
@@ -2591,187 +2605,188 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="40">
         <v>13</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="40">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q2" s="15">
+      <c r="N2" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="46">
         <v>27</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="46">
         <v>15</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="43">
         <v>0.242620299231702</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15">
+      <c r="T2" s="46"/>
+      <c r="U2" s="46">
         <v>6</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="43">
         <v>50</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="49">
         <v>2555</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="51" t="s">
         <v>293</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE2" s="38" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q3" s="15">
+      <c r="O3" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" s="46">
         <v>2502</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="46">
         <v>92</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="43">
         <v>6.0250707642539396</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="46">
         <v>25</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="46">
         <v>149</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="43">
         <v>2.0134228187919399</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="Y3" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Y3" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z3" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="49">
         <v>324</v>
       </c>
-      <c r="AC3" s="24" t="s">
+      <c r="AC3" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="AD3" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AD3" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE3" s="38" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2812,7 +2827,7 @@
       <c r="L4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="34" t="s">
         <v>236</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -2849,7 +2864,7 @@
         <v>128</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>476</v>
+        <v>425</v>
       </c>
       <c r="Z4" s="4" t="s">
         <v>173</v>
@@ -2864,7 +2879,7 @@
         <v>293</v>
       </c>
       <c r="AD4" s="10" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="AE4" s="2" t="s">
         <v>70</v>
@@ -2907,7 +2922,7 @@
       <c r="L5" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="34" t="s">
         <v>235</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -2944,7 +2959,7 @@
         <v>128</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>171</v>
@@ -2955,13 +2970,13 @@
       <c r="AB5" s="10">
         <v>225</v>
       </c>
-      <c r="AC5" s="24" t="s">
+      <c r="AC5" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="AD5" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AD5" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="AE5" s="38" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3002,7 +3017,7 @@
       <c r="L6" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="35" t="s">
         <v>233</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -3051,100 +3066,101 @@
       <c r="AC6" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="AD6" s="10" t="s">
-        <v>426</v>
+      <c r="AD6" s="11" t="s">
+        <v>469</v>
       </c>
       <c r="AE6" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="38">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="40">
         <v>14.3</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q7" s="15">
+      <c r="N7" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="46">
         <v>29</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="46">
         <v>0</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="43">
         <v>0.28122575640031</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15">
+      <c r="T7" s="46"/>
+      <c r="U7" s="46">
         <v>29</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="43">
         <v>0</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AC7" s="24" t="s">
+      <c r="AC7" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="AD7" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AD7" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE7" s="38" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3185,7 +3201,7 @@
       <c r="L8" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="34" t="s">
         <v>243</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -3237,7 +3253,7 @@
         <v>294</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>228</v>
@@ -3280,7 +3296,7 @@
       <c r="L9" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="34" t="s">
         <v>236</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -3332,104 +3348,104 @@
         <v>294</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="38">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q10" s="15">
+      <c r="O10" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="46">
         <v>297</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="46">
         <v>0</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="43">
         <v>2.4825446082234199</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="46">
         <v>105</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="46">
         <v>256</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="43">
         <v>0</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="W10" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Y10" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AA10" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AC10" s="24" t="s">
+      <c r="AC10" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="AD10" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AD10" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE10" s="38" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3470,7 +3486,7 @@
       <c r="L11" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="35" t="s">
         <v>233</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -3520,189 +3536,191 @@
         <v>294</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="AE11" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="38">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="40">
         <v>36.799999999999997</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q12" s="15">
+      <c r="N12" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O12" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q12" s="46">
         <v>1287</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="46">
         <v>819</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="43">
         <v>4.2702050663449898</v>
       </c>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15">
+      <c r="T12" s="46"/>
+      <c r="U12" s="46">
         <v>177</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="43">
         <v>42.937853107344601</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="W12" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="X12" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AA12" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AB12" s="10">
+      <c r="AB12" s="49">
         <v>8449</v>
       </c>
-      <c r="AC12" s="24" t="s">
+      <c r="AC12" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="AD12" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AD12" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE12" s="38" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="38">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="40">
         <v>41.3</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q13" s="15">
+      <c r="N13" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O13" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P13" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q13" s="46">
         <v>1288</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="46">
         <v>1045</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="43">
         <v>5.4764776839565696</v>
       </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15">
+      <c r="T13" s="46"/>
+      <c r="U13" s="46">
         <v>227</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="43">
         <v>36.123348017621097</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="W13" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="X13" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AA13" s="2" t="s">
+      <c r="AA13" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="AB13" s="10">
+      <c r="AB13" s="49">
         <v>5109</v>
       </c>
-      <c r="AC13" s="24" t="s">
+      <c r="AC13" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="AD13" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AD13" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE13" s="38" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3743,7 +3761,7 @@
       <c r="L14" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="35" t="s">
         <v>246</v>
       </c>
       <c r="N14" s="6" t="s">
@@ -3793,7 +3811,7 @@
         <v>295</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="AE14" s="5" t="s">
         <v>63</v>
@@ -3836,7 +3854,7 @@
       <c r="L15" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M15" s="37" t="s">
+      <c r="M15" s="34" t="s">
         <v>238</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -3871,7 +3889,7 @@
         <v>127</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>140</v>
@@ -3886,7 +3904,7 @@
         <v>292</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="AE15" s="2" t="s">
         <v>38</v>
@@ -3929,7 +3947,7 @@
       <c r="L16" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="34" t="s">
         <v>273</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -3964,7 +3982,7 @@
         <v>127</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>139</v>
@@ -3979,7 +3997,7 @@
         <v>292</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="AE16" s="2" t="s">
         <v>39</v>
@@ -4022,7 +4040,7 @@
       <c r="L17" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="35" t="s">
         <v>239</v>
       </c>
       <c r="N17" s="6" t="s">
@@ -4059,7 +4077,7 @@
         <v>127</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="Z17" s="5" t="s">
         <v>138</v>
@@ -4074,7 +4092,7 @@
         <v>292</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="AE17" s="5" t="s">
         <v>40</v>
@@ -4117,7 +4135,7 @@
       <c r="L18" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="36" t="s">
         <v>250</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -4169,7 +4187,7 @@
         <v>296</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AE18" s="2" t="s">
         <v>45</v>
@@ -4212,7 +4230,7 @@
       <c r="L19" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="M19" s="34" t="s">
         <v>241</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -4247,7 +4265,7 @@
         <v>127</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>150</v>
@@ -4262,104 +4280,104 @@
         <v>296</v>
       </c>
       <c r="AD19" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AE19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="38">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q20" s="15">
+      <c r="N20" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q20" s="46">
         <v>1744</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="46">
         <v>2</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="43">
         <v>9.8357411438749196</v>
       </c>
-      <c r="T20" s="15">
+      <c r="T20" s="46">
         <v>129</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U20" s="46">
         <v>994</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="43">
         <v>0.20120724346076399</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="W20" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Y20" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Z20" s="2" t="s">
+      <c r="Z20" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="AA20" s="2" t="s">
+      <c r="AA20" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AB20" s="10">
+      <c r="AB20" s="49">
         <v>2622</v>
       </c>
-      <c r="AC20" s="24" t="s">
+      <c r="AC20" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="AD20" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AD20" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE20" s="38" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4400,7 +4418,7 @@
       <c r="L21" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="34" t="s">
         <v>242</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -4452,104 +4470,104 @@
         <v>296</v>
       </c>
       <c r="AD21" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AE21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="38">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O22" s="3" t="s">
+      <c r="N22" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O22" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q22" s="15">
+      <c r="P22" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q22" s="46">
         <v>1043</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22" s="46">
         <v>13</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="43">
         <v>6.1844448842271902</v>
       </c>
-      <c r="T22" s="15">
+      <c r="T22" s="46">
         <v>49</v>
       </c>
-      <c r="U22" s="15">
+      <c r="U22" s="46">
         <v>625</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="43">
         <v>1.1199999999999899</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="Y22" s="2" t="s">
+      <c r="Y22" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="Z22" s="2" t="s">
+      <c r="Z22" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="AA22" s="2" t="s">
+      <c r="AA22" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AB22" s="10">
+      <c r="AB22" s="49">
         <v>1454</v>
       </c>
-      <c r="AC22" s="24" t="s">
+      <c r="AC22" s="51" t="s">
         <v>296</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE22" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE22" s="38" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4590,7 +4608,7 @@
       <c r="L23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="34" t="s">
         <v>260</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -4641,8 +4659,8 @@
       <c r="AC23" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="AD23" s="10" t="s">
-        <v>437</v>
+      <c r="AD23" s="49" t="s">
+        <v>431</v>
       </c>
       <c r="AE23" s="2" t="s">
         <v>50</v>
@@ -4685,7 +4703,7 @@
       <c r="L24" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="M24" s="34" t="s">
         <v>255</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -4737,104 +4755,104 @@
         <v>296</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="AE24" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="38">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="M25" s="37" t="s">
+      <c r="M25" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q25" s="15">
+      <c r="N25" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O25" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q25" s="46">
         <v>26276</v>
       </c>
-      <c r="R25" s="15">
+      <c r="R25" s="46">
         <v>175</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="43">
         <v>35.751038986740497</v>
       </c>
-      <c r="T25" s="15">
+      <c r="T25" s="46">
         <v>209</v>
       </c>
-      <c r="U25" s="15">
+      <c r="U25" s="46">
         <v>3613</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="43">
         <v>0.38748962081372801</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="W25" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="X25" s="3" t="s">
+      <c r="X25" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="Y25" s="2" t="s">
+      <c r="Y25" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Z25" s="2" t="s">
+      <c r="Z25" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AA25" s="2" t="s">
+      <c r="AA25" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AB25" s="10">
+      <c r="AB25" s="49">
         <v>350</v>
       </c>
-      <c r="AC25" s="24" t="s">
+      <c r="AC25" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="AD25" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="AE25" s="2" t="s">
+      <c r="AD25" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE25" s="38" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4875,7 +4893,7 @@
       <c r="L26" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M26" s="37" t="s">
+      <c r="M26" s="34" t="s">
         <v>254</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -4927,7 +4945,7 @@
         <v>296</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AE26" s="2" t="s">
         <v>59</v>
@@ -4970,7 +4988,7 @@
       <c r="L27" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M27" s="37" t="s">
+      <c r="M27" s="34" t="s">
         <v>262</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -5022,104 +5040,104 @@
         <v>296</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AE27" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="38">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="40">
         <v>6.9</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="40">
         <v>9.6</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="M28" s="37" t="s">
+      <c r="M28" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O28" s="3" t="s">
+      <c r="N28" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="P28" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q28" s="15">
+      <c r="P28" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q28" s="46">
         <v>237</v>
       </c>
-      <c r="R28" s="15">
+      <c r="R28" s="46">
         <v>15</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="43">
         <v>1.88007124480506</v>
       </c>
-      <c r="T28" s="15">
+      <c r="T28" s="46">
         <v>29</v>
       </c>
-      <c r="U28" s="15">
+      <c r="U28" s="46">
         <v>190</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28" s="43">
         <v>6.3157894736842097</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="W28" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="X28" s="3" t="s">
+      <c r="X28" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="Y28" s="2" t="s">
+      <c r="Y28" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="Z28" s="2" t="s">
+      <c r="Z28" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="AA28" s="2" t="s">
+      <c r="AA28" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AB28" s="10">
+      <c r="AB28" s="49">
         <v>5189</v>
       </c>
-      <c r="AC28" s="24" t="s">
+      <c r="AC28" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="AD28" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="AE28" s="2" t="s">
+      <c r="AD28" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE28" s="38" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5160,13 +5178,13 @@
       <c r="L29" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="45" t="s">
         <v>248</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="43" t="s">
         <v>230</v>
       </c>
       <c r="P29" s="3" t="s">
@@ -5212,7 +5230,7 @@
         <v>296</v>
       </c>
       <c r="AD29" s="10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AE29" s="2" t="s">
         <v>42</v>
@@ -5255,7 +5273,7 @@
       <c r="L30" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M30" s="37" t="s">
+      <c r="M30" s="34" t="s">
         <v>240</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -5307,7 +5325,7 @@
         <v>296</v>
       </c>
       <c r="AD30" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AE30" s="2" t="s">
         <v>43</v>
@@ -5350,7 +5368,7 @@
       <c r="L31" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M31" s="37" t="s">
+      <c r="M31" s="34" t="s">
         <v>247</v>
       </c>
       <c r="N31" s="3" t="s">
@@ -5402,7 +5420,7 @@
         <v>296</v>
       </c>
       <c r="AD31" s="10" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AE31" s="2" t="s">
         <v>41</v>
@@ -5436,7 +5454,7 @@
       <c r="L32" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M32" s="37" t="s">
+      <c r="M32" s="34" t="s">
         <v>253</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -5486,7 +5504,7 @@
         <v>296</v>
       </c>
       <c r="AD32" s="24" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="AE32" s="2" t="s">
         <v>51</v>
@@ -5535,7 +5553,7 @@
         <v>296</v>
       </c>
       <c r="AD33" s="26" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="AE33" s="8" t="s">
         <v>52</v>
@@ -5584,58 +5602,58 @@
         <v>296</v>
       </c>
       <c r="AD34" s="26" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="AE34" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="A35" s="39">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="17">
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="47">
         <v>3249</v>
       </c>
-      <c r="R35" s="17">
+      <c r="R35" s="47">
         <v>10</v>
       </c>
-      <c r="S35" s="9"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="26" t="s">
+      <c r="S35" s="44"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="AD35" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="AE35" s="8" t="s">
+      <c r="AD35" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE35" s="39" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5682,7 +5700,7 @@
         <v>296</v>
       </c>
       <c r="AD36" s="32" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="AE36" s="27" t="s">
         <v>55</v>
@@ -5725,7 +5743,7 @@
       <c r="L37" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="M37" s="39" t="s">
+      <c r="M37" s="36" t="s">
         <v>250</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -5777,7 +5795,7 @@
         <v>297</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AE37" s="2" t="s">
         <v>24</v>
@@ -5820,7 +5838,7 @@
       <c r="L38" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M38" s="37" t="s">
+      <c r="M38" s="34" t="s">
         <v>241</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -5870,7 +5888,7 @@
         <v>297</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AE38" s="2" t="s">
         <v>25</v>
@@ -5913,7 +5931,7 @@
       <c r="L39" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M39" s="37" t="s">
+      <c r="M39" s="34" t="s">
         <v>251</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -5965,104 +5983,104 @@
         <v>297</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AE39" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="38">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="J40" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="40">
         <v>22.4</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="M40" s="37" t="s">
+      <c r="M40" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q40" s="15">
+      <c r="N40" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O40" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P40" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q40" s="46">
         <v>16</v>
       </c>
-      <c r="R40" s="15">
+      <c r="R40" s="46">
         <v>6</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S40" s="43">
         <v>0.25340090690850797</v>
       </c>
-      <c r="T40" s="15">
+      <c r="T40" s="46">
         <v>2</v>
       </c>
-      <c r="U40" s="15">
+      <c r="U40" s="46">
         <v>19</v>
       </c>
-      <c r="V40" s="3">
+      <c r="V40" s="43">
         <v>26.315789473684202</v>
       </c>
-      <c r="W40" s="3" t="s">
+      <c r="W40" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="X40" s="3" t="s">
+      <c r="X40" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="Y40" s="2" t="s">
+      <c r="Y40" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="Z40" s="2" t="s">
+      <c r="Z40" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AA40" s="2" t="s">
+      <c r="AA40" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AB40" s="10" t="s">
+      <c r="AB40" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AC40" s="24" t="s">
+      <c r="AC40" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="AD40" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE40" s="2" t="s">
+      <c r="AD40" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE40" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6103,7 +6121,7 @@
       <c r="L41" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M41" s="37" t="s">
+      <c r="M41" s="34" t="s">
         <v>252</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -6155,7 +6173,7 @@
         <v>297</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AE41" s="2" t="s">
         <v>28</v>
@@ -6198,7 +6216,7 @@
       <c r="L42" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M42" s="37" t="s">
+      <c r="M42" s="34" t="s">
         <v>260</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -6250,7 +6268,7 @@
         <v>297</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AE42" s="2" t="s">
         <v>29</v>
@@ -6293,7 +6311,7 @@
       <c r="L43" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M43" s="37" t="s">
+      <c r="M43" s="34" t="s">
         <v>261</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -6344,8 +6362,8 @@
       <c r="AC43" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="AD43" s="35" t="s">
-        <v>449</v>
+      <c r="AD43" s="10" t="s">
+        <v>445</v>
       </c>
       <c r="AE43" s="2" t="s">
         <v>30</v>
@@ -6388,7 +6406,7 @@
       <c r="L44" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M44" s="37" t="s">
+      <c r="M44" s="34" t="s">
         <v>249</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -6440,7 +6458,7 @@
         <v>297</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AE44" s="2" t="s">
         <v>34</v>
@@ -6483,7 +6501,7 @@
       <c r="L45" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M45" s="37" t="s">
+      <c r="M45" s="34" t="s">
         <v>248</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -6535,7 +6553,7 @@
         <v>297</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AE45" s="2" t="s">
         <v>32</v>
@@ -6578,7 +6596,7 @@
       <c r="L46" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M46" s="37" t="s">
+      <c r="M46" s="34" t="s">
         <v>240</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -6630,104 +6648,104 @@
         <v>297</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AE46" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="A47" s="38">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="J47" s="18" t="s">
+      <c r="J47" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="40">
         <v>23.6</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="M47" s="37" t="s">
+      <c r="M47" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q47" s="15">
+      <c r="N47" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O47" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P47" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q47" s="46">
         <v>171</v>
       </c>
-      <c r="R47" s="15">
+      <c r="R47" s="46">
         <v>79</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="43">
         <v>2.6940517471325598</v>
       </c>
-      <c r="T47" s="15">
+      <c r="T47" s="46">
         <v>12</v>
       </c>
-      <c r="U47" s="15">
+      <c r="U47" s="46">
         <v>202</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="43">
         <v>36.138613861386098</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="W47" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="X47" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="Y47" s="2" t="s">
+      <c r="Y47" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="Z47" s="2" t="s">
+      <c r="Z47" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AA47" s="2" t="s">
+      <c r="AA47" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AB47" s="10" t="s">
+      <c r="AB47" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AC47" s="24" t="s">
+      <c r="AC47" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="AD47" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE47" s="2" t="s">
+      <c r="AD47" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE47" s="38" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6759,7 +6777,7 @@
       <c r="L48" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M48" s="37" t="s">
+      <c r="M48" s="34" t="s">
         <v>253</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -6809,7 +6827,7 @@
         <v>297</v>
       </c>
       <c r="AD48" s="10" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="AE48" s="2" t="s">
         <v>101</v>
@@ -6858,7 +6876,7 @@
         <v>297</v>
       </c>
       <c r="AD49" s="26" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="AE49" s="8" t="s">
         <v>102</v>
@@ -6907,7 +6925,7 @@
         <v>297</v>
       </c>
       <c r="AD50" s="26" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="AE50" s="8" t="s">
         <v>103</v>
@@ -6956,7 +6974,7 @@
         <v>297</v>
       </c>
       <c r="AD51" s="26" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="AE51" s="8" t="s">
         <v>104</v>
@@ -7005,7 +7023,7 @@
         <v>297</v>
       </c>
       <c r="AD52" s="32" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="AE52" s="27" t="s">
         <v>105</v>
@@ -7048,7 +7066,7 @@
       <c r="L53" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M53" s="40" t="s">
+      <c r="M53" s="37" t="s">
         <v>263</v>
       </c>
       <c r="N53" s="3" t="s">
@@ -7085,7 +7103,7 @@
         <v>128</v>
       </c>
       <c r="Y53" s="4" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="Z53" s="4" t="s">
         <v>193</v>
@@ -7100,104 +7118,104 @@
         <v>298</v>
       </c>
       <c r="AD53" s="4" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="AE53" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="A54" s="38">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="J54" s="18" t="s">
+      <c r="J54" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="K54" s="22" t="s">
+      <c r="K54" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="M54" s="37" t="s">
+      <c r="M54" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q54" s="15">
+      <c r="N54" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O54" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P54" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q54" s="46">
         <v>365</v>
       </c>
-      <c r="R54" s="15">
+      <c r="R54" s="46">
         <v>0</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="43">
         <v>2.7980180705333701</v>
       </c>
-      <c r="T54" s="15">
+      <c r="T54" s="46">
         <v>313</v>
       </c>
-      <c r="U54" s="15">
+      <c r="U54" s="46">
         <v>192</v>
       </c>
-      <c r="V54" s="3">
+      <c r="V54" s="43">
         <v>0</v>
       </c>
-      <c r="W54" s="3" t="s">
+      <c r="W54" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="X54" s="3" t="s">
+      <c r="X54" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="Y54" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="Z54" s="4" t="s">
+      <c r="Y54" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z54" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="AA54" s="4" t="s">
+      <c r="AA54" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="AB54" s="4">
+      <c r="AB54" s="48">
         <v>2572</v>
       </c>
-      <c r="AC54" s="24" t="s">
+      <c r="AC54" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="AD54" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE54" s="2" t="s">
+      <c r="AD54" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE54" s="38" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7238,7 +7256,7 @@
       <c r="L55" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M55" s="37" t="s">
+      <c r="M55" s="34" t="s">
         <v>264</v>
       </c>
       <c r="N55" s="3" t="s">
@@ -7275,7 +7293,7 @@
         <v>128</v>
       </c>
       <c r="Y55" s="4" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="Z55" s="4" t="s">
         <v>194</v>
@@ -7290,7 +7308,7 @@
         <v>298</v>
       </c>
       <c r="AD55" s="4" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="AE55" s="2" t="s">
         <v>75</v>
@@ -7333,7 +7351,7 @@
       <c r="L56" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="M56" s="38" t="s">
+      <c r="M56" s="35" t="s">
         <v>256</v>
       </c>
       <c r="N56" s="6" t="s">
@@ -7370,7 +7388,7 @@
         <v>127</v>
       </c>
       <c r="Y56" s="7" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="Z56" s="7" t="s">
         <v>192</v>
@@ -7385,7 +7403,7 @@
         <v>298</v>
       </c>
       <c r="AD56" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AE56" s="5" t="s">
         <v>76</v>
@@ -7428,7 +7446,7 @@
       <c r="L57" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M57" s="37" t="s">
+      <c r="M57" s="34" t="s">
         <v>263</v>
       </c>
       <c r="N57" s="3" t="s">
@@ -7480,7 +7498,7 @@
         <v>299</v>
       </c>
       <c r="AD57" s="10" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AE57" s="2" t="s">
         <v>65</v>
@@ -7523,7 +7541,7 @@
       <c r="L58" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M58" s="37" t="s">
+      <c r="M58" s="34" t="s">
         <v>265</v>
       </c>
       <c r="N58" s="3" t="s">
@@ -7575,7 +7593,7 @@
         <v>299</v>
       </c>
       <c r="AD58" s="10" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AE58" s="2" t="s">
         <v>68</v>
@@ -7618,7 +7636,7 @@
       <c r="L59" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M59" s="37" t="s">
+      <c r="M59" s="34" t="s">
         <v>264</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -7670,7 +7688,7 @@
         <v>299</v>
       </c>
       <c r="AD59" s="10" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AE59" s="2" t="s">
         <v>66</v>
@@ -7713,7 +7731,7 @@
       <c r="L60" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="M60" s="38" t="s">
+      <c r="M60" s="35" t="s">
         <v>256</v>
       </c>
       <c r="N60" s="6" t="s">
@@ -7763,7 +7781,7 @@
         <v>299</v>
       </c>
       <c r="AD60" s="11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AE60" s="5" t="s">
         <v>67</v>
@@ -7806,7 +7824,7 @@
       <c r="L61" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M61" s="37" t="s">
+      <c r="M61" s="34" t="s">
         <v>257</v>
       </c>
       <c r="N61" s="3" t="s">
@@ -7855,7 +7873,7 @@
         <v>300</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AE61" s="2" t="s">
         <v>97</v>
@@ -7898,7 +7916,7 @@
       <c r="L62" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="M62" s="37" t="s">
+      <c r="M62" s="34" t="s">
         <v>266</v>
       </c>
       <c r="N62" s="3" t="s">
@@ -7949,8 +7967,8 @@
       <c r="AC62" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="AD62" s="36" t="s">
-        <v>472</v>
+      <c r="AD62" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="AE62" s="2" t="s">
         <v>98</v>
@@ -7993,7 +8011,7 @@
       <c r="L63" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="M63" s="38" t="s">
+      <c r="M63" s="35" t="s">
         <v>267</v>
       </c>
       <c r="N63" s="6" t="s">
@@ -8043,7 +8061,7 @@
         <v>300</v>
       </c>
       <c r="AD63" s="5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AE63" s="5" t="s">
         <v>99</v>
@@ -8086,7 +8104,7 @@
       <c r="L64" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="M64" s="37" t="s">
+      <c r="M64" s="34" t="s">
         <v>268</v>
       </c>
       <c r="N64" s="3" t="s">
@@ -8133,101 +8151,102 @@
         <v>301</v>
       </c>
       <c r="AD64" s="10" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AE64" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="A65" s="38">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="J65" s="18">
+      <c r="J65" s="40">
         <v>82.7</v>
       </c>
-      <c r="K65" s="18" t="s">
+      <c r="K65" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="L65" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="M65" s="37" t="s">
+      <c r="M65" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="N65" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q65" s="15">
+      <c r="N65" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O65" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P65" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q65" s="46">
         <v>94</v>
       </c>
-      <c r="R65" s="15">
+      <c r="R65" s="46">
         <v>1952</v>
       </c>
-      <c r="S65" s="3">
+      <c r="S65" s="43">
         <v>4.5533141210374604</v>
       </c>
-      <c r="T65" s="15">
+      <c r="T65" s="46">
         <v>17</v>
       </c>
-      <c r="U65" s="15">
+      <c r="U65" s="46">
         <v>158</v>
       </c>
-      <c r="V65" s="3">
+      <c r="V65" s="43">
         <v>93.670886075949298</v>
       </c>
-      <c r="W65" s="3" t="s">
+      <c r="W65" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="X65" s="3" t="s">
+      <c r="X65" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="Z65" s="10" t="s">
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="AA65" s="10" t="s">
+      <c r="AA65" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="AB65" s="10">
+      <c r="AB65" s="49">
         <v>4785</v>
       </c>
-      <c r="AC65" s="24" t="s">
+      <c r="AC65" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="AD65" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="AE65" s="2" t="s">
+      <c r="AD65" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE65" s="38" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8268,7 +8287,7 @@
       <c r="L66" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="M66" s="38" t="s">
+      <c r="M66" s="35" t="s">
         <v>270</v>
       </c>
       <c r="N66" s="6" t="s">
@@ -8318,7 +8337,7 @@
         <v>301</v>
       </c>
       <c r="AD66" s="5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AE66" s="5" t="s">
         <v>112</v>
@@ -8361,7 +8380,7 @@
       <c r="L67" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="M67" s="37" t="s">
+      <c r="M67" s="34" t="s">
         <v>258</v>
       </c>
       <c r="N67" s="3" t="s">
@@ -8410,193 +8429,195 @@
         <v>302</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AE67" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+      <c r="A68" s="38">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="J68" s="18">
+      <c r="J68" s="40">
         <v>46.7</v>
       </c>
-      <c r="K68" s="18" t="s">
+      <c r="K68" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="L68" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="M68" s="37" t="s">
+      <c r="M68" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="N68" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q68" s="15">
+      <c r="N68" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O68" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P68" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q68" s="46">
         <v>901</v>
       </c>
-      <c r="R68" s="15">
+      <c r="R68" s="46">
         <v>727</v>
       </c>
-      <c r="S68" s="3">
+      <c r="S68" s="43">
         <v>4.8966756513926297</v>
       </c>
-      <c r="T68" s="15">
+      <c r="T68" s="46">
         <v>6</v>
       </c>
-      <c r="U68" s="15">
+      <c r="U68" s="46">
         <v>218</v>
       </c>
-      <c r="V68" s="3">
+      <c r="V68" s="43">
         <v>44.4954128440367</v>
       </c>
-      <c r="W68" s="3" t="s">
+      <c r="W68" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="X68" s="3" t="s">
+      <c r="X68" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="Z68" s="2" t="s">
+      <c r="Y68" s="38"/>
+      <c r="Z68" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="AA68" s="10" t="s">
+      <c r="AA68" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="AB68" s="10">
+      <c r="AB68" s="49">
         <v>6699</v>
       </c>
-      <c r="AC68" s="24" t="s">
+      <c r="AC68" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="AD68" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AE68" s="2" t="s">
+      <c r="AD68" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE68" s="38" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="A69" s="38">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="J69" s="18">
+      <c r="J69" s="40">
         <v>48.3</v>
       </c>
-      <c r="K69" s="18" t="s">
+      <c r="K69" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="L69" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="M69" s="37" t="s">
+      <c r="M69" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="N69" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q69" s="15">
+      <c r="N69" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O69" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P69" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q69" s="46">
         <v>1118</v>
       </c>
-      <c r="R69" s="15">
+      <c r="R69" s="46">
         <v>1156</v>
       </c>
-      <c r="S69" s="3">
+      <c r="S69" s="43">
         <v>5.3009883198562404</v>
       </c>
-      <c r="T69" s="15">
+      <c r="T69" s="46">
         <v>13</v>
       </c>
-      <c r="U69" s="15">
+      <c r="U69" s="46">
         <v>236</v>
       </c>
-      <c r="V69" s="3">
+      <c r="V69" s="43">
         <v>52.966101694915203</v>
       </c>
-      <c r="W69" s="3" t="s">
+      <c r="W69" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="X69" s="3" t="s">
+      <c r="X69" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="Z69" s="2" t="s">
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="AA69" s="10" t="s">
+      <c r="AA69" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="AB69" s="10">
+      <c r="AB69" s="49">
         <v>6953</v>
       </c>
-      <c r="AC69" s="24" t="s">
+      <c r="AC69" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="AD69" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="AE69" s="2" t="s">
+      <c r="AD69" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE69" s="38" t="s">
         <v>107</v>
       </c>
     </row>
@@ -8637,7 +8658,7 @@
       <c r="L70" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="M70" s="38" t="s">
+      <c r="M70" s="35" t="s">
         <v>259</v>
       </c>
       <c r="N70" s="6" t="s">
@@ -8687,7 +8708,7 @@
         <v>302</v>
       </c>
       <c r="AD70" s="5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AE70" s="5" t="s">
         <v>109</v>

--- a/04_XV-seq/XV-seq_overview.xlsx
+++ b/04_XV-seq/XV-seq_overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/scBPDCN-analysis/04_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D96C23-F06D-614A-B2ED-96FD55C4AB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216AD02B-887C-224F-A962-2142B02DA135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XV-seq_overview" sheetId="1" r:id="rId1"/>
@@ -258,1225 +258,1225 @@
     <t>Pt1Dx/SMARCC1.5233/Patient1_SMARCC1.5233_summTable.txt</t>
   </si>
   <si>
+    <t>Pt12Dx/NOTCH1.8738/Patient12_NOTCH1.8738_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt12Dx/TET2.4588/Patient12_TET2.4588_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt12Dx/NFIC.1529/Patient12_NFIC.1529_summTable.txt</t>
+  </si>
+  <si>
+    <t>ASXL1.L697fs*</t>
+  </si>
+  <si>
+    <t>TET2.Q960*</t>
+  </si>
+  <si>
+    <t>SETX.chr9:135136947:G/A</t>
+  </si>
+  <si>
+    <t>FAM98C.chr19:38899400:G/A</t>
+  </si>
+  <si>
+    <t>SMARCC1.chr3:47627735:G/A</t>
+  </si>
+  <si>
+    <t>TET2.N281fs*</t>
+  </si>
+  <si>
+    <t>TET2.V1395fs*</t>
+  </si>
+  <si>
+    <t>ZRSR2.Y175*</t>
+  </si>
+  <si>
+    <t>RPS24.chr10:79795273:T/C</t>
+  </si>
+  <si>
+    <t>PRKDC.chr8:48713410:C/T</t>
+  </si>
+  <si>
+    <t>SMARCD1.chr12:50490729:C/T</t>
+  </si>
+  <si>
+    <t>MALAT1.chr11:65270399:G/A</t>
+  </si>
+  <si>
+    <t>NOTCH1.chr9:139389423:C/T</t>
+  </si>
+  <si>
+    <t>TET2.Q1537*</t>
+  </si>
+  <si>
+    <t>NFIC.chr19:3462800:G/A</t>
+  </si>
+  <si>
+    <t>Genotyping efficiency (%)</t>
+  </si>
+  <si>
+    <t>Pt14Dx</t>
+  </si>
+  <si>
+    <t>Pt15Dx</t>
+  </si>
+  <si>
+    <t>Pt16Dx</t>
+  </si>
+  <si>
+    <t>Pt14Dx/ETV6.1070/BPDCN181128_ETV6.1070_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt14Dx/EZH2.362/BPDCN181128_EZH2.362_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt14Dx/IDH2.392/BPDCN181128_IDH2.392_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt10Dx/RAB9A.575/BPDCN712_RAB9A.575_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt10Rel/MTAP.308.1/BPDCN712R_MTAP.308.1R_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt10Rel/MTAP.308.2/BPDCN712R_MTAP.308.2R_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt10Rel/MTAP.308.3/BPDCN712R_MTAP.308.3R_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt10Rel/MTAP.308.4/BPDCN712R_MTAP.308.4R_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt10Rel/MTAP.308.5/BPDCN712R_MTAP.308.5R_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt16Dx/ASXL1.2046/BPDCN190711_ASXL1.2046_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt16Dx/TET2.2340/BPDCN190711_TET2.2340_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt16Dx/TET2.2595/BPDCN190711_TET2.2595_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt16Dx/ZRSR2.331/BPDCN190711_ZRSR2.331_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt15Dx/ASXL1.2398/BPDCN180329_ASXL1.2398_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt15Dx/TET2.4509/BPDCN180329_TET2.4509_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt15Dx/U2AF1.65/BPDCN180329_U2AF1.65_summTable.txt</t>
+  </si>
+  <si>
+    <t>IDH2.R140Q</t>
+  </si>
+  <si>
+    <t>ETV6.R369W</t>
+  </si>
+  <si>
+    <t>EZH2.P132L</t>
+  </si>
+  <si>
+    <t>TET2.R1516*</t>
+  </si>
+  <si>
+    <t>ASXL1.V807fs*</t>
+  </si>
+  <si>
+    <t>U2AF1.S34F</t>
+  </si>
+  <si>
+    <t>ASXL1.R693*</t>
+  </si>
+  <si>
+    <t>TET2.S794*</t>
+  </si>
+  <si>
+    <t>TET2.Q876*</t>
+  </si>
+  <si>
+    <t>ZRSR2.R126*</t>
+  </si>
+  <si>
+    <t>Initial submission or revision</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Mutation</t>
+  </si>
+  <si>
+    <t>RHP targeted sequencing</t>
+  </si>
+  <si>
+    <t>WGS</t>
+  </si>
+  <si>
+    <t>WES</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Present in marrow &amp; skin (presumably clonal precursor to skin tumor). Primer is in prior exon and detects all transcript variants.</t>
+  </si>
+  <si>
+    <t>Might be a subclonal expansion at diagnosis that then disappears.</t>
+  </si>
+  <si>
+    <t>See above</t>
+  </si>
+  <si>
+    <t>Mutation identification</t>
+  </si>
+  <si>
+    <t>Primer name</t>
+  </si>
+  <si>
+    <t>Distance to nearest polyA site (bp)</t>
+  </si>
+  <si>
+    <t>Primer sequence (5' to 3')</t>
+  </si>
+  <si>
+    <t>TET2.4592</t>
+  </si>
+  <si>
+    <t>TET2.4291</t>
+  </si>
+  <si>
+    <t>CUX1.2707</t>
+  </si>
+  <si>
+    <t>/5Biosg/GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGAGTGTGGAAGCTCAGGAGGA</t>
+  </si>
+  <si>
+    <t>/5Biosg/GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGTACAGAAGCAGCCACCACAG</t>
+  </si>
+  <si>
+    <t>/5Biosg/GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGAGCGAGACACCACAGAACAG</t>
+  </si>
+  <si>
+    <t>Skin-specific mutation indicating CDKN2A deletion. One primer/PCR, five aberrant splicing acceptor sites.</t>
+  </si>
+  <si>
+    <t>TET2.2340</t>
+  </si>
+  <si>
+    <t>TET2.3078</t>
+  </si>
+  <si>
+    <t>TET2.3626</t>
+  </si>
+  <si>
+    <t>TET2.4104</t>
+  </si>
+  <si>
+    <t>ACAP2.239</t>
+  </si>
+  <si>
+    <t>ASXL1.1886</t>
+  </si>
+  <si>
+    <t>CWF19L2.613</t>
+  </si>
+  <si>
+    <t>DOLPP1.633</t>
+  </si>
+  <si>
+    <t>HNRNPUL1.1629</t>
+  </si>
+  <si>
+    <t>MAP4K5.1949</t>
+  </si>
+  <si>
+    <t>MTAP.308</t>
+  </si>
+  <si>
+    <t>RAB9A.575</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAAGTGGAAGAATGTTTTCATGGTGA</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAGACCATGGAGCAGCATCTGA</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCATACTGTGTTTGGTGCGGGAG</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCACTCAGGGGTCACTGCATGTT</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCATGACCAAGTTTTCTGACAGTCT</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAGTCACCACTGCCATAGAGAGG</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAGGTGGGACAGGTCTTCCAC</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCATCCCAACGTACTCTGGTTTGAG</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAGAACCGAGGGGGAGGCAG</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAAGTGGTATGAGCCAATGCAGA</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAAGCCCGGCGATATTGTCATT</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAGAAAGCCCAAGCCTAGCTCA</t>
+  </si>
+  <si>
+    <t>TET2-2847</t>
+  </si>
+  <si>
+    <t>ASXL1-2046</t>
+  </si>
+  <si>
+    <t>SMARCC1-5233</t>
+  </si>
+  <si>
+    <t>FAM98C-903</t>
+  </si>
+  <si>
+    <t>SETX-10691</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCATGCTGCTCTAAGGTGGCATC</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCACACCCCTGGAAAGTGTACGT</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCATCCCCTGGAGTCCGAGAAG</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCACTGTGCCATCAACAAGGTGC</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAAGCTGCGATTTGGCAAACAG</t>
+  </si>
+  <si>
+    <t>TET2-796</t>
+  </si>
+  <si>
+    <t>TET2-4135</t>
+  </si>
+  <si>
+    <t>ZRSR2-500</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCACACCCATCGCATACCTCAGG</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAGCTCATGCCCACAGAGACTT</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAAGGATCGAGCTAATTGTCCCT</t>
+  </si>
+  <si>
+    <t>RPS24-40</t>
+  </si>
+  <si>
+    <t>PRKDC-10039</t>
+  </si>
+  <si>
+    <t>SMARCD1-1330</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAACCAACCGACTACTTCAGAGG</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCATGCCTTGCTGAAATCGAGGA</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCACTTTGCCAGAGACCCTCAGG</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>TET2-4588</t>
+  </si>
+  <si>
+    <t>MALAT1-5155</t>
+  </si>
+  <si>
+    <t>NOTCH1-8738</t>
+  </si>
+  <si>
+    <t>NFIC-1529</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCACCTCTACAGAAGCAGCCACC</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCATGTCAAGCTATAACCACAAAAATAATG</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCACACATTGAGCTGTGCAACGC</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAAAAGGTCTTCTTCCCTCGCC</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCATGGTGGAAGATGAAACTGTTTTACA</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCATGTGGAAAAGTCCCAATGGAAC</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCATCATCCGATGGGAGGACAAAG</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAAAACGCAAGCCAGGCTAAAC</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAGATGAGGAGCAAGGACCCAC</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCATCAAAATTGGAGCATGTCGTCA</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCAGCAATATTTTCCAAATAATGTGATCCC</t>
+  </si>
+  <si>
+    <t>CACCCGAGAATTCCATGGGAAGAACAGCAGAGGAA</t>
+  </si>
+  <si>
+    <t>TET2-4509</t>
+  </si>
+  <si>
+    <t>ASXL1-2398</t>
+  </si>
+  <si>
+    <t>U2AF1-65</t>
+  </si>
+  <si>
+    <t>EZH2-362</t>
+  </si>
+  <si>
+    <t>IDH2 -392</t>
+  </si>
+  <si>
+    <t>ETV6-1070</t>
+  </si>
+  <si>
+    <t>TET2-2340</t>
+  </si>
+  <si>
+    <t>TET2-2595</t>
+  </si>
+  <si>
+    <t>ZRSR2-331</t>
+  </si>
+  <si>
+    <t>Similar presence across tissues as RPS24. Only transcript variant 1 contains this intron.</t>
+  </si>
+  <si>
+    <t>Donor group</t>
+  </si>
+  <si>
+    <t>Founder or progression mutation</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>Progression</t>
+  </si>
+  <si>
+    <t>Skin-only</t>
+  </si>
+  <si>
+    <t>BM involvement</t>
+  </si>
+  <si>
+    <t>Pt1Rem</t>
+  </si>
+  <si>
+    <t>Pt1Rem/TET2.2847/Patient1Rem_TET2.2847_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt1Rem/ASXL1.2046/Patient1Rem_ASXL1.2046_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt1Rem/SMARCC1.5233/Patient1Rem_SMARCC1.5233_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt1Rem/FAM98C.903/Patient1Rem_FAM98C.903_summTable.txt</t>
+  </si>
+  <si>
+    <t>Pt1Rem/SETX.10691/Patient1Rem_SETX.10691_summTable.txt</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>AAGCAAG&gt;AAGTAAG</t>
+  </si>
+  <si>
+    <t>ACTGCCG&gt;ACTCCG</t>
+  </si>
+  <si>
+    <t>AAGGGAC&gt;AAGAGAC</t>
+  </si>
+  <si>
+    <t>GCCCTGT&gt;GCCTTGT</t>
+  </si>
+  <si>
+    <t>TC&gt;TT (UV-associated)</t>
+  </si>
+  <si>
+    <t>CAGCCCC&gt;CAGCCC</t>
+  </si>
+  <si>
+    <t>CAGCAGC&gt;CAGTAGC</t>
+  </si>
+  <si>
+    <t>GAGCGAG&gt;GAGTGAG</t>
+  </si>
+  <si>
+    <t>GGAGGG&gt;GGAGGGG</t>
+  </si>
+  <si>
+    <t>CAGGAAC&gt;CAGCAAC</t>
+  </si>
+  <si>
+    <t>ATGGGCA&gt;ATGAGCA</t>
+  </si>
+  <si>
+    <t>TAACTCTG&gt;TAACTG</t>
+  </si>
+  <si>
+    <t>GGTATG&gt;GGTATATG</t>
+  </si>
+  <si>
+    <t>CTACAGT&gt;CTAGAGT</t>
+  </si>
+  <si>
+    <t>ATTCAAA&gt;ATTGAAA</t>
+  </si>
+  <si>
+    <t>AAGCAGT&gt;AAGTAGT</t>
+  </si>
+  <si>
+    <t>GCTCATG&gt;GCTTATG</t>
+  </si>
+  <si>
+    <t>ATCCTGT&gt;ATCTTGT</t>
+  </si>
+  <si>
+    <t>CTAAAGT&gt;CTAGAGT</t>
+  </si>
+  <si>
+    <t>TTTCAAC&gt;TTTTAAC</t>
+  </si>
+  <si>
+    <t>CAGGAC&gt;CAG…</t>
+  </si>
+  <si>
+    <t>TCATTGA&gt;TCACTGA</t>
+  </si>
+  <si>
+    <t>GAGGACA&gt;GAGAACA</t>
+  </si>
+  <si>
+    <t>CCACAGC&gt;CCATAGC</t>
+  </si>
+  <si>
+    <t>TTCCGG&gt;TTTTGG</t>
+  </si>
+  <si>
+    <t>CAGCGAA&gt;CAGTGAA</t>
+  </si>
+  <si>
+    <t>AAACGAC&gt;AAATGAC</t>
+  </si>
+  <si>
+    <t>TTTCCTT&gt;TTTTCTT</t>
+  </si>
+  <si>
+    <t>ATTGTT&gt;ATATTT</t>
+  </si>
+  <si>
+    <t>TGGCTTC&gt;TGGTTTC</t>
+  </si>
+  <si>
+    <t>TGAGAAA&gt;TGAAAAA</t>
+  </si>
+  <si>
+    <t>TGCGTCC&gt;TGCATCC</t>
+  </si>
+  <si>
+    <t>ATCGTCC&gt;ATCATCC</t>
+  </si>
+  <si>
+    <t>TTCCTTA&gt;TTCTTTA</t>
+  </si>
+  <si>
+    <t>TCCGGAA&gt;TCCAGAA</t>
+  </si>
+  <si>
+    <t>GTTCCTG&gt;GTTCTG</t>
+  </si>
+  <si>
+    <t>TTGCGAC&gt;TTGTGAC</t>
+  </si>
+  <si>
+    <t>GCTCTCG&gt;GCTTTCG</t>
+  </si>
+  <si>
+    <t>AATCAAG&gt;AATAAAG</t>
+  </si>
+  <si>
+    <t>CC&gt;CT (UV-associated)</t>
+  </si>
+  <si>
+    <t>GAGAAA&gt;GAGAAAA</t>
+  </si>
+  <si>
+    <t>Variant of unknown significance</t>
+  </si>
+  <si>
+    <t>Bulk VAF (WES/WGS)</t>
+  </si>
+  <si>
+    <t>Bulk VAF (RHP)</t>
+  </si>
+  <si>
+    <t>Mutant cell fraction (%)</t>
+  </si>
+  <si>
+    <t>Number of genotyped cells with enrichment</t>
+  </si>
+  <si>
+    <t>Number of genotyped cells without enrichment</t>
+  </si>
+  <si>
+    <t>CC&gt;TT (UV-specific)</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>nd</t>
+  </si>
+  <si>
+    <t>no vaf</t>
+  </si>
+  <si>
+    <t>Skin-specific mutation. Annotated as splice donor variant in WES.</t>
+  </si>
+  <si>
+    <t>Skin-specific mutation. Annotated as f659f in WES.</t>
+  </si>
+  <si>
+    <t>Clone 1 (also found in relapse)</t>
+  </si>
+  <si>
+    <t>Clone 2 (not found in relapse)</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>Number of wildtype UMIs</t>
+  </si>
+  <si>
+    <t>Number of mutant UMIs</t>
+  </si>
+  <si>
+    <t>RNA-seq bam file location</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/SW_pipeline/4_star/191111.190314.BPDCN180628-1.star/191111.190314.BPDCN180628-1_Aligned.sortedByCoord.out.bam,/broad/vangalenlab/vangalen/SW_pipeline/4_star/191111.190314.BPDCN180628-2.star/191111.190314.BPDCN180628-2_Aligned.sortedByCoord.out.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-DX_2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-DX_3/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-MRD_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-MRD_2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-MRD_3/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT5-DX_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT5-DX_3/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712-1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712-2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712-3/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712-4/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712R-1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712R-2/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT12-DX_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT12-DX_2/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT12-REL_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT12-REL_2/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN181128_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN181128_2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN181128_3/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN180329_5/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN180329_6/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN180329_7/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN190711_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN190711_2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN190711_3/outs/possorted_genome_bam.bam</t>
+  </si>
+  <si>
+    <t>XV-seq fastq file location</t>
+  </si>
+  <si>
+    <t>ACAP2.L97L</t>
+  </si>
+  <si>
+    <t>PRKDC.D3353N</t>
+  </si>
+  <si>
+    <t>RPS24.I25T</t>
+  </si>
+  <si>
+    <t>SMARCD1.L456F</t>
+  </si>
+  <si>
+    <t>NameNew</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Position.hg19</t>
+  </si>
+  <si>
+    <t>Position.hg38</t>
+  </si>
+  <si>
+    <t>SYNONYMOUS</t>
+  </si>
+  <si>
+    <t>G/A</t>
+  </si>
+  <si>
+    <t>chr3:195066043</t>
+  </si>
+  <si>
+    <t>chr3:195345314</t>
+  </si>
+  <si>
+    <t>FRAME_SHIFT</t>
+  </si>
+  <si>
+    <t>A/AG</t>
+  </si>
+  <si>
+    <t>chr20:31022441</t>
+  </si>
+  <si>
+    <t>chr20:32434638</t>
+  </si>
+  <si>
+    <t>MISSENSE</t>
+  </si>
+  <si>
+    <t>T/C</t>
+  </si>
+  <si>
+    <t>chr11:107309818</t>
+  </si>
+  <si>
+    <t>chr11:107439092</t>
+  </si>
+  <si>
+    <t>SPLICE_SITE</t>
+  </si>
+  <si>
+    <t>G/C</t>
+  </si>
+  <si>
+    <t>chr9:131849078</t>
+  </si>
+  <si>
+    <t>chr9:129086799</t>
+  </si>
+  <si>
+    <t>C/T</t>
+  </si>
+  <si>
+    <t>chr19:41809881</t>
+  </si>
+  <si>
+    <t>chr19:41303976</t>
+  </si>
+  <si>
+    <t>chr14:50901277</t>
+  </si>
+  <si>
+    <t>chr14:50434559</t>
+  </si>
+  <si>
+    <t>chr8:48713410</t>
+  </si>
+  <si>
+    <t>chr8:47800849</t>
+  </si>
+  <si>
+    <t>THREE_PRIME_UTR</t>
+  </si>
+  <si>
+    <t>T/A</t>
+  </si>
+  <si>
+    <t>chrX:13727473</t>
+  </si>
+  <si>
+    <t>chrX:13709354</t>
+  </si>
+  <si>
+    <t>chr10:79795273</t>
+  </si>
+  <si>
+    <t>chr10:78035515</t>
+  </si>
+  <si>
+    <t>chr12:50490729</t>
+  </si>
+  <si>
+    <t>chr12:50096946</t>
+  </si>
+  <si>
+    <t>chr4:106190860</t>
+  </si>
+  <si>
+    <t>chr4:105269703</t>
+  </si>
+  <si>
+    <t>STOP_GAINED</t>
+  </si>
+  <si>
+    <t>chr4:106158199</t>
+  </si>
+  <si>
+    <t>chr4:105237042</t>
+  </si>
+  <si>
+    <t>chr4:106164778</t>
+  </si>
+  <si>
+    <t>chr4:105243621</t>
+  </si>
+  <si>
+    <t>C/G</t>
+  </si>
+  <si>
+    <t>chr4:106157474</t>
+  </si>
+  <si>
+    <t>chr4:105236317</t>
+  </si>
+  <si>
+    <t>MALAT1.n.G3541A</t>
+  </si>
+  <si>
+    <t>LINCRNA</t>
+  </si>
+  <si>
+    <t>chr11:65270399</t>
+  </si>
+  <si>
+    <t>chr11:65502928</t>
+  </si>
+  <si>
+    <t>NFIC.3pUTR</t>
+  </si>
+  <si>
+    <t>chr19:3462800</t>
+  </si>
+  <si>
+    <t>chr19:3462802</t>
+  </si>
+  <si>
+    <t>NOTCH1.3pUTR</t>
+  </si>
+  <si>
+    <t>chr9:139389423</t>
+  </si>
+  <si>
+    <t>chr9:136494971</t>
+  </si>
+  <si>
+    <t>chr4:106196276</t>
+  </si>
+  <si>
+    <t>chr4:105275119</t>
+  </si>
+  <si>
+    <t>CC/TT</t>
+  </si>
+  <si>
+    <t>chr12:12037473</t>
+  </si>
+  <si>
+    <t>chr12:11884539</t>
+  </si>
+  <si>
+    <t>chr7:148526909</t>
+  </si>
+  <si>
+    <t>chr7:148829817</t>
+  </si>
+  <si>
+    <t>chr15:90631934</t>
+  </si>
+  <si>
+    <t>chr15:90088702</t>
+  </si>
+  <si>
+    <t>TC/T</t>
+  </si>
+  <si>
+    <t>chr20:31022936</t>
+  </si>
+  <si>
+    <t>chr20:32435133</t>
+  </si>
+  <si>
+    <t>chr4:106196213</t>
+  </si>
+  <si>
+    <t>chr4:105275056</t>
+  </si>
+  <si>
+    <t>chr21:44524456</t>
+  </si>
+  <si>
+    <t>chr21:43104346</t>
+  </si>
+  <si>
+    <t>chr20:31022592</t>
+  </si>
+  <si>
+    <t>chr20:32434789</t>
+  </si>
+  <si>
+    <t>chr4:106157725</t>
+  </si>
+  <si>
+    <t>chr4:105236568</t>
+  </si>
+  <si>
+    <t>C/A</t>
+  </si>
+  <si>
+    <t>chr4:106157480</t>
+  </si>
+  <si>
+    <t>chr4:105236323</t>
+  </si>
+  <si>
+    <t>chrX:15822297</t>
+  </si>
+  <si>
+    <t>chrX:15804174</t>
+  </si>
+  <si>
+    <t>TG/T</t>
+  </si>
+  <si>
+    <t>chr20:31022605</t>
+  </si>
+  <si>
+    <t>chr20:32434802</t>
+  </si>
+  <si>
+    <t>FAM98C.G228S</t>
+  </si>
+  <si>
+    <t>chr19:38899400</t>
+  </si>
+  <si>
+    <t>chr19:38408760</t>
+  </si>
+  <si>
+    <t>SETX.3pUTR</t>
+  </si>
+  <si>
+    <t>chr9:135136947</t>
+  </si>
+  <si>
+    <t>chr9:132261560</t>
+  </si>
+  <si>
+    <t>SMARCC1.3pUTR</t>
+  </si>
+  <si>
+    <t>chr3:47627735</t>
+  </si>
+  <si>
+    <t>chr3:47586245</t>
+  </si>
+  <si>
+    <t>NONSENSE</t>
+  </si>
+  <si>
+    <t>chr4:106157977</t>
+  </si>
+  <si>
+    <t>chr4:105236820</t>
+  </si>
+  <si>
+    <t>ACT/A</t>
+  </si>
+  <si>
+    <t>chr4:106155941</t>
+  </si>
+  <si>
+    <t>chr4:105234784</t>
+  </si>
+  <si>
+    <t>G/GTA</t>
+  </si>
+  <si>
+    <t>chr4:106193721</t>
+  </si>
+  <si>
+    <t>chr4:105272564</t>
+  </si>
+  <si>
+    <t>chrX:15827409</t>
+  </si>
+  <si>
+    <t>chrX:15809286</t>
+  </si>
+  <si>
+    <t>GC/G</t>
+  </si>
+  <si>
+    <t>chr7:101845303</t>
+  </si>
+  <si>
+    <t>chr7:102202023</t>
+  </si>
+  <si>
+    <t>G/GA</t>
+  </si>
+  <si>
+    <t>chr4:106193849</t>
+  </si>
+  <si>
+    <t>chr4:105272692</t>
+  </si>
+  <si>
+    <t>chr4:106196306</t>
+  </si>
+  <si>
+    <t>chr4:105275149</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Large deletion</t>
+  </si>
+  <si>
+    <t>CDKN2a hom. deletion</t>
+  </si>
+  <si>
+    <t>Independently validated with ASXL1.1898 primer (see Methods).</t>
+  </si>
+  <si>
+    <t>Seq-Well S^3 (all the others are 10x Genomics 3' v3/v3.1)</t>
+  </si>
+  <si>
+    <t>Highly detected in skin samples, low at dx, low at remission, chromosome loss (similar to the other two but not as highly expressed). Primer will bind transcript variant 1, not 2.</t>
+  </si>
+  <si>
+    <t>Highly detected in skin samples, low at dx, low at remission, chr9 loss</t>
+  </si>
+  <si>
+    <t>Highly detected in skin samples, low at dx, low at remission, chr3 loss</t>
+  </si>
+  <si>
+    <t>Highly detected in relapse, barely detected in marrow by WGS. Single-cell genotyping yielded few reads.</t>
+  </si>
+  <si>
+    <t>Single-cell genotyping yielded few reads.</t>
+  </si>
+  <si>
+    <t>Base change</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn4_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn4_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn3_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn3_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn2_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn2_R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient10/PRKDC.10039/Merged_Patient10_GoT_S5R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient10/PRKDC.10039/Merged_Patient10_GoT_S5R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn1_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient10/RPS24.40/Merged_Patient10_GoT_S5R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient10/RPS24.40/Merged_Patient10_GoT_S5R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient10/SMARCD1.1330/Merged_Patient10_GoT_S5R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient10/SMARCD1.1330/Merged_Patient10_GoT_S5R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn4_R1.fastq, /broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn4_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn2_R1.fastq, /broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn2_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn3_R1.fastq, /broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn3_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn1_R1.fastq, /broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn6_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn6_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn4_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn4_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn3_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn3_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn2_R1.fastq,  /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn2_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/BPDCN712_220426_AKA_Pt10/RAB9A.575R/BPDCN712R-GoT-Rxn1_R1.fastq, /broad/vangalenlab/ssozi/GoT/BPDCN712_220426_AKA_Pt10/RAB9A.575R/BPDCN712R-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn5_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn5_R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12/MALAT1.5155/Merged_Patient12_GoT_S6R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12/MALAT1.5155/Merged_Patient12_GoT_S6R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12/NFIC.1529/Merged_Patient12_GoT_S6R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12/NFIC.1529/Merged_Patient12_GoT_S6R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12/NOTCH1.8738/Merged_Patient12_GoT_S6R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12/NOTCH1.8738/Merged_Patient12_GoT_S6R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient12/TET2.4588/Merged_Patient12_GoT_S6R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12/TET2.4588/Merged_Patient12_GoT_S6R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12REL/MALAT1.5155/Merged_Patient12REL_GoT_S7R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12REL/MALAT1.5155/Merged_Patient12REL_GoT_S7R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12REL/NFIC.1529/Merged_Patient12REL_GoT_S7R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12REL/NFIC.1529/Merged_Patient12REL_GoT_S7R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12REL/NOTCH1.8738/Merged_Patient12REL_GoT_S7R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12REL/NOTCH1.8738/Merged_Patient12REL_GoT_S7R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient12REL/TET2.4588/Merged_Patient12REL_GoT_S7R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12REL/TET2.4588/Merged_Patient12REL_GoT_S7R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN181128/ETV6.1070/BPDCN181128-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN181128/ETV6.1070/BPDCN181128-GoT-Rxn1_R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/depasquale/GoT/BPDCN181128/EZH2.362/BPDCN181128-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN181128/EZH2.362/BPDCN181128-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN181128/IDH2.392/BPDCN181128-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN181128/IDH2.392/BPDCN181128-GoT-Rxn1_R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/depasquale/GoT/BPDCN180329/ASXL1.2398/BPDCN180329-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN180329/ASXL1.2398/BPDCN180329-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN180329/TET2.4509/BPDCN180329-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN180329/TET2.4509/BPDCN180329-GoT-Rxn1_R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN180329/U2AF1.65/BPDCN180329-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN180329/U2AF1.65/BPDCN180329-GoT-Rxn1_R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN190711/ASXL1.2046/BPDCN190711-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN190711/ASXL1.2046/BPDCN190711-GoT-Rxn1_R2.fastq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2595/BPDCN190711-GoT-Rxn2_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2595/BPDCN190711-GoT-Rxn2_R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2340/BPDCN190711-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2340/BPDCN190711-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/depasquale/GoT/BPDCN190711/ZRSR2.331/BPDCN190711-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN190711/ZRSR2.331/BPDCN190711-GoT-Rxn1_R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1/ASXL1.2046/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/ASXL1.2046/Merged_Patient1_GoT_S1R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1/FAM98C.903/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/FAM98C.903/Merged_Patient1_GoT_S1R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1/SETX.10691/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/SETX.10691/Merged_Patient1_GoT_S1R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1/SMARCC1.5233/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/SMARCC1.5233/Merged_Patient1_GoT_S1R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1/TET2.2847/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/TET2.2847/Merged_Patient1_GoT_S1R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/ASXL1.2046/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/ASXL1.2046/Merged_Patient1MRD_GoT_S2R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/FAM98C.903/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/FAM98C.903/Merged_Patient1MRD_GoT_S2R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/SETX.10691/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/SETX.10691/Merged_Patient1MRD_GoT_S2R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/SMARCC1.5233/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/SMARCC1.5233/Merged_Patient1MRD_GoT_S2R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/TET2.2847/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/TET2.2847/Merged_Patient1MRD_GoT_S2R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient5/TET2.796/Merged_Patient5_GoT_S3R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient5/TET2.796/Merged_Patient5_GoT_S3R2.fastq</t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/GoT/Patient5/TET2.4135/Merged_Patient5_GoT_S4R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient5/TET2.4135/Merged_Patient5_GoT_S4R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient5/ZRSR2.500/Merged_Patient5_GoT_S4R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient5/ZRSR2.500/Merged_Patient5_GoT_S4R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-AllRxns_R1.fastq, /broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-AllRxns_R2.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn5_R1.fastq, /broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn5_R2.fastq </t>
+  </si>
+  <si>
+    <t>/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn6_R1.fastq, /broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn6_R2.fastq</t>
+  </si>
+  <si>
     <t>Pt12Dx/MALAT1.5155/Patient12_MALAT1.5155_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt12Dx/NOTCH1.8738/Patient12_NOTCH1.8738_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt12Dx/TET2.4588/Patient12_TET2.4588_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt12Dx/NFIC.1529/Patient12_NFIC.1529_summTable.txt</t>
-  </si>
-  <si>
-    <t>ASXL1.L697fs*</t>
-  </si>
-  <si>
-    <t>TET2.Q960*</t>
-  </si>
-  <si>
-    <t>SETX.chr9:135136947:G/A</t>
-  </si>
-  <si>
-    <t>FAM98C.chr19:38899400:G/A</t>
-  </si>
-  <si>
-    <t>SMARCC1.chr3:47627735:G/A</t>
-  </si>
-  <si>
-    <t>TET2.N281fs*</t>
-  </si>
-  <si>
-    <t>TET2.V1395fs*</t>
-  </si>
-  <si>
-    <t>ZRSR2.Y175*</t>
-  </si>
-  <si>
-    <t>RPS24.chr10:79795273:T/C</t>
-  </si>
-  <si>
-    <t>PRKDC.chr8:48713410:C/T</t>
-  </si>
-  <si>
-    <t>SMARCD1.chr12:50490729:C/T</t>
-  </si>
-  <si>
-    <t>MALAT1.chr11:65270399:G/A</t>
-  </si>
-  <si>
-    <t>NOTCH1.chr9:139389423:C/T</t>
-  </si>
-  <si>
-    <t>TET2.Q1537*</t>
-  </si>
-  <si>
-    <t>NFIC.chr19:3462800:G/A</t>
-  </si>
-  <si>
-    <t>Genotyping efficiency (%)</t>
-  </si>
-  <si>
-    <t>Pt14Dx</t>
-  </si>
-  <si>
-    <t>Pt15Dx</t>
-  </si>
-  <si>
-    <t>Pt16Dx</t>
-  </si>
-  <si>
-    <t>Pt14Dx/ETV6.1070/BPDCN181128_ETV6.1070_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt14Dx/EZH2.362/BPDCN181128_EZH2.362_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt14Dx/IDH2.392/BPDCN181128_IDH2.392_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt10Dx/RAB9A.575/BPDCN712_RAB9A.575_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt10Rel/MTAP.308.1/BPDCN712R_MTAP.308.1R_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt10Rel/MTAP.308.2/BPDCN712R_MTAP.308.2R_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt10Rel/MTAP.308.3/BPDCN712R_MTAP.308.3R_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt10Rel/MTAP.308.4/BPDCN712R_MTAP.308.4R_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt10Rel/MTAP.308.5/BPDCN712R_MTAP.308.5R_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt16Dx/ASXL1.2046/BPDCN190711_ASXL1.2046_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt16Dx/TET2.2340/BPDCN190711_TET2.2340_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt16Dx/TET2.2595/BPDCN190711_TET2.2595_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt16Dx/ZRSR2.331/BPDCN190711_ZRSR2.331_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt15Dx/ASXL1.2398/BPDCN180329_ASXL1.2398_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt15Dx/TET2.4509/BPDCN180329_TET2.4509_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt15Dx/U2AF1.65/BPDCN180329_U2AF1.65_summTable.txt</t>
-  </si>
-  <si>
-    <t>IDH2.R140Q</t>
-  </si>
-  <si>
-    <t>ETV6.R369W</t>
-  </si>
-  <si>
-    <t>EZH2.P132L</t>
-  </si>
-  <si>
-    <t>TET2.R1516*</t>
-  </si>
-  <si>
-    <t>ASXL1.V807fs*</t>
-  </si>
-  <si>
-    <t>U2AF1.S34F</t>
-  </si>
-  <si>
-    <t>ASXL1.R693*</t>
-  </si>
-  <si>
-    <t>TET2.S794*</t>
-  </si>
-  <si>
-    <t>TET2.Q876*</t>
-  </si>
-  <si>
-    <t>ZRSR2.R126*</t>
-  </si>
-  <si>
-    <t>Initial submission or revision</t>
-  </si>
-  <si>
-    <t>Submission</t>
-  </si>
-  <si>
-    <t>Revision</t>
-  </si>
-  <si>
-    <t>Mutation</t>
-  </si>
-  <si>
-    <t>RHP targeted sequencing</t>
-  </si>
-  <si>
-    <t>WGS</t>
-  </si>
-  <si>
-    <t>WES</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Present in marrow &amp; skin (presumably clonal precursor to skin tumor). Primer is in prior exon and detects all transcript variants.</t>
-  </si>
-  <si>
-    <t>Might be a subclonal expansion at diagnosis that then disappears.</t>
-  </si>
-  <si>
-    <t>See above</t>
-  </si>
-  <si>
-    <t>Mutation identification</t>
-  </si>
-  <si>
-    <t>Primer name</t>
-  </si>
-  <si>
-    <t>Distance to nearest polyA site (bp)</t>
-  </si>
-  <si>
-    <t>Primer sequence (5' to 3')</t>
-  </si>
-  <si>
-    <t>TET2.4592</t>
-  </si>
-  <si>
-    <t>TET2.4291</t>
-  </si>
-  <si>
-    <t>CUX1.2707</t>
-  </si>
-  <si>
-    <t>/5Biosg/GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGAGTGTGGAAGCTCAGGAGGA</t>
-  </si>
-  <si>
-    <t>/5Biosg/GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGTACAGAAGCAGCCACCACAG</t>
-  </si>
-  <si>
-    <t>/5Biosg/GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGAGCGAGACACCACAGAACAG</t>
-  </si>
-  <si>
-    <t>Skin-specific mutation indicating CDKN2A deletion. One primer/PCR, five aberrant splicing acceptor sites.</t>
-  </si>
-  <si>
-    <t>TET2.2340</t>
-  </si>
-  <si>
-    <t>TET2.3078</t>
-  </si>
-  <si>
-    <t>TET2.3626</t>
-  </si>
-  <si>
-    <t>TET2.4104</t>
-  </si>
-  <si>
-    <t>ACAP2.239</t>
-  </si>
-  <si>
-    <t>ASXL1.1886</t>
-  </si>
-  <si>
-    <t>CWF19L2.613</t>
-  </si>
-  <si>
-    <t>DOLPP1.633</t>
-  </si>
-  <si>
-    <t>HNRNPUL1.1629</t>
-  </si>
-  <si>
-    <t>MAP4K5.1949</t>
-  </si>
-  <si>
-    <t>MTAP.308</t>
-  </si>
-  <si>
-    <t>RAB9A.575</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAAGTGGAAGAATGTTTTCATGGTGA</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAGACCATGGAGCAGCATCTGA</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCATACTGTGTTTGGTGCGGGAG</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCACTCAGGGGTCACTGCATGTT</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCATGACCAAGTTTTCTGACAGTCT</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAGTCACCACTGCCATAGAGAGG</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAGGTGGGACAGGTCTTCCAC</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCATCCCAACGTACTCTGGTTTGAG</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAGAACCGAGGGGGAGGCAG</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAAGTGGTATGAGCCAATGCAGA</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAAGCCCGGCGATATTGTCATT</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAGAAAGCCCAAGCCTAGCTCA</t>
-  </si>
-  <si>
-    <t>TET2-2847</t>
-  </si>
-  <si>
-    <t>ASXL1-2046</t>
-  </si>
-  <si>
-    <t>SMARCC1-5233</t>
-  </si>
-  <si>
-    <t>FAM98C-903</t>
-  </si>
-  <si>
-    <t>SETX-10691</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCATGCTGCTCTAAGGTGGCATC</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCACACCCCTGGAAAGTGTACGT</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCATCCCCTGGAGTCCGAGAAG</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCACTGTGCCATCAACAAGGTGC</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAAGCTGCGATTTGGCAAACAG</t>
-  </si>
-  <si>
-    <t>TET2-796</t>
-  </si>
-  <si>
-    <t>TET2-4135</t>
-  </si>
-  <si>
-    <t>ZRSR2-500</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCACACCCATCGCATACCTCAGG</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAGCTCATGCCCACAGAGACTT</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAAGGATCGAGCTAATTGTCCCT</t>
-  </si>
-  <si>
-    <t>RPS24-40</t>
-  </si>
-  <si>
-    <t>PRKDC-10039</t>
-  </si>
-  <si>
-    <t>SMARCD1-1330</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAACCAACCGACTACTTCAGAGG</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCATGCCTTGCTGAAATCGAGGA</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCACTTTGCCAGAGACCCTCAGG</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>TET2-4588</t>
-  </si>
-  <si>
-    <t>MALAT1-5155</t>
-  </si>
-  <si>
-    <t>NOTCH1-8738</t>
-  </si>
-  <si>
-    <t>NFIC-1529</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCACCTCTACAGAAGCAGCCACC</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCATGTCAAGCTATAACCACAAAAATAATG</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCACACATTGAGCTGTGCAACGC</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAAAAGGTCTTCTTCCCTCGCC</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCATGGTGGAAGATGAAACTGTTTTACA</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCATGTGGAAAAGTCCCAATGGAAC</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCATCATCCGATGGGAGGACAAAG</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAAAACGCAAGCCAGGCTAAAC</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAGATGAGGAGCAAGGACCCAC</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCATCAAAATTGGAGCATGTCGTCA</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCAGCAATATTTTCCAAATAATGTGATCCC</t>
-  </si>
-  <si>
-    <t>CACCCGAGAATTCCATGGGAAGAACAGCAGAGGAA</t>
-  </si>
-  <si>
-    <t>TET2-4509</t>
-  </si>
-  <si>
-    <t>ASXL1-2398</t>
-  </si>
-  <si>
-    <t>U2AF1-65</t>
-  </si>
-  <si>
-    <t>EZH2-362</t>
-  </si>
-  <si>
-    <t>IDH2 -392</t>
-  </si>
-  <si>
-    <t>ETV6-1070</t>
-  </si>
-  <si>
-    <t>TET2-2340</t>
-  </si>
-  <si>
-    <t>TET2-2595</t>
-  </si>
-  <si>
-    <t>ZRSR2-331</t>
-  </si>
-  <si>
-    <t>Similar presence across tissues as RPS24. Only transcript variant 1 contains this intron.</t>
-  </si>
-  <si>
-    <t>Donor group</t>
-  </si>
-  <si>
-    <t>Founder or progression mutation</t>
-  </si>
-  <si>
-    <t>Founder</t>
-  </si>
-  <si>
-    <t>Progression</t>
-  </si>
-  <si>
-    <t>Skin-only</t>
-  </si>
-  <si>
-    <t>BM involvement</t>
-  </si>
-  <si>
-    <t>Pt1Rem</t>
-  </si>
-  <si>
-    <t>Pt1Rem/TET2.2847/Patient1Rem_TET2.2847_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt1Rem/ASXL1.2046/Patient1Rem_ASXL1.2046_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt1Rem/SMARCC1.5233/Patient1Rem_SMARCC1.5233_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt1Rem/FAM98C.903/Patient1Rem_FAM98C.903_summTable.txt</t>
-  </si>
-  <si>
-    <t>Pt1Rem/SETX.10691/Patient1Rem_SETX.10691_summTable.txt</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>AAGCAAG&gt;AAGTAAG</t>
-  </si>
-  <si>
-    <t>ACTGCCG&gt;ACTCCG</t>
-  </si>
-  <si>
-    <t>AAGGGAC&gt;AAGAGAC</t>
-  </si>
-  <si>
-    <t>GCCCTGT&gt;GCCTTGT</t>
-  </si>
-  <si>
-    <t>TC&gt;TT (UV-associated)</t>
-  </si>
-  <si>
-    <t>CAGCCCC&gt;CAGCCC</t>
-  </si>
-  <si>
-    <t>CAGCAGC&gt;CAGTAGC</t>
-  </si>
-  <si>
-    <t>GAGCGAG&gt;GAGTGAG</t>
-  </si>
-  <si>
-    <t>GGAGGG&gt;GGAGGGG</t>
-  </si>
-  <si>
-    <t>CAGGAAC&gt;CAGCAAC</t>
-  </si>
-  <si>
-    <t>ATGGGCA&gt;ATGAGCA</t>
-  </si>
-  <si>
-    <t>TAACTCTG&gt;TAACTG</t>
-  </si>
-  <si>
-    <t>GGTATG&gt;GGTATATG</t>
-  </si>
-  <si>
-    <t>CTACAGT&gt;CTAGAGT</t>
-  </si>
-  <si>
-    <t>ATTCAAA&gt;ATTGAAA</t>
-  </si>
-  <si>
-    <t>AAGCAGT&gt;AAGTAGT</t>
-  </si>
-  <si>
-    <t>GCTCATG&gt;GCTTATG</t>
-  </si>
-  <si>
-    <t>ATCCTGT&gt;ATCTTGT</t>
-  </si>
-  <si>
-    <t>CTAAAGT&gt;CTAGAGT</t>
-  </si>
-  <si>
-    <t>TTTCAAC&gt;TTTTAAC</t>
-  </si>
-  <si>
-    <t>CAGGAC&gt;CAG…</t>
-  </si>
-  <si>
-    <t>TCATTGA&gt;TCACTGA</t>
-  </si>
-  <si>
-    <t>GAGGACA&gt;GAGAACA</t>
-  </si>
-  <si>
-    <t>CCACAGC&gt;CCATAGC</t>
-  </si>
-  <si>
-    <t>TTCCGG&gt;TTTTGG</t>
-  </si>
-  <si>
-    <t>CAGCGAA&gt;CAGTGAA</t>
-  </si>
-  <si>
-    <t>AAACGAC&gt;AAATGAC</t>
-  </si>
-  <si>
-    <t>TTTCCTT&gt;TTTTCTT</t>
-  </si>
-  <si>
-    <t>ATTGTT&gt;ATATTT</t>
-  </si>
-  <si>
-    <t>TGGCTTC&gt;TGGTTTC</t>
-  </si>
-  <si>
-    <t>TGAGAAA&gt;TGAAAAA</t>
-  </si>
-  <si>
-    <t>TGCGTCC&gt;TGCATCC</t>
-  </si>
-  <si>
-    <t>ATCGTCC&gt;ATCATCC</t>
-  </si>
-  <si>
-    <t>TTCCTTA&gt;TTCTTTA</t>
-  </si>
-  <si>
-    <t>TCCGGAA&gt;TCCAGAA</t>
-  </si>
-  <si>
-    <t>GTTCCTG&gt;GTTCTG</t>
-  </si>
-  <si>
-    <t>TTGCGAC&gt;TTGTGAC</t>
-  </si>
-  <si>
-    <t>GCTCTCG&gt;GCTTTCG</t>
-  </si>
-  <si>
-    <t>AATCAAG&gt;AATAAAG</t>
-  </si>
-  <si>
-    <t>CC&gt;CT (UV-associated)</t>
-  </si>
-  <si>
-    <t>GAGAAA&gt;GAGAAAA</t>
-  </si>
-  <si>
-    <t>Variant of unknown significance</t>
-  </si>
-  <si>
-    <t>Bulk VAF (WES/WGS)</t>
-  </si>
-  <si>
-    <t>Bulk VAF (RHP)</t>
-  </si>
-  <si>
-    <t>Mutant cell fraction (%)</t>
-  </si>
-  <si>
-    <t>Number of genotyped cells with enrichment</t>
-  </si>
-  <si>
-    <t>Number of genotyped cells without enrichment</t>
-  </si>
-  <si>
-    <t>CC&gt;TT (UV-specific)</t>
-  </si>
-  <si>
-    <t>nc</t>
-  </si>
-  <si>
-    <t>nd</t>
-  </si>
-  <si>
-    <t>no vaf</t>
-  </si>
-  <si>
-    <t>Skin-specific mutation. Annotated as splice donor variant in WES.</t>
-  </si>
-  <si>
-    <t>Skin-specific mutation. Annotated as f659f in WES.</t>
-  </si>
-  <si>
-    <t>Clone 1 (also found in relapse)</t>
-  </si>
-  <si>
-    <t>Clone 2 (not found in relapse)</t>
-  </si>
-  <si>
-    <t>nt</t>
-  </si>
-  <si>
-    <t>Number of wildtype UMIs</t>
-  </si>
-  <si>
-    <t>Number of mutant UMIs</t>
-  </si>
-  <si>
-    <t>RNA-seq bam file location</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/vangalen/SW_pipeline/4_star/191111.190314.BPDCN180628-1.star/191111.190314.BPDCN180628-1_Aligned.sortedByCoord.out.bam,/broad/vangalenlab/vangalen/SW_pipeline/4_star/191111.190314.BPDCN180628-2.star/191111.190314.BPDCN180628-2_Aligned.sortedByCoord.out.bam</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-DX_2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-DX_3/outs/possorted_genome_bam.bam</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-MRD_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-MRD_2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT1-MRD_3/outs/possorted_genome_bam.bam</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT5-DX_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT5-DX_3/outs/possorted_genome_bam.bam</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712-1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712-2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712-3/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712-4/outs/possorted_genome_bam.bam</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712R-1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN712R-2/outs/possorted_genome_bam.bam</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT12-DX_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT12-DX_2/outs/possorted_genome_bam.bam</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT12-REL_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/PT12-REL_2/outs/possorted_genome_bam.bam</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN181128_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN181128_2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN181128_3/outs/possorted_genome_bam.bam</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN180329_5/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN180329_6/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN180329_7/outs/possorted_genome_bam.bam</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN190711_1/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN190711_2/outs/possorted_genome_bam.bam,/broad/vangalenlab/vangalen/CellRanger/220620_GeneCounts/BPDCN190711_3/outs/possorted_genome_bam.bam</t>
-  </si>
-  <si>
-    <t>XV-seq fastq file location</t>
-  </si>
-  <si>
-    <t>ACAP2.L97L</t>
-  </si>
-  <si>
-    <t>PRKDC.D3353N</t>
-  </si>
-  <si>
-    <t>RPS24.I25T</t>
-  </si>
-  <si>
-    <t>SMARCD1.L456F</t>
-  </si>
-  <si>
-    <t>NameNew</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Position.hg19</t>
-  </si>
-  <si>
-    <t>Position.hg38</t>
-  </si>
-  <si>
-    <t>SYNONYMOUS</t>
-  </si>
-  <si>
-    <t>G/A</t>
-  </si>
-  <si>
-    <t>chr3:195066043</t>
-  </si>
-  <si>
-    <t>chr3:195345314</t>
-  </si>
-  <si>
-    <t>FRAME_SHIFT</t>
-  </si>
-  <si>
-    <t>A/AG</t>
-  </si>
-  <si>
-    <t>chr20:31022441</t>
-  </si>
-  <si>
-    <t>chr20:32434638</t>
-  </si>
-  <si>
-    <t>MISSENSE</t>
-  </si>
-  <si>
-    <t>T/C</t>
-  </si>
-  <si>
-    <t>chr11:107309818</t>
-  </si>
-  <si>
-    <t>chr11:107439092</t>
-  </si>
-  <si>
-    <t>SPLICE_SITE</t>
-  </si>
-  <si>
-    <t>G/C</t>
-  </si>
-  <si>
-    <t>chr9:131849078</t>
-  </si>
-  <si>
-    <t>chr9:129086799</t>
-  </si>
-  <si>
-    <t>C/T</t>
-  </si>
-  <si>
-    <t>chr19:41809881</t>
-  </si>
-  <si>
-    <t>chr19:41303976</t>
-  </si>
-  <si>
-    <t>chr14:50901277</t>
-  </si>
-  <si>
-    <t>chr14:50434559</t>
-  </si>
-  <si>
-    <t>chr8:48713410</t>
-  </si>
-  <si>
-    <t>chr8:47800849</t>
-  </si>
-  <si>
-    <t>THREE_PRIME_UTR</t>
-  </si>
-  <si>
-    <t>T/A</t>
-  </si>
-  <si>
-    <t>chrX:13727473</t>
-  </si>
-  <si>
-    <t>chrX:13709354</t>
-  </si>
-  <si>
-    <t>chr10:79795273</t>
-  </si>
-  <si>
-    <t>chr10:78035515</t>
-  </si>
-  <si>
-    <t>chr12:50490729</t>
-  </si>
-  <si>
-    <t>chr12:50096946</t>
-  </si>
-  <si>
-    <t>chr4:106190860</t>
-  </si>
-  <si>
-    <t>chr4:105269703</t>
-  </si>
-  <si>
-    <t>STOP_GAINED</t>
-  </si>
-  <si>
-    <t>chr4:106158199</t>
-  </si>
-  <si>
-    <t>chr4:105237042</t>
-  </si>
-  <si>
-    <t>chr4:106164778</t>
-  </si>
-  <si>
-    <t>chr4:105243621</t>
-  </si>
-  <si>
-    <t>C/G</t>
-  </si>
-  <si>
-    <t>chr4:106157474</t>
-  </si>
-  <si>
-    <t>chr4:105236317</t>
-  </si>
-  <si>
-    <t>MALAT1.n.G3541A</t>
-  </si>
-  <si>
-    <t>LINCRNA</t>
-  </si>
-  <si>
-    <t>chr11:65270399</t>
-  </si>
-  <si>
-    <t>chr11:65502928</t>
-  </si>
-  <si>
-    <t>NFIC.3pUTR</t>
-  </si>
-  <si>
-    <t>chr19:3462800</t>
-  </si>
-  <si>
-    <t>chr19:3462802</t>
-  </si>
-  <si>
-    <t>NOTCH1.3pUTR</t>
-  </si>
-  <si>
-    <t>chr9:139389423</t>
-  </si>
-  <si>
-    <t>chr9:136494971</t>
-  </si>
-  <si>
-    <t>chr4:106196276</t>
-  </si>
-  <si>
-    <t>chr4:105275119</t>
-  </si>
-  <si>
-    <t>CC/TT</t>
-  </si>
-  <si>
-    <t>chr12:12037473</t>
-  </si>
-  <si>
-    <t>chr12:11884539</t>
-  </si>
-  <si>
-    <t>chr7:148526909</t>
-  </si>
-  <si>
-    <t>chr7:148829817</t>
-  </si>
-  <si>
-    <t>chr15:90631934</t>
-  </si>
-  <si>
-    <t>chr15:90088702</t>
-  </si>
-  <si>
-    <t>TC/T</t>
-  </si>
-  <si>
-    <t>chr20:31022936</t>
-  </si>
-  <si>
-    <t>chr20:32435133</t>
-  </si>
-  <si>
-    <t>chr4:106196213</t>
-  </si>
-  <si>
-    <t>chr4:105275056</t>
-  </si>
-  <si>
-    <t>chr21:44524456</t>
-  </si>
-  <si>
-    <t>chr21:43104346</t>
-  </si>
-  <si>
-    <t>chr20:31022592</t>
-  </si>
-  <si>
-    <t>chr20:32434789</t>
-  </si>
-  <si>
-    <t>chr4:106157725</t>
-  </si>
-  <si>
-    <t>chr4:105236568</t>
-  </si>
-  <si>
-    <t>C/A</t>
-  </si>
-  <si>
-    <t>chr4:106157480</t>
-  </si>
-  <si>
-    <t>chr4:105236323</t>
-  </si>
-  <si>
-    <t>chrX:15822297</t>
-  </si>
-  <si>
-    <t>chrX:15804174</t>
-  </si>
-  <si>
-    <t>TG/T</t>
-  </si>
-  <si>
-    <t>chr20:31022605</t>
-  </si>
-  <si>
-    <t>chr20:32434802</t>
-  </si>
-  <si>
-    <t>FAM98C.G228S</t>
-  </si>
-  <si>
-    <t>chr19:38899400</t>
-  </si>
-  <si>
-    <t>chr19:38408760</t>
-  </si>
-  <si>
-    <t>SETX.3pUTR</t>
-  </si>
-  <si>
-    <t>chr9:135136947</t>
-  </si>
-  <si>
-    <t>chr9:132261560</t>
-  </si>
-  <si>
-    <t>SMARCC1.3pUTR</t>
-  </si>
-  <si>
-    <t>chr3:47627735</t>
-  </si>
-  <si>
-    <t>chr3:47586245</t>
-  </si>
-  <si>
-    <t>NONSENSE</t>
-  </si>
-  <si>
-    <t>chr4:106157977</t>
-  </si>
-  <si>
-    <t>chr4:105236820</t>
-  </si>
-  <si>
-    <t>ACT/A</t>
-  </si>
-  <si>
-    <t>chr4:106155941</t>
-  </si>
-  <si>
-    <t>chr4:105234784</t>
-  </si>
-  <si>
-    <t>G/GTA</t>
-  </si>
-  <si>
-    <t>chr4:106193721</t>
-  </si>
-  <si>
-    <t>chr4:105272564</t>
-  </si>
-  <si>
-    <t>chrX:15827409</t>
-  </si>
-  <si>
-    <t>chrX:15809286</t>
-  </si>
-  <si>
-    <t>GC/G</t>
-  </si>
-  <si>
-    <t>chr7:101845303</t>
-  </si>
-  <si>
-    <t>chr7:102202023</t>
-  </si>
-  <si>
-    <t>G/GA</t>
-  </si>
-  <si>
-    <t>chr4:106193849</t>
-  </si>
-  <si>
-    <t>chr4:105272692</t>
-  </si>
-  <si>
-    <t>chr4:106196306</t>
-  </si>
-  <si>
-    <t>chr4:105275149</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Large deletion</t>
-  </si>
-  <si>
-    <t>CDKN2a hom. deletion</t>
-  </si>
-  <si>
-    <t>Independently validated with ASXL1.1898 primer (see Methods).</t>
-  </si>
-  <si>
-    <t>Seq-Well S^3 (all the others are 10x Genomics 3' v3/v3.1)</t>
-  </si>
-  <si>
-    <t>Highly detected in skin samples, low at dx, low at remission, chromosome loss (similar to the other two but not as highly expressed). Primer will bind transcript variant 1, not 2.</t>
-  </si>
-  <si>
-    <t>Highly detected in skin samples, low at dx, low at remission, chr9 loss</t>
-  </si>
-  <si>
-    <t>Highly detected in skin samples, low at dx, low at remission, chr3 loss</t>
-  </si>
-  <si>
-    <t>Highly detected in relapse, barely detected in marrow by WGS. Single-cell genotyping yielded few reads.</t>
-  </si>
-  <si>
-    <t>Single-cell genotyping yielded few reads.</t>
-  </si>
-  <si>
-    <t>Base change</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn4_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn4_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn3_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn3_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn2_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn2_R2.fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient10/PRKDC.10039/Merged_Patient10_GoT_S5R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient10/PRKDC.10039/Merged_Patient10_GoT_S5R2.fastq </t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn1_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient10/RPS24.40/Merged_Patient10_GoT_S5R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient10/RPS24.40/Merged_Patient10_GoT_S5R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient10/SMARCD1.1330/Merged_Patient10_GoT_S5R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient10/SMARCD1.1330/Merged_Patient10_GoT_S5R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn4_R1.fastq, /broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn4_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn2_R1.fastq, /broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn2_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn3_R1.fastq, /broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn3_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn1_R1.fastq, /broad/vangalenlab/ssozi/fastq/200108_BPDCN712/BPDCN712-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn6_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn6_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn4_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn4_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn3_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn3_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn2_R1.fastq,  /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn2_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/BPDCN712_220426_AKA_Pt10/RAB9A.575R/BPDCN712R-GoT-Rxn1_R1.fastq, /broad/vangalenlab/ssozi/GoT/BPDCN712_220426_AKA_Pt10/RAB9A.575R/BPDCN712R-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn5_R1.fastq, /broad/vangalenlab/ssozi/fastq/201102_BPDCN712/BPDCN712R-GoT-Rxn5_R2.fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12/MALAT1.5155/Merged_Patient12_GoT_S6R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12/MALAT1.5155/Merged_Patient12_GoT_S6R2.fastq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12/NFIC.1529/Merged_Patient12_GoT_S6R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12/NFIC.1529/Merged_Patient12_GoT_S6R2.fastq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12/NOTCH1.8738/Merged_Patient12_GoT_S6R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12/NOTCH1.8738/Merged_Patient12_GoT_S6R2.fastq </t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient12/TET2.4588/Merged_Patient12_GoT_S6R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12/TET2.4588/Merged_Patient12_GoT_S6R2.fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12REL/MALAT1.5155/Merged_Patient12REL_GoT_S7R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12REL/MALAT1.5155/Merged_Patient12REL_GoT_S7R2.fastq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12REL/NFIC.1529/Merged_Patient12REL_GoT_S7R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12REL/NFIC.1529/Merged_Patient12REL_GoT_S7R2.fastq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient12REL/NOTCH1.8738/Merged_Patient12REL_GoT_S7R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12REL/NOTCH1.8738/Merged_Patient12REL_GoT_S7R2.fastq </t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient12REL/TET2.4588/Merged_Patient12REL_GoT_S7R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient12REL/TET2.4588/Merged_Patient12REL_GoT_S7R2.fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN181128/ETV6.1070/BPDCN181128-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN181128/ETV6.1070/BPDCN181128-GoT-Rxn1_R2.fastq </t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN181128/EZH2.362/BPDCN181128-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN181128/EZH2.362/BPDCN181128-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN181128/IDH2.392/BPDCN181128-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN181128/IDH2.392/BPDCN181128-GoT-Rxn1_R2.fastq </t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN180329/ASXL1.2398/BPDCN180329-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN180329/ASXL1.2398/BPDCN180329-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN180329/TET2.4509/BPDCN180329-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN180329/TET2.4509/BPDCN180329-GoT-Rxn1_R2.fastq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN180329/U2AF1.65/BPDCN180329-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN180329/U2AF1.65/BPDCN180329-GoT-Rxn1_R2.fastq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN190711/ASXL1.2046/BPDCN190711-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN190711/ASXL1.2046/BPDCN190711-GoT-Rxn1_R2.fastq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2595/BPDCN190711-GoT-Rxn2_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2595/BPDCN190711-GoT-Rxn2_R2.fastq </t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2340/BPDCN190711-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN190711/TET2.2340/BPDCN190711-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/depasquale/GoT/BPDCN190711/ZRSR2.331/BPDCN190711-GoT-Rxn1_R1.fastq, /broad/vangalenlab/depasquale/GoT/BPDCN190711/ZRSR2.331/BPDCN190711-GoT-Rxn1_R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1/ASXL1.2046/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/ASXL1.2046/Merged_Patient1_GoT_S1R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1/FAM98C.903/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/FAM98C.903/Merged_Patient1_GoT_S1R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1/SETX.10691/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/SETX.10691/Merged_Patient1_GoT_S1R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1/SMARCC1.5233/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/SMARCC1.5233/Merged_Patient1_GoT_S1R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1/TET2.2847/Merged_Patient1_GoT_S1R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1/TET2.2847/Merged_Patient1_GoT_S1R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/ASXL1.2046/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/ASXL1.2046/Merged_Patient1MRD_GoT_S2R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/FAM98C.903/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/FAM98C.903/Merged_Patient1MRD_GoT_S2R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/SETX.10691/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/SETX.10691/Merged_Patient1MRD_GoT_S2R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/SMARCC1.5233/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/SMARCC1.5233/Merged_Patient1MRD_GoT_S2R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient1MRD/TET2.2847/Merged_Patient1MRD_GoT_S2R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient1MRD/TET2.2847/Merged_Patient1MRD_GoT_S2R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient5/TET2.796/Merged_Patient5_GoT_S3R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient5/TET2.796/Merged_Patient5_GoT_S3R2.fastq</t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/GoT/Patient5/TET2.4135/Merged_Patient5_GoT_S4R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient5/TET2.4135/Merged_Patient5_GoT_S4R2.fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/ssozi/GoT/Patient5/ZRSR2.500/Merged_Patient5_GoT_S4R1.fastq, /broad/vangalenlab/ssozi/GoT/Patient5/ZRSR2.500/Merged_Patient5_GoT_S4R2.fastq </t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-AllRxns_R1.fastq, /broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-AllRxns_R2.fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn5_R1.fastq, /broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn5_R2.fastq </t>
-  </si>
-  <si>
-    <t>/broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn6_R1.fastq, /broad/vangalenlab/ssozi/fastq/190514_BPDCN628/BPDCN628-genotyping-Rxn6_R2.fastq</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2022,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2093,33 +2093,7 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2479,10 +2453,10 @@
   <dimension ref="A1:AE70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AA22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD32" sqref="AD32"/>
+      <selection pane="bottomRight" activeCell="AE53" sqref="AE53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2505,288 +2479,287 @@
     <col min="27" max="27" width="81.5" style="2" customWidth="1"/>
     <col min="28" max="28" width="16" style="10" customWidth="1"/>
     <col min="29" max="30" width="48.1640625" style="10" customWidth="1"/>
-    <col min="31" max="31" width="61.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="72.5" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="M1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="K1" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="R1" s="13" t="s">
+      <c r="W1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>291</v>
-      </c>
       <c r="AD1" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AE1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="38">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="G2" s="38" t="s">
+      <c r="C2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="I2" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="J2" s="40">
+      <c r="J2" s="18">
         <v>13</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L2" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="M2" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q2" s="46">
+      <c r="L2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q2" s="15">
         <v>27</v>
       </c>
-      <c r="R2" s="46">
+      <c r="R2" s="15">
         <v>15</v>
       </c>
-      <c r="S2" s="43">
+      <c r="S2" s="3">
         <v>0.242620299231702</v>
       </c>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46">
+      <c r="T2" s="15"/>
+      <c r="U2" s="15">
         <v>6</v>
       </c>
-      <c r="V2" s="43">
+      <c r="V2" s="3">
         <v>50</v>
       </c>
-      <c r="W2" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="X2" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA2" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB2" s="49">
+      <c r="W2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB2" s="10">
         <v>2555</v>
       </c>
-      <c r="AC2" s="51" t="s">
-        <v>293</v>
+      <c r="AC2" s="24" t="s">
+        <v>292</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AE2" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="38">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="38" t="s">
+      <c r="C3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="H3" s="38" t="s">
+      <c r="I3" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="I3" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="K3" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="O3" s="43" t="s">
+      <c r="L3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P3" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q3" s="46">
+      <c r="O3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q3" s="15">
         <v>2502</v>
       </c>
-      <c r="R3" s="46">
+      <c r="R3" s="15">
         <v>92</v>
       </c>
-      <c r="S3" s="43">
+      <c r="S3" s="3">
         <v>6.0250707642539396</v>
       </c>
-      <c r="T3" s="46">
+      <c r="T3" s="15">
         <v>25</v>
       </c>
-      <c r="U3" s="46">
+      <c r="U3" s="15">
         <v>149</v>
       </c>
-      <c r="V3" s="43">
+      <c r="V3" s="3">
         <v>2.0134228187919399</v>
       </c>
-      <c r="W3" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="X3" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y3" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z3" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA3" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB3" s="49">
+      <c r="W3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB3" s="10">
         <v>324</v>
       </c>
-      <c r="AC3" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD3" s="49" t="s">
-        <v>466</v>
-      </c>
-      <c r="AE3" s="38" t="s">
+      <c r="AC3" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2798,46 +2771,46 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="J4" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K4" s="18">
         <v>2.6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="15">
         <v>709</v>
@@ -2858,28 +2831,28 @@
         <v>11.504424778761001</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB4" s="10">
         <v>120</v>
       </c>
       <c r="AC4" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AD4" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AE4" s="2" t="s">
         <v>70</v>
@@ -2893,46 +2866,46 @@
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="J5" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>282</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="15">
         <v>386</v>
@@ -2953,30 +2926,30 @@
         <v>13.698630136986299</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB5" s="10">
         <v>225</v>
       </c>
-      <c r="AC5" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD5" s="49" t="s">
-        <v>468</v>
-      </c>
-      <c r="AE5" s="38" t="s">
+      <c r="AC5" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2988,25 +2961,25 @@
         <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="J6" s="19">
         <v>6</v>
@@ -3015,19 +2988,19 @@
         <v>2</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q6" s="16">
         <v>356</v>
@@ -3048,120 +3021,119 @@
         <v>20</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB6" s="11">
         <v>6415</v>
       </c>
       <c r="AC6" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AE6" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="38">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="G7" s="38" t="s">
+      <c r="B7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="I7" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="I7" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="K7" s="40">
+      <c r="J7" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="K7" s="18">
         <v>14.3</v>
       </c>
-      <c r="L7" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="M7" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="N7" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="P7" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q7" s="46">
+      <c r="L7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="15">
         <v>29</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="15">
         <v>0</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S7" s="3">
         <v>0.28122575640031</v>
       </c>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15">
         <v>29</v>
       </c>
-      <c r="V7" s="43">
+      <c r="V7" s="3">
         <v>0</v>
       </c>
-      <c r="W7" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="X7" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA7" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB7" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC7" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD7" s="49" t="s">
-        <v>470</v>
-      </c>
-      <c r="AE7" s="38" t="s">
-        <v>226</v>
+      <c r="W7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC7" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -3169,49 +3141,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="J8" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="15">
         <v>839</v>
@@ -3232,31 +3204,31 @@
         <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC8" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -3264,49 +3236,49 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="J9" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q9" s="15">
         <v>526</v>
@@ -3327,126 +3299,126 @@
         <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC9" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="38">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="38" t="s">
+      <c r="B10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="H10" s="38" t="s">
+      <c r="I10" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="I10" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="N10" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="O10" s="43" t="s">
+      <c r="J10" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P10" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q10" s="46">
+      <c r="O10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="15">
         <v>297</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="15">
         <v>0</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="3">
         <v>2.4825446082234199</v>
       </c>
-      <c r="T10" s="46">
+      <c r="T10" s="15">
         <v>105</v>
       </c>
-      <c r="U10" s="46">
+      <c r="U10" s="15">
         <v>256</v>
       </c>
-      <c r="V10" s="43">
+      <c r="V10" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="X10" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y10" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z10" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA10" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB10" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC10" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD10" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="AE10" s="38" t="s">
-        <v>227</v>
+      <c r="W10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC10" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD10" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -3454,49 +3426,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="J11" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K11" s="19">
         <v>2.4</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q11" s="16">
         <v>119</v>
@@ -3517,210 +3489,208 @@
         <v>10.714285714285699</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB11" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC11" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="38">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" s="38" t="s">
+      <c r="C12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="I12" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="I12" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="J12" s="40">
+      <c r="J12" s="18">
         <v>36.799999999999997</v>
       </c>
-      <c r="K12" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="M12" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="N12" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q12" s="46">
+      <c r="K12" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q12" s="15">
         <v>1287</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="15">
         <v>819</v>
       </c>
-      <c r="S12" s="43">
+      <c r="S12" s="3">
         <v>4.2702050663449898</v>
       </c>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46">
+      <c r="T12" s="15"/>
+      <c r="U12" s="15">
         <v>177</v>
       </c>
-      <c r="V12" s="43">
+      <c r="V12" s="3">
         <v>42.937853107344601</v>
       </c>
-      <c r="W12" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="X12" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA12" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB12" s="49">
+      <c r="W12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB12" s="10">
         <v>8449</v>
       </c>
-      <c r="AC12" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD12" s="49" t="s">
-        <v>475</v>
-      </c>
-      <c r="AE12" s="38" t="s">
+      <c r="AC12" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="AE12" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="38">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="G13" s="38" t="s">
+      <c r="C13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="I13" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I13" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="J13" s="40">
+      <c r="J13" s="18">
         <v>41.3</v>
       </c>
-      <c r="K13" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="M13" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="N13" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="O13" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="P13" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q13" s="46">
+      <c r="K13" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q13" s="15">
         <v>1288</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13" s="15">
         <v>1045</v>
       </c>
-      <c r="S13" s="43">
+      <c r="S13" s="3">
         <v>5.4764776839565696</v>
       </c>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46">
+      <c r="T13" s="15"/>
+      <c r="U13" s="15">
         <v>227</v>
       </c>
-      <c r="V13" s="43">
+      <c r="V13" s="3">
         <v>36.123348017621097</v>
       </c>
-      <c r="W13" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="X13" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA13" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB13" s="49">
+      <c r="W13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB13" s="10">
         <v>5109</v>
       </c>
-      <c r="AC13" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD13" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="AE13" s="38" t="s">
+      <c r="AC13" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE13" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3732,46 +3702,46 @@
         <v>56</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="J14" s="19">
         <v>85.8</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="16">
         <v>1780</v>
@@ -3792,26 +3762,26 @@
         <v>14.516129032258</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB14" s="11">
         <v>942</v>
       </c>
       <c r="AC14" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AE14" s="5" t="s">
         <v>63</v>
@@ -3825,7 +3795,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
@@ -3834,16 +3804,16 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="J15" s="18">
         <v>87.9</v>
@@ -3852,19 +3822,19 @@
         <v>78.099999999999994</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q15" s="15">
         <v>27</v>
@@ -3883,28 +3853,28 @@
         <v>73.3333333333333</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB15" s="10">
         <v>11002</v>
       </c>
       <c r="AC15" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE15" s="2" t="s">
         <v>38</v>
@@ -3918,7 +3888,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -3927,16 +3897,16 @@
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="J16" s="18">
         <v>44.8</v>
@@ -3945,19 +3915,19 @@
         <v>43</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="15">
         <v>348</v>
@@ -3976,28 +3946,28 @@
         <v>40.397350993377401</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB16" s="10">
         <v>5002</v>
       </c>
       <c r="AC16" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE16" s="2" t="s">
         <v>39</v>
@@ -4011,7 +3981,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>4</v>
@@ -4020,16 +3990,16 @@
         <v>4</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="J17" s="19">
         <v>35.5</v>
@@ -4038,19 +4008,19 @@
         <v>50</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="16">
         <v>129</v>
@@ -4071,28 +4041,28 @@
         <v>32.954545454545404</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB17" s="11">
         <v>4701</v>
       </c>
       <c r="AC17" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AE17" s="5" t="s">
         <v>40</v>
@@ -4106,46 +4076,46 @@
         <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="J18" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K18" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="K18" s="18" t="s">
-        <v>282</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="15">
         <v>4497</v>
@@ -4166,28 +4136,28 @@
         <v>0.46528274874731501</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB18" s="10">
         <v>6681</v>
       </c>
       <c r="AC18" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AE18" s="2" t="s">
         <v>45</v>
@@ -4201,7 +4171,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -4210,16 +4180,16 @@
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="J19" s="18">
         <v>45</v>
@@ -4228,19 +4198,19 @@
         <v>27.2</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M19" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="15">
         <v>52</v>
@@ -4259,125 +4229,125 @@
         <v>21.428571428571399</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB19" s="10">
         <v>2760</v>
       </c>
       <c r="AC19" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD19" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AE19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="38">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" s="38" t="s">
+      <c r="C20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="H20" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="I20" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="I20" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K20" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="K20" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="N20" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="O20" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q20" s="46">
+      <c r="L20" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q20" s="15">
         <v>1744</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="15">
         <v>2</v>
       </c>
-      <c r="S20" s="43">
+      <c r="S20" s="3">
         <v>9.8357411438749196</v>
       </c>
-      <c r="T20" s="46">
+      <c r="T20" s="15">
         <v>129</v>
       </c>
-      <c r="U20" s="46">
+      <c r="U20" s="15">
         <v>994</v>
       </c>
-      <c r="V20" s="43">
+      <c r="V20" s="3">
         <v>0.20120724346076399</v>
       </c>
-      <c r="W20" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X20" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y20" s="38" t="s">
+      <c r="W20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z20" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA20" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB20" s="49">
+      <c r="Z20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB20" s="10">
         <v>2622</v>
       </c>
-      <c r="AC20" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD20" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE20" s="38" t="s">
+      <c r="AC20" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD20" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE20" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4389,7 +4359,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -4398,37 +4368,37 @@
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="J21" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K21" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="K21" s="18" t="s">
-        <v>282</v>
-      </c>
       <c r="L21" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q21" s="15">
         <v>33</v>
@@ -4449,125 +4419,125 @@
         <v>0</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB21" s="10">
         <v>1515</v>
       </c>
       <c r="AC21" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD21" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AE21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="38">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="38" t="s">
+      <c r="C22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="G22" s="38" t="s">
+      <c r="F22" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="I22" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I22" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K22" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="K22" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="L22" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="M22" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="N22" s="43" t="s">
+      <c r="L22" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O22" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="P22" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q22" s="46">
+      <c r="P22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q22" s="15">
         <v>1043</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="15">
         <v>13</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S22" s="3">
         <v>6.1844448842271902</v>
       </c>
-      <c r="T22" s="46">
+      <c r="T22" s="15">
         <v>49</v>
       </c>
-      <c r="U22" s="46">
+      <c r="U22" s="15">
         <v>625</v>
       </c>
-      <c r="V22" s="43">
+      <c r="V22" s="3">
         <v>1.1199999999999899</v>
       </c>
-      <c r="W22" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X22" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y22" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z22" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA22" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB22" s="49">
+      <c r="W22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB22" s="10">
         <v>1454</v>
       </c>
-      <c r="AC22" s="51" t="s">
-        <v>296</v>
+      <c r="AC22" s="24" t="s">
+        <v>295</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE22" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE22" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4579,7 +4549,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
@@ -4588,37 +4558,37 @@
         <v>15</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="J23" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K23" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="K23" s="18" t="s">
-        <v>282</v>
-      </c>
       <c r="L23" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M23" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N23" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="P23" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="15">
         <v>167</v>
@@ -4639,28 +4609,28 @@
         <v>0.81967213114754101</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB23" s="10">
         <v>2090</v>
       </c>
       <c r="AC23" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD23" s="49" t="s">
-        <v>431</v>
+        <v>295</v>
+      </c>
+      <c r="AD23" s="10" t="s">
+        <v>430</v>
       </c>
       <c r="AE23" s="2" t="s">
         <v>50</v>
@@ -4674,46 +4644,46 @@
         <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="J24" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K24" s="18">
         <v>10.4</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M24" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N24" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="P24" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q24" s="15">
         <v>6866</v>
@@ -4734,126 +4704,126 @@
         <v>5.3278688524590097</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB24" s="4">
         <v>3296</v>
       </c>
       <c r="AC24" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AE24" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="38">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D25" s="38" t="s">
+      <c r="C25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="H25" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="I25" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="I25" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="K25" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="L25" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="M25" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="N25" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="O25" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="P25" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q25" s="46">
+      <c r="L25" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q25" s="15">
         <v>26276</v>
       </c>
-      <c r="R25" s="46">
+      <c r="R25" s="15">
         <v>175</v>
       </c>
-      <c r="S25" s="43">
+      <c r="S25" s="3">
         <v>35.751038986740497</v>
       </c>
-      <c r="T25" s="46">
+      <c r="T25" s="15">
         <v>209</v>
       </c>
-      <c r="U25" s="46">
+      <c r="U25" s="15">
         <v>3613</v>
       </c>
-      <c r="V25" s="43">
+      <c r="V25" s="3">
         <v>0.38748962081372801</v>
       </c>
-      <c r="W25" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X25" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y25" s="38" t="s">
+      <c r="W25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z25" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA25" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB25" s="49">
+      <c r="Z25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB25" s="10">
         <v>350</v>
       </c>
-      <c r="AC25" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD25" s="49" t="s">
-        <v>434</v>
-      </c>
-      <c r="AE25" s="38" t="s">
-        <v>100</v>
+      <c r="AC25" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD25" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -4864,46 +4834,46 @@
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="H26" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="J26" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K26" s="18">
         <v>20.2</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M26" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q26" s="15">
         <v>97176</v>
@@ -4924,28 +4894,28 @@
         <v>6.7772890843662497</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB26" s="4">
         <v>421</v>
       </c>
       <c r="AC26" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE26" s="2" t="s">
         <v>59</v>
@@ -4959,46 +4929,46 @@
         <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="J27" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K27" s="18">
         <v>32.700000000000003</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M27" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q27" s="15">
         <v>616</v>
@@ -5019,125 +4989,125 @@
         <v>20.5128205128205</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AB27" s="4">
         <v>1824</v>
       </c>
       <c r="AC27" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AE27" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="38">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" s="38" t="s">
+      <c r="C28" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="H28" s="38" t="s">
+      <c r="F28" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I28" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="J28" s="40">
+      <c r="J28" s="18">
         <v>6.9</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28" s="18">
         <v>9.6</v>
       </c>
-      <c r="L28" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="M28" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="N28" s="43" t="s">
+      <c r="L28" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O28" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="P28" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q28" s="46">
+      <c r="P28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q28" s="15">
         <v>237</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28" s="15">
         <v>15</v>
       </c>
-      <c r="S28" s="43">
+      <c r="S28" s="3">
         <v>1.88007124480506</v>
       </c>
-      <c r="T28" s="46">
+      <c r="T28" s="15">
         <v>29</v>
       </c>
-      <c r="U28" s="46">
+      <c r="U28" s="15">
         <v>190</v>
       </c>
-      <c r="V28" s="43">
+      <c r="V28" s="3">
         <v>6.3157894736842097</v>
       </c>
-      <c r="W28" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X28" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y28" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z28" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA28" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB28" s="49">
+      <c r="W28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB28" s="10">
         <v>5189</v>
       </c>
-      <c r="AC28" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD28" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE28" s="38" t="s">
+      <c r="AC28" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD28" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5149,7 +5119,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -5158,16 +5128,16 @@
         <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="J29" s="18">
         <v>31.4</v>
@@ -5176,19 +5146,19 @@
         <v>11.7</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="M29" s="45" t="s">
-        <v>248</v>
+        <v>219</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>247</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O29" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="15">
         <v>117</v>
@@ -5209,28 +5179,28 @@
         <v>14.814814814814801</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB29" s="10">
         <v>6215</v>
       </c>
       <c r="AC29" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD29" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AE29" s="2" t="s">
         <v>42</v>
@@ -5244,7 +5214,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>7</v>
@@ -5253,16 +5223,16 @@
         <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="J30" s="18">
         <v>8.8000000000000007</v>
@@ -5271,19 +5241,19 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M30" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q30" s="15">
         <v>143</v>
@@ -5304,28 +5274,28 @@
         <v>2.60869565217391</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB30" s="10">
         <v>5667</v>
       </c>
       <c r="AC30" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD30" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AE30" s="2" t="s">
         <v>43</v>
@@ -5339,7 +5309,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -5348,16 +5318,16 @@
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="J31" s="18">
         <v>29.5</v>
@@ -5366,19 +5336,19 @@
         <v>20</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="15">
         <v>127</v>
@@ -5399,28 +5369,28 @@
         <v>18.5483870967741</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB31" s="10">
         <v>6953</v>
       </c>
       <c r="AC31" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD31" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AE31" s="2" t="s">
         <v>41</v>
@@ -5434,37 +5404,37 @@
         <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="15">
         <v>3249</v>
@@ -5483,28 +5453,28 @@
         <v>1.0494752623688099</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB32" s="10">
         <v>1816</v>
       </c>
       <c r="AC32" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD32" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE32" s="2" t="s">
         <v>51</v>
@@ -5550,10 +5520,10 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="12"/>
       <c r="AC33" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD33" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE33" s="8" t="s">
         <v>52</v>
@@ -5599,61 +5569,61 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="12"/>
       <c r="AC34" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD34" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE34" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="39">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="47">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="17">
         <v>3249</v>
       </c>
-      <c r="R35" s="47">
+      <c r="R35" s="17">
         <v>10</v>
       </c>
-      <c r="S35" s="44"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD35" s="52" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE35" s="39" t="s">
+      <c r="S35" s="9"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD35" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE35" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5697,10 +5667,10 @@
       <c r="AA36" s="27"/>
       <c r="AB36" s="31"/>
       <c r="AC36" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD36" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AE36" s="27" t="s">
         <v>55</v>
@@ -5714,46 +5684,46 @@
         <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="J37" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K37" s="18">
         <v>17.7</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M37" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="15">
         <v>2818</v>
@@ -5774,28 +5744,28 @@
         <v>34.608460846084597</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB37" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC37" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AE37" s="2" t="s">
         <v>24</v>
@@ -5809,7 +5779,7 @@
         <v>23</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>11</v>
@@ -5818,37 +5788,37 @@
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="J38" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K38" s="18">
         <v>21.4</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M38" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q38" s="15">
         <v>68</v>
@@ -5867,28 +5837,28 @@
         <v>41.791044776119399</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB38" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC38" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE38" s="2" t="s">
         <v>25</v>
@@ -5902,7 +5872,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>12</v>
@@ -5911,37 +5881,37 @@
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="J39" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K39" s="18">
         <v>22.4</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M39" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q39" s="15">
         <v>1286</v>
@@ -5962,125 +5932,125 @@
         <v>29.831387808041502</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB39" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC39" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE39" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="38">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" s="38" t="s">
+      <c r="C40" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="H40" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H40" s="38" t="s">
+      <c r="I40" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="I40" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="J40" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="K40" s="40">
+      <c r="J40" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="K40" s="18">
         <v>22.4</v>
       </c>
-      <c r="L40" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="M40" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="N40" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="O40" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="P40" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q40" s="46">
+      <c r="L40" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q40" s="15">
         <v>16</v>
       </c>
-      <c r="R40" s="46">
+      <c r="R40" s="15">
         <v>6</v>
       </c>
-      <c r="S40" s="43">
+      <c r="S40" s="3">
         <v>0.25340090690850797</v>
       </c>
-      <c r="T40" s="46">
+      <c r="T40" s="15">
         <v>2</v>
       </c>
-      <c r="U40" s="46">
+      <c r="U40" s="15">
         <v>19</v>
       </c>
-      <c r="V40" s="43">
+      <c r="V40" s="3">
         <v>26.315789473684202</v>
       </c>
-      <c r="W40" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X40" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y40" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z40" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA40" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB40" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC40" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD40" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="AE40" s="38" t="s">
+      <c r="W40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB40" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC40" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE40" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6092,7 +6062,7 @@
         <v>23</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>14</v>
@@ -6101,37 +6071,37 @@
         <v>14</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="J41" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K41" s="18">
         <v>22.1</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M41" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="P41" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q41" s="15">
         <v>1512</v>
@@ -6152,28 +6122,28 @@
         <v>40.106241699867198</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB41" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC41" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AE41" s="2" t="s">
         <v>28</v>
@@ -6187,7 +6157,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>15</v>
@@ -6196,37 +6166,37 @@
         <v>15</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="J42" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K42" s="18">
         <v>22.1</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M42" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N42" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="P42" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q42" s="15">
         <v>177</v>
@@ -6247,28 +6217,28 @@
         <v>38.095238095238003</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB42" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC42" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE42" s="2" t="s">
         <v>29</v>
@@ -6282,7 +6252,7 @@
         <v>23</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>21</v>
@@ -6291,37 +6261,37 @@
         <v>21</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="J43" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K43" s="18">
         <v>45.5</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M43" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q43" s="15">
         <v>2425</v>
@@ -6342,28 +6312,28 @@
         <v>64.835164835164804</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB43" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC43" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD43" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AE43" s="2" t="s">
         <v>30</v>
@@ -6377,7 +6347,7 @@
         <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
@@ -6386,37 +6356,37 @@
         <v>8</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="J44" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M44" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N44" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="P44" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q44" s="15">
         <v>548</v>
@@ -6437,28 +6407,28 @@
         <v>0.77922077922077904</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB44" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC44" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AE44" s="2" t="s">
         <v>34</v>
@@ -6472,7 +6442,7 @@
         <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -6481,37 +6451,37 @@
         <v>6</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="J45" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K45" s="18">
         <v>19.3</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M45" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q45" s="15">
         <v>335</v>
@@ -6532,28 +6502,28 @@
         <v>32.931726907630498</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB45" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC45" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE45" s="2" t="s">
         <v>32</v>
@@ -6567,7 +6537,7 @@
         <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>7</v>
@@ -6576,37 +6546,37 @@
         <v>7</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H46" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="J46" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M46" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q46" s="15">
         <v>361</v>
@@ -6627,125 +6597,125 @@
         <v>0</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB46" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC46" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AE46" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="38">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47" s="38" t="s">
+      <c r="C47" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="G47" s="38" t="s">
+      <c r="F47" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H47" s="38" t="s">
+      <c r="I47" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="I47" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="J47" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="K47" s="40">
+      <c r="J47" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="K47" s="18">
         <v>23.6</v>
       </c>
-      <c r="L47" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="M47" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="N47" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="O47" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="P47" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q47" s="46">
+      <c r="L47" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M47" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q47" s="15">
         <v>171</v>
       </c>
-      <c r="R47" s="46">
+      <c r="R47" s="15">
         <v>79</v>
       </c>
-      <c r="S47" s="43">
+      <c r="S47" s="3">
         <v>2.6940517471325598</v>
       </c>
-      <c r="T47" s="46">
+      <c r="T47" s="15">
         <v>12</v>
       </c>
-      <c r="U47" s="46">
+      <c r="U47" s="15">
         <v>202</v>
       </c>
-      <c r="V47" s="43">
+      <c r="V47" s="3">
         <v>36.138613861386098</v>
       </c>
-      <c r="W47" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="X47" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y47" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z47" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA47" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB47" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC47" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD47" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="AE47" s="38" t="s">
+      <c r="W47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC47" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD47" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE47" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6757,37 +6727,37 @@
         <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M48" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q48" s="15">
         <v>9093</v>
@@ -6806,31 +6776,31 @@
         <v>79.906542056074699</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB48" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC48" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD48" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -6873,13 +6843,13 @@
       <c r="AA49" s="8"/>
       <c r="AB49" s="12"/>
       <c r="AC49" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD49" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AE49" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -6922,13 +6892,13 @@
       <c r="AA50" s="8"/>
       <c r="AB50" s="12"/>
       <c r="AC50" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD50" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AE50" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -6971,13 +6941,13 @@
       <c r="AA51" s="8"/>
       <c r="AB51" s="12"/>
       <c r="AC51" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD51" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AE51" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -7020,13 +6990,13 @@
       <c r="AA52" s="27"/>
       <c r="AB52" s="31"/>
       <c r="AC52" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD52" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AE52" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -7037,46 +7007,46 @@
         <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="J53" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K53" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="K53" s="22" t="s">
-        <v>282</v>
-      </c>
       <c r="L53" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M53" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N53" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O53" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="O53" s="14" t="s">
-        <v>231</v>
-      </c>
       <c r="P53" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q53" s="15">
         <v>11</v>
@@ -7097,126 +7067,126 @@
         <v>0</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y53" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB53" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC53" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AD53" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE53" s="2" t="s">
-        <v>74</v>
+        <v>446</v>
+      </c>
+      <c r="AE53" s="38" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="38">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="38" t="s">
+      <c r="C54" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F54" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="G54" s="38" t="s">
+      <c r="I54" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M54" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q54" s="15">
+        <v>365</v>
+      </c>
+      <c r="R54" s="15">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>2.7980180705333701</v>
+      </c>
+      <c r="T54" s="15">
         <v>313</v>
       </c>
-      <c r="H54" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="I54" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="J54" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="K54" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="L54" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="M54" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="N54" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="O54" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="P54" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q54" s="46">
-        <v>365</v>
-      </c>
-      <c r="R54" s="46">
+      <c r="U54" s="15">
+        <v>192</v>
+      </c>
+      <c r="V54" s="3">
         <v>0</v>
       </c>
-      <c r="S54" s="43">
-        <v>2.7980180705333701</v>
-      </c>
-      <c r="T54" s="46">
-        <v>313</v>
-      </c>
-      <c r="U54" s="46">
-        <v>192</v>
-      </c>
-      <c r="V54" s="43">
-        <v>0</v>
-      </c>
-      <c r="W54" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="X54" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y54" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="Z54" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA54" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB54" s="48">
+      <c r="W54" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB54" s="4">
         <v>2572</v>
       </c>
-      <c r="AC54" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD54" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE54" s="38" t="s">
-        <v>77</v>
+      <c r="AC54" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD54" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE54" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -7227,46 +7197,46 @@
         <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="J55" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K55" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="K55" s="22" t="s">
-        <v>282</v>
-      </c>
       <c r="L55" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M55" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q55" s="15">
         <v>172</v>
@@ -7287,31 +7257,31 @@
         <v>11.6504854368932</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y55" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB55" s="4">
         <v>527</v>
       </c>
       <c r="AC55" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AD55" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -7322,46 +7292,46 @@
         <v>57</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H56" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="J56" s="19">
         <v>93</v>
       </c>
       <c r="K56" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M56" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q56" s="16">
         <v>22</v>
@@ -7382,31 +7352,31 @@
         <v>55.5555555555555</v>
       </c>
       <c r="W56" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X56" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y56" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Z56" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA56" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB56" s="7">
         <v>4684</v>
       </c>
       <c r="AC56" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AD56" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AE56" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -7417,46 +7387,46 @@
         <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="J57" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M57" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N57" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="P57" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q57" s="15">
         <v>673</v>
@@ -7477,28 +7447,28 @@
         <v>16.382252559726901</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB57" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC57" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD57" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AE57" s="2" t="s">
         <v>65</v>
@@ -7512,46 +7482,46 @@
         <v>58</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="J58" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M58" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q58" s="15">
         <v>3256</v>
@@ -7572,28 +7542,28 @@
         <v>13.8702460850111</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA58" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB58" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC58" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD58" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AE58" s="2" t="s">
         <v>68</v>
@@ -7607,46 +7577,46 @@
         <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="J59" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M59" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q59" s="15">
         <v>3006</v>
@@ -7667,28 +7637,28 @@
         <v>16.150442477876101</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y59" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB59" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC59" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD59" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AE59" s="2" t="s">
         <v>66</v>
@@ -7702,46 +7672,46 @@
         <v>58</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H60" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>364</v>
-      </c>
       <c r="J60" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K60" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M60" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q60" s="16">
         <v>2439</v>
@@ -7762,26 +7732,26 @@
         <v>18.2192910140148</v>
       </c>
       <c r="W60" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X60" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y60" s="5"/>
       <c r="Z60" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA60" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB60" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC60" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD60" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AE60" s="5" t="s">
         <v>67</v>
@@ -7792,49 +7762,49 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="J61" s="18">
         <v>2.7</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M61" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N61" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P61" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="Q61" s="15">
         <v>4935</v>
@@ -7855,28 +7825,28 @@
         <v>13.7614678899082</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA61" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB61" s="10">
         <v>870</v>
       </c>
       <c r="AC61" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -7884,49 +7854,49 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H62" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="J62" s="18">
         <v>4.8</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M62" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q62" s="15">
         <v>16239</v>
@@ -7947,31 +7917,31 @@
         <v>2.80898876404494</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA62" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB62" s="10">
         <v>2158</v>
       </c>
       <c r="AC62" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -7979,49 +7949,49 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H63" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="J63" s="19">
         <v>5.3</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M63" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q63" s="16">
         <v>41053</v>
@@ -8042,29 +8012,29 @@
         <v>19.946808510638299</v>
       </c>
       <c r="W63" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X63" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y63" s="5"/>
       <c r="Z63" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA63" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AB63" s="11">
         <v>1234</v>
       </c>
       <c r="AC63" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD63" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AE63" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -8072,49 +8042,49 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="J64" s="18">
         <v>39.9</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M64" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q64" s="15">
         <v>323</v>
@@ -8133,121 +8103,120 @@
         <v>54</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z64" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA64" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB64" s="10">
         <v>2249</v>
       </c>
       <c r="AC64" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD64" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AE64" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="38">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E65" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="G65" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="H65" s="38" t="s">
+      <c r="B65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I65" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="J65" s="40">
+      <c r="J65" s="18">
         <v>82.7</v>
       </c>
-      <c r="K65" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="L65" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="M65" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="N65" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="O65" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="P65" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q65" s="46">
+      <c r="K65" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M65" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q65" s="15">
         <v>94</v>
       </c>
-      <c r="R65" s="46">
+      <c r="R65" s="15">
         <v>1952</v>
       </c>
-      <c r="S65" s="43">
+      <c r="S65" s="3">
         <v>4.5533141210374604</v>
       </c>
-      <c r="T65" s="46">
+      <c r="T65" s="15">
         <v>17</v>
       </c>
-      <c r="U65" s="46">
+      <c r="U65" s="15">
         <v>158</v>
       </c>
-      <c r="V65" s="43">
+      <c r="V65" s="3">
         <v>93.670886075949298</v>
       </c>
-      <c r="W65" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="X65" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA65" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB65" s="49">
+      <c r="W65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z65" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA65" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB65" s="10">
         <v>4785</v>
       </c>
-      <c r="AC65" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD65" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="AE65" s="38" t="s">
-        <v>111</v>
+      <c r="AC65" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD65" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE65" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -8255,49 +8224,49 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H66" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="J66" s="19">
         <v>43.4</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M66" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N66" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="O66" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="O66" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="P66" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q66" s="16">
         <v>77704</v>
@@ -8318,29 +8287,29 @@
         <v>72.755417956656302</v>
       </c>
       <c r="W66" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X66" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y66" s="5"/>
       <c r="Z66" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA66" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB66" s="11">
         <v>805</v>
       </c>
       <c r="AC66" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD66" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AE66" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -8348,49 +8317,49 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H67" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="J67" s="18">
         <v>40.6</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M67" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q67" s="15">
         <v>248</v>
@@ -8411,214 +8380,212 @@
         <v>67.142857142857096</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z67" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA67" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB67" s="10">
         <v>2601</v>
       </c>
       <c r="AC67" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AE67" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="38">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="F68" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="G68" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="H68" s="38" t="s">
+      <c r="B68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="I68" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="J68" s="40">
+      <c r="J68" s="18">
         <v>46.7</v>
       </c>
-      <c r="K68" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="L68" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="M68" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="N68" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="O68" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="P68" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q68" s="46">
+      <c r="K68" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M68" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q68" s="15">
         <v>901</v>
       </c>
-      <c r="R68" s="46">
+      <c r="R68" s="15">
         <v>727</v>
       </c>
-      <c r="S68" s="43">
+      <c r="S68" s="3">
         <v>4.8966756513926297</v>
       </c>
-      <c r="T68" s="46">
+      <c r="T68" s="15">
         <v>6</v>
       </c>
-      <c r="U68" s="46">
+      <c r="U68" s="15">
         <v>218</v>
       </c>
-      <c r="V68" s="43">
+      <c r="V68" s="3">
         <v>44.4954128440367</v>
       </c>
-      <c r="W68" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="X68" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA68" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB68" s="49">
+      <c r="W68" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X68" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z68" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA68" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB68" s="10">
         <v>6699</v>
       </c>
-      <c r="AC68" s="51" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD68" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="AE68" s="38" t="s">
-        <v>108</v>
+      <c r="AC68" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD68" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE68" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="38">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F69" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="G69" s="38" t="s">
+      <c r="B69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H69" s="38" t="s">
+      <c r="I69" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="I69" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="J69" s="40">
+      <c r="J69" s="18">
         <v>48.3</v>
       </c>
-      <c r="K69" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="L69" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="M69" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="N69" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="O69" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="P69" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q69" s="46">
+      <c r="K69" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M69" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q69" s="15">
         <v>1118</v>
       </c>
-      <c r="R69" s="46">
+      <c r="R69" s="15">
         <v>1156</v>
       </c>
-      <c r="S69" s="43">
+      <c r="S69" s="3">
         <v>5.3009883198562404</v>
       </c>
-      <c r="T69" s="46">
+      <c r="T69" s="15">
         <v>13</v>
       </c>
-      <c r="U69" s="46">
+      <c r="U69" s="15">
         <v>236</v>
       </c>
-      <c r="V69" s="43">
+      <c r="V69" s="3">
         <v>52.966101694915203</v>
       </c>
-      <c r="W69" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="X69" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA69" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB69" s="49">
+      <c r="W69" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X69" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z69" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA69" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB69" s="10">
         <v>6953</v>
       </c>
-      <c r="AC69" s="51" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD69" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="AE69" s="38" t="s">
-        <v>107</v>
+      <c r="AC69" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD69" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE69" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -8626,49 +8593,49 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H70" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I70" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="J70" s="19">
         <v>61.1</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M70" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q70" s="16">
         <v>3</v>
@@ -8689,29 +8656,29 @@
         <v>100</v>
       </c>
       <c r="W70" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X70" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA70" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AB70" s="11">
         <v>1137</v>
       </c>
       <c r="AC70" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AD70" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AE70" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/04_XV-seq/XV-seq_overview.xlsx
+++ b/04_XV-seq/XV-seq_overview.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/scBPDCN-analysis/04_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216AD02B-887C-224F-A962-2142B02DA135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094F572-F307-A348-A861-159CB7BE686C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XV-seq_overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XV-seq_overview'!$A$1:$AE$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XV-seq_overview'!$A$1:$AF$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="492">
   <si>
     <t>Sample</t>
   </si>
@@ -1477,6 +1477,39 @@
   </si>
   <si>
     <t>Pt12Dx/MALAT1.5155/Patient12_MALAT1.5155_summTable.txt</t>
+  </si>
+  <si>
+    <t>NameGEO</t>
+  </si>
+  <si>
+    <t>Pt10Dx_CDKN2a.hom.deletion1_Xvseq</t>
+  </si>
+  <si>
+    <t>Pt10Dx_CDKN2a.hom.deletion2_Xvseq</t>
+  </si>
+  <si>
+    <t>Pt10Dx_CDKN2a.hom.deletion3_Xvseq</t>
+  </si>
+  <si>
+    <t>Pt10Dx_CDKN2a.hom.deletion4_Xvseq</t>
+  </si>
+  <si>
+    <t>Pt10Dx_CDKN2a.hom.deletion5_Xvseq</t>
+  </si>
+  <si>
+    <t>Pt10Rel_CDKN2a.hom.deletion1_XVseq</t>
+  </si>
+  <si>
+    <t>Pt10Rel_CDKN2a.hom.deletion2_XVseq</t>
+  </si>
+  <si>
+    <t>Pt10Rel_CDKN2a.hom.deletion3_XVseq</t>
+  </si>
+  <si>
+    <t>Pt10Rel_CDKN2a.hom.deletion4_XVseq</t>
+  </si>
+  <si>
+    <t>Pt10Rel_CDKN2a.hom.deletion5_XVseq</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1683,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1836,12 +1869,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -2022,7 +2049,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2067,9 +2094,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2086,14 +2110,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2154,7 +2174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2442,7 +2462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2450,13 +2470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE70"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AA22" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE53" sqref="AE53"/>
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2466,24 +2483,25 @@
     <col min="3" max="3" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="17.1640625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.5" style="21" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="14.1640625" style="2" customWidth="1"/>
-    <col min="17" max="22" width="13.83203125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="69.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="18" style="2" customWidth="1"/>
-    <col min="27" max="27" width="81.5" style="2" customWidth="1"/>
-    <col min="28" max="28" width="16" style="10" customWidth="1"/>
-    <col min="29" max="30" width="48.1640625" style="10" customWidth="1"/>
-    <col min="31" max="31" width="72.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="35.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="17.1640625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="11.5" style="21" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.1640625" style="2" customWidth="1"/>
+    <col min="18" max="23" width="13.83203125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="69.5" style="2" customWidth="1"/>
+    <col min="27" max="27" width="18" style="2" customWidth="1"/>
+    <col min="28" max="28" width="81.5" style="2" customWidth="1"/>
+    <col min="29" max="29" width="16" style="10" customWidth="1"/>
+    <col min="30" max="31" width="48.1640625" style="10" customWidth="1"/>
+    <col min="32" max="32" width="72.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>418</v>
       </c>
@@ -2500,85 +2518,88 @@
         <v>307</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AC1" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AD1" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AE1" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2594,81 +2615,85 @@
       <c r="E2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2" t="str">
+        <f t="shared" ref="F2:F31" si="0">CONCATENATE(B2,"_",SUBSTITUTE(SUBSTITUTE(E2,"*","")," ","."),"_XVseq")</f>
+        <v>Pt1Dx_ASXL1.L697fs_XVseq</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="J2" s="18">
+      <c r="K2" s="18">
         <v>13</v>
       </c>
-      <c r="K2" s="18">
+      <c r="L2" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O2" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R2" s="15">
         <v>27</v>
       </c>
-      <c r="R2" s="15">
+      <c r="S2" s="15">
         <v>15</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>0.242620299231702</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15">
+      <c r="U2" s="15"/>
+      <c r="V2" s="15">
         <v>6</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>50</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AC2" s="10">
         <v>2555</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AD2" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2684,86 +2709,90 @@
       <c r="E3" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt1Dx_FAM98C.G228S_XVseq</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="P3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R3" s="15">
         <v>2502</v>
       </c>
-      <c r="R3" s="15">
+      <c r="S3" s="15">
         <v>92</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
         <v>6.0250707642539396</v>
       </c>
-      <c r="T3" s="15">
+      <c r="U3" s="15">
         <v>25</v>
       </c>
-      <c r="U3" s="15">
+      <c r="V3" s="15">
         <v>149</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W3" s="3">
         <v>2.0134228187919399</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AC3" s="10">
         <v>324</v>
       </c>
-      <c r="AC3" s="24" t="s">
+      <c r="AD3" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2779,86 +2808,90 @@
       <c r="E4" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt1Dx_SETX.3pUTR_XVseq</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K4" s="18">
+      <c r="L4" s="18">
         <v>2.6</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="N4" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="P4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R4" s="15">
         <v>709</v>
       </c>
-      <c r="R4" s="15">
+      <c r="S4" s="15">
         <v>69</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
         <v>4.5693489688637197</v>
       </c>
-      <c r="T4" s="15">
+      <c r="U4" s="15">
         <v>33</v>
       </c>
-      <c r="U4" s="15">
+      <c r="V4" s="15">
         <v>113</v>
       </c>
-      <c r="V4" s="3">
+      <c r="W4" s="3">
         <v>11.504424778761001</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AC4" s="10">
         <v>120</v>
       </c>
-      <c r="AC4" s="24" t="s">
+      <c r="AD4" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AE4" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2874,86 +2907,90 @@
       <c r="E5" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt1Dx_SMARCC1.3pUTR_XVseq</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="K5" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="N5" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="P5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R5" s="15">
         <v>386</v>
       </c>
-      <c r="R5" s="15">
+      <c r="S5" s="15">
         <v>62</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
         <v>2.9518803073190401</v>
       </c>
-      <c r="T5" s="15">
+      <c r="U5" s="15">
         <v>27</v>
       </c>
-      <c r="U5" s="15">
+      <c r="V5" s="15">
         <v>73</v>
       </c>
-      <c r="V5" s="3">
+      <c r="W5" s="3">
         <v>13.698630136986299</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AC5" s="10">
         <v>225</v>
       </c>
-      <c r="AC5" s="24" t="s">
+      <c r="AD5" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AE5" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2969,84 +3006,88 @@
       <c r="E6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt1Dx_TET2.Q960_XVseq</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="J6" s="19">
+      <c r="K6" s="19">
         <v>6</v>
       </c>
-      <c r="K6" s="19">
+      <c r="L6" s="19">
         <v>2</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="N6" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="O6" s="6" t="s">
         <v>229</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="R6" s="16">
         <v>356</v>
       </c>
-      <c r="R6" s="16">
+      <c r="S6" s="16">
         <v>101</v>
       </c>
-      <c r="S6" s="6">
+      <c r="T6" s="6">
         <v>1.01091791346542</v>
       </c>
-      <c r="T6" s="16">
+      <c r="U6" s="16">
         <v>1</v>
       </c>
-      <c r="U6" s="16">
+      <c r="V6" s="16">
         <v>25</v>
       </c>
-      <c r="V6" s="6">
+      <c r="W6" s="6">
         <v>20</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="X6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="Y6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AB6" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AC6" s="11">
         <v>6415</v>
       </c>
-      <c r="AC6" s="25" t="s">
+      <c r="AD6" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AE6" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AF6" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3062,81 +3103,85 @@
       <c r="E7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt1Rem_ASXL1.L697fs_XVseq</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K7" s="18">
+      <c r="L7" s="18">
         <v>14.3</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="N7" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O7" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R7" s="15">
         <v>29</v>
       </c>
-      <c r="R7" s="15">
+      <c r="S7" s="15">
         <v>0</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <v>0.28122575640031</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15">
+      <c r="U7" s="15"/>
+      <c r="V7" s="15">
         <v>29</v>
       </c>
-      <c r="V7" s="3">
+      <c r="W7" s="3">
         <v>0</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC7" s="24" t="s">
+      <c r="AC7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD7" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="AD7" s="10" t="s">
+      <c r="AE7" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3152,86 +3197,90 @@
       <c r="E8" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt1Rem_FAM98C.G228S_XVseq</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="K8" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="L8" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="N8" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R8" s="15">
         <v>839</v>
       </c>
-      <c r="R8" s="15">
+      <c r="S8" s="15">
         <v>0</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6.5554693560899899</v>
       </c>
-      <c r="T8" s="15">
+      <c r="U8" s="15">
         <v>76</v>
       </c>
-      <c r="U8" s="15">
+      <c r="V8" s="15">
         <v>676</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z8" s="2" t="s">
+      <c r="Z8" s="4" t="s">
         <v>132</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB8" s="10" t="s">
+      <c r="AB8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC8" s="24" t="s">
+      <c r="AC8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD8" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="AD8" s="10" t="s">
+      <c r="AE8" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3247,86 +3296,90 @@
       <c r="E9" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt1Rem_SETX.3pUTR_XVseq</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="K9" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="L9" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="N9" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R9" s="15">
         <v>526</v>
       </c>
-      <c r="R9" s="15">
+      <c r="S9" s="15">
         <v>0</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4.4511249030256002</v>
       </c>
-      <c r="T9" s="15">
+      <c r="U9" s="15">
         <v>138</v>
       </c>
-      <c r="U9" s="15">
+      <c r="V9" s="15">
         <v>459</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" s="4" t="s">
         <v>132</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB9" s="10" t="s">
+      <c r="AB9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AC9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD9" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="AD9" s="10" t="s">
+      <c r="AE9" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AF9" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3342,86 +3395,90 @@
       <c r="E10" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt1Rem_SMARCC1.3pUTR_XVseq</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="K10" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="L10" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="N10" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R10" s="15">
         <v>297</v>
       </c>
-      <c r="R10" s="15">
+      <c r="S10" s="15">
         <v>0</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2.4825446082234199</v>
       </c>
-      <c r="T10" s="15">
+      <c r="U10" s="15">
         <v>105</v>
       </c>
-      <c r="U10" s="15">
+      <c r="V10" s="15">
         <v>256</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="4" t="s">
         <v>132</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC10" s="24" t="s">
+      <c r="AC10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD10" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="AD10" s="10" t="s">
+      <c r="AE10" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3437,84 +3494,88 @@
       <c r="E11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt1Rem_TET2.Q960_XVseq</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="K11" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="K11" s="19">
+      <c r="L11" s="19">
         <v>2.4</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="N11" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="O11" s="6" t="s">
         <v>229</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="R11" s="16">
         <v>119</v>
       </c>
-      <c r="R11" s="16">
+      <c r="S11" s="16">
         <v>14</v>
       </c>
-      <c r="S11" s="6">
+      <c r="T11" s="6">
         <v>1.0861132660977499</v>
       </c>
-      <c r="T11" s="16">
+      <c r="U11" s="16">
         <v>13</v>
       </c>
-      <c r="U11" s="16">
+      <c r="V11" s="16">
         <v>112</v>
       </c>
-      <c r="V11" s="6">
+      <c r="W11" s="6">
         <v>10.714285714285699</v>
       </c>
-      <c r="W11" s="6" t="s">
+      <c r="X11" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="Y11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="Z11" s="5"/>
       <c r="AA11" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AB11" s="11" t="s">
+      <c r="AB11" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AC11" s="25" t="s">
+      <c r="AC11" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD11" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="AD11" s="11" t="s">
+      <c r="AE11" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="AE11" s="5" t="s">
+      <c r="AF11" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3530,81 +3591,85 @@
       <c r="E12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt5Dx_TET2.N281fs_XVseq</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J12" s="18">
+      <c r="K12" s="18">
         <v>36.799999999999997</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="L12" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="N12" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R12" s="15">
         <v>1287</v>
       </c>
-      <c r="R12" s="15">
+      <c r="S12" s="15">
         <v>819</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4.2702050663449898</v>
       </c>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15">
+      <c r="U12" s="15"/>
+      <c r="V12" s="15">
         <v>177</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>42.937853107344601</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="AA12" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AB12" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AB12" s="10">
+      <c r="AC12" s="10">
         <v>8449</v>
       </c>
-      <c r="AC12" s="24" t="s">
+      <c r="AD12" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="AD12" s="10" t="s">
+      <c r="AE12" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AF12" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3620,81 +3685,85 @@
       <c r="E13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt5Dx_TET2.V1395fs_XVseq</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J13" s="18">
+      <c r="K13" s="18">
         <v>41.3</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="L13" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M13" s="34" t="s">
+      <c r="N13" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O13" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R13" s="15">
         <v>1288</v>
       </c>
-      <c r="R13" s="15">
+      <c r="S13" s="15">
         <v>1045</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <v>5.4764776839565696</v>
       </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15">
+      <c r="U13" s="15"/>
+      <c r="V13" s="15">
         <v>227</v>
       </c>
-      <c r="V13" s="3">
+      <c r="W13" s="3">
         <v>36.123348017621097</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="AA13" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AA13" s="2" t="s">
+      <c r="AB13" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AB13" s="10">
+      <c r="AC13" s="10">
         <v>5109</v>
       </c>
-      <c r="AC13" s="24" t="s">
+      <c r="AD13" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="AD13" s="10" t="s">
+      <c r="AE13" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AF13" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3710,84 +3779,88 @@
       <c r="E14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt5Dx_ZRSR2.Y175_XVseq</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="J14" s="19">
+      <c r="K14" s="19">
         <v>85.8</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="L14" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="M14" s="35" t="s">
+      <c r="N14" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="O14" s="6" t="s">
         <v>229</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="R14" s="16">
         <v>1780</v>
       </c>
-      <c r="R14" s="16">
+      <c r="S14" s="16">
         <v>348</v>
       </c>
-      <c r="S14" s="6">
+      <c r="T14" s="6">
         <v>5.9831121833534304</v>
       </c>
-      <c r="T14" s="16">
+      <c r="U14" s="16">
         <v>4</v>
       </c>
-      <c r="U14" s="16">
+      <c r="V14" s="16">
         <v>248</v>
       </c>
-      <c r="V14" s="6">
+      <c r="W14" s="6">
         <v>14.516129032258</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="X14" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="Y14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5" t="s">
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="AA14" s="5" t="s">
+      <c r="AB14" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="AB14" s="11">
+      <c r="AC14" s="11">
         <v>942</v>
       </c>
-      <c r="AC14" s="25" t="s">
+      <c r="AD14" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="AD14" s="11" t="s">
+      <c r="AE14" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="AE14" s="5" t="s">
+      <c r="AF14" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3803,84 +3876,88 @@
       <c r="E15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt9Dx_CUX1.L911fs_XVseq</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="J15" s="18">
+      <c r="K15" s="18">
         <v>87.9</v>
       </c>
-      <c r="K15" s="18">
+      <c r="L15" s="18">
         <v>78.099999999999994</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="N15" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R15" s="15">
         <v>27</v>
       </c>
-      <c r="R15" s="15">
+      <c r="S15" s="15">
         <v>99</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1.6329196603527101</v>
       </c>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15">
+      <c r="U15" s="15"/>
+      <c r="V15" s="15">
         <v>75</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="AA15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AA15" s="2" t="s">
+      <c r="AB15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AC15" s="10">
         <v>11002</v>
       </c>
-      <c r="AC15" s="24" t="s">
+      <c r="AD15" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="AD15" s="10" t="s">
+      <c r="AE15" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AF15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3896,84 +3973,88 @@
       <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt9Dx_TET2.E1437fs_XVseq</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J16" s="18">
+      <c r="K16" s="18">
         <v>44.8</v>
       </c>
-      <c r="K16" s="18">
+      <c r="L16" s="18">
         <v>43</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="N16" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O16" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R16" s="15">
         <v>348</v>
       </c>
-      <c r="R16" s="15">
+      <c r="S16" s="15">
         <v>219</v>
       </c>
-      <c r="S16" s="3">
+      <c r="T16" s="3">
         <v>9.8628347485303696</v>
       </c>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15">
+      <c r="U16" s="15"/>
+      <c r="V16" s="15">
         <v>453</v>
       </c>
-      <c r="V16" s="3">
+      <c r="W16" s="3">
         <v>40.397350993377401</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="AA16" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AB16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AB16" s="10">
+      <c r="AC16" s="10">
         <v>5002</v>
       </c>
-      <c r="AC16" s="24" t="s">
+      <c r="AD16" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="AD16" s="10" t="s">
+      <c r="AE16" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AF16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3989,86 +4070,90 @@
       <c r="E17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt9Dx_TET2.Q1547_XVseq</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J17" s="19">
+      <c r="K17" s="19">
         <v>35.5</v>
       </c>
-      <c r="K17" s="19">
+      <c r="L17" s="19">
         <v>50</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="M17" s="35" t="s">
+      <c r="N17" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="O17" s="6" t="s">
         <v>229</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="R17" s="16">
         <v>129</v>
       </c>
-      <c r="R17" s="16">
+      <c r="S17" s="16">
         <v>64</v>
       </c>
-      <c r="S17" s="6">
+      <c r="T17" s="6">
         <v>3.8319181362943602</v>
       </c>
-      <c r="T17" s="16">
+      <c r="U17" s="16">
         <v>10</v>
       </c>
-      <c r="U17" s="16">
+      <c r="V17" s="16">
         <v>176</v>
       </c>
-      <c r="V17" s="6">
+      <c r="W17" s="6">
         <v>32.954545454545404</v>
       </c>
-      <c r="W17" s="6" t="s">
+      <c r="X17" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="X17" s="6" t="s">
+      <c r="Y17" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Y17" s="5" t="s">
+      <c r="Z17" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="Z17" s="5" t="s">
+      <c r="AA17" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AA17" s="5" t="s">
+      <c r="AB17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AB17" s="11">
+      <c r="AC17" s="11">
         <v>4701</v>
       </c>
-      <c r="AC17" s="25" t="s">
+      <c r="AD17" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="AD17" s="11" t="s">
+      <c r="AE17" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="AE17" s="5" t="s">
+      <c r="AF17" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4084,86 +4169,90 @@
       <c r="E18" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_ACAP2.L97L_XVseq</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="K18" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="L18" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="M18" s="36" t="s">
+      <c r="N18" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="P18" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R18" s="15">
         <v>4497</v>
       </c>
-      <c r="R18" s="15">
+      <c r="S18" s="15">
         <v>16</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>27.646942410449199</v>
       </c>
-      <c r="T18" s="15">
+      <c r="U18" s="15">
         <v>553</v>
       </c>
-      <c r="U18" s="15">
+      <c r="V18" s="15">
         <v>2794</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>0.46528274874731501</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="Y18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="AA18" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AA18" s="2" t="s">
+      <c r="AB18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AB18" s="10">
+      <c r="AC18" s="10">
         <v>6681</v>
       </c>
-      <c r="AC18" s="24" t="s">
+      <c r="AD18" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD18" s="10" t="s">
+      <c r="AE18" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AF18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4179,84 +4268,88 @@
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_ASXL1.G642fs_XVseq</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="J19" s="18">
+      <c r="K19" s="18">
         <v>45</v>
       </c>
-      <c r="K19" s="18">
+      <c r="L19" s="18">
         <v>27.2</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M19" s="34" t="s">
+      <c r="N19" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O19" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R19" s="15">
         <v>52</v>
       </c>
-      <c r="R19" s="15">
+      <c r="S19" s="15">
         <v>15</v>
       </c>
-      <c r="S19" s="3">
+      <c r="T19" s="3">
         <v>0.41559469622006701</v>
       </c>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15">
+      <c r="U19" s="15"/>
+      <c r="V19" s="15">
         <v>42</v>
       </c>
-      <c r="V19" s="3">
+      <c r="W19" s="3">
         <v>21.428571428571399</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="AA19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AA19" s="2" t="s">
+      <c r="AB19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AC19" s="10">
         <v>2760</v>
       </c>
-      <c r="AC19" s="24" t="s">
+      <c r="AD19" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD19" s="10" t="s">
+      <c r="AE19" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AF19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4272,86 +4365,90 @@
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_CWF19L2.K221R_XVseq</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="K20" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="L20" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M20" s="34" t="s">
+      <c r="N20" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R20" s="15">
         <v>1744</v>
       </c>
-      <c r="R20" s="15">
+      <c r="S20" s="15">
         <v>2</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9.8357411438749196</v>
       </c>
-      <c r="T20" s="15">
+      <c r="U20" s="15">
         <v>129</v>
       </c>
-      <c r="U20" s="15">
+      <c r="V20" s="15">
         <v>994</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>0.20120724346076399</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Z20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z20" s="2" t="s">
+      <c r="AA20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA20" s="2" t="s">
+      <c r="AB20" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AB20" s="10">
+      <c r="AC20" s="10">
         <v>2622</v>
       </c>
-      <c r="AC20" s="24" t="s">
+      <c r="AD20" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD20" s="10" t="s">
+      <c r="AE20" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AF20" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4367,86 +4464,90 @@
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_DOLPP1.R227S_XVseq</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="K21" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="L21" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="N21" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R21" s="15">
         <v>33</v>
       </c>
-      <c r="R21" s="15">
+      <c r="S21" s="15">
         <v>0</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>0.24737779536908699</v>
       </c>
-      <c r="T21" s="15">
+      <c r="U21" s="15">
         <v>0</v>
       </c>
-      <c r="U21" s="15">
+      <c r="V21" s="15">
         <v>25</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>0</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Z21" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="Z21" s="2" t="s">
+      <c r="AA21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AA21" s="2" t="s">
+      <c r="AB21" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AB21" s="10">
+      <c r="AC21" s="10">
         <v>1515</v>
       </c>
-      <c r="AC21" s="24" t="s">
+      <c r="AD21" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD21" s="10" t="s">
+      <c r="AE21" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AF21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4462,86 +4563,90 @@
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_HNRNPUL1.F559F_XVseq</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="K22" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="L22" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M22" s="34" t="s">
+      <c r="N22" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R22" s="15">
         <v>1043</v>
       </c>
-      <c r="R22" s="15">
+      <c r="S22" s="15">
         <v>13</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6.1844448842271902</v>
       </c>
-      <c r="T22" s="15">
+      <c r="U22" s="15">
         <v>49</v>
       </c>
-      <c r="U22" s="15">
+      <c r="V22" s="15">
         <v>625</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1.1199999999999899</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Y22" s="2" t="s">
+      <c r="Z22" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="Z22" s="2" t="s">
+      <c r="AA22" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AA22" s="2" t="s">
+      <c r="AB22" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AB22" s="10">
+      <c r="AC22" s="10">
         <v>1454</v>
       </c>
-      <c r="AC22" s="24" t="s">
+      <c r="AD22" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AF22" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4557,86 +4662,90 @@
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_MAP4K5.P667S_XVseq</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="K23" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="L23" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M23" s="34" t="s">
+      <c r="N23" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O23" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R23" s="15">
         <v>167</v>
       </c>
-      <c r="R23" s="15">
+      <c r="S23" s="15">
         <v>1</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1.20720364140114</v>
       </c>
-      <c r="T23" s="15">
+      <c r="U23" s="15">
         <v>7</v>
       </c>
-      <c r="U23" s="15">
+      <c r="V23" s="15">
         <v>122</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>0.81967213114754101</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="Y23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Y23" s="2" t="s">
+      <c r="Z23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z23" s="2" t="s">
+      <c r="AA23" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AA23" s="2" t="s">
+      <c r="AB23" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AB23" s="10">
+      <c r="AC23" s="10">
         <v>2090</v>
       </c>
-      <c r="AC23" s="24" t="s">
+      <c r="AD23" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD23" s="10" t="s">
+      <c r="AE23" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AF23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4652,86 +4761,90 @@
       <c r="E24" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_PRKDC.D3353N_XVseq</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="K24" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K24" s="18">
+      <c r="L24" s="18">
         <v>10.4</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M24" s="34" t="s">
+      <c r="N24" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O24" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R24" s="15">
         <v>6866</v>
       </c>
-      <c r="R24" s="15">
+      <c r="S24" s="15">
         <v>377</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4.8288145656045902</v>
       </c>
-      <c r="T24" s="15">
+      <c r="U24" s="15">
         <v>30</v>
       </c>
-      <c r="U24" s="15">
+      <c r="V24" s="15">
         <v>488</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5.3278688524590097</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Y24" s="4" t="s">
+      <c r="Z24" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Z24" s="4" t="s">
+      <c r="AA24" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AA24" s="4" t="s">
+      <c r="AB24" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AB24" s="4">
+      <c r="AC24" s="4">
         <v>3296</v>
       </c>
-      <c r="AC24" s="24" t="s">
+      <c r="AD24" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD24" s="4" t="s">
+      <c r="AE24" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="AE24" s="2" t="s">
+      <c r="AF24" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4747,86 +4860,90 @@
       <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_RAB9A.3pUTR_XVseq</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="K25" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="L25" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M25" s="34" t="s">
+      <c r="N25" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O25" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R25" s="15">
         <v>26276</v>
       </c>
-      <c r="R25" s="15">
+      <c r="S25" s="15">
         <v>175</v>
       </c>
-      <c r="S25" s="3">
+      <c r="T25" s="3">
         <v>35.751038986740497</v>
       </c>
-      <c r="T25" s="15">
+      <c r="U25" s="15">
         <v>209</v>
       </c>
-      <c r="U25" s="15">
+      <c r="V25" s="15">
         <v>3613</v>
       </c>
-      <c r="V25" s="3">
+      <c r="W25" s="3">
         <v>0.38748962081372801</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X25" s="3" t="s">
+      <c r="Y25" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Y25" s="2" t="s">
+      <c r="Z25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z25" s="2" t="s">
+      <c r="AA25" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AA25" s="2" t="s">
+      <c r="AB25" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AB25" s="10">
+      <c r="AC25" s="10">
         <v>350</v>
       </c>
-      <c r="AC25" s="24" t="s">
+      <c r="AD25" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD25" s="10" t="s">
+      <c r="AE25" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="AE25" s="2" t="s">
+      <c r="AF25" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4842,86 +4959,90 @@
       <c r="E26" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_RPS24.I25T_XVseq</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="K26" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K26" s="18">
+      <c r="L26" s="18">
         <v>20.2</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M26" s="34" t="s">
+      <c r="N26" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R26" s="15">
         <v>97176</v>
       </c>
-      <c r="R26" s="15">
+      <c r="S26" s="15">
         <v>12561</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>98.990698594894099</v>
       </c>
-      <c r="T26" s="15">
+      <c r="U26" s="15">
         <v>5775</v>
       </c>
-      <c r="U26" s="15">
+      <c r="V26" s="15">
         <v>10004</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6.7772890843662497</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Y26" s="4" t="s">
+      <c r="Z26" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Z26" s="4" t="s">
+      <c r="AA26" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AA26" s="4" t="s">
+      <c r="AB26" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AB26" s="4">
+      <c r="AC26" s="4">
         <v>421</v>
       </c>
-      <c r="AC26" s="24" t="s">
+      <c r="AD26" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD26" s="4" t="s">
+      <c r="AE26" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="AE26" s="2" t="s">
+      <c r="AF26" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4937,86 +5058,90 @@
       <c r="E27" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_SMARCD1.L456F_XVseq</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="K27" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K27" s="18">
+      <c r="L27" s="18">
         <v>32.700000000000003</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M27" s="34" t="s">
+      <c r="N27" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R27" s="15">
         <v>616</v>
       </c>
-      <c r="R27" s="15">
+      <c r="S27" s="15">
         <v>181</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>0.77181872155155296</v>
       </c>
-      <c r="T27" s="15">
+      <c r="U27" s="15">
         <v>11</v>
       </c>
-      <c r="U27" s="15">
+      <c r="V27" s="15">
         <v>78</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>20.5128205128205</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X27" s="3" t="s">
+      <c r="Y27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Y27" s="4" t="s">
+      <c r="Z27" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="Z27" s="4" t="s">
+      <c r="AA27" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AA27" s="4" t="s">
+      <c r="AB27" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AB27" s="4">
+      <c r="AC27" s="4">
         <v>1824</v>
       </c>
-      <c r="AC27" s="24" t="s">
+      <c r="AD27" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD27" s="4" t="s">
+      <c r="AE27" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="AE27" s="2" t="s">
+      <c r="AF27" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5032,86 +5157,90 @@
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_TET2.H1380Y_XVseq</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J28" s="18">
+      <c r="K28" s="18">
         <v>6.9</v>
       </c>
-      <c r="K28" s="18">
+      <c r="L28" s="18">
         <v>9.6</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M28" s="34" t="s">
+      <c r="N28" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P28" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R28" s="15">
         <v>237</v>
       </c>
-      <c r="R28" s="15">
+      <c r="S28" s="15">
         <v>15</v>
       </c>
-      <c r="S28" s="3">
+      <c r="T28" s="3">
         <v>1.88007124480506</v>
       </c>
-      <c r="T28" s="15">
+      <c r="U28" s="15">
         <v>29</v>
       </c>
-      <c r="U28" s="15">
+      <c r="V28" s="15">
         <v>190</v>
       </c>
-      <c r="V28" s="3">
+      <c r="W28" s="3">
         <v>6.3157894736842097</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X28" s="3" t="s">
+      <c r="Y28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Y28" s="2" t="s">
+      <c r="Z28" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="Z28" s="2" t="s">
+      <c r="AA28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AA28" s="2" t="s">
+      <c r="AB28" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AB28" s="10">
+      <c r="AC28" s="10">
         <v>5189</v>
       </c>
-      <c r="AC28" s="24" t="s">
+      <c r="AD28" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD28" s="10" t="s">
+      <c r="AE28" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="AE28" s="2" t="s">
+      <c r="AF28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5127,86 +5256,90 @@
       <c r="E29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_TET2.Q1034_XVseq</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="J29" s="18">
+      <c r="K29" s="18">
         <v>31.4</v>
       </c>
-      <c r="K29" s="18">
+      <c r="L29" s="18">
         <v>11.7</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M29" s="34" t="s">
+      <c r="N29" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R29" s="15">
         <v>117</v>
       </c>
-      <c r="R29" s="15">
+      <c r="S29" s="15">
         <v>19</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1.0686720759944499</v>
       </c>
-      <c r="T29" s="15">
+      <c r="U29" s="15">
         <v>17</v>
       </c>
-      <c r="U29" s="15">
+      <c r="V29" s="15">
         <v>108</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>14.814814814814801</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Y29" s="2" t="s">
+      <c r="Z29" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="Z29" s="2" t="s">
+      <c r="AA29" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AA29" s="2" t="s">
+      <c r="AB29" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AB29" s="10">
+      <c r="AC29" s="10">
         <v>6215</v>
       </c>
-      <c r="AC29" s="24" t="s">
+      <c r="AD29" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD29" s="10" t="s">
+      <c r="AE29" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="AE29" s="2" t="s">
+      <c r="AF29" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5222,86 +5355,90 @@
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_TET2.R1216_XVseq</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="J30" s="18">
+      <c r="K30" s="18">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K30" s="18">
+      <c r="L30" s="18">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M30" s="34" t="s">
+      <c r="N30" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="N30" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O30" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R30" s="15">
         <v>143</v>
       </c>
-      <c r="R30" s="15">
+      <c r="S30" s="15">
         <v>3</v>
       </c>
-      <c r="S30" s="3">
+      <c r="T30" s="3">
         <v>1.1379378586978</v>
       </c>
-      <c r="T30" s="15">
+      <c r="U30" s="15">
         <v>5</v>
       </c>
-      <c r="U30" s="15">
+      <c r="V30" s="15">
         <v>115</v>
       </c>
-      <c r="V30" s="3">
+      <c r="W30" s="3">
         <v>2.60869565217391</v>
       </c>
-      <c r="W30" s="3" t="s">
+      <c r="X30" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X30" s="3" t="s">
+      <c r="Y30" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Y30" s="2" t="s">
+      <c r="Z30" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="Z30" s="2" t="s">
+      <c r="AA30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AA30" s="2" t="s">
+      <c r="AB30" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AB30" s="10">
+      <c r="AC30" s="10">
         <v>5667</v>
       </c>
-      <c r="AC30" s="24" t="s">
+      <c r="AD30" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD30" s="10" t="s">
+      <c r="AE30" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="AE30" s="2" t="s">
+      <c r="AF30" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5317,86 +5454,90 @@
       <c r="E31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Pt10Dx_TET2.S792_XVseq</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="J31" s="18">
+      <c r="K31" s="18">
         <v>29.5</v>
       </c>
-      <c r="K31" s="18">
+      <c r="L31" s="18">
         <v>20</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M31" s="34" t="s">
+      <c r="N31" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O31" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q31" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R31" s="15">
         <v>127</v>
       </c>
-      <c r="R31" s="15">
+      <c r="S31" s="15">
         <v>29</v>
       </c>
-      <c r="S31" s="3">
+      <c r="T31" s="3">
         <v>1.22699386503067</v>
       </c>
-      <c r="T31" s="15">
+      <c r="U31" s="15">
         <v>18</v>
       </c>
-      <c r="U31" s="15">
+      <c r="V31" s="15">
         <v>124</v>
       </c>
-      <c r="V31" s="3">
+      <c r="W31" s="3">
         <v>18.5483870967741</v>
       </c>
-      <c r="W31" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X31" s="3" t="s">
+      <c r="Y31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Y31" s="2" t="s">
+      <c r="Z31" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="Z31" s="2" t="s">
+      <c r="AA31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AA31" s="2" t="s">
+      <c r="AB31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AB31" s="10">
+      <c r="AC31" s="10">
         <v>6953</v>
       </c>
-      <c r="AC31" s="24" t="s">
+      <c r="AD31" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD31" s="10" t="s">
+      <c r="AE31" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="AE31" s="2" t="s">
+      <c r="AF31" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5413,74 +5554,77 @@
         <v>420</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="K32" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="L32" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M32" s="34" t="s">
+      <c r="N32" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q32" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R32" s="15">
         <v>3249</v>
       </c>
-      <c r="R32" s="15">
+      <c r="S32" s="15">
         <v>204</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>13.2000791608945</v>
       </c>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15">
+      <c r="U32" s="15"/>
+      <c r="V32" s="15">
         <v>1334</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1.0494752623688099</v>
       </c>
-      <c r="W32" s="3" t="s">
+      <c r="X32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X32" s="3" t="s">
+      <c r="Y32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Y32" s="2" t="s">
+      <c r="Z32" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Z32" s="2" t="s">
+      <c r="AA32" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AA32" s="2" t="s">
+      <c r="AB32" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AB32" s="10">
+      <c r="AC32" s="10">
         <v>1816</v>
       </c>
-      <c r="AC32" s="24" t="s">
+      <c r="AD32" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="AD32" s="24" t="s">
+      <c r="AE32" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="AE32" s="2" t="s">
+      <c r="AF32" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -5492,44 +5636,47 @@
         <v>17</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>483</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="20"/>
+      <c r="J33" s="8"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="9"/>
+      <c r="L33" s="20"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
-      <c r="Q33" s="17">
+      <c r="Q33" s="9"/>
+      <c r="R33" s="17">
         <v>3249</v>
       </c>
-      <c r="R33" s="17">
+      <c r="S33" s="17">
         <v>11</v>
       </c>
-      <c r="S33" s="9"/>
-      <c r="T33" s="17"/>
+      <c r="T33" s="9"/>
       <c r="U33" s="17"/>
-      <c r="V33" s="9"/>
+      <c r="V33" s="17"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
-      <c r="Y33" s="8"/>
+      <c r="Y33" s="9"/>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="26" t="s">
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="AD33" s="26" t="s">
+      <c r="AE33" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="AE33" s="8" t="s">
+      <c r="AF33" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -5541,44 +5688,47 @@
         <v>18</v>
       </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>484</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="20"/>
+      <c r="J34" s="8"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="9"/>
+      <c r="L34" s="20"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="17">
+      <c r="Q34" s="9"/>
+      <c r="R34" s="17">
         <v>3249</v>
       </c>
-      <c r="R34" s="17">
+      <c r="S34" s="17">
         <v>5</v>
       </c>
-      <c r="S34" s="9"/>
-      <c r="T34" s="17"/>
+      <c r="T34" s="9"/>
       <c r="U34" s="17"/>
-      <c r="V34" s="9"/>
+      <c r="V34" s="17"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
-      <c r="Y34" s="8"/>
+      <c r="Y34" s="9"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="26" t="s">
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="AD34" s="26" t="s">
+      <c r="AE34" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="AE34" s="8" t="s">
+      <c r="AF34" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -5590,93 +5740,99 @@
         <v>19</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>485</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="20"/>
+      <c r="J35" s="8"/>
       <c r="K35" s="20"/>
-      <c r="L35" s="9"/>
+      <c r="L35" s="20"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="17">
+      <c r="Q35" s="9"/>
+      <c r="R35" s="17">
         <v>3249</v>
       </c>
-      <c r="R35" s="17">
+      <c r="S35" s="17">
         <v>10</v>
       </c>
-      <c r="S35" s="9"/>
-      <c r="T35" s="17"/>
+      <c r="T35" s="9"/>
       <c r="U35" s="17"/>
-      <c r="V35" s="9"/>
+      <c r="V35" s="17"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
-      <c r="Y35" s="8"/>
+      <c r="Y35" s="9"/>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="26" t="s">
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="AD35" s="26" t="s">
+      <c r="AE35" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="AE35" s="8" t="s">
+      <c r="AF35" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="27">
+    <row r="36" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="30">
+      <c r="E36" s="26"/>
+      <c r="F36" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="29">
         <v>3249</v>
       </c>
-      <c r="R36" s="30">
+      <c r="S36" s="29">
         <v>6</v>
       </c>
-      <c r="S36" s="29"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="29"/>
       <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="32" t="s">
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="AD36" s="32" t="s">
+      <c r="AE36" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="AE36" s="27" t="s">
+      <c r="AF36" s="26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5692,65 +5848,66 @@
       <c r="E37" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="2" t="str">
+        <f t="shared" ref="F37:F70" si="1">CONCATENATE(B37,"_",SUBSTITUTE(SUBSTITUTE(E37,"*","")," ","."),"_XVseq")</f>
+        <v>Pt10Rel_ACAP2.L97L_XVseq</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="K37" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K37" s="18">
+      <c r="L37" s="18">
         <v>17.7</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="M37" s="36" t="s">
+      <c r="N37" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="O37" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="P37" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="Q37" s="15">
+      <c r="Q37" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R37" s="15">
         <v>2818</v>
       </c>
-      <c r="R37" s="15">
+      <c r="S37" s="15">
         <v>976</v>
       </c>
-      <c r="S37" s="3">
+      <c r="T37" s="3">
         <v>29.6345692184582</v>
       </c>
-      <c r="T37" s="15">
+      <c r="U37" s="15">
         <v>176</v>
       </c>
-      <c r="U37" s="15">
+      <c r="V37" s="15">
         <v>2222</v>
       </c>
-      <c r="V37" s="3">
+      <c r="W37" s="3">
         <v>34.608460846084597</v>
       </c>
-      <c r="W37" s="3" t="s">
+      <c r="X37" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X37" s="2" t="s">
+      <c r="Y37" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z37" s="2" t="s">
         <v>132</v>
@@ -5758,20 +5915,23 @@
       <c r="AA37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB37" s="10" t="s">
+      <c r="AB37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC37" s="24" t="s">
+      <c r="AC37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD37" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="AD37" s="2" t="s">
+      <c r="AE37" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="AE37" s="2" t="s">
+      <c r="AF37" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5787,63 +5947,64 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt10Rel_ASXL1.G642fs_XVseq</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="K38" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K38" s="18">
+      <c r="L38" s="18">
         <v>21.4</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M38" s="34" t="s">
+      <c r="N38" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O38" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="Q38" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R38" s="15">
         <v>68</v>
       </c>
-      <c r="R38" s="15">
+      <c r="S38" s="15">
         <v>47</v>
       </c>
-      <c r="S38" s="3">
+      <c r="T38" s="3">
         <v>0.89357161909842597</v>
       </c>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15">
+      <c r="U38" s="15"/>
+      <c r="V38" s="15">
         <v>67</v>
       </c>
-      <c r="V38" s="3">
+      <c r="W38" s="3">
         <v>41.791044776119399</v>
       </c>
-      <c r="W38" s="3" t="s">
+      <c r="X38" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X38" s="3" t="s">
+      <c r="Y38" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>132</v>
@@ -5851,20 +6012,23 @@
       <c r="AA38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB38" s="10" t="s">
+      <c r="AB38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC38" s="24" t="s">
+      <c r="AC38" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD38" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="AD38" s="2" t="s">
+      <c r="AE38" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AE38" s="2" t="s">
+      <c r="AF38" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5880,65 +6044,66 @@
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt10Rel_CWF19L2.K221R_XVseq</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="K39" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K39" s="18">
+      <c r="L39" s="18">
         <v>22.4</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M39" s="34" t="s">
+      <c r="N39" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O39" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q39" s="15">
+      <c r="Q39" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R39" s="15">
         <v>1286</v>
       </c>
-      <c r="R39" s="15">
+      <c r="S39" s="15">
         <v>410</v>
       </c>
-      <c r="S39" s="3">
+      <c r="T39" s="3">
         <v>10.282742064550501</v>
       </c>
-      <c r="T39" s="15">
+      <c r="U39" s="15">
         <v>37</v>
       </c>
-      <c r="U39" s="15">
+      <c r="V39" s="15">
         <v>771</v>
       </c>
-      <c r="V39" s="3">
+      <c r="W39" s="3">
         <v>29.831387808041502</v>
       </c>
-      <c r="W39" s="3" t="s">
+      <c r="X39" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X39" s="3" t="s">
+      <c r="Y39" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z39" s="2" t="s">
         <v>132</v>
@@ -5946,20 +6111,23 @@
       <c r="AA39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB39" s="10" t="s">
+      <c r="AB39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC39" s="24" t="s">
+      <c r="AC39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD39" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="AD39" s="2" t="s">
+      <c r="AE39" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AE39" s="2" t="s">
+      <c r="AF39" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5975,65 +6143,66 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt10Rel_DOLPP1.R227S_XVseq</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="K40" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K40" s="18">
+      <c r="L40" s="18">
         <v>22.4</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M40" s="34" t="s">
+      <c r="N40" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O40" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q40" s="15">
+      <c r="Q40" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R40" s="15">
         <v>16</v>
       </c>
-      <c r="R40" s="15">
+      <c r="S40" s="15">
         <v>6</v>
       </c>
-      <c r="S40" s="3">
+      <c r="T40" s="3">
         <v>0.25340090690850797</v>
       </c>
-      <c r="T40" s="15">
+      <c r="U40" s="15">
         <v>2</v>
       </c>
-      <c r="U40" s="15">
+      <c r="V40" s="15">
         <v>19</v>
       </c>
-      <c r="V40" s="3">
+      <c r="W40" s="3">
         <v>26.315789473684202</v>
       </c>
-      <c r="W40" s="3" t="s">
+      <c r="X40" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X40" s="3" t="s">
+      <c r="Y40" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z40" s="2" t="s">
         <v>132</v>
@@ -6041,20 +6210,23 @@
       <c r="AA40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB40" s="10" t="s">
+      <c r="AB40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC40" s="24" t="s">
+      <c r="AC40" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD40" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="AD40" s="2" t="s">
+      <c r="AE40" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="AE40" s="2" t="s">
+      <c r="AF40" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -6070,65 +6242,66 @@
       <c r="E41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt10Rel_HNRNPUL1.F559F_XVseq</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J41" s="18" t="s">
+      <c r="K41" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K41" s="18">
+      <c r="L41" s="18">
         <v>22.1</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M41" s="34" t="s">
+      <c r="N41" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O41" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q41" s="15">
+      <c r="Q41" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R41" s="15">
         <v>1512</v>
       </c>
-      <c r="R41" s="15">
+      <c r="S41" s="15">
         <v>744</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20.085356094958598</v>
       </c>
-      <c r="T41" s="15">
+      <c r="U41" s="15">
         <v>25</v>
       </c>
-      <c r="U41" s="15">
+      <c r="V41" s="15">
         <v>1506</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>40.106241699867198</v>
       </c>
-      <c r="W41" s="3" t="s">
+      <c r="X41" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X41" s="3" t="s">
+      <c r="Y41" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z41" s="2" t="s">
         <v>132</v>
@@ -6136,20 +6309,23 @@
       <c r="AA41" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB41" s="10" t="s">
+      <c r="AB41" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC41" s="24" t="s">
+      <c r="AC41" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD41" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="AD41" s="2" t="s">
+      <c r="AE41" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="AE41" s="2" t="s">
+      <c r="AF41" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -6165,65 +6341,66 @@
       <c r="E42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt10Rel_MAP4K5.P667S_XVseq</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="K42" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K42" s="18">
+      <c r="L42" s="18">
         <v>22.1</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M42" s="34" t="s">
+      <c r="N42" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O42" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q42" s="15">
+      <c r="Q42" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R42" s="15">
         <v>177</v>
       </c>
-      <c r="R42" s="15">
+      <c r="S42" s="15">
         <v>90</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2.8007468658308801</v>
       </c>
-      <c r="T42" s="15">
+      <c r="U42" s="15">
         <v>4</v>
       </c>
-      <c r="U42" s="15">
+      <c r="V42" s="15">
         <v>210</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>38.095238095238003</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="X42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="Y42" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z42" s="2" t="s">
         <v>132</v>
@@ -6231,20 +6408,23 @@
       <c r="AA42" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB42" s="10" t="s">
+      <c r="AB42" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC42" s="24" t="s">
+      <c r="AC42" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD42" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="AD42" s="2" t="s">
+      <c r="AE42" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AE42" s="2" t="s">
+      <c r="AF42" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -6260,65 +6440,66 @@
       <c r="E43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt10Rel_RAB9A.3pUTR_XVseq</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="K43" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K43" s="18">
+      <c r="L43" s="18">
         <v>45.5</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M43" s="34" t="s">
+      <c r="N43" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q43" s="15">
+      <c r="Q43" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R43" s="15">
         <v>2425</v>
       </c>
-      <c r="R43" s="15">
+      <c r="S43" s="15">
         <v>2565</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>37.623366230994897</v>
       </c>
-      <c r="T43" s="15">
+      <c r="U43" s="15">
         <v>128</v>
       </c>
-      <c r="U43" s="15">
+      <c r="V43" s="15">
         <v>2821</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>64.835164835164804</v>
       </c>
-      <c r="W43" s="3" t="s">
+      <c r="X43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X43" s="3" t="s">
+      <c r="Y43" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="Y43" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z43" s="2" t="s">
         <v>132</v>
@@ -6326,20 +6507,23 @@
       <c r="AA43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB43" s="10" t="s">
+      <c r="AB43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC43" s="24" t="s">
+      <c r="AC43" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD43" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="AD43" s="10" t="s">
+      <c r="AE43" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="AE43" s="2" t="s">
+      <c r="AF43" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -6355,65 +6539,66 @@
       <c r="E44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt10Rel_TET2.H1380Y_XVseq</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="K44" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K44" s="18" t="s">
+      <c r="L44" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M44" s="34" t="s">
+      <c r="N44" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O44" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q44" s="15">
+      <c r="Q44" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R44" s="15">
         <v>548</v>
       </c>
-      <c r="R44" s="15">
+      <c r="S44" s="15">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5.1347025873566201</v>
       </c>
-      <c r="T44" s="15">
+      <c r="U44" s="15">
         <v>42</v>
       </c>
-      <c r="U44" s="15">
+      <c r="V44" s="15">
         <v>385</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>0.77922077922077904</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="X44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X44" s="3" t="s">
+      <c r="Y44" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="Y44" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z44" s="2" t="s">
         <v>132</v>
@@ -6421,20 +6606,23 @@
       <c r="AA44" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB44" s="10" t="s">
+      <c r="AB44" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC44" s="24" t="s">
+      <c r="AC44" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD44" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="AD44" s="2" t="s">
+      <c r="AE44" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="AE44" s="2" t="s">
+      <c r="AF44" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -6450,65 +6638,66 @@
       <c r="E45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt10Rel_TET2.Q1034_XVseq</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="J45" s="18" t="s">
+      <c r="K45" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K45" s="18">
+      <c r="L45" s="18">
         <v>19.3</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M45" s="34" t="s">
+      <c r="N45" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q45" s="15">
+      <c r="Q45" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R45" s="15">
         <v>335</v>
       </c>
-      <c r="R45" s="15">
+      <c r="S45" s="15">
         <v>123</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3.3208855694851902</v>
       </c>
-      <c r="T45" s="15">
+      <c r="U45" s="15">
         <v>13</v>
       </c>
-      <c r="U45" s="15">
+      <c r="V45" s="15">
         <v>249</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32.931726907630498</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="X45" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X45" s="3" t="s">
+      <c r="Y45" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z45" s="2" t="s">
         <v>132</v>
@@ -6516,20 +6705,23 @@
       <c r="AA45" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB45" s="10" t="s">
+      <c r="AB45" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC45" s="24" t="s">
+      <c r="AC45" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD45" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="AD45" s="2" t="s">
+      <c r="AE45" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AE45" s="2" t="s">
+      <c r="AF45" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -6545,65 +6737,66 @@
       <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt10Rel_TET2.R1216_XVseq</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="K46" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K46" s="18" t="s">
+      <c r="L46" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M46" s="34" t="s">
+      <c r="N46" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q46" s="15">
+      <c r="Q46" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R46" s="15">
         <v>361</v>
       </c>
-      <c r="R46" s="15">
+      <c r="S46" s="15">
         <v>0</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3.0808215524139699</v>
       </c>
-      <c r="T46" s="15">
+      <c r="U46" s="15">
         <v>1</v>
       </c>
-      <c r="U46" s="15">
+      <c r="V46" s="15">
         <v>231</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>0</v>
       </c>
-      <c r="W46" s="3" t="s">
+      <c r="X46" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X46" s="3" t="s">
+      <c r="Y46" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z46" s="2" t="s">
         <v>132</v>
@@ -6611,20 +6804,23 @@
       <c r="AA46" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB46" s="10" t="s">
+      <c r="AB46" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC46" s="24" t="s">
+      <c r="AC46" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD46" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="AD46" s="2" t="s">
+      <c r="AE46" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AE46" s="2" t="s">
+      <c r="AF46" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -6640,65 +6836,66 @@
       <c r="E47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt10Rel_TET2.S792_XVseq</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="J47" s="18" t="s">
+      <c r="K47" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K47" s="18">
+      <c r="L47" s="18">
         <v>23.6</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M47" s="34" t="s">
+      <c r="N47" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q47" s="15">
+      <c r="Q47" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R47" s="15">
         <v>171</v>
       </c>
-      <c r="R47" s="15">
+      <c r="S47" s="15">
         <v>79</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2.6940517471325598</v>
       </c>
-      <c r="T47" s="15">
+      <c r="U47" s="15">
         <v>12</v>
       </c>
-      <c r="U47" s="15">
+      <c r="V47" s="15">
         <v>202</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>36.138613861386098</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="X47" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="Y47" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z47" s="2" t="s">
         <v>132</v>
@@ -6706,20 +6903,23 @@
       <c r="AA47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB47" s="10" t="s">
+      <c r="AB47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC47" s="24" t="s">
+      <c r="AC47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD47" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="AD47" s="10" t="s">
+      <c r="AE47" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="AE47" s="2" t="s">
+      <c r="AF47" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -6736,53 +6936,53 @@
         <v>420</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="K48" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K48" s="18" t="s">
+      <c r="L48" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M48" s="34" t="s">
+      <c r="N48" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q48" s="15">
+      <c r="Q48" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R48" s="15">
         <v>9093</v>
       </c>
-      <c r="R48" s="15">
+      <c r="S48" s="15">
         <v>21282</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28.540944251800401</v>
       </c>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15">
+      <c r="U48" s="15"/>
+      <c r="V48" s="15">
         <v>2140</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>79.906542056074699</v>
       </c>
-      <c r="W48" s="3" t="s">
+      <c r="X48" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X48" s="3" t="s">
+      <c r="Y48" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="Y48" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z48" s="2" t="s">
         <v>132</v>
@@ -6790,20 +6990,23 @@
       <c r="AA48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB48" s="10" t="s">
+      <c r="AB48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC48" s="24" t="s">
+      <c r="AC48" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD48" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="AD48" s="10" t="s">
+      <c r="AE48" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="AE48" s="2" t="s">
+      <c r="AF48" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -6815,44 +7018,47 @@
         <v>17</v>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>488</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="20"/>
+      <c r="J49" s="8"/>
       <c r="K49" s="20"/>
-      <c r="L49" s="9"/>
+      <c r="L49" s="20"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
-      <c r="Q49" s="17">
+      <c r="Q49" s="9"/>
+      <c r="R49" s="17">
         <v>9104</v>
       </c>
-      <c r="R49" s="17">
+      <c r="S49" s="17">
         <v>2075</v>
       </c>
-      <c r="S49" s="9"/>
-      <c r="T49" s="17"/>
+      <c r="T49" s="9"/>
       <c r="U49" s="17"/>
-      <c r="V49" s="9"/>
+      <c r="V49" s="17"/>
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
-      <c r="Y49" s="8"/>
+      <c r="Y49" s="9"/>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="26" t="s">
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="AD49" s="26" t="s">
+      <c r="AE49" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="AE49" s="8" t="s">
+      <c r="AF49" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -6864,44 +7070,47 @@
         <v>18</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>489</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="20"/>
+      <c r="J50" s="8"/>
       <c r="K50" s="20"/>
-      <c r="L50" s="9"/>
+      <c r="L50" s="20"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
-      <c r="Q50" s="17">
+      <c r="Q50" s="9"/>
+      <c r="R50" s="17">
         <v>9108</v>
       </c>
-      <c r="R50" s="17">
+      <c r="S50" s="17">
         <v>1867</v>
       </c>
-      <c r="S50" s="9"/>
-      <c r="T50" s="17"/>
+      <c r="T50" s="9"/>
       <c r="U50" s="17"/>
-      <c r="V50" s="9"/>
+      <c r="V50" s="17"/>
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
-      <c r="Y50" s="8"/>
+      <c r="Y50" s="9"/>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="26" t="s">
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="AD50" s="26" t="s">
+      <c r="AE50" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="AE50" s="8" t="s">
+      <c r="AF50" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -6913,93 +7122,99 @@
         <v>19</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
+      <c r="F51" s="8" t="s">
+        <v>490</v>
+      </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="20"/>
+      <c r="J51" s="8"/>
       <c r="K51" s="20"/>
-      <c r="L51" s="9"/>
+      <c r="L51" s="20"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
-      <c r="Q51" s="17">
+      <c r="Q51" s="9"/>
+      <c r="R51" s="17">
         <v>9123</v>
       </c>
-      <c r="R51" s="17">
+      <c r="S51" s="17">
         <v>1253</v>
       </c>
-      <c r="S51" s="9"/>
-      <c r="T51" s="17"/>
+      <c r="T51" s="9"/>
       <c r="U51" s="17"/>
-      <c r="V51" s="9"/>
+      <c r="V51" s="17"/>
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
-      <c r="Y51" s="8"/>
+      <c r="Y51" s="9"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="26" t="s">
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="AD51" s="26" t="s">
+      <c r="AE51" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="AE51" s="8" t="s">
+      <c r="AF51" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="27">
+    <row r="52" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="26">
         <v>51</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27" t="s">
+      <c r="C52" s="26"/>
+      <c r="D52" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="30">
+      <c r="E52" s="26"/>
+      <c r="F52" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="29">
         <v>9096</v>
       </c>
-      <c r="R52" s="30">
+      <c r="S52" s="29">
         <v>658</v>
       </c>
-      <c r="S52" s="29"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="29"/>
       <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="32" t="s">
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="26"/>
+      <c r="AA52" s="26"/>
+      <c r="AB52" s="26"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="AD52" s="32" t="s">
+      <c r="AE52" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="AE52" s="27" t="s">
+      <c r="AF52" s="26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -7015,86 +7230,90 @@
       <c r="E53" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt12Dx_MALAT1.n.G3541A_XVseq</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="J53" s="18" t="s">
+      <c r="K53" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K53" s="22" t="s">
+      <c r="L53" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M53" s="37" t="s">
+      <c r="N53" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="O53" s="14" t="s">
+      <c r="O53" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P53" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="P53" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q53" s="15">
+      <c r="Q53" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R53" s="15">
         <v>11</v>
       </c>
-      <c r="R53" s="15">
+      <c r="S53" s="15">
         <v>0</v>
       </c>
-      <c r="S53" s="3">
+      <c r="T53" s="3">
         <v>8.7438064704167803E-2</v>
       </c>
-      <c r="T53" s="15">
+      <c r="U53" s="15">
         <v>3511</v>
       </c>
-      <c r="U53" s="15">
+      <c r="V53" s="15">
         <v>6</v>
       </c>
-      <c r="V53" s="3">
+      <c r="W53" s="3">
         <v>0</v>
       </c>
-      <c r="W53" s="3" t="s">
+      <c r="X53" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X53" s="3" t="s">
+      <c r="Y53" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y53" s="4" t="s">
+      <c r="Z53" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="Z53" s="4" t="s">
+      <c r="AA53" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AA53" s="4" t="s">
+      <c r="AB53" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AB53" s="4" t="s">
+      <c r="AC53" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AC53" s="24" t="s">
+      <c r="AD53" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="AD53" s="4" t="s">
+      <c r="AE53" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="AE53" s="38" t="s">
+      <c r="AF53" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -7110,86 +7329,90 @@
       <c r="E54" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt12Dx_NFIC.3pUTR_XVseq</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="J54" s="18" t="s">
+      <c r="K54" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K54" s="22" t="s">
+      <c r="L54" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="M54" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M54" s="34" t="s">
+      <c r="N54" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q54" s="15">
+      <c r="Q54" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R54" s="15">
         <v>365</v>
       </c>
-      <c r="R54" s="15">
+      <c r="S54" s="15">
         <v>0</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2.7980180705333701</v>
       </c>
-      <c r="T54" s="15">
+      <c r="U54" s="15">
         <v>313</v>
       </c>
-      <c r="U54" s="15">
+      <c r="V54" s="15">
         <v>192</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>0</v>
       </c>
-      <c r="W54" s="3" t="s">
+      <c r="X54" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X54" s="3" t="s">
+      <c r="Y54" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y54" s="4" t="s">
+      <c r="Z54" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="Z54" s="4" t="s">
+      <c r="AA54" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AA54" s="4" t="s">
+      <c r="AB54" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AB54" s="4">
+      <c r="AC54" s="4">
         <v>2572</v>
       </c>
-      <c r="AC54" s="24" t="s">
+      <c r="AD54" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="AD54" s="4" t="s">
+      <c r="AE54" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="AE54" s="2" t="s">
+      <c r="AF54" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -7205,86 +7428,90 @@
       <c r="E55" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt12Dx_NOTCH1.3pUTR_XVseq</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J55" s="18" t="s">
+      <c r="K55" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K55" s="22" t="s">
+      <c r="L55" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M55" s="34" t="s">
+      <c r="N55" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="N55" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O55" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q55" s="15">
+      <c r="Q55" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R55" s="15">
         <v>172</v>
       </c>
-      <c r="R55" s="15">
+      <c r="S55" s="15">
         <v>18</v>
       </c>
-      <c r="S55" s="3">
+      <c r="T55" s="3">
         <v>1.50102011075488</v>
       </c>
-      <c r="T55" s="15">
+      <c r="U55" s="15">
         <v>22</v>
       </c>
-      <c r="U55" s="15">
+      <c r="V55" s="15">
         <v>103</v>
       </c>
-      <c r="V55" s="3">
+      <c r="W55" s="3">
         <v>11.6504854368932</v>
       </c>
-      <c r="W55" s="3" t="s">
+      <c r="X55" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X55" s="3" t="s">
+      <c r="Y55" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y55" s="4" t="s">
+      <c r="Z55" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="Z55" s="4" t="s">
+      <c r="AA55" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AA55" s="4" t="s">
+      <c r="AB55" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AB55" s="4">
+      <c r="AC55" s="4">
         <v>527</v>
       </c>
-      <c r="AC55" s="24" t="s">
+      <c r="AD55" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="AD55" s="4" t="s">
+      <c r="AE55" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="AE55" s="2" t="s">
+      <c r="AF55" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -7300,86 +7527,90 @@
       <c r="E56" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt12Dx_TET2.Q1537_XVseq</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="I56" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="J56" s="19">
+      <c r="K56" s="19">
         <v>93</v>
       </c>
-      <c r="K56" s="33" t="s">
+      <c r="L56" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="M56" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="M56" s="35" t="s">
+      <c r="N56" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="N56" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="O56" s="6" t="s">
         <v>229</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q56" s="16">
+      <c r="Q56" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="R56" s="16">
         <v>22</v>
       </c>
-      <c r="R56" s="16">
+      <c r="S56" s="16">
         <v>56</v>
       </c>
-      <c r="S56" s="6">
+      <c r="T56" s="6">
         <v>0.39347129116875501</v>
       </c>
-      <c r="T56" s="16">
+      <c r="U56" s="16">
         <v>16</v>
       </c>
-      <c r="U56" s="16">
+      <c r="V56" s="16">
         <v>27</v>
       </c>
-      <c r="V56" s="6">
+      <c r="W56" s="6">
         <v>55.5555555555555</v>
       </c>
-      <c r="W56" s="6" t="s">
+      <c r="X56" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="X56" s="6" t="s">
+      <c r="Y56" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Y56" s="7" t="s">
+      <c r="Z56" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="Z56" s="7" t="s">
+      <c r="AA56" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AA56" s="7" t="s">
+      <c r="AB56" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="AB56" s="7">
+      <c r="AC56" s="7">
         <v>4684</v>
       </c>
-      <c r="AC56" s="25" t="s">
+      <c r="AD56" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="AD56" s="7" t="s">
+      <c r="AE56" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="AE56" s="5" t="s">
+      <c r="AF56" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -7395,65 +7626,66 @@
       <c r="E57" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt12Rel_MALAT1.n.G3541A_XVseq</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="J57" s="18" t="s">
+      <c r="K57" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K57" s="22" t="s">
+      <c r="L57" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M57" s="34" t="s">
+      <c r="N57" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O57" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P57" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q57" s="15">
+      <c r="Q57" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R57" s="15">
         <v>673</v>
       </c>
-      <c r="R57" s="15">
+      <c r="S57" s="15">
         <v>124</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11.0253998118532</v>
       </c>
-      <c r="T57" s="15">
+      <c r="U57" s="15">
         <v>3876</v>
       </c>
-      <c r="U57" s="15">
+      <c r="V57" s="15">
         <v>586</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16.382252559726901</v>
       </c>
-      <c r="W57" s="3" t="s">
+      <c r="X57" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X57" s="3" t="s">
+      <c r="Y57" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z57" s="2" t="s">
         <v>132</v>
@@ -7461,20 +7693,23 @@
       <c r="AA57" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB57" s="10" t="s">
+      <c r="AB57" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC57" s="24" t="s">
+      <c r="AC57" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD57" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="AD57" s="10" t="s">
+      <c r="AE57" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="AE57" s="2" t="s">
+      <c r="AF57" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -7490,65 +7725,66 @@
       <c r="E58" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt12Rel_NFIC.3pUTR_XVseq</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="J58" s="18" t="s">
+      <c r="K58" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K58" s="22" t="s">
+      <c r="L58" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M58" s="34" t="s">
+      <c r="N58" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q58" s="15">
+      <c r="Q58" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R58" s="15">
         <v>3256</v>
       </c>
-      <c r="R58" s="15">
+      <c r="S58" s="15">
         <v>624</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8.4101599247412899</v>
       </c>
-      <c r="T58" s="15">
+      <c r="U58" s="15">
         <v>207</v>
       </c>
-      <c r="U58" s="15">
+      <c r="V58" s="15">
         <v>447</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13.8702460850111</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="X58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X58" s="3" t="s">
+      <c r="Y58" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="Y58" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z58" s="2" t="s">
         <v>132</v>
@@ -7556,20 +7792,23 @@
       <c r="AA58" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB58" s="10" t="s">
+      <c r="AB58" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC58" s="24" t="s">
+      <c r="AC58" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD58" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="AD58" s="10" t="s">
+      <c r="AE58" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="AE58" s="2" t="s">
+      <c r="AF58" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -7585,65 +7824,66 @@
       <c r="E59" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt12Rel_NOTCH1.3pUTR_XVseq</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J59" s="18" t="s">
+      <c r="K59" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K59" s="22" t="s">
+      <c r="L59" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="M59" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M59" s="34" t="s">
+      <c r="N59" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q59" s="15">
+      <c r="Q59" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R59" s="15">
         <v>3006</v>
       </c>
-      <c r="R59" s="15">
+      <c r="S59" s="15">
         <v>676</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8.5042333019755407</v>
       </c>
-      <c r="T59" s="15">
+      <c r="U59" s="15">
         <v>21</v>
       </c>
-      <c r="U59" s="15">
+      <c r="V59" s="15">
         <v>452</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>16.150442477876101</v>
       </c>
-      <c r="W59" s="3" t="s">
+      <c r="X59" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X59" s="3" t="s">
+      <c r="Y59" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="Y59" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="Z59" s="2" t="s">
         <v>132</v>
@@ -7651,20 +7891,23 @@
       <c r="AA59" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB59" s="10" t="s">
+      <c r="AB59" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AC59" s="24" t="s">
+      <c r="AC59" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD59" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="AD59" s="10" t="s">
+      <c r="AE59" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="AE59" s="2" t="s">
+      <c r="AF59" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -7680,84 +7923,88 @@
       <c r="E60" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt12Rel_TET2.Q1537_XVseq</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="H60" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="I60" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="J60" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="J60" s="19" t="s">
+      <c r="K60" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="K60" s="33" t="s">
+      <c r="L60" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="L60" s="6" t="s">
+      <c r="M60" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="M60" s="35" t="s">
+      <c r="N60" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="N60" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="O60" s="6" t="s">
         <v>229</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q60" s="16">
+      <c r="Q60" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="R60" s="16">
         <v>2439</v>
       </c>
-      <c r="R60" s="16">
+      <c r="S60" s="16">
         <v>551</v>
       </c>
-      <c r="S60" s="6">
+      <c r="T60" s="6">
         <v>22.822201317027201</v>
       </c>
-      <c r="T60" s="16">
+      <c r="U60" s="16">
         <v>17</v>
       </c>
-      <c r="U60" s="16">
+      <c r="V60" s="16">
         <v>1213</v>
       </c>
-      <c r="V60" s="6">
+      <c r="W60" s="6">
         <v>18.2192910140148</v>
       </c>
-      <c r="W60" s="6" t="s">
+      <c r="X60" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="X60" s="6" t="s">
+      <c r="Y60" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="Z60" s="5"/>
       <c r="AA60" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AB60" s="11" t="s">
+      <c r="AB60" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AC60" s="25" t="s">
+      <c r="AC60" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD60" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="AD60" s="11" t="s">
+      <c r="AE60" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="AE60" s="5" t="s">
+      <c r="AF60" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -7773,83 +8020,87 @@
       <c r="E61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt14Dx_ETV6.R369W_XVseq</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="J61" s="18">
+      <c r="K61" s="18">
         <v>2.7</v>
       </c>
-      <c r="K61" s="18" t="s">
+      <c r="L61" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="M61" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M61" s="34" t="s">
+      <c r="N61" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="N61" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O61" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P61" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q61" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="Q61" s="15">
+      <c r="R61" s="15">
         <v>4935</v>
       </c>
-      <c r="R61" s="15">
+      <c r="S61" s="15">
         <v>885</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5.9126661242202303</v>
       </c>
-      <c r="T61" s="15">
+      <c r="U61" s="15">
         <v>15</v>
       </c>
-      <c r="U61" s="15">
+      <c r="V61" s="15">
         <v>436</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13.7614678899082</v>
       </c>
-      <c r="W61" s="3" t="s">
+      <c r="X61" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X61" s="3" t="s">
+      <c r="Y61" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Z61" s="2" t="s">
+      <c r="AA61" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA61" s="10" t="s">
+      <c r="AB61" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AB61" s="10">
+      <c r="AC61" s="10">
         <v>870</v>
       </c>
-      <c r="AC61" s="24" t="s">
+      <c r="AD61" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="AD61" s="2" t="s">
+      <c r="AE61" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="AE61" s="2" t="s">
+      <c r="AF61" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -7865,86 +8116,90 @@
       <c r="E62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt14Dx_EZH2.P132L_XVseq</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="J62" s="18">
+      <c r="K62" s="18">
         <v>4.8</v>
       </c>
-      <c r="K62" s="18" t="s">
+      <c r="L62" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M62" s="34" t="s">
+      <c r="N62" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="O62" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q62" s="15">
+      <c r="Q62" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R62" s="15">
         <v>16239</v>
       </c>
-      <c r="R62" s="15">
+      <c r="S62" s="15">
         <v>565</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9.6555465147816602</v>
       </c>
-      <c r="T62" s="15">
+      <c r="U62" s="15">
         <v>159</v>
       </c>
-      <c r="U62" s="15">
+      <c r="V62" s="15">
         <v>712</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2.80898876404494</v>
       </c>
-      <c r="W62" s="3" t="s">
+      <c r="X62" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X62" s="3" t="s">
+      <c r="Y62" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Y62" s="2" t="s">
+      <c r="Z62" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Z62" s="2" t="s">
+      <c r="AA62" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AA62" s="10" t="s">
+      <c r="AB62" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AB62" s="10">
+      <c r="AC62" s="10">
         <v>2158</v>
       </c>
-      <c r="AC62" s="24" t="s">
+      <c r="AD62" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="AD62" s="2" t="s">
+      <c r="AE62" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AE62" s="2" t="s">
+      <c r="AF62" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -7960,84 +8215,88 @@
       <c r="E63" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt14Dx_IDH2.R140Q_XVseq</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="I63" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="J63" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="J63" s="19">
+      <c r="K63" s="19">
         <v>5.3</v>
       </c>
-      <c r="K63" s="19" t="s">
+      <c r="L63" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="L63" s="6" t="s">
+      <c r="M63" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="M63" s="35" t="s">
+      <c r="N63" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="N63" s="6" t="s">
+      <c r="O63" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="O63" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="P63" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q63" s="16">
+      <c r="Q63" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="R63" s="16">
         <v>41053</v>
       </c>
-      <c r="R63" s="16">
+      <c r="S63" s="16">
         <v>5054</v>
       </c>
-      <c r="S63" s="6">
+      <c r="T63" s="6">
         <v>40.791971792785397</v>
       </c>
-      <c r="T63" s="16">
+      <c r="U63" s="16">
         <v>42</v>
       </c>
-      <c r="U63" s="16">
+      <c r="V63" s="16">
         <v>3008</v>
       </c>
-      <c r="V63" s="6">
+      <c r="W63" s="6">
         <v>19.946808510638299</v>
       </c>
-      <c r="W63" s="6" t="s">
+      <c r="X63" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="X63" s="6" t="s">
+      <c r="Y63" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5" t="s">
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AA63" s="11" t="s">
+      <c r="AB63" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="AB63" s="11">
+      <c r="AC63" s="11">
         <v>1234</v>
       </c>
-      <c r="AC63" s="25" t="s">
+      <c r="AD63" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="AD63" s="5" t="s">
+      <c r="AE63" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="AE63" s="5" t="s">
+      <c r="AF63" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -8053,81 +8312,85 @@
       <c r="E64" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt15Dx_ASXL1.V807fs_XVseq</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="J64" s="18">
+      <c r="K64" s="18">
         <v>39.9</v>
       </c>
-      <c r="K64" s="18" t="s">
+      <c r="L64" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="M64" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M64" s="34" t="s">
+      <c r="N64" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="N64" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O64" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q64" s="15">
+      <c r="Q64" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R64" s="15">
         <v>323</v>
       </c>
-      <c r="R64" s="15">
+      <c r="S64" s="15">
         <v>258</v>
       </c>
-      <c r="S64" s="3">
+      <c r="T64" s="3">
         <v>1.44092219020172</v>
       </c>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15">
+      <c r="U64" s="15"/>
+      <c r="V64" s="15">
         <v>50</v>
       </c>
-      <c r="V64" s="3">
+      <c r="W64" s="3">
         <v>54</v>
       </c>
-      <c r="W64" s="3" t="s">
+      <c r="X64" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X64" s="3" t="s">
+      <c r="Y64" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Z64" s="10" t="s">
+      <c r="AA64" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AA64" s="10" t="s">
+      <c r="AB64" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AB64" s="10">
+      <c r="AC64" s="10">
         <v>2249</v>
       </c>
-      <c r="AC64" s="24" t="s">
+      <c r="AD64" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="AD64" s="10" t="s">
+      <c r="AE64" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="AE64" s="2" t="s">
+      <c r="AF64" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -8143,83 +8406,87 @@
       <c r="E65" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt15Dx_TET2.R1516_XVseq</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="J65" s="18">
+      <c r="K65" s="18">
         <v>82.7</v>
       </c>
-      <c r="K65" s="18" t="s">
+      <c r="L65" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="M65" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M65" s="34" t="s">
+      <c r="N65" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="N65" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O65" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q65" s="15">
+      <c r="Q65" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R65" s="15">
         <v>94</v>
       </c>
-      <c r="R65" s="15">
+      <c r="S65" s="15">
         <v>1952</v>
       </c>
-      <c r="S65" s="3">
+      <c r="T65" s="3">
         <v>4.5533141210374604</v>
       </c>
-      <c r="T65" s="15">
+      <c r="U65" s="15">
         <v>17</v>
       </c>
-      <c r="U65" s="15">
+      <c r="V65" s="15">
         <v>158</v>
       </c>
-      <c r="V65" s="3">
+      <c r="W65" s="3">
         <v>93.670886075949298</v>
       </c>
-      <c r="W65" s="3" t="s">
+      <c r="X65" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X65" s="3" t="s">
+      <c r="Y65" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Z65" s="10" t="s">
+      <c r="AA65" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AA65" s="10" t="s">
+      <c r="AB65" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AB65" s="10">
+      <c r="AC65" s="10">
         <v>4785</v>
       </c>
-      <c r="AC65" s="24" t="s">
+      <c r="AD65" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="AD65" s="2" t="s">
+      <c r="AE65" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="AE65" s="2" t="s">
+      <c r="AF65" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -8235,84 +8502,88 @@
       <c r="E66" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt15Dx_U2AF1.S34F_XVseq</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="I66" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="J66" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="J66" s="19">
+      <c r="K66" s="19">
         <v>43.4</v>
       </c>
-      <c r="K66" s="19" t="s">
+      <c r="L66" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="L66" s="6" t="s">
+      <c r="M66" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="M66" s="35" t="s">
+      <c r="N66" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="N66" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="O66" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="P66" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="P66" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q66" s="16">
+      <c r="Q66" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="R66" s="16">
         <v>77704</v>
       </c>
-      <c r="R66" s="16">
+      <c r="S66" s="16">
         <v>66301</v>
       </c>
-      <c r="S66" s="6">
+      <c r="T66" s="6">
         <v>83.775216138328503</v>
       </c>
-      <c r="T66" s="16">
+      <c r="U66" s="16">
         <v>76</v>
       </c>
-      <c r="U66" s="16">
+      <c r="V66" s="16">
         <v>2907</v>
       </c>
-      <c r="V66" s="6">
+      <c r="W66" s="6">
         <v>72.755417956656302</v>
       </c>
-      <c r="W66" s="6" t="s">
+      <c r="X66" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="X66" s="6" t="s">
+      <c r="Y66" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="11" t="s">
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="AA66" s="11" t="s">
+      <c r="AB66" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="AB66" s="11">
+      <c r="AC66" s="11">
         <v>805</v>
       </c>
-      <c r="AC66" s="25" t="s">
+      <c r="AD66" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="AD66" s="5" t="s">
+      <c r="AE66" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="AE66" s="5" t="s">
+      <c r="AF66" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -8328,83 +8599,87 @@
       <c r="E67" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt16Dx_ASXL1.R693_XVseq</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="J67" s="18">
+      <c r="K67" s="18">
         <v>40.6</v>
       </c>
-      <c r="K67" s="18" t="s">
+      <c r="L67" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="M67" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M67" s="34" t="s">
+      <c r="N67" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="N67" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O67" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q67" s="15">
+      <c r="Q67" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R67" s="15">
         <v>248</v>
       </c>
-      <c r="R67" s="15">
+      <c r="S67" s="15">
         <v>441</v>
       </c>
-      <c r="S67" s="3">
+      <c r="T67" s="3">
         <v>1.57232704402515</v>
       </c>
-      <c r="T67" s="15">
+      <c r="U67" s="15">
         <v>2</v>
       </c>
-      <c r="U67" s="15">
+      <c r="V67" s="15">
         <v>70</v>
       </c>
-      <c r="V67" s="3">
+      <c r="W67" s="3">
         <v>67.142857142857096</v>
       </c>
-      <c r="W67" s="3" t="s">
+      <c r="X67" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X67" s="3" t="s">
+      <c r="Y67" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Z67" s="2" t="s">
+      <c r="AA67" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AA67" s="10" t="s">
+      <c r="AB67" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="AB67" s="10">
+      <c r="AC67" s="10">
         <v>2601</v>
       </c>
-      <c r="AC67" s="24" t="s">
+      <c r="AD67" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="AD67" s="2" t="s">
+      <c r="AE67" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AE67" s="2" t="s">
+      <c r="AF67" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -8420,83 +8695,87 @@
       <c r="E68" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt16Dx_TET2.Q876_XVseq</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="J68" s="18">
+      <c r="K68" s="18">
         <v>46.7</v>
       </c>
-      <c r="K68" s="18" t="s">
+      <c r="L68" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="M68" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M68" s="34" t="s">
+      <c r="N68" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="N68" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O68" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q68" s="15">
+      <c r="Q68" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R68" s="15">
         <v>901</v>
       </c>
-      <c r="R68" s="15">
+      <c r="S68" s="15">
         <v>727</v>
       </c>
-      <c r="S68" s="3">
+      <c r="T68" s="3">
         <v>4.8966756513926297</v>
       </c>
-      <c r="T68" s="15">
+      <c r="U68" s="15">
         <v>6</v>
       </c>
-      <c r="U68" s="15">
+      <c r="V68" s="15">
         <v>218</v>
       </c>
-      <c r="V68" s="3">
+      <c r="W68" s="3">
         <v>44.4954128440367</v>
       </c>
-      <c r="W68" s="3" t="s">
+      <c r="X68" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X68" s="3" t="s">
+      <c r="Y68" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Z68" s="2" t="s">
+      <c r="AA68" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AA68" s="10" t="s">
+      <c r="AB68" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AB68" s="10">
+      <c r="AC68" s="10">
         <v>6699</v>
       </c>
-      <c r="AC68" s="24" t="s">
+      <c r="AD68" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="AD68" s="2" t="s">
+      <c r="AE68" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="AE68" s="2" t="s">
+      <c r="AF68" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -8512,83 +8791,87 @@
       <c r="E69" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt16Dx_TET2.S794_XVseq</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="J69" s="18">
+      <c r="K69" s="18">
         <v>48.3</v>
       </c>
-      <c r="K69" s="18" t="s">
+      <c r="L69" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="M69" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M69" s="34" t="s">
+      <c r="N69" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="N69" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="O69" s="3" t="s">
         <v>229</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q69" s="15">
+      <c r="Q69" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="R69" s="15">
         <v>1118</v>
       </c>
-      <c r="R69" s="15">
+      <c r="S69" s="15">
         <v>1156</v>
       </c>
-      <c r="S69" s="3">
+      <c r="T69" s="3">
         <v>5.3009883198562404</v>
       </c>
-      <c r="T69" s="15">
+      <c r="U69" s="15">
         <v>13</v>
       </c>
-      <c r="U69" s="15">
+      <c r="V69" s="15">
         <v>236</v>
       </c>
-      <c r="V69" s="3">
+      <c r="W69" s="3">
         <v>52.966101694915203</v>
       </c>
-      <c r="W69" s="3" t="s">
+      <c r="X69" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X69" s="3" t="s">
+      <c r="Y69" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Z69" s="2" t="s">
+      <c r="AA69" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AA69" s="10" t="s">
+      <c r="AB69" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="AB69" s="10">
+      <c r="AC69" s="10">
         <v>6953</v>
       </c>
-      <c r="AC69" s="24" t="s">
+      <c r="AD69" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="AD69" s="2" t="s">
+      <c r="AE69" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="AE69" s="2" t="s">
+      <c r="AF69" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -8604,86 +8887,90 @@
       <c r="E70" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Pt16Dx_ZRSR2.R126_XVseq</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="H70" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="I70" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="J70" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="J70" s="19">
+      <c r="K70" s="19">
         <v>61.1</v>
       </c>
-      <c r="K70" s="19" t="s">
+      <c r="L70" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="L70" s="6" t="s">
+      <c r="M70" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="M70" s="35" t="s">
+      <c r="N70" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="N70" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="O70" s="6" t="s">
         <v>229</v>
       </c>
       <c r="P70" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q70" s="16">
+      <c r="Q70" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="R70" s="16">
         <v>3</v>
       </c>
-      <c r="R70" s="16">
+      <c r="S70" s="16">
         <v>52</v>
       </c>
-      <c r="S70" s="6">
+      <c r="T70" s="6">
         <v>0.494159928122192</v>
       </c>
-      <c r="T70" s="16">
+      <c r="U70" s="16">
         <v>3</v>
       </c>
-      <c r="U70" s="16">
+      <c r="V70" s="16">
         <v>22</v>
       </c>
-      <c r="V70" s="6">
+      <c r="W70" s="6">
         <v>100</v>
       </c>
-      <c r="W70" s="6" t="s">
+      <c r="X70" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="X70" s="6" t="s">
+      <c r="Y70" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5" t="s">
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AA70" s="11" t="s">
+      <c r="AB70" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="AB70" s="11">
+      <c r="AC70" s="11">
         <v>1137</v>
       </c>
-      <c r="AC70" s="25" t="s">
+      <c r="AD70" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="AD70" s="5" t="s">
+      <c r="AE70" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="AE70" s="5" t="s">
+      <c r="AF70" s="5" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE70">
+  <autoFilter ref="A1:AF1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF70">
       <sortCondition ref="A1:A70"/>
     </sortState>
   </autoFilter>

--- a/04_XV-seq/XV-seq_overview.xlsx
+++ b/04_XV-seq/XV-seq_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vangalen/Dropbox (Partners HealthCare)/Projects/Single-cell_BPDCN/AnalysisPeter/scBPDCN-analysis/04_XV-seq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094F572-F307-A348-A861-159CB7BE686C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8342C4DF-37D0-1040-825C-57779009290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="493">
   <si>
     <t>Sample</t>
   </si>
@@ -1510,6 +1510,9 @@
   </si>
   <si>
     <t>Pt10Rel_CDKN2a.hom.deletion5_XVseq</t>
+  </si>
+  <si>
+    <t>Classified as progression mutation based on the presence in malignant BPDCN cells.</t>
   </si>
 </sst>
 </file>
@@ -2473,7 +2476,7 @@
   <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+      <selection activeCell="Z81" sqref="Z81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2492,7 +2495,7 @@
     <col min="18" max="23" width="13.83203125" style="2" customWidth="1"/>
     <col min="24" max="24" width="13.33203125" style="2" customWidth="1"/>
     <col min="25" max="25" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="69.5" style="2" customWidth="1"/>
+    <col min="26" max="26" width="80.1640625" style="2" customWidth="1"/>
     <col min="27" max="27" width="18" style="2" customWidth="1"/>
     <col min="28" max="28" width="81.5" style="2" customWidth="1"/>
     <col min="29" max="29" width="16" style="10" customWidth="1"/>
@@ -8081,6 +8084,9 @@
       <c r="Y61" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="Z61" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="AA61" s="2" t="s">
         <v>212</v>
       </c>
@@ -8276,7 +8282,9 @@
       <c r="Y63" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Z63" s="5"/>
+      <c r="Z63" s="5" t="s">
+        <v>492</v>
+      </c>
       <c r="AA63" s="5" t="s">
         <v>211</v>
       </c>
